--- a/FAST_models/WindPACT/excel_proc/turbines/3.0A02V02_proc.xlsx
+++ b/FAST_models/WindPACT/excel_proc/turbines/3.0A02V02_proc.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="105" yWindow="0" windowWidth="7620" windowHeight="7575" activeTab="1"/>
+    <workbookView xWindow="105" yWindow="0" windowWidth="7620" windowHeight="7575"/>
   </bookViews>
   <sheets>
     <sheet name="Main Page" sheetId="5" r:id="rId1"/>
@@ -3348,51 +3348,6 @@
     <xf numFmtId="0" fontId="20" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3432,6 +3387,51 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="19" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4015,11 +4015,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="82490496"/>
-        <c:axId val="83745792"/>
+        <c:axId val="119994240"/>
+        <c:axId val="123281408"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="82490496"/>
+        <c:axId val="119994240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -4104,12 +4104,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="83745792"/>
+        <c:crossAx val="123281408"/>
         <c:crossesAt val="-10"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="83745792"/>
+        <c:axId val="123281408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4193,7 +4193,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="82490496"/>
+        <c:crossAx val="119994240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5204,8 +5204,8 @@
   </sheetPr>
   <dimension ref="A1:U142"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E117" sqref="E117"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -5230,14 +5230,14 @@
       <c r="B1" s="341" t="s">
         <v>403</v>
       </c>
-      <c r="C1" s="348" t="s">
+      <c r="C1" s="368" t="s">
         <v>389</v>
       </c>
-      <c r="D1" s="349"/>
-      <c r="E1" s="349"/>
-      <c r="F1" s="349"/>
-      <c r="G1" s="349"/>
-      <c r="H1" s="350"/>
+      <c r="D1" s="369"/>
+      <c r="E1" s="369"/>
+      <c r="F1" s="369"/>
+      <c r="G1" s="369"/>
+      <c r="H1" s="370"/>
     </row>
     <row r="2" spans="1:8" ht="16.899999999999999" customHeight="1" thickBot="1">
       <c r="A2" s="60" t="s">
@@ -5253,17 +5253,17 @@
       <c r="A3" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="342" t="s">
+      <c r="B3" s="362" t="s">
         <v>120</v>
       </c>
-      <c r="C3" s="343"/>
-      <c r="D3" s="344"/>
+      <c r="C3" s="363"/>
+      <c r="D3" s="364"/>
       <c r="E3" s="35"/>
-      <c r="F3" s="345" t="s">
+      <c r="F3" s="365" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="346"/>
-      <c r="H3" s="347"/>
+      <c r="G3" s="366"/>
+      <c r="H3" s="367"/>
     </row>
     <row r="4" spans="1:8" ht="12" thickBot="1">
       <c r="A4" s="20" t="s">
@@ -5471,8 +5471,8 @@
         <v>43</v>
       </c>
       <c r="B14" s="269">
-        <f>PI()*(B58^4-B59^4)/2/(GECdrivetrain!C7)*GECtwrdata!F7</f>
-        <v>16630432574.834312</v>
+        <f>PI()*(B58^4-B59^4)/32/(GECdrivetrain!C7)*GECtwrdata!F7</f>
+        <v>1039402035.9271445</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="22.5">
@@ -5526,11 +5526,11 @@
       <c r="C18" s="334">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D18" s="351" t="s">
+      <c r="D18" s="371" t="s">
         <v>376</v>
       </c>
-      <c r="E18" s="350"/>
-      <c r="F18" s="350"/>
+      <c r="E18" s="370"/>
+      <c r="F18" s="370"/>
     </row>
     <row r="19" spans="1:21" ht="25.5" customHeight="1">
       <c r="A19" s="270" t="s">
@@ -5542,11 +5542,11 @@
       <c r="C19" s="334">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="D19" s="351" t="s">
+      <c r="D19" s="371" t="s">
         <v>375</v>
       </c>
-      <c r="E19" s="350"/>
-      <c r="F19" s="350"/>
+      <c r="E19" s="370"/>
+      <c r="F19" s="370"/>
       <c r="I19" s="35" t="s">
         <v>69</v>
       </c>
@@ -6693,7 +6693,7 @@
       <c r="D115" s="307" t="s">
         <v>380</v>
       </c>
-      <c r="E115" s="375">
+      <c r="E115" s="358">
         <v>0.25</v>
       </c>
       <c r="F115" s="306">
@@ -6734,7 +6734,7 @@
       <c r="D116" s="313" t="s">
         <v>380</v>
       </c>
-      <c r="E116" s="375">
+      <c r="E116" s="358">
         <v>0.25</v>
       </c>
       <c r="F116" s="312">
@@ -7037,66 +7037,66 @@
       </c>
     </row>
     <row r="134" spans="1:4" ht="12">
-      <c r="A134" s="359" t="s">
+      <c r="A134" s="342" t="s">
         <v>404</v>
       </c>
-      <c r="B134" s="360" t="s">
+      <c r="B134" s="343" t="s">
         <v>405</v>
       </c>
-      <c r="C134" s="361"/>
+      <c r="C134" s="344"/>
     </row>
     <row r="135" spans="1:4">
-      <c r="A135" s="362">
+      <c r="A135" s="345">
         <v>1</v>
       </c>
-      <c r="B135" s="363"/>
-      <c r="C135" s="364" t="s">
+      <c r="B135" s="346"/>
+      <c r="C135" s="347" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="136" spans="1:4">
-      <c r="A136" s="362">
+      <c r="A136" s="345">
         <v>2</v>
       </c>
-      <c r="B136" s="365"/>
-      <c r="C136" s="366" t="s">
+      <c r="B136" s="348"/>
+      <c r="C136" s="349" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="137" spans="1:4">
-      <c r="A137" s="362">
+      <c r="A137" s="345">
         <v>3</v>
       </c>
-      <c r="B137" s="365"/>
-      <c r="C137" s="366" t="s">
+      <c r="B137" s="348"/>
+      <c r="C137" s="349" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="138" spans="1:4">
-      <c r="A138" s="367">
+      <c r="A138" s="350">
         <v>4</v>
       </c>
-      <c r="B138" s="368"/>
-      <c r="C138" s="369" t="s">
+      <c r="B138" s="351"/>
+      <c r="C138" s="352" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="139" spans="1:4" ht="12" thickBot="1"/>
     <row r="140" spans="1:4" ht="12" thickBot="1">
-      <c r="A140" s="355" t="s">
+      <c r="A140" s="359" t="s">
         <v>407</v>
       </c>
-      <c r="B140" s="356"/>
-      <c r="C140" s="357"/>
+      <c r="B140" s="360"/>
+      <c r="C140" s="361"/>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="93" t="s">
         <v>35</v>
       </c>
-      <c r="B141" s="370" t="s">
+      <c r="B141" s="353" t="s">
         <v>36</v>
       </c>
-      <c r="C141" s="371" t="s">
+      <c r="C141" s="354" t="s">
         <v>37</v>
       </c>
     </row>
@@ -7104,10 +7104,10 @@
       <c r="A142" s="266">
         <v>0.03</v>
       </c>
-      <c r="B142" s="372">
+      <c r="B142" s="355">
         <v>0.03</v>
       </c>
-      <c r="C142" s="373">
+      <c r="C142" s="356">
         <v>0.03</v>
       </c>
     </row>
@@ -7133,7 +7133,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
@@ -7193,295 +7193,295 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="12.75">
-      <c r="A5" s="374" t="str">
+      <c r="A5" s="357" t="str">
         <f>'Main Page'!A114</f>
         <v>Station</v>
       </c>
-      <c r="B5" s="374" t="str">
+      <c r="B5" s="357" t="str">
         <f>'Main Page'!H113</f>
         <v>Unit Weight</v>
       </c>
-      <c r="C5" s="374" t="str">
+      <c r="C5" s="357" t="str">
         <f>'Main Page'!B125</f>
         <v>Twist</v>
       </c>
-      <c r="D5" s="374" t="str">
+      <c r="D5" s="357" t="str">
         <f>'Main Page'!L113</f>
         <v>GJ</v>
       </c>
-      <c r="E5" s="374" t="str">
+      <c r="E5" s="357" t="str">
         <f>'Main Page'!K113</f>
         <v>EA</v>
       </c>
-      <c r="F5" s="374" t="str">
+      <c r="F5" s="357" t="str">
         <f>'Main Page'!J113</f>
         <v>EIEdge</v>
       </c>
-      <c r="G5" s="374" t="str">
+      <c r="G5" s="357" t="str">
         <f>'Main Page'!I113</f>
         <v>EIFlap</v>
       </c>
-      <c r="H5" s="374" t="str">
+      <c r="H5" s="357" t="str">
         <f>'Main Page'!B113</f>
         <v>Chord</v>
       </c>
-      <c r="I5" s="374" t="str">
+      <c r="I5" s="357" t="str">
         <f>'Main Page'!E113</f>
         <v>Gen. Axis Loc.</v>
       </c>
-      <c r="J5" s="374" t="str">
+      <c r="J5" s="357" t="str">
         <f>'Main Page'!A134</f>
         <v>Airfoil ID</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="12.75">
-      <c r="A6" s="374">
+      <c r="A6" s="357">
         <f>'Main Page'!A115</f>
         <v>0.05</v>
       </c>
-      <c r="B6" s="374">
+      <c r="B6" s="357">
         <f>'Main Page'!H115</f>
         <v>2514.2728793945694</v>
       </c>
-      <c r="C6" s="374">
+      <c r="C6" s="357">
         <f>'Main Page'!B127 - 'Main Page'!B$132</f>
         <v>11.1</v>
       </c>
-      <c r="D6" s="374">
+      <c r="D6" s="357">
         <f>'Main Page'!L115</f>
         <v>8966505090.0080204</v>
       </c>
-      <c r="E6" s="374">
+      <c r="E6" s="357">
         <f>'Main Page'!K115</f>
         <v>28944438488.483387</v>
       </c>
-      <c r="F6" s="374">
+      <c r="F6" s="357">
         <f>'Main Page'!J115</f>
         <v>25915847780.81815</v>
       </c>
-      <c r="G6" s="374">
+      <c r="G6" s="357">
         <f>'Main Page'!I115</f>
         <v>25915847780.81815</v>
       </c>
-      <c r="H6" s="374">
+      <c r="H6" s="357">
         <f>'Main Page'!B115</f>
         <v>2.6729794259588524</v>
       </c>
-      <c r="I6" s="374">
+      <c r="I6" s="357">
         <f>'Main Page'!E115</f>
         <v>0.25</v>
       </c>
-      <c r="J6" s="374">
+      <c r="J6" s="357">
         <f>'Main Page'!D127</f>
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="12.75">
-      <c r="A7" s="374">
+      <c r="A7" s="357">
         <f>'Main Page'!A116</f>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="B7" s="374">
+      <c r="B7" s="357">
         <f>'Main Page'!H116</f>
         <v>378.46476436784059</v>
       </c>
-      <c r="C7" s="374">
+      <c r="C7" s="357">
         <f>'Main Page'!B128 - 'Main Page'!B$132</f>
         <v>11.1</v>
       </c>
-      <c r="D7" s="374">
+      <c r="D7" s="357">
         <f>'Main Page'!L116</f>
         <v>1745703465.4624267</v>
       </c>
-      <c r="E7" s="374">
+      <c r="E7" s="357">
         <f>'Main Page'!K116</f>
         <v>5635228554.6241884</v>
       </c>
-      <c r="F7" s="374">
+      <c r="F7" s="357">
         <f>'Main Page'!J116</f>
         <v>4995749732.6391211</v>
       </c>
-      <c r="G7" s="374">
+      <c r="G7" s="357">
         <f>'Main Page'!I116</f>
         <v>4995749732.6391211</v>
       </c>
-      <c r="H7" s="374">
+      <c r="H7" s="357">
         <f>'Main Page'!B116</f>
         <v>2.6729794259588524</v>
       </c>
-      <c r="I7" s="374">
+      <c r="I7" s="357">
         <f>'Main Page'!E116</f>
         <v>0.25</v>
       </c>
-      <c r="J7" s="374">
+      <c r="J7" s="357">
         <f>'Main Page'!D128</f>
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="12.75">
-      <c r="A8" s="374">
+      <c r="A8" s="357">
         <f>'Main Page'!A117</f>
         <v>0.25</v>
       </c>
-      <c r="B8" s="374">
+      <c r="B8" s="357">
         <f>'Main Page'!H117</f>
         <v>405.46483412508888</v>
       </c>
-      <c r="C8" s="374">
+      <c r="C8" s="357">
         <f>'Main Page'!B129 - 'Main Page'!B$132</f>
         <v>11.1</v>
       </c>
-      <c r="D8" s="374">
+      <c r="D8" s="357">
         <f>'Main Page'!L117</f>
         <v>63313292.734555714</v>
       </c>
-      <c r="E8" s="374">
+      <c r="E8" s="357">
         <f>'Main Page'!K117</f>
         <v>5337777876.7804203</v>
       </c>
-      <c r="F8" s="374">
+      <c r="F8" s="357">
         <f>'Main Page'!J117</f>
         <v>3906180885.0486031</v>
       </c>
-      <c r="G8" s="374">
+      <c r="G8" s="357">
         <f>'Main Page'!I117</f>
         <v>1456208344.9209256</v>
       </c>
-      <c r="H8" s="374">
+      <c r="H8" s="357">
         <f>'Main Page'!B117</f>
         <v>3.9601219202438407</v>
       </c>
-      <c r="I8" s="374">
+      <c r="I8" s="357">
         <f>'Main Page'!E117</f>
         <v>0.34</v>
       </c>
-      <c r="J8" s="374">
+      <c r="J8" s="357">
         <f>'Main Page'!D129</f>
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="12.75">
-      <c r="A9" s="374">
+      <c r="A9" s="357">
         <f>'Main Page'!A118</f>
         <v>0.5</v>
       </c>
-      <c r="B9" s="374">
+      <c r="B9" s="357">
         <f>'Main Page'!H118</f>
         <v>319.61717485509803</v>
       </c>
-      <c r="C9" s="374">
+      <c r="C9" s="357">
         <f>'Main Page'!B130 - 'Main Page'!B$132</f>
         <v>3.1</v>
       </c>
-      <c r="D9" s="374">
+      <c r="D9" s="357">
         <f>'Main Page'!L118</f>
         <v>25481782.397363089</v>
       </c>
-      <c r="E9" s="374">
+      <c r="E9" s="357">
         <f>'Main Page'!K118</f>
         <v>4226064069.1209292</v>
       </c>
-      <c r="F9" s="374">
+      <c r="F9" s="357">
         <f>'Main Page'!J118</f>
         <v>988006806.05798388</v>
       </c>
-      <c r="G9" s="374">
+      <c r="G9" s="357">
         <f>'Main Page'!I118</f>
         <v>362359217.52206236</v>
       </c>
-      <c r="H9" s="374">
+      <c r="H9" s="357">
         <f>'Main Page'!B118</f>
         <v>3.0363220726441456</v>
       </c>
-      <c r="I9" s="374">
+      <c r="I9" s="357">
         <f>'Main Page'!E118</f>
         <v>0.31</v>
       </c>
-      <c r="J9" s="374">
+      <c r="J9" s="357">
         <f>'Main Page'!D130</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="12.75">
-      <c r="A10" s="374">
+      <c r="A10" s="357">
         <f>'Main Page'!A119</f>
         <v>0.75</v>
       </c>
-      <c r="B10" s="374">
+      <c r="B10" s="357">
         <f>'Main Page'!H119</f>
         <v>139.35911643347461</v>
       </c>
-      <c r="C10" s="374">
+      <c r="C10" s="357">
         <f>'Main Page'!B131 - 'Main Page'!B$132</f>
         <v>0.6</v>
       </c>
-      <c r="D10" s="374">
+      <c r="D10" s="357">
         <f>'Main Page'!L119</f>
         <v>5108455.3661101973</v>
       </c>
-      <c r="E10" s="374">
+      <c r="E10" s="357">
         <f>'Main Page'!K119</f>
         <v>1782574562.629951</v>
       </c>
-      <c r="F10" s="374">
+      <c r="F10" s="357">
         <f>'Main Page'!J119</f>
         <v>242833001.70445472</v>
       </c>
-      <c r="G10" s="374">
+      <c r="G10" s="357">
         <f>'Main Page'!I119</f>
         <v>55876712.03553623</v>
       </c>
-      <c r="H10" s="374">
+      <c r="H10" s="357">
         <f>'Main Page'!B119</f>
         <v>2.1125222250444504</v>
       </c>
-      <c r="I10" s="374">
+      <c r="I10" s="357">
         <f>'Main Page'!E119</f>
         <v>0.28000000000000003</v>
       </c>
-      <c r="J10" s="374">
+      <c r="J10" s="357">
         <f>'Main Page'!D131</f>
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="12.75">
-      <c r="A11" s="374">
+      <c r="A11" s="357">
         <f>'Main Page'!A120</f>
         <v>1</v>
       </c>
-      <c r="B11" s="374">
+      <c r="B11" s="357">
         <f>'Main Page'!H120</f>
         <v>16.681593270259139</v>
       </c>
-      <c r="C11" s="374">
+      <c r="C11" s="357">
         <f>'Main Page'!B132 - 'Main Page'!B$132</f>
         <v>0</v>
       </c>
-      <c r="D11" s="374">
+      <c r="D11" s="357">
         <f>'Main Page'!L120</f>
         <v>543766.85724921024</v>
       </c>
-      <c r="E11" s="374">
+      <c r="E11" s="357">
         <f>'Main Page'!K120</f>
         <v>175855044.44087556</v>
       </c>
-      <c r="F11" s="374">
+      <c r="F11" s="357">
         <f>'Main Page'!J120</f>
         <v>23689722.908686247</v>
       </c>
-      <c r="G11" s="374">
+      <c r="G11" s="357">
         <f>'Main Page'!I120</f>
         <v>691951.30059363274</v>
       </c>
-      <c r="H11" s="374">
+      <c r="H11" s="357">
         <f>'Main Page'!B120</f>
         <v>1.2811785623571248</v>
       </c>
-      <c r="I11" s="374">
+      <c r="I11" s="357">
         <f>'Main Page'!E120</f>
         <v>0.25</v>
       </c>
-      <c r="J11" s="374">
+      <c r="J11" s="357">
         <f>'Main Page'!D132</f>
         <v>4</v>
       </c>
@@ -7543,12 +7543,12 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="12" thickBot="1">
-      <c r="A2" s="352" t="s">
+      <c r="A2" s="372" t="s">
         <v>85</v>
       </c>
-      <c r="B2" s="353"/>
-      <c r="C2" s="353"/>
-      <c r="D2" s="354"/>
+      <c r="B2" s="373"/>
+      <c r="C2" s="373"/>
+      <c r="D2" s="374"/>
       <c r="F2" s="79" t="s">
         <v>54</v>
       </c>
@@ -8348,11 +8348,11 @@
         <f>GECbladedata!D12-B3</f>
         <v>47.024999999999999</v>
       </c>
-      <c r="D2" s="355" t="s">
+      <c r="D2" s="359" t="s">
         <v>85</v>
       </c>
-      <c r="E2" s="356"/>
-      <c r="F2" s="357"/>
+      <c r="E2" s="360"/>
+      <c r="F2" s="361"/>
     </row>
     <row r="3" spans="1:20" ht="23.25" thickBot="1">
       <c r="A3" s="98" t="s">
@@ -15024,12 +15024,12 @@
       <c r="A19" s="113"/>
       <c r="B19" s="166"/>
       <c r="C19" s="113"/>
-      <c r="D19" s="358" t="s">
+      <c r="D19" s="375" t="s">
         <v>241</v>
       </c>
-      <c r="E19" s="358"/>
-      <c r="F19" s="358"/>
-      <c r="G19" s="358"/>
+      <c r="E19" s="375"/>
+      <c r="F19" s="375"/>
+      <c r="G19" s="375"/>
       <c r="H19" s="113"/>
       <c r="I19" s="113"/>
       <c r="J19" s="122"/>

--- a/FAST_models/WindPACT/excel_proc/turbines/3.0A02V02_proc.xlsx
+++ b/FAST_models/WindPACT/excel_proc/turbines/3.0A02V02_proc.xlsx
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="463">
   <si>
     <t>number</t>
   </si>
@@ -1705,9 +1705,6 @@
     <t>blade modal damping ratios</t>
   </si>
   <si>
-    <t>Drivetrain natural frequency (rad/s)</t>
-  </si>
-  <si>
     <t>&lt;-- added this (JR)</t>
   </si>
   <si>
@@ -1837,9 +1834,6 @@
     <t>Generator efficiency</t>
   </si>
   <si>
-    <t>Drivetrain natural frequency</t>
-  </si>
-  <si>
     <t>Rated Power (W)</t>
   </si>
   <si>
@@ -1877,6 +1871,18 @@
   </si>
   <si>
     <t>Tower damping (%)</t>
+  </si>
+  <si>
+    <t>&lt;-- fixed this (JR)</t>
+  </si>
+  <si>
+    <t>Rotor inertia (kg-m^2)</t>
+  </si>
+  <si>
+    <t>Drivetrain damping (% critical)</t>
+  </si>
+  <si>
+    <t>Drivetrain damping</t>
   </si>
 </sst>
 </file>
@@ -1888,8 +1894,8 @@
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0.000E+00"/>
     <numFmt numFmtId="167" formatCode="0.0000"/>
-    <numFmt numFmtId="169" formatCode="0.00000"/>
-    <numFmt numFmtId="171" formatCode="0.0000000"/>
+    <numFmt numFmtId="168" formatCode="0.00000"/>
+    <numFmt numFmtId="169" formatCode="0.0000000"/>
   </numFmts>
   <fonts count="35">
     <font>
@@ -3370,9 +3376,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -3562,9 +3565,6 @@
     <xf numFmtId="164" fontId="19" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3633,7 +3633,14 @@
     <xf numFmtId="167" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3682,7 +3689,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4269,11 +4275,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="98132352"/>
-        <c:axId val="98134272"/>
+        <c:axId val="111397888"/>
+        <c:axId val="111436928"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="98132352"/>
+        <c:axId val="111397888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -4358,12 +4364,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="98134272"/>
+        <c:crossAx val="111436928"/>
         <c:crossesAt val="-10"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="98134272"/>
+        <c:axId val="111436928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4447,7 +4453,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="98132352"/>
+        <c:crossAx val="111397888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4551,13 +4557,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>24434</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>117613</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>398393</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>117613</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4740,7 +4746,7 @@
       <xdr:col>14</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>117613</xdr:rowOff>
+      <xdr:rowOff>274983</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4796,7 +4802,7 @@
       <xdr:col>21</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>89038</xdr:rowOff>
+      <xdr:rowOff>246408</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4845,13 +4851,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5456,16 +5462,16 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:U153"/>
+  <dimension ref="A1:U154"/>
   <sheetViews>
-    <sheetView topLeftCell="A109" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J154" sqref="J154"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="1" width="34.83203125" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
     <col min="4" max="4" width="10.83203125" customWidth="1"/>
     <col min="5" max="5" width="14.1640625" customWidth="1"/>
     <col min="6" max="6" width="11.33203125" customWidth="1"/>
@@ -5481,17 +5487,17 @@
       <c r="A1" s="99" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="337" t="s">
+      <c r="B1" s="336" t="s">
         <v>399</v>
       </c>
-      <c r="C1" s="390" t="s">
+      <c r="C1" s="391" t="s">
         <v>385</v>
       </c>
-      <c r="D1" s="391"/>
-      <c r="E1" s="391"/>
-      <c r="F1" s="391"/>
-      <c r="G1" s="391"/>
-      <c r="H1" s="392"/>
+      <c r="D1" s="392"/>
+      <c r="E1" s="392"/>
+      <c r="F1" s="392"/>
+      <c r="G1" s="392"/>
+      <c r="H1" s="393"/>
     </row>
     <row r="2" spans="1:8" ht="16.899999999999999" customHeight="1" thickBot="1">
       <c r="A2" s="60" t="s">
@@ -5507,17 +5513,17 @@
       <c r="A3" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="384" t="s">
+      <c r="B3" s="385" t="s">
         <v>119</v>
       </c>
-      <c r="C3" s="385"/>
-      <c r="D3" s="386"/>
+      <c r="C3" s="386"/>
+      <c r="D3" s="387"/>
       <c r="E3" s="35"/>
-      <c r="F3" s="387" t="s">
+      <c r="F3" s="388" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="388"/>
-      <c r="H3" s="389"/>
+      <c r="G3" s="389"/>
+      <c r="H3" s="390"/>
     </row>
     <row r="4" spans="1:8" ht="12" thickBot="1">
       <c r="A4" s="20" t="s">
@@ -5681,7 +5687,7 @@
       <c r="A9" s="106" t="s">
         <v>120</v>
       </c>
-      <c r="B9" s="274">
+      <c r="B9" s="273">
         <v>119</v>
       </c>
     </row>
@@ -5689,7 +5695,7 @@
       <c r="A10" s="77" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="275">
+      <c r="B10" s="274">
         <v>3</v>
       </c>
     </row>
@@ -5697,7 +5703,7 @@
       <c r="A11" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="276">
+      <c r="B11" s="275">
         <v>5</v>
       </c>
       <c r="C11" t="s">
@@ -5708,7 +5714,7 @@
       <c r="A12" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="276" t="s">
+      <c r="B12" s="275" t="s">
         <v>118</v>
       </c>
     </row>
@@ -5716,7 +5722,7 @@
       <c r="A13" s="107" t="s">
         <v>121</v>
       </c>
-      <c r="B13" s="276">
+      <c r="B13" s="275">
         <v>99</v>
       </c>
     </row>
@@ -5724,122 +5730,126 @@
       <c r="A14" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="268">
-        <f>PI()*(B63^4-B64^4)/32/(GECdrivetrain!C7)*GECtwrdata!F7</f>
+      <c r="B14" s="379">
+        <f>PI()*(B64^4-B65^4)/32/(GECdrivetrain!C7)*GECtwrdata!F7</f>
         <v>1039402035.9271445</v>
       </c>
+      <c r="D14" s="347" t="s">
+        <v>459</v>
+      </c>
+      <c r="E14" s="348"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="61" t="s">
+        <v>461</v>
+      </c>
+      <c r="B15" s="380">
+        <v>5</v>
+      </c>
+      <c r="D15" s="347" t="s">
         <v>403</v>
       </c>
-      <c r="B15" s="348">
-        <v>56</v>
-      </c>
-      <c r="D15" s="349" t="s">
-        <v>404</v>
-      </c>
-      <c r="E15" s="350"/>
-      <c r="H15" s="103"/>
-    </row>
-    <row r="16" spans="1:8" ht="23.45" customHeight="1">
+      <c r="E15" s="348"/>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="61" t="s">
+        <v>460</v>
+      </c>
+      <c r="B16" s="380">
+        <v>18562372</v>
+      </c>
+      <c r="D16" s="347" t="s">
+        <v>403</v>
+      </c>
+      <c r="E16" s="348"/>
+      <c r="H16" s="103"/>
+    </row>
+    <row r="17" spans="1:21" ht="23.45" customHeight="1">
+      <c r="A17" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="276">
+      <c r="B17" s="275">
         <v>1.2250000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="13.15" customHeight="1">
-      <c r="A17" s="61" t="s">
+    <row r="18" spans="1:21" ht="13.15" customHeight="1">
+      <c r="A18" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="276">
-        <v>0</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="B18" s="275">
+        <v>0</v>
+      </c>
+      <c r="C18" t="s">
         <v>70</v>
       </c>
-      <c r="I17" s="179" t="s">
+      <c r="I18" s="179" t="s">
         <v>316</v>
       </c>
-      <c r="J17" s="180"/>
-      <c r="K17" s="180"/>
-      <c r="L17" s="180"/>
-      <c r="M17" s="180"/>
-      <c r="N17" s="180"/>
-      <c r="P17" s="181" t="s">
+      <c r="J18" s="180"/>
+      <c r="K18" s="180"/>
+      <c r="L18" s="180"/>
+      <c r="M18" s="180"/>
+      <c r="N18" s="180"/>
+      <c r="P18" s="181" t="s">
         <v>317</v>
       </c>
-      <c r="Q17" s="182"/>
-      <c r="R17" s="182"/>
-      <c r="S17" s="182"/>
-      <c r="T17" s="182"/>
-      <c r="U17" s="182"/>
-    </row>
-    <row r="18" spans="1:21" ht="24" customHeight="1" thickBot="1">
-      <c r="A18" s="62" t="s">
+      <c r="Q18" s="182"/>
+      <c r="R18" s="182"/>
+      <c r="S18" s="182"/>
+      <c r="T18" s="182"/>
+      <c r="U18" s="182"/>
+    </row>
+    <row r="19" spans="1:21" ht="24" customHeight="1" thickBot="1">
+      <c r="A19" s="62" t="s">
         <v>375</v>
       </c>
-      <c r="B18" s="276">
+      <c r="B19" s="275">
         <v>0.95</v>
       </c>
-      <c r="C18" s="330">
+      <c r="C19" s="329">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D18" s="393" t="s">
+      <c r="D19" s="394" t="s">
         <v>374</v>
       </c>
-      <c r="E18" s="392"/>
-      <c r="F18" s="392"/>
-    </row>
-    <row r="19" spans="1:21" ht="25.5" customHeight="1">
-      <c r="A19" s="269" t="s">
+      <c r="E19" s="393"/>
+      <c r="F19" s="393"/>
+    </row>
+    <row r="20" spans="1:21" ht="25.5" customHeight="1">
+      <c r="A20" s="268" t="s">
         <v>372</v>
       </c>
-      <c r="B19" s="275">
+      <c r="B20" s="274">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="C19" s="330">
+      <c r="C20" s="329">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="D19" s="393" t="s">
+      <c r="D20" s="394" t="s">
         <v>373</v>
       </c>
-      <c r="E19" s="392"/>
-      <c r="F19" s="392"/>
-      <c r="I19" s="35" t="s">
+      <c r="E20" s="393"/>
+      <c r="F20" s="393"/>
+      <c r="I20" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="J19" s="170"/>
-      <c r="K19" s="170"/>
-      <c r="L19" s="170"/>
-      <c r="M19" s="170"/>
-      <c r="N19" s="170"/>
-      <c r="O19" s="170"/>
-      <c r="P19" s="171"/>
-    </row>
-    <row r="20" spans="1:21" ht="11.45" customHeight="1">
-      <c r="A20" s="61" t="s">
+      <c r="J20" s="170"/>
+      <c r="K20" s="170"/>
+      <c r="L20" s="170"/>
+      <c r="M20" s="170"/>
+      <c r="N20" s="170"/>
+      <c r="O20" s="170"/>
+      <c r="P20" s="171"/>
+    </row>
+    <row r="21" spans="1:21" ht="11.45" customHeight="1">
+      <c r="A21" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="276" t="s">
+      <c r="B21" s="275" t="s">
         <v>33</v>
       </c>
-      <c r="I20" s="172" t="s">
+      <c r="I21" s="172" t="s">
         <v>318</v>
-      </c>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="8"/>
-      <c r="P20" s="173"/>
-    </row>
-    <row r="21" spans="1:21">
-      <c r="I21" s="172" t="s">
-        <v>319</v>
       </c>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
@@ -5850,12 +5860,8 @@
       <c r="P21" s="173"/>
     </row>
     <row r="22" spans="1:21">
-      <c r="A22" s="100" t="s">
-        <v>77</v>
-      </c>
-      <c r="B22" s="29"/>
       <c r="I22" s="172" t="s">
-        <v>65</v>
+        <v>319</v>
       </c>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
@@ -5865,18 +5871,13 @@
       <c r="O22" s="8"/>
       <c r="P22" s="173"/>
     </row>
-    <row r="23" spans="1:21" ht="12.6" customHeight="1">
+    <row r="23" spans="1:21">
       <c r="A23" s="100" t="s">
-        <v>74</v>
-      </c>
-      <c r="B23" s="271">
-        <f>B85</f>
-        <v>14.468631190172303</v>
-      </c>
-      <c r="G23" s="89"/>
-      <c r="H23" s="12"/>
+        <v>77</v>
+      </c>
+      <c r="B23" s="29"/>
       <c r="I23" s="172" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
@@ -5886,318 +5887,328 @@
       <c r="O23" s="8"/>
       <c r="P23" s="173"/>
     </row>
-    <row r="24" spans="1:21" ht="12" thickBot="1">
+    <row r="24" spans="1:21" ht="12.6" customHeight="1">
       <c r="A24" s="100" t="s">
-        <v>75</v>
-      </c>
-      <c r="B24" s="272">
-        <v>1</v>
+        <v>74</v>
+      </c>
+      <c r="B24" s="270">
+        <f>B86</f>
+        <v>14.468631190172303</v>
       </c>
       <c r="G24" s="89"/>
       <c r="H24" s="12"/>
-      <c r="I24" s="174" t="s">
-        <v>67</v>
-      </c>
-      <c r="J24" s="175"/>
-      <c r="K24" s="175"/>
-      <c r="L24" s="175"/>
-      <c r="M24" s="175"/>
-      <c r="N24" s="175"/>
-      <c r="O24" s="175"/>
-      <c r="P24" s="178"/>
-    </row>
-    <row r="25" spans="1:21" ht="9.75" customHeight="1">
+      <c r="I24" s="172" t="s">
+        <v>66</v>
+      </c>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="173"/>
+    </row>
+    <row r="25" spans="1:21" ht="12" thickBot="1">
       <c r="A25" s="100" t="s">
-        <v>76</v>
-      </c>
-      <c r="B25" s="272">
-        <f>B88</f>
-        <v>3000</v>
+        <v>75</v>
+      </c>
+      <c r="B25" s="271">
+        <v>1</v>
       </c>
       <c r="G25" s="89"/>
       <c r="H25" s="12"/>
-    </row>
-    <row r="27" spans="1:21" ht="12.6" customHeight="1">
-      <c r="A27" s="109" t="s">
+      <c r="I25" s="174" t="s">
+        <v>67</v>
+      </c>
+      <c r="J25" s="175"/>
+      <c r="K25" s="175"/>
+      <c r="L25" s="175"/>
+      <c r="M25" s="175"/>
+      <c r="N25" s="175"/>
+      <c r="O25" s="175"/>
+      <c r="P25" s="178"/>
+    </row>
+    <row r="26" spans="1:21" ht="9.75" customHeight="1">
+      <c r="A26" s="100" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26" s="271">
+        <f>B89</f>
+        <v>3000</v>
+      </c>
+      <c r="G26" s="89"/>
+      <c r="H26" s="12"/>
+    </row>
+    <row r="28" spans="1:21" ht="12.6" customHeight="1">
+      <c r="A28" s="109" t="s">
         <v>78</v>
       </c>
-      <c r="B27" s="29"/>
-    </row>
-    <row r="28" spans="1:21" ht="21" customHeight="1">
-      <c r="A28" s="100" t="s">
+      <c r="B28" s="29"/>
+    </row>
+    <row r="29" spans="1:21" ht="21" customHeight="1">
+      <c r="A29" s="100" t="s">
         <v>79</v>
       </c>
-      <c r="B28" s="91">
-        <f>B85</f>
+      <c r="B29" s="91">
+        <f>B86</f>
         <v>14.468631190172303</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="9.75" customHeight="1">
-      <c r="A29" s="100" t="s">
+    <row r="30" spans="1:21" ht="9.75" customHeight="1">
+      <c r="A30" s="100" t="s">
         <v>376</v>
       </c>
-      <c r="B29" s="270">
-        <f>B88*1000/(B28*PI()/30)/(B18-C18-B19-C19)</f>
+      <c r="B30" s="269">
+        <f>B89*1000/(B29*PI()/30)/(B19-C19-B20-C20)</f>
         <v>2140540.5405405406</v>
       </c>
     </row>
-    <row r="30" spans="1:21" ht="9.75" customHeight="1">
-      <c r="A30" s="352" t="s">
+    <row r="31" spans="1:21" ht="9.75" customHeight="1">
+      <c r="A31" s="350" t="s">
+        <v>404</v>
+      </c>
+      <c r="B31" s="269">
+        <f>B89*1000/(B84*PI()/30)/(B19)</f>
+        <v>16753.151904410039</v>
+      </c>
+      <c r="D31" s="347" t="s">
         <v>405</v>
       </c>
-      <c r="B30" s="270">
-        <f>B88*1000/(B83*PI()/30)/(B18)</f>
-        <v>16753.151904410039</v>
-      </c>
-      <c r="D30" s="349" t="s">
-        <v>406</v>
-      </c>
-      <c r="E30" s="350"/>
-    </row>
-    <row r="31" spans="1:21">
-      <c r="B31" s="53"/>
+      <c r="E31" s="348"/>
     </row>
     <row r="32" spans="1:21">
-      <c r="A32" s="109" t="s">
+      <c r="B32" s="53"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="109" t="s">
         <v>80</v>
       </c>
-      <c r="B32" s="29"/>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="100" t="s">
-        <v>81</v>
-      </c>
-      <c r="B33" s="276">
-        <v>2.6</v>
-      </c>
+      <c r="B33" s="29"/>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="100" t="s">
+        <v>81</v>
+      </c>
+      <c r="B34" s="275">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="100" t="s">
         <v>82</v>
       </c>
-      <c r="B34" s="276">
+      <c r="B35" s="275">
         <v>90</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="12" customHeight="1">
-      <c r="A35" s="100" t="s">
+    <row r="36" spans="1:5" ht="12" customHeight="1">
+      <c r="A36" s="100" t="s">
         <v>83</v>
       </c>
-      <c r="B35" s="276">
+      <c r="B36" s="275">
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="12" customHeight="1">
-      <c r="A36" s="351"/>
-      <c r="B36" s="353"/>
-    </row>
     <row r="37" spans="1:5" ht="12" customHeight="1">
-      <c r="A37" s="109" t="s">
-        <v>407</v>
-      </c>
-      <c r="B37" s="29"/>
-      <c r="D37" s="349" t="s">
-        <v>404</v>
-      </c>
-      <c r="E37" s="350"/>
+      <c r="A37" s="349"/>
+      <c r="B37" s="351"/>
     </row>
     <row r="38" spans="1:5" ht="12" customHeight="1">
-      <c r="A38" s="100" t="s">
-        <v>408</v>
-      </c>
-      <c r="B38" s="276">
-        <v>0.45</v>
-      </c>
-      <c r="D38" s="349" t="s">
-        <v>404</v>
-      </c>
-      <c r="E38" s="350"/>
+      <c r="A38" s="109" t="s">
+        <v>406</v>
+      </c>
+      <c r="B38" s="29"/>
+      <c r="D38" s="347" t="s">
+        <v>403</v>
+      </c>
+      <c r="E38" s="348"/>
     </row>
     <row r="39" spans="1:5" ht="12" customHeight="1">
       <c r="A39" s="100" t="s">
-        <v>409</v>
-      </c>
-      <c r="B39" s="354">
+        <v>407</v>
+      </c>
+      <c r="B39" s="275">
+        <v>0.45</v>
+      </c>
+      <c r="D39" s="347" t="s">
+        <v>403</v>
+      </c>
+      <c r="E39" s="348"/>
+    </row>
+    <row r="40" spans="1:5" ht="12" customHeight="1">
+      <c r="A40" s="100" t="s">
+        <v>408</v>
+      </c>
+      <c r="B40" s="352">
         <v>7</v>
       </c>
-      <c r="D39" s="349" t="s">
-        <v>404</v>
-      </c>
-      <c r="E39" s="350"/>
-    </row>
-    <row r="40" spans="1:5" ht="12.75" customHeight="1"/>
-    <row r="41" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A41" s="109" t="s">
+      <c r="D40" s="347" t="s">
+        <v>403</v>
+      </c>
+      <c r="E40" s="348"/>
+    </row>
+    <row r="41" spans="1:5" ht="12.75" customHeight="1"/>
+    <row r="42" spans="1:5" ht="18.75" customHeight="1">
+      <c r="A42" s="109" t="s">
         <v>122</v>
       </c>
-      <c r="B41" s="54"/>
-    </row>
-    <row r="42" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A42" s="100" t="s">
+      <c r="B42" s="54"/>
+    </row>
+    <row r="43" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A43" s="100" t="s">
         <v>207</v>
       </c>
-      <c r="B42" s="277">
+      <c r="B43" s="276">
         <v>2.2690000000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="100" t="s">
+    <row r="44" spans="1:5">
+      <c r="A44" s="100" t="s">
         <v>123</v>
       </c>
-      <c r="B43" s="278">
+      <c r="B44" s="277">
         <v>3.7</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="15" customHeight="1">
-      <c r="A44" s="100" t="s">
+    <row r="45" spans="1:5" ht="15" customHeight="1">
+      <c r="A45" s="100" t="s">
         <v>124</v>
       </c>
-      <c r="B44" s="278">
+      <c r="B45" s="277">
         <v>11.9</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="11.25" customHeight="1">
-      <c r="A45" s="100" t="s">
+    <row r="46" spans="1:5" ht="11.25" customHeight="1">
+      <c r="A46" s="100" t="s">
         <v>125</v>
       </c>
-      <c r="B45" s="278">
+      <c r="B46" s="277">
         <v>8.0020000000000007</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A46" s="100" t="s">
+    <row r="47" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A47" s="100" t="s">
         <v>126</v>
       </c>
-      <c r="B46" s="278">
+      <c r="B47" s="277">
         <v>26.1</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="12" customHeight="1">
-      <c r="A47" s="331" t="s">
+    <row r="48" spans="1:5" ht="12" customHeight="1">
+      <c r="A48" s="330" t="s">
         <v>386</v>
       </c>
-      <c r="B47" s="330">
+      <c r="B48" s="329">
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="18" customHeight="1">
-      <c r="A48" s="109" t="s">
+    <row r="49" spans="1:4" ht="18" customHeight="1">
+      <c r="A49" s="109" t="s">
         <v>383</v>
       </c>
-      <c r="B48" s="63"/>
-    </row>
-    <row r="49" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A49" s="100" t="s">
+      <c r="B49" s="63"/>
+    </row>
+    <row r="50" spans="1:4" ht="13.5" customHeight="1">
+      <c r="A50" s="100" t="s">
         <v>384</v>
       </c>
-      <c r="B49" s="105">
-        <f>ABS(B8)+B13/2*(B11+B17)/57.3-0.5*(B43+B13/2/B9*(B45-B43))</f>
+      <c r="B50" s="105">
+        <f>ABS(B8)+B13/2*(B11+B18)/57.3-0.5*(B44+B13/2/B9*(B46-B44))</f>
         <v>6.2246280302696988</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="2" t="s">
+    <row r="52" spans="1:4">
+      <c r="A52" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C51" s="5"/>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="110" t="s">
-        <v>127</v>
-      </c>
-      <c r="B52" s="279">
-        <v>4.95</v>
-      </c>
-      <c r="C52" t="s">
-        <v>85</v>
-      </c>
-      <c r="D52" t="s">
-        <v>128</v>
-      </c>
+      <c r="C52" s="5"/>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="110" t="s">
-        <v>129</v>
-      </c>
-      <c r="B53" s="279">
-        <v>2.6685800000000004</v>
+        <v>127</v>
+      </c>
+      <c r="B53" s="278">
+        <v>4.95</v>
       </c>
       <c r="C53" t="s">
         <v>85</v>
       </c>
-      <c r="D53" s="273" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="10.9" customHeight="1">
+      <c r="D53" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="110" t="s">
-        <v>130</v>
-      </c>
-      <c r="B54" s="279">
-        <v>2.3540000000000001</v>
+        <v>129</v>
+      </c>
+      <c r="B54" s="278">
+        <v>2.6685800000000004</v>
       </c>
       <c r="C54" t="s">
         <v>85</v>
       </c>
-      <c r="D54" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+      <c r="D54" s="272" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="10.9" customHeight="1">
       <c r="A55" s="110" t="s">
-        <v>132</v>
-      </c>
-      <c r="B55" s="279">
-        <v>8.295000000000001E-2</v>
+        <v>130</v>
+      </c>
+      <c r="B55" s="278">
+        <v>2.3540000000000001</v>
       </c>
       <c r="C55" t="s">
         <v>85</v>
       </c>
-      <c r="D55" s="273" t="s">
+      <c r="D55" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="110" t="s">
+        <v>132</v>
+      </c>
+      <c r="B56" s="278">
+        <v>8.295000000000001E-2</v>
+      </c>
+      <c r="C56" t="s">
+        <v>85</v>
+      </c>
+      <c r="D56" s="272" t="s">
         <v>377</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="B56" s="280">
-        <v>7850</v>
-      </c>
-      <c r="C56" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="18" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B57" s="279">
-        <v>-4.6500000000000004</v>
+        <v>7850</v>
       </c>
       <c r="C57" t="s">
-        <v>85</v>
-      </c>
-      <c r="D57" t="s">
-        <v>135</v>
+        <v>102</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="B58" s="279">
-        <v>0</v>
+        <v>134</v>
+      </c>
+      <c r="B58" s="278">
+        <v>-4.6500000000000004</v>
       </c>
       <c r="C58" t="s">
         <v>85</v>
       </c>
+      <c r="D58" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="B59" s="279">
+        <v>136</v>
+      </c>
+      <c r="B59" s="278">
         <v>0</v>
       </c>
       <c r="C59" t="s">
@@ -6205,130 +6216,130 @@
       </c>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="18"/>
-      <c r="B60" s="124"/>
+      <c r="A60" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="B60" s="278">
+        <v>0</v>
+      </c>
+      <c r="C60" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="111" t="s">
+      <c r="A61" s="18"/>
+      <c r="B61" s="124"/>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="111" t="s">
         <v>138</v>
       </c>
-      <c r="B61" s="125"/>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="A62" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="B62" s="279">
-        <v>2.79</v>
-      </c>
-      <c r="C62" t="s">
-        <v>85</v>
-      </c>
-      <c r="D62" t="s">
-        <v>380</v>
-      </c>
+      <c r="B62" s="125"/>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="B63" s="279">
-        <v>0.8</v>
+        <v>139</v>
+      </c>
+      <c r="B63" s="278">
+        <v>2.79</v>
       </c>
       <c r="C63" t="s">
         <v>85</v>
       </c>
+      <c r="D63" t="s">
+        <v>380</v>
+      </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="B64" s="279">
-        <v>0.4</v>
+        <v>140</v>
+      </c>
+      <c r="B64" s="278">
+        <v>0.8</v>
       </c>
       <c r="C64" t="s">
         <v>85</v>
       </c>
-      <c r="D64" t="s">
-        <v>142</v>
-      </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="B65" s="280">
-        <v>7850</v>
+        <v>141</v>
+      </c>
+      <c r="B65" s="278">
+        <v>0.4</v>
       </c>
       <c r="C65" t="s">
-        <v>102</v>
+        <v>85</v>
+      </c>
+      <c r="D65" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="18" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B66" s="279">
-        <v>0</v>
+        <v>7850</v>
       </c>
       <c r="C66" t="s">
-        <v>85</v>
-      </c>
-      <c r="D66" t="s">
-        <v>143</v>
+        <v>102</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="B67" s="279">
+        <v>136</v>
+      </c>
+      <c r="B67" s="278">
         <v>0</v>
       </c>
       <c r="C67" t="s">
         <v>85</v>
       </c>
+      <c r="D67" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="18"/>
-      <c r="B68" s="124"/>
+      <c r="A68" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="B68" s="278">
+        <v>0</v>
+      </c>
+      <c r="C68" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="111" t="s">
+      <c r="A69" s="18"/>
+      <c r="B69" s="124"/>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="111" t="s">
         <v>144</v>
       </c>
-      <c r="B69" s="125"/>
-    </row>
-    <row r="70" spans="1:4">
-      <c r="A70" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="B70" s="279">
-        <v>-3.2549999999999999</v>
-      </c>
-      <c r="C70" t="s">
-        <v>85</v>
-      </c>
-      <c r="D70" t="s">
-        <v>146</v>
-      </c>
+      <c r="B70" s="125"/>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="B71" s="279">
-        <v>0</v>
+        <v>145</v>
+      </c>
+      <c r="B71" s="278">
+        <v>-3.2549999999999999</v>
       </c>
       <c r="C71" t="s">
         <v>85</v>
       </c>
+      <c r="D71" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="B72" s="279">
+        <v>147</v>
+      </c>
+      <c r="B72" s="278">
         <v>0</v>
       </c>
       <c r="C72" t="s">
@@ -6337,34 +6348,34 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="18" t="s">
-        <v>149</v>
-      </c>
-      <c r="B73" s="279">
-        <v>-0.93</v>
+        <v>148</v>
+      </c>
+      <c r="B73" s="278">
+        <v>0</v>
       </c>
       <c r="C73" t="s">
         <v>85</v>
       </c>
-      <c r="D73" t="s">
-        <v>150</v>
-      </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="18" t="s">
-        <v>151</v>
-      </c>
-      <c r="B74" s="279">
-        <v>0</v>
+        <v>149</v>
+      </c>
+      <c r="B74" s="278">
+        <v>-0.93</v>
       </c>
       <c r="C74" t="s">
         <v>85</v>
       </c>
+      <c r="D74" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="18" t="s">
-        <v>152</v>
-      </c>
-      <c r="B75" s="279">
+        <v>151</v>
+      </c>
+      <c r="B75" s="278">
         <v>0</v>
       </c>
       <c r="C75" t="s">
@@ -6372,59 +6383,59 @@
       </c>
     </row>
     <row r="76" spans="1:4">
-      <c r="A76" s="18"/>
-      <c r="B76" s="125"/>
+      <c r="A76" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="B76" s="278">
+        <v>0</v>
+      </c>
+      <c r="C76" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="77" spans="1:4">
-      <c r="A77" s="111" t="s">
+      <c r="A77" s="18"/>
+      <c r="B77" s="125"/>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="111" t="s">
         <v>153</v>
       </c>
-      <c r="B77" s="125"/>
-    </row>
-    <row r="78" spans="1:4">
-      <c r="A78" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="B78" s="281">
-        <v>23500</v>
-      </c>
-      <c r="C78" t="s">
-        <v>117</v>
-      </c>
-      <c r="D78" t="s">
-        <v>155</v>
-      </c>
+      <c r="B78" s="125"/>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="B79" s="279">
-        <v>0</v>
+        <v>154</v>
+      </c>
+      <c r="B79" s="280">
+        <v>23500</v>
       </c>
       <c r="C79" t="s">
-        <v>85</v>
+        <v>117</v>
       </c>
       <c r="D79" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="B80" s="279">
+        <v>134</v>
+      </c>
+      <c r="B80" s="278">
         <v>0</v>
       </c>
       <c r="C80" t="s">
         <v>85</v>
       </c>
+      <c r="D80" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="B81" s="279">
+        <v>136</v>
+      </c>
+      <c r="B81" s="278">
         <v>0</v>
       </c>
       <c r="C81" t="s">
@@ -6433,95 +6444,95 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="18" t="s">
-        <v>389</v>
-      </c>
-      <c r="B82" s="279">
-        <v>75</v>
+        <v>137</v>
+      </c>
+      <c r="B82" s="278">
+        <v>0</v>
       </c>
       <c r="C82" t="s">
-        <v>390</v>
+        <v>85</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="18" t="s">
-        <v>391</v>
-      </c>
-      <c r="B83" s="279">
-        <v>1800</v>
+        <v>389</v>
+      </c>
+      <c r="B83" s="278">
+        <v>75</v>
       </c>
       <c r="C83" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="18" t="s">
-        <v>157</v>
-      </c>
-      <c r="B84" s="333">
-        <f>1800/B85</f>
-        <v>124.40706908215581</v>
+        <v>391</v>
+      </c>
+      <c r="B84" s="278">
+        <v>1800</v>
+      </c>
+      <c r="C84" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B85" s="332">
+        <f>1800/B86</f>
+        <v>124.40706908215581</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="18" t="s">
         <v>158</v>
       </c>
-      <c r="B85" s="333">
-        <f>B82/B13*2*30/PI()</f>
+      <c r="B86" s="332">
+        <f>B83/B13*2*30/PI()</f>
         <v>14.468631190172303</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
-      <c r="A86" s="18"/>
-      <c r="B86" s="123"/>
-    </row>
-    <row r="87" spans="1:4" ht="15" customHeight="1">
-      <c r="A87" s="111" t="s">
+    <row r="87" spans="1:4">
+      <c r="A87" s="18"/>
+      <c r="B87" s="123"/>
+    </row>
+    <row r="88" spans="1:4" ht="15" customHeight="1">
+      <c r="A88" s="111" t="s">
         <v>159</v>
       </c>
-      <c r="B87" s="125"/>
-    </row>
-    <row r="88" spans="1:4">
-      <c r="A88" s="18" t="s">
-        <v>160</v>
-      </c>
-      <c r="B88" s="282">
-        <v>3000</v>
-      </c>
-      <c r="C88" t="s">
-        <v>161</v>
-      </c>
+      <c r="B88" s="125"/>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="B89" s="279">
-        <v>1.163</v>
+        <v>160</v>
+      </c>
+      <c r="B89" s="281">
+        <v>3000</v>
       </c>
       <c r="C89" t="s">
-        <v>85</v>
-      </c>
-      <c r="D89" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="B90" s="283">
-        <v>0</v>
+        <v>134</v>
+      </c>
+      <c r="B90" s="278">
+        <v>1.163</v>
       </c>
       <c r="C90" t="s">
         <v>85</v>
       </c>
+      <c r="D90" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="B91" s="283">
+        <v>136</v>
+      </c>
+      <c r="B91" s="282">
         <v>0</v>
       </c>
       <c r="C91" t="s">
@@ -6529,60 +6540,60 @@
       </c>
     </row>
     <row r="92" spans="1:4">
-      <c r="A92" s="18"/>
-      <c r="B92" s="126"/>
+      <c r="A92" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="B92" s="282">
+        <v>0</v>
+      </c>
+      <c r="C92" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="93" spans="1:4">
-      <c r="A93" s="111" t="s">
+      <c r="A93" s="18"/>
+      <c r="B93" s="126"/>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="111" t="s">
         <v>163</v>
       </c>
-      <c r="B93" s="126"/>
-    </row>
-    <row r="94" spans="1:4">
-      <c r="A94" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="B94" s="283">
-        <v>3.2549999999999999</v>
-      </c>
-      <c r="C94" t="s">
-        <v>85</v>
-      </c>
-      <c r="D94" t="s">
-        <v>164</v>
-      </c>
+      <c r="B94" s="126"/>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="B95" s="279">
-        <v>3.1392000000000002</v>
+        <v>139</v>
+      </c>
+      <c r="B95" s="282">
+        <v>3.2549999999999999</v>
       </c>
       <c r="C95" t="s">
         <v>85</v>
       </c>
       <c r="D95" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="18" t="s">
-        <v>167</v>
-      </c>
-      <c r="B96" s="279">
-        <v>1.732</v>
+        <v>165</v>
+      </c>
+      <c r="B96" s="278">
+        <v>3.1392000000000002</v>
       </c>
       <c r="C96" t="s">
         <v>85</v>
       </c>
+      <c r="D96" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="97" spans="1:11">
       <c r="A97" s="18" t="s">
-        <v>168</v>
-      </c>
-      <c r="B97" s="279">
-        <v>0.3024</v>
+        <v>167</v>
+      </c>
+      <c r="B97" s="278">
+        <v>1.732</v>
       </c>
       <c r="C97" t="s">
         <v>85</v>
@@ -6590,10 +6601,10 @@
     </row>
     <row r="98" spans="1:11">
       <c r="A98" s="18" t="s">
-        <v>169</v>
-      </c>
-      <c r="B98" s="279">
-        <v>0.27400000000000002</v>
+        <v>168</v>
+      </c>
+      <c r="B98" s="278">
+        <v>0.3024</v>
       </c>
       <c r="C98" t="s">
         <v>85</v>
@@ -6601,10 +6612,10 @@
     </row>
     <row r="99" spans="1:11">
       <c r="A99" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="B99" s="280">
-        <v>7850</v>
+        <v>169</v>
+      </c>
+      <c r="B99" s="278">
+        <v>0.27400000000000002</v>
       </c>
       <c r="C99" t="s">
         <v>85</v>
@@ -6612,10 +6623,10 @@
     </row>
     <row r="100" spans="1:11">
       <c r="A100" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="B100" s="283">
-        <v>0</v>
+        <v>133</v>
+      </c>
+      <c r="B100" s="279">
+        <v>7850</v>
       </c>
       <c r="C100" t="s">
         <v>85</v>
@@ -6623,9 +6634,9 @@
     </row>
     <row r="101" spans="1:11">
       <c r="A101" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="B101" s="283">
+        <v>134</v>
+      </c>
+      <c r="B101" s="282">
         <v>0</v>
       </c>
       <c r="C101" t="s">
@@ -6634,899 +6645,910 @@
     </row>
     <row r="102" spans="1:11">
       <c r="A102" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="B102" s="283">
-        <v>-1.135</v>
+        <v>136</v>
+      </c>
+      <c r="B102" s="282">
+        <v>0</v>
       </c>
       <c r="C102" t="s">
         <v>85</v>
       </c>
-      <c r="D102" t="s">
+    </row>
+    <row r="103" spans="1:11">
+      <c r="A103" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="B103" s="282">
+        <v>-1.135</v>
+      </c>
+      <c r="C103" t="s">
+        <v>85</v>
+      </c>
+      <c r="D103" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="104" spans="1:11">
-      <c r="A104" s="111" t="s">
+    <row r="105" spans="1:11">
+      <c r="A105" s="111" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="105" spans="1:11">
-      <c r="A105" s="334" t="s">
+    <row r="106" spans="1:11">
+      <c r="A106" s="333" t="s">
         <v>394</v>
       </c>
-      <c r="B105" s="335">
+      <c r="B106" s="334">
         <f>'Blade Data'!R32*B10+E8</f>
         <v>101319.14928558786</v>
       </c>
-      <c r="C105" t="s">
+      <c r="C106" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="106" spans="1:11">
-      <c r="A106" s="334" t="s">
+    <row r="107" spans="1:11">
+      <c r="A107" s="333" t="s">
         <v>395</v>
       </c>
-      <c r="B106" s="335">
+      <c r="B107" s="334">
         <f>E5+E6+E7</f>
         <v>132597.74759930788</v>
       </c>
-      <c r="C106" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11">
-      <c r="A107" s="334" t="s">
-        <v>396</v>
-      </c>
-      <c r="B107" s="335">
-        <f>B105+B106</f>
-        <v>233916.89688489574</v>
-      </c>
       <c r="C107" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="108" spans="1:11">
-      <c r="A108" s="18" t="s">
+      <c r="A108" s="333" t="s">
+        <v>396</v>
+      </c>
+      <c r="B108" s="334">
+        <f>B106+B107</f>
+        <v>233916.89688489574</v>
+      </c>
+      <c r="C108" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11">
+      <c r="A109" s="18" t="s">
         <v>398</v>
       </c>
-      <c r="B108" s="335">
+      <c r="B109" s="334">
         <f>GECtwrdata!O26</f>
         <v>336721.06544120744</v>
       </c>
-      <c r="C108" t="s">
+      <c r="C109" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="109" spans="1:11">
-      <c r="A109" t="s">
+    <row r="110" spans="1:11">
+      <c r="A110" t="s">
         <v>348</v>
       </c>
-      <c r="H109" t="s">
+      <c r="H110" t="s">
         <v>320</v>
       </c>
-      <c r="I109" s="183"/>
-      <c r="J109" s="183"/>
-    </row>
-    <row r="110" spans="1:11" ht="14.25">
-      <c r="A110" s="184"/>
-      <c r="B110" s="185"/>
-      <c r="C110" s="186" t="s">
+      <c r="I110" s="183"/>
+      <c r="J110" s="183"/>
+    </row>
+    <row r="111" spans="1:11" ht="14.25">
+      <c r="A111" s="184"/>
+      <c r="B111" s="185"/>
+      <c r="C111" s="186" t="s">
         <v>321</v>
       </c>
-      <c r="D110" s="187"/>
-      <c r="E110" s="185"/>
-      <c r="F110" s="188" t="s">
+      <c r="D111" s="187"/>
+      <c r="E111" s="185"/>
+      <c r="F111" s="188" t="s">
         <v>322</v>
       </c>
-      <c r="G110" s="189"/>
-      <c r="H110" s="184"/>
-      <c r="I110" s="190" t="s">
+      <c r="G111" s="189"/>
+      <c r="H111" s="184"/>
+      <c r="I111" s="190" t="s">
         <v>333</v>
       </c>
-      <c r="J110" s="190" t="s">
+      <c r="J111" s="190" t="s">
         <v>334</v>
       </c>
-      <c r="K110" s="191" t="s">
+      <c r="K111" s="191" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="111" spans="1:11" ht="13.5">
-      <c r="A111" s="192" t="s">
+    <row r="112" spans="1:11" ht="13.5">
+      <c r="A112" s="192" t="s">
         <v>87</v>
       </c>
-      <c r="B111" s="176" t="s">
+      <c r="B112" s="176" t="s">
         <v>336</v>
       </c>
-      <c r="C111" s="176" t="s">
+      <c r="C112" s="176" t="s">
         <v>337</v>
       </c>
-      <c r="D111" s="177" t="s">
+      <c r="D112" s="177" t="s">
         <v>338</v>
       </c>
-      <c r="E111" s="177" t="s">
+      <c r="E112" s="177" t="s">
         <v>339</v>
       </c>
-      <c r="F111" s="176" t="s">
+      <c r="F112" s="176" t="s">
         <v>340</v>
       </c>
-      <c r="G111" s="193" t="s">
+      <c r="G112" s="193" t="s">
         <v>341</v>
       </c>
-      <c r="H111" s="192" t="s">
+      <c r="H112" s="192" t="s">
         <v>87</v>
       </c>
-      <c r="I111" s="176" t="s">
+      <c r="I112" s="176" t="s">
         <v>342</v>
       </c>
-      <c r="J111" s="176" t="s">
+      <c r="J112" s="176" t="s">
         <v>342</v>
       </c>
-      <c r="K111" s="194" t="s">
+      <c r="K112" s="194" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="112" spans="1:11" ht="12">
-      <c r="A112" s="284">
+    <row r="113" spans="1:13" ht="12">
+      <c r="A113" s="283">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="B112" s="285">
+      <c r="B113" s="284">
         <v>1348.87465938283</v>
       </c>
-      <c r="C112" s="286">
+      <c r="C113" s="285">
         <v>13403574.332548277</v>
       </c>
-      <c r="D112" s="287">
+      <c r="D113" s="286">
         <v>3620</v>
       </c>
-      <c r="E112" s="288">
+      <c r="E113" s="287">
         <v>3620</v>
       </c>
-      <c r="F112" s="286">
+      <c r="F113" s="285">
         <v>13403574.332548277</v>
       </c>
-      <c r="G112" s="289">
+      <c r="G113" s="288">
         <v>3620</v>
       </c>
-      <c r="H112" s="290">
+      <c r="H113" s="289">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="I112" s="291">
+      <c r="I113" s="290">
         <v>2.7007721300201633E-4</v>
       </c>
-      <c r="J112" s="291">
+      <c r="J113" s="290">
         <v>2.7007721300201633E-4</v>
       </c>
-      <c r="K112" s="292">
+      <c r="K113" s="291">
         <v>2.7007721300201633E-4</v>
       </c>
     </row>
-    <row r="113" spans="1:13" ht="12">
-      <c r="A113" s="293">
+    <row r="114" spans="1:13" ht="12">
+      <c r="A114" s="292">
         <v>0.25</v>
       </c>
-      <c r="B113" s="285">
+      <c r="B114" s="284">
         <v>630.2384589044766</v>
       </c>
-      <c r="C113" s="286">
+      <c r="C114" s="285">
         <v>8362000</v>
       </c>
-      <c r="D113" s="287">
+      <c r="D114" s="286">
         <v>3620</v>
       </c>
-      <c r="E113" s="288">
+      <c r="E114" s="287">
         <v>3886.2892744173614</v>
       </c>
-      <c r="F113" s="286">
+      <c r="F114" s="285">
         <v>1457409.4413835965</v>
       </c>
-      <c r="G113" s="289">
+      <c r="G114" s="288">
         <v>952.22125095074227</v>
       </c>
-      <c r="H113" s="294">
+      <c r="H114" s="293">
         <v>0.25</v>
       </c>
-      <c r="I113" s="286">
+      <c r="I114" s="285">
         <v>4.329107868930878E-4</v>
       </c>
-      <c r="J113" s="286">
+      <c r="J114" s="285">
         <v>4.6475595245364283E-4</v>
       </c>
-      <c r="K113" s="295">
+      <c r="K114" s="294">
         <v>6.5336563899760921E-4</v>
       </c>
     </row>
-    <row r="114" spans="1:13" ht="12">
-      <c r="A114" s="293">
+    <row r="115" spans="1:13" ht="12">
+      <c r="A115" s="292">
         <v>0.5</v>
       </c>
-      <c r="B114" s="285">
+      <c r="B115" s="284">
         <v>355.98755758790423</v>
       </c>
-      <c r="C114" s="286">
+      <c r="C115" s="285">
         <v>3683800</v>
       </c>
-      <c r="D114" s="287">
+      <c r="D115" s="286">
         <v>3620</v>
       </c>
-      <c r="E114" s="288">
+      <c r="E115" s="287">
         <v>3790.2346685209886</v>
       </c>
-      <c r="F114" s="286">
+      <c r="F115" s="285">
         <v>471021.474559661</v>
       </c>
-      <c r="G114" s="289">
+      <c r="G115" s="288">
         <v>952.22125095074227</v>
       </c>
-      <c r="H114" s="294">
+      <c r="H115" s="293">
         <v>0.5</v>
       </c>
-      <c r="I114" s="286">
+      <c r="I115" s="285">
         <v>9.8268092730332819E-4</v>
       </c>
-      <c r="J114" s="286">
+      <c r="J115" s="285">
         <v>1.0288926294915546E-3</v>
       </c>
-      <c r="K114" s="295">
+      <c r="K115" s="294">
         <v>2.0216089974261484E-3</v>
       </c>
     </row>
-    <row r="115" spans="1:13" ht="12">
-      <c r="A115" s="296">
+    <row r="116" spans="1:13" ht="12">
+      <c r="A116" s="295">
         <v>0.75</v>
       </c>
-      <c r="B115" s="297">
+      <c r="B116" s="296">
         <v>216.65259804245323</v>
       </c>
-      <c r="C115" s="298">
+      <c r="C116" s="297">
         <v>933380</v>
       </c>
-      <c r="D115" s="299">
+      <c r="D116" s="298">
         <v>3620</v>
       </c>
-      <c r="E115" s="300">
+      <c r="E116" s="299">
         <v>3792.4944639958362</v>
       </c>
-      <c r="F115" s="298">
+      <c r="F116" s="297">
         <v>168325.07803241245</v>
       </c>
-      <c r="G115" s="301">
+      <c r="G116" s="300">
         <v>952.22125095074227</v>
       </c>
-      <c r="H115" s="302">
+      <c r="H116" s="301">
         <v>0.75</v>
       </c>
-      <c r="I115" s="298">
+      <c r="I116" s="297">
         <v>3.8783775096959436E-3</v>
       </c>
-      <c r="J115" s="298">
+      <c r="J116" s="297">
         <v>4.0631837665214988E-3</v>
       </c>
-      <c r="K115" s="303">
+      <c r="K116" s="302">
         <v>5.6570373356213972E-3</v>
       </c>
     </row>
-    <row r="117" spans="1:13">
-      <c r="A117" t="s">
+    <row r="118" spans="1:13">
+      <c r="A118" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="118" spans="1:13" ht="13.5">
-      <c r="A118" s="184"/>
-      <c r="B118" s="188" t="s">
+    <row r="119" spans="1:13" ht="13.5">
+      <c r="A119" s="184"/>
+      <c r="B119" s="188" t="s">
         <v>88</v>
       </c>
-      <c r="C118" s="188" t="s">
+      <c r="C119" s="188" t="s">
         <v>323</v>
       </c>
-      <c r="D118" s="188" t="s">
+      <c r="D119" s="188" t="s">
         <v>89</v>
       </c>
-      <c r="E118" s="195" t="s">
+      <c r="E119" s="195" t="s">
         <v>324</v>
       </c>
-      <c r="F118" s="188" t="s">
+      <c r="F119" s="188" t="s">
         <v>325</v>
       </c>
-      <c r="G118" s="188" t="s">
+      <c r="G119" s="188" t="s">
         <v>326</v>
       </c>
-      <c r="H118" s="188" t="s">
+      <c r="H119" s="188" t="s">
         <v>327</v>
       </c>
-      <c r="I118" s="188" t="s">
+      <c r="I119" s="188" t="s">
         <v>343</v>
       </c>
-      <c r="J118" s="188" t="s">
+      <c r="J119" s="188" t="s">
         <v>344</v>
       </c>
-      <c r="K118" s="188" t="s">
+      <c r="K119" s="188" t="s">
         <v>113</v>
       </c>
-      <c r="L118" s="188" t="s">
+      <c r="L119" s="188" t="s">
         <v>112</v>
       </c>
-      <c r="M118" s="196" t="s">
+      <c r="M119" s="196" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="119" spans="1:13" ht="13.5">
-      <c r="A119" s="192" t="s">
+    <row r="120" spans="1:13" ht="13.5">
+      <c r="A120" s="192" t="s">
         <v>87</v>
       </c>
-      <c r="B119" s="176" t="s">
+      <c r="B120" s="176" t="s">
         <v>90</v>
       </c>
-      <c r="C119" s="176" t="s">
+      <c r="C120" s="176" t="s">
         <v>328</v>
       </c>
-      <c r="D119" s="176" t="s">
+      <c r="D120" s="176" t="s">
         <v>329</v>
       </c>
-      <c r="E119" s="176" t="s">
+      <c r="E120" s="176" t="s">
         <v>330</v>
       </c>
-      <c r="F119" s="176" t="s">
+      <c r="F120" s="176" t="s">
         <v>330</v>
       </c>
-      <c r="G119" s="176" t="s">
+      <c r="G120" s="176" t="s">
         <v>330</v>
       </c>
-      <c r="H119" s="176" t="s">
+      <c r="H120" s="176" t="s">
         <v>331</v>
       </c>
-      <c r="I119" s="176" t="s">
+      <c r="I120" s="176" t="s">
         <v>346</v>
       </c>
-      <c r="J119" s="176" t="s">
+      <c r="J120" s="176" t="s">
         <v>346</v>
       </c>
-      <c r="K119" s="176" t="s">
+      <c r="K120" s="176" t="s">
         <v>332</v>
       </c>
-      <c r="L119" s="176" t="s">
+      <c r="L120" s="176" t="s">
         <v>346</v>
       </c>
-      <c r="M119" s="194" t="s">
+      <c r="M120" s="194" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="120" spans="1:13">
-      <c r="A120" s="304">
+    <row r="121" spans="1:13">
+      <c r="A121" s="303">
         <v>0.05</v>
       </c>
-      <c r="B120" s="305">
+      <c r="B121" s="304">
         <v>2.6729794259588524</v>
       </c>
-      <c r="C120" s="306">
+      <c r="C121" s="305">
         <v>1</v>
       </c>
-      <c r="D120" s="306" t="s">
+      <c r="D121" s="305" t="s">
         <v>378</v>
       </c>
-      <c r="E120" s="347">
+      <c r="E121" s="346">
         <v>0.25</v>
       </c>
-      <c r="F120" s="305">
+      <c r="F121" s="304">
         <v>0.5</v>
       </c>
-      <c r="G120" s="305">
+      <c r="G121" s="304">
         <v>0.5</v>
       </c>
-      <c r="H120" s="308">
+      <c r="H121" s="307">
         <v>2514.2728793945694</v>
       </c>
-      <c r="I120" s="309">
+      <c r="I121" s="308">
         <v>25915847780.81815</v>
       </c>
-      <c r="J120" s="309">
+      <c r="J121" s="308">
         <v>25915847780.81815</v>
       </c>
-      <c r="K120" s="309">
+      <c r="K121" s="308">
         <v>28944438488.483387</v>
       </c>
-      <c r="L120" s="309">
+      <c r="L121" s="308">
         <v>8966505090.0080204</v>
       </c>
-      <c r="M120" s="310">
+      <c r="M121" s="309">
         <v>4490.9882032550131</v>
       </c>
     </row>
-    <row r="121" spans="1:13">
-      <c r="A121" s="284">
+    <row r="122" spans="1:13">
+      <c r="A122" s="283">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="B121" s="311">
+      <c r="B122" s="310">
         <v>2.6729794259588524</v>
       </c>
-      <c r="C121" s="312">
+      <c r="C122" s="311">
         <v>1</v>
       </c>
-      <c r="D121" s="312" t="s">
+      <c r="D122" s="311" t="s">
         <v>378</v>
       </c>
-      <c r="E121" s="347">
+      <c r="E122" s="346">
         <v>0.25</v>
       </c>
-      <c r="F121" s="311">
+      <c r="F122" s="310">
         <v>0.5</v>
       </c>
-      <c r="G121" s="311">
+      <c r="G122" s="310">
         <v>0.5</v>
       </c>
-      <c r="H121" s="313">
+      <c r="H122" s="312">
         <v>378.46476436784059</v>
       </c>
-      <c r="I121" s="314">
+      <c r="I122" s="313">
         <v>4995749732.6391211</v>
       </c>
-      <c r="J121" s="314">
+      <c r="J122" s="313">
         <v>4995749732.6391211</v>
       </c>
-      <c r="K121" s="314">
+      <c r="K122" s="313">
         <v>5635228554.6241884</v>
       </c>
-      <c r="L121" s="314">
+      <c r="L122" s="313">
         <v>1745703465.4624267</v>
       </c>
-      <c r="M121" s="315">
+      <c r="M122" s="314">
         <v>676.01285685941104</v>
       </c>
     </row>
-    <row r="122" spans="1:13">
-      <c r="A122" s="293">
+    <row r="123" spans="1:13">
+      <c r="A123" s="292">
         <v>0.25</v>
       </c>
-      <c r="B122" s="311">
+      <c r="B123" s="310">
         <v>3.9601219202438407</v>
       </c>
-      <c r="C122" s="312">
+      <c r="C123" s="311">
         <v>0.33</v>
       </c>
-      <c r="D122" s="312">
+      <c r="D123" s="311">
         <v>4.2105075887228658</v>
       </c>
-      <c r="E122" s="307">
+      <c r="E123" s="306">
         <v>0.34</v>
       </c>
-      <c r="F122" s="311">
+      <c r="F123" s="310">
         <v>0.40616627838474717</v>
       </c>
-      <c r="G122" s="311">
+      <c r="G123" s="310">
         <v>0.32779911806110856</v>
       </c>
-      <c r="H122" s="313">
+      <c r="H123" s="312">
         <v>405.46483412508888</v>
       </c>
-      <c r="I122" s="314">
+      <c r="I123" s="313">
         <v>1456208344.9209256</v>
       </c>
-      <c r="J122" s="314">
+      <c r="J123" s="313">
         <v>3906180885.0486031</v>
       </c>
-      <c r="K122" s="316">
+      <c r="K123" s="315">
         <v>5337777876.7804203</v>
       </c>
-      <c r="L122" s="316">
+      <c r="L123" s="315">
         <v>63313292.734555714</v>
       </c>
-      <c r="M122" s="317">
+      <c r="M123" s="316">
         <v>354.86371029702843</v>
       </c>
     </row>
-    <row r="123" spans="1:13">
-      <c r="A123" s="293">
+    <row r="124" spans="1:13">
+      <c r="A124" s="292">
         <v>0.5</v>
       </c>
-      <c r="B123" s="311">
+      <c r="B124" s="310">
         <v>3.0363220726441456</v>
       </c>
-      <c r="C123" s="312">
+      <c r="C124" s="311">
         <v>0.24</v>
       </c>
-      <c r="D123" s="312">
+      <c r="D124" s="311">
         <v>8.8087131153173708</v>
       </c>
-      <c r="E123" s="307">
+      <c r="E124" s="306">
         <v>0.31</v>
       </c>
-      <c r="F123" s="311">
+      <c r="F124" s="310">
         <v>0.37631882650896054</v>
       </c>
-      <c r="G123" s="311">
+      <c r="G124" s="310">
         <v>0.32332040963124214</v>
       </c>
-      <c r="H123" s="313">
+      <c r="H124" s="312">
         <v>319.61717485509803</v>
       </c>
-      <c r="I123" s="314">
+      <c r="I124" s="313">
         <v>362359217.52206236</v>
       </c>
-      <c r="J123" s="314">
+      <c r="J124" s="313">
         <v>988006806.05798388</v>
       </c>
-      <c r="K123" s="316">
+      <c r="K124" s="315">
         <v>4226064069.1209292</v>
       </c>
-      <c r="L123" s="316">
+      <c r="L124" s="315">
         <v>25481782.397363089</v>
       </c>
-      <c r="M123" s="317">
+      <c r="M124" s="316">
         <v>117.08485674451724</v>
       </c>
     </row>
-    <row r="124" spans="1:13">
-      <c r="A124" s="293">
+    <row r="125" spans="1:13">
+      <c r="A125" s="292">
         <v>0.75</v>
       </c>
-      <c r="B124" s="311">
+      <c r="B125" s="310">
         <v>2.1125222250444504</v>
       </c>
-      <c r="C124" s="312">
+      <c r="C125" s="311">
         <v>0.21</v>
       </c>
-      <c r="D124" s="312">
+      <c r="D125" s="311">
         <v>8.3824243344618559</v>
       </c>
-      <c r="E124" s="307">
+      <c r="E125" s="306">
         <v>0.28000000000000003</v>
       </c>
-      <c r="F124" s="311">
+      <c r="F125" s="310">
         <v>0.38906004871333283</v>
       </c>
-      <c r="G124" s="311">
+      <c r="G125" s="310">
         <v>0.32617688943581796</v>
       </c>
-      <c r="H124" s="313">
+      <c r="H125" s="312">
         <v>139.35911643347461</v>
       </c>
-      <c r="I124" s="314">
+      <c r="I125" s="313">
         <v>55876712.03553623</v>
       </c>
-      <c r="J124" s="314">
+      <c r="J125" s="313">
         <v>242833001.70445472</v>
       </c>
-      <c r="K124" s="316">
+      <c r="K125" s="315">
         <v>1782574562.629951</v>
       </c>
-      <c r="L124" s="316">
+      <c r="L125" s="315">
         <v>5108455.3661101973</v>
       </c>
-      <c r="M124" s="317">
+      <c r="M125" s="316">
         <v>25.985344618591107</v>
       </c>
     </row>
-    <row r="125" spans="1:13">
-      <c r="A125" s="318">
+    <row r="126" spans="1:13">
+      <c r="A126" s="317">
         <v>1</v>
       </c>
-      <c r="B125" s="319">
+      <c r="B126" s="318">
         <v>1.2811785623571248</v>
       </c>
-      <c r="C125" s="320">
+      <c r="C126" s="319">
         <v>0.16</v>
       </c>
-      <c r="D125" s="320">
-        <v>0</v>
-      </c>
-      <c r="E125" s="319">
+      <c r="D126" s="319">
+        <v>0</v>
+      </c>
+      <c r="E126" s="318">
         <v>0.25</v>
       </c>
-      <c r="F125" s="319">
+      <c r="F126" s="318">
         <v>0.49249999999999999</v>
       </c>
-      <c r="G125" s="319">
+      <c r="G126" s="318">
         <v>0.35780000000000001</v>
       </c>
-      <c r="H125" s="321">
+      <c r="H126" s="320">
         <v>16.681593270259139</v>
       </c>
-      <c r="I125" s="322">
+      <c r="I126" s="321">
         <v>691951.30059363274</v>
       </c>
-      <c r="J125" s="322">
+      <c r="J126" s="321">
         <v>23689722.908686247</v>
       </c>
-      <c r="K125" s="323">
+      <c r="K126" s="322">
         <v>175855044.44087556</v>
       </c>
-      <c r="L125" s="323">
+      <c r="L126" s="322">
         <v>543766.85724921024</v>
       </c>
-      <c r="M125" s="324">
+      <c r="M126" s="323">
         <v>2.3638269206409808</v>
       </c>
     </row>
-    <row r="127" spans="1:13">
-      <c r="B127" s="18" t="s">
+    <row r="128" spans="1:13">
+      <c r="B128" s="18" t="s">
         <v>350</v>
       </c>
-      <c r="C127" s="199"/>
-      <c r="D127" t="s">
+      <c r="C128" s="199"/>
+      <c r="D128" t="s">
         <v>351</v>
       </c>
-      <c r="H127" t="s">
+      <c r="H128" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
+      <c r="A130" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
+      <c r="A131" s="184"/>
+      <c r="B131" s="230" t="s">
+        <v>364</v>
+      </c>
+      <c r="C131" s="353" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="129" spans="1:7">
-      <c r="A129" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7">
-      <c r="A130" s="184"/>
-      <c r="B130" s="230" t="s">
-        <v>364</v>
-      </c>
-      <c r="C130" s="355" t="s">
-        <v>411</v>
-      </c>
-      <c r="D130" s="189"/>
-    </row>
-    <row r="131" spans="1:7" ht="12">
-      <c r="A131" s="192" t="s">
+      <c r="D131" s="189"/>
+    </row>
+    <row r="132" spans="1:7" ht="12">
+      <c r="A132" s="192" t="s">
         <v>87</v>
       </c>
-      <c r="B131" s="233" t="s">
+      <c r="B132" s="233" t="s">
         <v>367</v>
       </c>
-      <c r="C131" s="225"/>
-      <c r="D131" s="226"/>
-    </row>
-    <row r="132" spans="1:7">
-      <c r="A132" s="236">
-        <f t="shared" ref="A132:A137" si="0">A120</f>
+      <c r="C132" s="225"/>
+      <c r="D132" s="226"/>
+    </row>
+    <row r="133" spans="1:7">
+      <c r="A133" s="236">
+        <f t="shared" ref="A133:A138" si="0">A121</f>
         <v>0.05</v>
       </c>
-      <c r="B132" s="256">
+      <c r="B133" s="256">
         <v>10.5</v>
       </c>
-      <c r="C132" s="325"/>
-      <c r="D132" s="343">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7">
-      <c r="A133" s="241">
-        <f t="shared" si="0"/>
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="B133" s="257">
-        <v>10.5</v>
-      </c>
-      <c r="C133" s="326"/>
-      <c r="D133" s="345">
+      <c r="C133" s="324"/>
+      <c r="D133" s="342">
         <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:7">
       <c r="A134" s="241">
         <f t="shared" si="0"/>
-        <v>0.25</v>
-      </c>
-      <c r="B134" s="328">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="B134" s="257">
         <v>10.5</v>
       </c>
-      <c r="C134" s="356"/>
-      <c r="D134" s="345">
-        <v>2</v>
+      <c r="C134" s="325"/>
+      <c r="D134" s="344">
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:7">
       <c r="A135" s="241">
         <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="B135" s="328">
-        <v>2.5</v>
-      </c>
-      <c r="C135" s="326"/>
-      <c r="D135" s="345">
-        <v>2.5</v>
+        <v>0.25</v>
+      </c>
+      <c r="B135" s="327">
+        <v>10.5</v>
+      </c>
+      <c r="C135" s="354"/>
+      <c r="D135" s="344">
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:7">
       <c r="A136" s="241">
         <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="B136" s="327">
+        <v>2.5</v>
+      </c>
+      <c r="C136" s="325"/>
+      <c r="D136" s="344">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
+      <c r="A137" s="241">
+        <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
-      <c r="B136" s="328">
-        <v>0</v>
-      </c>
-      <c r="C136" s="326"/>
-      <c r="D136" s="345">
+      <c r="B137" s="327">
+        <v>0</v>
+      </c>
+      <c r="C137" s="325"/>
+      <c r="D137" s="344">
         <v>3</v>
       </c>
     </row>
-    <row r="137" spans="1:7">
-      <c r="A137" s="247">
+    <row r="138" spans="1:7">
+      <c r="A138" s="247">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="B137" s="329">
+      <c r="B138" s="328">
         <v>-0.6</v>
       </c>
-      <c r="C137" s="327"/>
-      <c r="D137" s="357">
+      <c r="C138" s="326"/>
+      <c r="D138" s="355">
         <v>4</v>
       </c>
     </row>
-    <row r="139" spans="1:7" ht="12">
-      <c r="A139" s="338" t="s">
+    <row r="140" spans="1:7" ht="12">
+      <c r="A140" s="337" t="s">
         <v>400</v>
       </c>
-      <c r="B139" s="339" t="s">
+      <c r="B140" s="338" t="s">
         <v>401</v>
       </c>
-      <c r="C139" s="340"/>
-    </row>
-    <row r="140" spans="1:7">
-      <c r="A140" s="341">
+      <c r="C140" s="339"/>
+    </row>
+    <row r="141" spans="1:7">
+      <c r="A141" s="340">
         <v>1</v>
       </c>
-      <c r="B140" s="342"/>
-      <c r="C140" s="343" t="s">
+      <c r="B141" s="341"/>
+      <c r="C141" s="342" t="s">
         <v>379</v>
       </c>
-      <c r="E140" s="358"/>
-    </row>
-    <row r="141" spans="1:7">
-      <c r="A141" s="341">
+      <c r="E141" s="356"/>
+    </row>
+    <row r="142" spans="1:7">
+      <c r="A142" s="340">
         <v>2</v>
       </c>
-      <c r="B141" s="344"/>
-      <c r="C141" s="345" t="s">
+      <c r="B142" s="343"/>
+      <c r="C142" s="344" t="s">
+        <v>411</v>
+      </c>
+      <c r="E142" s="347" t="s">
         <v>412</v>
       </c>
-      <c r="E141" s="349" t="s">
+      <c r="F142" s="348"/>
+      <c r="G142" s="348"/>
+    </row>
+    <row r="143" spans="1:7">
+      <c r="A143" s="340">
+        <v>3</v>
+      </c>
+      <c r="B143" s="343"/>
+      <c r="C143" s="344" t="s">
         <v>413</v>
       </c>
-      <c r="F141" s="350"/>
-      <c r="G141" s="350"/>
-    </row>
-    <row r="142" spans="1:7">
-      <c r="A142" s="341">
-        <v>3</v>
-      </c>
-      <c r="B142" s="344"/>
-      <c r="C142" s="345" t="s">
+      <c r="E143" s="347" t="s">
+        <v>412</v>
+      </c>
+      <c r="F143" s="348"/>
+      <c r="G143" s="348"/>
+    </row>
+    <row r="144" spans="1:7">
+      <c r="A144" s="345">
+        <v>4</v>
+      </c>
+      <c r="B144" s="357"/>
+      <c r="C144" s="355" t="s">
         <v>414</v>
       </c>
-      <c r="E142" s="349" t="s">
-        <v>413</v>
-      </c>
-      <c r="F142" s="350"/>
-      <c r="G142" s="350"/>
-    </row>
-    <row r="143" spans="1:7">
-      <c r="A143" s="346">
-        <v>4</v>
-      </c>
-      <c r="B143" s="359"/>
-      <c r="C143" s="357" t="s">
+      <c r="E144" s="347" t="s">
+        <v>412</v>
+      </c>
+      <c r="F144" s="348"/>
+      <c r="G144" s="348"/>
+    </row>
+    <row r="145" spans="1:6" ht="12" thickBot="1"/>
+    <row r="146" spans="1:6" ht="12" thickBot="1">
+      <c r="A146" s="381" t="s">
+        <v>402</v>
+      </c>
+      <c r="B146" s="383"/>
+      <c r="C146" s="384"/>
+      <c r="E146" s="347" t="s">
+        <v>403</v>
+      </c>
+      <c r="F146" s="348"/>
+    </row>
+    <row r="147" spans="1:6" ht="12" thickBot="1">
+      <c r="A147" s="358" t="s">
+        <v>35</v>
+      </c>
+      <c r="B147" s="359" t="s">
+        <v>36</v>
+      </c>
+      <c r="C147" s="359" t="s">
+        <v>37</v>
+      </c>
+      <c r="E147" s="347" t="s">
+        <v>403</v>
+      </c>
+      <c r="F147" s="348"/>
+    </row>
+    <row r="148" spans="1:6" ht="12" thickBot="1">
+      <c r="A148" s="360">
+        <v>3.882E-2</v>
+      </c>
+      <c r="B148" s="361">
+        <v>3.882E-2</v>
+      </c>
+      <c r="C148" s="362">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="E148" s="347" t="s">
+        <v>403</v>
+      </c>
+      <c r="F148" s="348"/>
+    </row>
+    <row r="149" spans="1:6" ht="12" thickBot="1"/>
+    <row r="150" spans="1:6" ht="12" thickBot="1">
+      <c r="A150" s="381" t="s">
         <v>415</v>
       </c>
-      <c r="E143" s="349" t="s">
-        <v>413</v>
-      </c>
-      <c r="F143" s="350"/>
-      <c r="G143" s="350"/>
-    </row>
-    <row r="144" spans="1:7" ht="12" thickBot="1"/>
-    <row r="145" spans="1:6" ht="12" thickBot="1">
-      <c r="A145" s="380" t="s">
-        <v>402</v>
-      </c>
-      <c r="B145" s="382"/>
-      <c r="C145" s="383"/>
-      <c r="E145" s="349" t="s">
-        <v>404</v>
-      </c>
-      <c r="F145" s="350"/>
-    </row>
-    <row r="146" spans="1:6" ht="12" thickBot="1">
-      <c r="A146" s="360" t="s">
-        <v>35</v>
-      </c>
-      <c r="B146" s="361" t="s">
-        <v>36</v>
-      </c>
-      <c r="C146" s="361" t="s">
-        <v>37</v>
-      </c>
-      <c r="E146" s="349" t="s">
-        <v>404</v>
-      </c>
-      <c r="F146" s="350"/>
-    </row>
-    <row r="147" spans="1:6" ht="12" thickBot="1">
-      <c r="A147" s="362">
-        <v>3.882E-2</v>
-      </c>
-      <c r="B147" s="363">
-        <v>3.882E-2</v>
-      </c>
-      <c r="C147" s="364">
-        <v>5.8999999999999997E-2</v>
-      </c>
-      <c r="E147" s="349" t="s">
-        <v>404</v>
-      </c>
-      <c r="F147" s="350"/>
-    </row>
-    <row r="148" spans="1:6" ht="12" thickBot="1"/>
-    <row r="149" spans="1:6" ht="12" thickBot="1">
-      <c r="A149" s="380" t="s">
-        <v>416</v>
-      </c>
-      <c r="B149" s="381"/>
-      <c r="C149" s="365"/>
-      <c r="E149" s="349" t="s">
-        <v>404</v>
-      </c>
-      <c r="F149" s="350"/>
-    </row>
-    <row r="150" spans="1:6">
-      <c r="A150" s="366" t="s">
+      <c r="B150" s="382"/>
+      <c r="C150" s="363"/>
+      <c r="E150" s="347" t="s">
+        <v>403</v>
+      </c>
+      <c r="F150" s="348"/>
+    </row>
+    <row r="151" spans="1:6">
+      <c r="A151" s="364" t="s">
         <v>50</v>
       </c>
-      <c r="B150" s="367">
+      <c r="B151" s="365">
         <v>3.4349999999999999E-2</v>
       </c>
-      <c r="C150" s="368"/>
-      <c r="E150" s="349" t="s">
-        <v>404</v>
-      </c>
-      <c r="F150" s="350"/>
-    </row>
-    <row r="151" spans="1:6">
-      <c r="A151" s="369" t="s">
+      <c r="C151" s="366"/>
+      <c r="E151" s="347" t="s">
+        <v>403</v>
+      </c>
+      <c r="F151" s="348"/>
+    </row>
+    <row r="152" spans="1:6">
+      <c r="A152" s="367" t="s">
         <v>51</v>
       </c>
-      <c r="B151" s="370">
+      <c r="B152" s="368">
         <v>3.4349999999999999E-2</v>
       </c>
-      <c r="C151" s="371"/>
-      <c r="E151" s="349" t="s">
-        <v>404</v>
-      </c>
-      <c r="F151" s="350"/>
-    </row>
-    <row r="152" spans="1:6">
-      <c r="A152" s="372" t="s">
+      <c r="C152" s="369"/>
+      <c r="E152" s="347" t="s">
+        <v>403</v>
+      </c>
+      <c r="F152" s="348"/>
+    </row>
+    <row r="153" spans="1:6">
+      <c r="A153" s="370" t="s">
         <v>52</v>
       </c>
-      <c r="B152" s="370">
+      <c r="B153" s="368">
         <v>3.4349999999999999E-2</v>
       </c>
-      <c r="E152" s="349" t="s">
-        <v>404</v>
-      </c>
-      <c r="F152" s="350"/>
-    </row>
-    <row r="153" spans="1:6" ht="12" thickBot="1">
-      <c r="A153" s="373" t="s">
+      <c r="E153" s="347" t="s">
+        <v>403</v>
+      </c>
+      <c r="F153" s="348"/>
+    </row>
+    <row r="154" spans="1:6" ht="12" thickBot="1">
+      <c r="A154" s="371" t="s">
         <v>53</v>
       </c>
-      <c r="B153" s="374">
+      <c r="B154" s="372">
         <v>3.4349999999999999E-2</v>
       </c>
-      <c r="E153" s="349" t="s">
-        <v>404</v>
-      </c>
-      <c r="F153" s="350"/>
+      <c r="E154" s="347" t="s">
+        <v>403</v>
+      </c>
+      <c r="F154" s="348"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A149:B149"/>
-    <mergeCell ref="A145:C145"/>
+    <mergeCell ref="A150:B150"/>
+    <mergeCell ref="A146:C146"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="F3:H3"/>
     <mergeCell ref="C1:H1"/>
+    <mergeCell ref="D20:F20"/>
     <mergeCell ref="D19:F19"/>
-    <mergeCell ref="D18:F18"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7539,15 +7561,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W40"/>
+  <dimension ref="A1:W41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="3" width="10.83203125" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.83203125" customWidth="1"/>
     <col min="4" max="4" width="13.83203125" customWidth="1"/>
     <col min="5" max="7" width="14.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="21" width="10.83203125" customWidth="1"/>
@@ -7559,418 +7582,398 @@
         <v>99</v>
       </c>
       <c r="W1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="2" spans="1:23">
       <c r="A2">
-        <f>'Main Page'!B52</f>
+        <f>'Main Page'!B53</f>
         <v>4.95</v>
       </c>
       <c r="W2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="3" spans="1:23">
       <c r="A3" t="str">
-        <f>'Main Page'!C140</f>
+        <f>'Main Page'!C141</f>
         <v>cylinder</v>
       </c>
       <c r="B3" t="str">
-        <f>'Main Page'!C141</f>
+        <f>'Main Page'!C142</f>
         <v>s818_2703.dat</v>
       </c>
       <c r="C3" t="str">
-        <f>'Main Page'!C142</f>
+        <f>'Main Page'!C143</f>
         <v>s825_2103.dat</v>
       </c>
       <c r="D3" t="str">
-        <f>'Main Page'!C143</f>
+        <f>'Main Page'!C144</f>
         <v>s826_1603.dat</v>
       </c>
       <c r="W3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="4" spans="1:23">
       <c r="A4">
-        <f>'Main Page'!A147*100</f>
+        <f>'Main Page'!A148*100</f>
         <v>3.8820000000000001</v>
       </c>
       <c r="B4">
-        <f>'Main Page'!B147*100</f>
+        <f>'Main Page'!B148*100</f>
         <v>3.8820000000000001</v>
       </c>
       <c r="C4" s="103">
-        <f>'Main Page'!C147*100</f>
+        <f>'Main Page'!C148*100</f>
         <v>5.8999999999999995</v>
       </c>
-      <c r="W4" s="375" t="s">
+      <c r="W4" s="373" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
+      <c r="A5" s="374">
+        <v>0.05</v>
+      </c>
+      <c r="B5" s="374">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C5" s="374">
+        <v>0.1</v>
+      </c>
+      <c r="D5" s="374">
+        <v>0.15</v>
+      </c>
+      <c r="E5" s="374">
+        <v>0.2</v>
+      </c>
+      <c r="F5" s="374">
+        <v>0.25</v>
+      </c>
+      <c r="G5" s="374">
+        <v>0.3</v>
+      </c>
+      <c r="H5" s="374">
+        <v>0.35</v>
+      </c>
+      <c r="I5" s="374">
+        <v>0.4</v>
+      </c>
+      <c r="J5" s="374">
+        <v>0.45</v>
+      </c>
+      <c r="K5" s="374">
+        <v>0.5</v>
+      </c>
+      <c r="L5" s="374">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="M5" s="374">
+        <v>0.6</v>
+      </c>
+      <c r="N5" s="374">
+        <v>0.65</v>
+      </c>
+      <c r="O5" s="374">
+        <v>0.7</v>
+      </c>
+      <c r="P5" s="374">
+        <v>0.75</v>
+      </c>
+      <c r="Q5" s="374">
+        <v>0.8</v>
+      </c>
+      <c r="R5" s="374">
+        <v>0.85</v>
+      </c>
+      <c r="S5" s="374">
+        <v>0.9</v>
+      </c>
+      <c r="T5" s="374">
+        <v>0.95</v>
+      </c>
+      <c r="U5" s="374">
+        <v>1</v>
+      </c>
+      <c r="W5" s="373" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="5" spans="1:23">
-      <c r="A5" s="376">
+    <row r="6" spans="1:23">
+      <c r="A6" s="378">
         <v>0.05</v>
       </c>
-      <c r="B5" s="376">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="C5" s="376">
-        <v>0.1</v>
-      </c>
-      <c r="D5" s="376">
-        <v>0.15</v>
-      </c>
-      <c r="E5" s="376">
-        <v>0.2</v>
-      </c>
-      <c r="F5" s="376">
-        <v>0.25</v>
-      </c>
-      <c r="G5" s="376">
-        <v>0.3</v>
-      </c>
-      <c r="H5" s="376">
-        <v>0.35</v>
-      </c>
-      <c r="I5" s="376">
-        <v>0.4</v>
-      </c>
-      <c r="J5" s="376">
-        <v>0.45</v>
-      </c>
-      <c r="K5" s="376">
-        <v>0.5</v>
-      </c>
-      <c r="L5" s="376">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="M5" s="376">
-        <v>0.6</v>
-      </c>
-      <c r="N5" s="376">
-        <v>0.65</v>
-      </c>
-      <c r="O5" s="376">
-        <v>0.7</v>
-      </c>
-      <c r="P5" s="376">
-        <v>0.75</v>
-      </c>
-      <c r="Q5" s="376">
-        <v>0.8</v>
-      </c>
-      <c r="R5" s="376">
-        <v>0.85</v>
-      </c>
-      <c r="S5" s="376">
-        <v>0.9</v>
-      </c>
-      <c r="T5" s="376">
-        <v>0.95</v>
-      </c>
-      <c r="U5" s="376">
+      <c r="B6" s="378">
+        <v>0.11333333333333333</v>
+      </c>
+      <c r="C6" s="378">
+        <v>0.17666666666666664</v>
+      </c>
+      <c r="D6" s="378">
+        <v>0.24</v>
+      </c>
+      <c r="E6" s="378">
+        <v>0.30333333333333329</v>
+      </c>
+      <c r="F6" s="378">
+        <v>0.36666666666666664</v>
+      </c>
+      <c r="G6" s="378">
+        <v>0.43</v>
+      </c>
+      <c r="H6" s="378">
+        <v>0.49333333333333329</v>
+      </c>
+      <c r="I6" s="378">
+        <v>0.55666666666666664</v>
+      </c>
+      <c r="J6" s="378">
+        <v>0.62</v>
+      </c>
+      <c r="K6" s="378">
+        <v>0.68333333333333335</v>
+      </c>
+      <c r="L6" s="378">
+        <v>0.74666666666666659</v>
+      </c>
+      <c r="M6" s="378">
+        <v>0.81</v>
+      </c>
+      <c r="N6" s="378">
+        <v>0.87333333333333341</v>
+      </c>
+      <c r="O6" s="378">
+        <v>0.93666666666666665</v>
+      </c>
+      <c r="P6" s="378">
         <v>1</v>
       </c>
-      <c r="W5" s="375" t="s">
+      <c r="Q6" s="375"/>
+      <c r="W6" s="373" t="s">
         <v>421</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23">
-      <c r="A6" s="398">
-        <v>0.05</v>
-      </c>
-      <c r="B6" s="398">
-        <v>0.11333333333333333</v>
-      </c>
-      <c r="C6" s="398">
-        <v>0.17666666666666664</v>
-      </c>
-      <c r="D6" s="398">
-        <v>0.24</v>
-      </c>
-      <c r="E6" s="398">
-        <v>0.30333333333333329</v>
-      </c>
-      <c r="F6" s="398">
-        <v>0.36666666666666664</v>
-      </c>
-      <c r="G6" s="398">
-        <v>0.43</v>
-      </c>
-      <c r="H6" s="398">
-        <v>0.49333333333333329</v>
-      </c>
-      <c r="I6" s="398">
-        <v>0.55666666666666664</v>
-      </c>
-      <c r="J6" s="398">
-        <v>0.62</v>
-      </c>
-      <c r="K6" s="398">
-        <v>0.68333333333333335</v>
-      </c>
-      <c r="L6" s="398">
-        <v>0.74666666666666659</v>
-      </c>
-      <c r="M6" s="398">
-        <v>0.81</v>
-      </c>
-      <c r="N6" s="398">
-        <v>0.87333333333333341</v>
-      </c>
-      <c r="O6" s="398">
-        <v>0.93666666666666665</v>
-      </c>
-      <c r="P6" s="398">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="377"/>
-      <c r="W6" s="375" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="7" spans="1:23">
       <c r="A7">
-        <f>'Main Page'!B33</f>
+        <f>'Main Page'!B34</f>
         <v>2.6</v>
       </c>
-      <c r="B7" s="377"/>
-      <c r="C7" s="377"/>
-      <c r="D7" s="377"/>
-      <c r="E7" s="377"/>
-      <c r="F7" s="377"/>
-      <c r="G7" s="377"/>
-      <c r="H7" s="377"/>
-      <c r="I7" s="377"/>
-      <c r="J7" s="377"/>
-      <c r="K7" s="377"/>
-      <c r="L7" s="377"/>
-      <c r="M7" s="377"/>
-      <c r="N7" s="377"/>
-      <c r="O7" s="377"/>
-      <c r="P7" s="377"/>
+      <c r="B7" s="375"/>
+      <c r="C7" s="375"/>
+      <c r="D7" s="375"/>
+      <c r="E7" s="375"/>
+      <c r="F7" s="375"/>
+      <c r="G7" s="375"/>
+      <c r="H7" s="375"/>
+      <c r="I7" s="375"/>
+      <c r="J7" s="375"/>
+      <c r="K7" s="375"/>
+      <c r="L7" s="375"/>
+      <c r="M7" s="375"/>
+      <c r="N7" s="375"/>
+      <c r="O7" s="375"/>
+      <c r="P7" s="375"/>
       <c r="Q7" s="101"/>
-      <c r="W7" s="375" t="s">
-        <v>423</v>
+      <c r="W7" s="373" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="8" spans="1:23">
       <c r="A8">
-        <f>'Main Page'!B34</f>
+        <f>'Main Page'!B35</f>
         <v>90</v>
       </c>
-      <c r="B8" s="377"/>
-      <c r="C8" s="377"/>
-      <c r="D8" s="377"/>
-      <c r="E8" s="377"/>
-      <c r="F8" s="377"/>
-      <c r="G8" s="377"/>
-      <c r="H8" s="377"/>
-      <c r="I8" s="377"/>
-      <c r="J8" s="377"/>
-      <c r="K8" s="377"/>
-      <c r="L8" s="377"/>
-      <c r="M8" s="377"/>
-      <c r="N8" s="377"/>
-      <c r="O8" s="377"/>
-      <c r="P8" s="377"/>
+      <c r="B8" s="375"/>
+      <c r="C8" s="375"/>
+      <c r="D8" s="375"/>
+      <c r="E8" s="375"/>
+      <c r="F8" s="375"/>
+      <c r="G8" s="375"/>
+      <c r="H8" s="375"/>
+      <c r="I8" s="375"/>
+      <c r="J8" s="375"/>
+      <c r="K8" s="375"/>
+      <c r="L8" s="375"/>
+      <c r="M8" s="375"/>
+      <c r="N8" s="375"/>
+      <c r="O8" s="375"/>
+      <c r="P8" s="375"/>
       <c r="Q8" s="101"/>
-      <c r="W8" s="375" t="s">
-        <v>424</v>
+      <c r="W8" s="373" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="9" spans="1:23">
       <c r="A9">
-        <f>'Main Page'!B16</f>
+        <f>'Main Page'!B17</f>
         <v>1.2250000000000001</v>
       </c>
-      <c r="B9" s="377"/>
-      <c r="C9" s="377"/>
-      <c r="D9" s="377"/>
-      <c r="E9" s="377"/>
-      <c r="F9" s="377"/>
-      <c r="G9" s="377"/>
-      <c r="H9" s="377"/>
-      <c r="I9" s="377"/>
-      <c r="J9" s="377"/>
-      <c r="K9" s="377"/>
-      <c r="L9" s="377"/>
-      <c r="M9" s="377"/>
-      <c r="N9" s="377"/>
-      <c r="O9" s="377"/>
-      <c r="P9" s="377"/>
+      <c r="B9" s="375"/>
+      <c r="C9" s="375"/>
+      <c r="D9" s="375"/>
+      <c r="E9" s="375"/>
+      <c r="F9" s="375"/>
+      <c r="G9" s="375"/>
+      <c r="H9" s="375"/>
+      <c r="I9" s="375"/>
+      <c r="J9" s="375"/>
+      <c r="K9" s="375"/>
+      <c r="L9" s="375"/>
+      <c r="M9" s="375"/>
+      <c r="N9" s="375"/>
+      <c r="O9" s="375"/>
+      <c r="P9" s="375"/>
       <c r="Q9" s="101"/>
-      <c r="W9" s="375" t="s">
-        <v>425</v>
+      <c r="W9" s="373" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="10" spans="1:23">
       <c r="A10">
-        <f>'Main Page'!B38</f>
+        <f>'Main Page'!B39</f>
         <v>0.45</v>
       </c>
-      <c r="B10" s="377"/>
-      <c r="C10" s="377"/>
-      <c r="D10" s="377"/>
-      <c r="E10" s="377"/>
-      <c r="F10" s="377"/>
-      <c r="G10" s="377"/>
-      <c r="H10" s="377"/>
-      <c r="I10" s="377"/>
-      <c r="J10" s="377"/>
-      <c r="K10" s="377"/>
-      <c r="L10" s="377"/>
-      <c r="M10" s="377"/>
-      <c r="N10" s="377"/>
-      <c r="O10" s="377"/>
-      <c r="P10" s="377"/>
+      <c r="B10" s="375"/>
+      <c r="C10" s="375"/>
+      <c r="D10" s="375"/>
+      <c r="E10" s="375"/>
+      <c r="F10" s="375"/>
+      <c r="G10" s="375"/>
+      <c r="H10" s="375"/>
+      <c r="I10" s="375"/>
+      <c r="J10" s="375"/>
+      <c r="K10" s="375"/>
+      <c r="L10" s="375"/>
+      <c r="M10" s="375"/>
+      <c r="N10" s="375"/>
+      <c r="O10" s="375"/>
+      <c r="P10" s="375"/>
       <c r="Q10" s="101"/>
-      <c r="W10" s="375" t="s">
+      <c r="W10" s="373" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
+      <c r="A11" s="376">
+        <f>'Main Page'!B40</f>
+        <v>7</v>
+      </c>
+      <c r="B11" s="375"/>
+      <c r="C11" s="375"/>
+      <c r="D11" s="375"/>
+      <c r="E11" s="375"/>
+      <c r="F11" s="375"/>
+      <c r="G11" s="375"/>
+      <c r="H11" s="375"/>
+      <c r="I11" s="375"/>
+      <c r="J11" s="375"/>
+      <c r="K11" s="375"/>
+      <c r="L11" s="375"/>
+      <c r="M11" s="375"/>
+      <c r="N11" s="375"/>
+      <c r="O11" s="375"/>
+      <c r="P11" s="375"/>
+      <c r="Q11" s="101"/>
+      <c r="W11" s="373" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="11" spans="1:23">
-      <c r="A11" s="378">
-        <f>'Main Page'!B39</f>
-        <v>7</v>
-      </c>
-      <c r="B11" s="377"/>
-      <c r="C11" s="377"/>
-      <c r="D11" s="377"/>
-      <c r="E11" s="377"/>
-      <c r="F11" s="377"/>
-      <c r="G11" s="377"/>
-      <c r="H11" s="377"/>
-      <c r="I11" s="377"/>
-      <c r="J11" s="377"/>
-      <c r="K11" s="377"/>
-      <c r="L11" s="377"/>
-      <c r="M11" s="377"/>
-      <c r="N11" s="377"/>
-      <c r="O11" s="377"/>
-      <c r="P11" s="377"/>
-      <c r="Q11" s="101"/>
-      <c r="W11" s="375" t="s">
+    <row r="12" spans="1:23">
+      <c r="A12" s="103">
+        <f>'Main Page'!B16</f>
+        <v>18562372</v>
+      </c>
+      <c r="E12" s="373"/>
+      <c r="F12" s="375"/>
+      <c r="G12" s="375"/>
+      <c r="H12" s="375"/>
+      <c r="I12" s="375"/>
+      <c r="J12" s="375"/>
+      <c r="K12" s="375"/>
+      <c r="L12" s="375"/>
+      <c r="M12" s="375"/>
+      <c r="N12" s="375"/>
+      <c r="O12" s="375"/>
+      <c r="P12" s="375"/>
+      <c r="Q12" s="101"/>
+      <c r="W12" s="373" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
+      <c r="A13" s="102" t="str">
+        <f>'Main Page'!A120</f>
+        <v>Station</v>
+      </c>
+      <c r="B13" s="102" t="str">
+        <f>'Main Page'!H119</f>
+        <v>Unit Weight</v>
+      </c>
+      <c r="C13" s="102" t="str">
+        <f>'Main Page'!B131</f>
+        <v>Twist</v>
+      </c>
+      <c r="D13" s="102" t="str">
+        <f>'Main Page'!L119</f>
+        <v>GJ</v>
+      </c>
+      <c r="E13" s="102" t="str">
+        <f>'Main Page'!K119</f>
+        <v>EA</v>
+      </c>
+      <c r="F13" s="102" t="str">
+        <f>'Main Page'!J119</f>
+        <v>EIEdge</v>
+      </c>
+      <c r="G13" s="102" t="str">
+        <f>'Main Page'!I119</f>
+        <v>EIFlap</v>
+      </c>
+      <c r="H13" s="102" t="str">
+        <f>'Main Page'!B119</f>
+        <v>Chord</v>
+      </c>
+      <c r="I13" s="102" t="str">
+        <f>'Main Page'!E119</f>
+        <v>Gen. Axis Loc.</v>
+      </c>
+      <c r="J13" s="102" t="str">
+        <f>'Main Page'!A140</f>
+        <v>Airfoil ID</v>
+      </c>
+      <c r="W13" s="373" t="s">
         <v>427</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23">
-      <c r="A12" s="102" t="str">
-        <f>'Main Page'!A119</f>
-        <v>Station</v>
-      </c>
-      <c r="B12" s="102" t="str">
-        <f>'Main Page'!H118</f>
-        <v>Unit Weight</v>
-      </c>
-      <c r="C12" s="102" t="str">
-        <f>'Main Page'!B130</f>
-        <v>Twist</v>
-      </c>
-      <c r="D12" s="102" t="str">
-        <f>'Main Page'!L118</f>
-        <v>GJ</v>
-      </c>
-      <c r="E12" s="102" t="str">
-        <f>'Main Page'!K118</f>
-        <v>EA</v>
-      </c>
-      <c r="F12" s="102" t="str">
-        <f>'Main Page'!J118</f>
-        <v>EIEdge</v>
-      </c>
-      <c r="G12" s="102" t="str">
-        <f>'Main Page'!I118</f>
-        <v>EIFlap</v>
-      </c>
-      <c r="H12" s="102" t="str">
-        <f>'Main Page'!B118</f>
-        <v>Chord</v>
-      </c>
-      <c r="I12" s="102" t="str">
-        <f>'Main Page'!E118</f>
-        <v>Gen. Axis Loc.</v>
-      </c>
-      <c r="J12" s="102" t="str">
-        <f>'Main Page'!A139</f>
-        <v>Airfoil ID</v>
-      </c>
-      <c r="W12" s="375" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23">
-      <c r="A13" s="102">
-        <f>'Main Page'!A120</f>
-        <v>0.05</v>
-      </c>
-      <c r="B13" s="102">
-        <f>'Main Page'!H120</f>
-        <v>2514.2728793945694</v>
-      </c>
-      <c r="C13" s="102">
-        <f>'Main Page'!B132 - 'Main Page'!B$137</f>
-        <v>11.1</v>
-      </c>
-      <c r="D13" s="102">
-        <f>'Main Page'!L120</f>
-        <v>8966505090.0080204</v>
-      </c>
-      <c r="E13" s="102">
-        <f>'Main Page'!K120</f>
-        <v>28944438488.483387</v>
-      </c>
-      <c r="F13" s="102">
-        <f>'Main Page'!J120</f>
-        <v>25915847780.81815</v>
-      </c>
-      <c r="G13" s="102">
-        <f>'Main Page'!I120</f>
-        <v>25915847780.81815</v>
-      </c>
-      <c r="H13" s="102">
-        <f>'Main Page'!B120</f>
-        <v>2.6729794259588524</v>
-      </c>
-      <c r="I13" s="102">
-        <f>'Main Page'!E120</f>
-        <v>0.25</v>
-      </c>
-      <c r="J13" s="102">
-        <f>'Main Page'!D132</f>
-        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:23">
       <c r="A14" s="102">
         <f>'Main Page'!A121</f>
-        <v>7.0000000000000007E-2</v>
+        <v>0.05</v>
       </c>
       <c r="B14" s="102">
         <f>'Main Page'!H121</f>
-        <v>378.46476436784059</v>
+        <v>2514.2728793945694</v>
       </c>
       <c r="C14" s="102">
-        <f>'Main Page'!B133 - 'Main Page'!B$137</f>
+        <f>'Main Page'!B133 - 'Main Page'!B$138</f>
         <v>11.1</v>
       </c>
       <c r="D14" s="102">
         <f>'Main Page'!L121</f>
-        <v>1745703465.4624267</v>
+        <v>8966505090.0080204</v>
       </c>
       <c r="E14" s="102">
         <f>'Main Page'!K121</f>
-        <v>5635228554.6241884</v>
+        <v>28944438488.483387</v>
       </c>
       <c r="F14" s="102">
         <f>'Main Page'!J121</f>
-        <v>4995749732.6391211</v>
+        <v>25915847780.81815</v>
       </c>
       <c r="G14" s="102">
         <f>'Main Page'!I121</f>
-        <v>4995749732.6391211</v>
+        <v>25915847780.81815</v>
       </c>
       <c r="H14" s="102">
         <f>'Main Page'!B121</f>
@@ -7988,493 +7991,535 @@
     <row r="15" spans="1:23">
       <c r="A15" s="102">
         <f>'Main Page'!A122</f>
-        <v>0.25</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="B15" s="102">
         <f>'Main Page'!H122</f>
-        <v>405.46483412508888</v>
+        <v>378.46476436784059</v>
       </c>
       <c r="C15" s="102">
-        <f>'Main Page'!B134 - 'Main Page'!B$137</f>
+        <f>'Main Page'!B134 - 'Main Page'!B$138</f>
         <v>11.1</v>
       </c>
       <c r="D15" s="102">
         <f>'Main Page'!L122</f>
-        <v>63313292.734555714</v>
+        <v>1745703465.4624267</v>
       </c>
       <c r="E15" s="102">
         <f>'Main Page'!K122</f>
-        <v>5337777876.7804203</v>
+        <v>5635228554.6241884</v>
       </c>
       <c r="F15" s="102">
         <f>'Main Page'!J122</f>
-        <v>3906180885.0486031</v>
+        <v>4995749732.6391211</v>
       </c>
       <c r="G15" s="102">
         <f>'Main Page'!I122</f>
-        <v>1456208344.9209256</v>
+        <v>4995749732.6391211</v>
       </c>
       <c r="H15" s="102">
         <f>'Main Page'!B122</f>
-        <v>3.9601219202438407</v>
+        <v>2.6729794259588524</v>
       </c>
       <c r="I15" s="102">
         <f>'Main Page'!E122</f>
-        <v>0.34</v>
+        <v>0.25</v>
       </c>
       <c r="J15" s="102">
         <f>'Main Page'!D134</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:23">
       <c r="A16" s="102">
         <f>'Main Page'!A123</f>
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="B16" s="102">
         <f>'Main Page'!H123</f>
-        <v>319.61717485509803</v>
+        <v>405.46483412508888</v>
       </c>
       <c r="C16" s="102">
-        <f>'Main Page'!B135 - 'Main Page'!B$137</f>
-        <v>3.1</v>
+        <f>'Main Page'!B135 - 'Main Page'!B$138</f>
+        <v>11.1</v>
       </c>
       <c r="D16" s="102">
         <f>'Main Page'!L123</f>
-        <v>25481782.397363089</v>
+        <v>63313292.734555714</v>
       </c>
       <c r="E16" s="102">
         <f>'Main Page'!K123</f>
-        <v>4226064069.1209292</v>
+        <v>5337777876.7804203</v>
       </c>
       <c r="F16" s="102">
         <f>'Main Page'!J123</f>
-        <v>988006806.05798388</v>
+        <v>3906180885.0486031</v>
       </c>
       <c r="G16" s="102">
         <f>'Main Page'!I123</f>
-        <v>362359217.52206236</v>
+        <v>1456208344.9209256</v>
       </c>
       <c r="H16" s="102">
         <f>'Main Page'!B123</f>
-        <v>3.0363220726441456</v>
+        <v>3.9601219202438407</v>
       </c>
       <c r="I16" s="102">
         <f>'Main Page'!E123</f>
-        <v>0.31</v>
+        <v>0.34</v>
       </c>
       <c r="J16" s="102">
         <f>'Main Page'!D135</f>
-        <v>2.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="102">
         <f>'Main Page'!A124</f>
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="B17" s="102">
         <f>'Main Page'!H124</f>
-        <v>139.35911643347461</v>
+        <v>319.61717485509803</v>
       </c>
       <c r="C17" s="102">
-        <f>'Main Page'!B136 - 'Main Page'!B$137</f>
-        <v>0.6</v>
+        <f>'Main Page'!B136 - 'Main Page'!B$138</f>
+        <v>3.1</v>
       </c>
       <c r="D17" s="102">
         <f>'Main Page'!L124</f>
-        <v>5108455.3661101973</v>
+        <v>25481782.397363089</v>
       </c>
       <c r="E17" s="102">
         <f>'Main Page'!K124</f>
-        <v>1782574562.629951</v>
+        <v>4226064069.1209292</v>
       </c>
       <c r="F17" s="102">
         <f>'Main Page'!J124</f>
-        <v>242833001.70445472</v>
+        <v>988006806.05798388</v>
       </c>
       <c r="G17" s="102">
         <f>'Main Page'!I124</f>
-        <v>55876712.03553623</v>
+        <v>362359217.52206236</v>
       </c>
       <c r="H17" s="102">
         <f>'Main Page'!B124</f>
-        <v>2.1125222250444504</v>
+        <v>3.0363220726441456</v>
       </c>
       <c r="I17" s="102">
         <f>'Main Page'!E124</f>
-        <v>0.28000000000000003</v>
+        <v>0.31</v>
       </c>
       <c r="J17" s="102">
         <f>'Main Page'!D136</f>
-        <v>3</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="18" spans="1:16">
       <c r="A18" s="102">
         <f>'Main Page'!A125</f>
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="B18" s="102">
         <f>'Main Page'!H125</f>
-        <v>16.681593270259139</v>
+        <v>139.35911643347461</v>
       </c>
       <c r="C18" s="102">
-        <f>'Main Page'!B137 - 'Main Page'!B$137</f>
-        <v>0</v>
+        <f>'Main Page'!B137 - 'Main Page'!B$138</f>
+        <v>0.6</v>
       </c>
       <c r="D18" s="102">
         <f>'Main Page'!L125</f>
-        <v>543766.85724921024</v>
+        <v>5108455.3661101973</v>
       </c>
       <c r="E18" s="102">
         <f>'Main Page'!K125</f>
-        <v>175855044.44087556</v>
+        <v>1782574562.629951</v>
       </c>
       <c r="F18" s="102">
         <f>'Main Page'!J125</f>
-        <v>23689722.908686247</v>
+        <v>242833001.70445472</v>
       </c>
       <c r="G18" s="102">
         <f>'Main Page'!I125</f>
-        <v>691951.30059363274</v>
+        <v>55876712.03553623</v>
       </c>
       <c r="H18" s="102">
         <f>'Main Page'!B125</f>
-        <v>1.2811785623571248</v>
+        <v>2.1125222250444504</v>
       </c>
       <c r="I18" s="102">
         <f>'Main Page'!E125</f>
-        <v>0.25</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="J18" s="102">
         <f>'Main Page'!D137</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="102">
+        <f>'Main Page'!A126</f>
+        <v>1</v>
+      </c>
+      <c r="B19" s="102">
+        <f>'Main Page'!H126</f>
+        <v>16.681593270259139</v>
+      </c>
+      <c r="C19" s="102">
+        <f>'Main Page'!B138 - 'Main Page'!B$138</f>
+        <v>0</v>
+      </c>
+      <c r="D19" s="102">
+        <f>'Main Page'!L126</f>
+        <v>543766.85724921024</v>
+      </c>
+      <c r="E19" s="102">
+        <f>'Main Page'!K126</f>
+        <v>175855044.44087556</v>
+      </c>
+      <c r="F19" s="102">
+        <f>'Main Page'!J126</f>
+        <v>23689722.908686247</v>
+      </c>
+      <c r="G19" s="102">
+        <f>'Main Page'!I126</f>
+        <v>691951.30059363274</v>
+      </c>
+      <c r="H19" s="102">
+        <f>'Main Page'!B126</f>
+        <v>1.2811785623571248</v>
+      </c>
+      <c r="I19" s="102">
+        <f>'Main Page'!E126</f>
+        <v>0.25</v>
+      </c>
+      <c r="J19" s="102">
+        <f>'Main Page'!D138</f>
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:16">
-      <c r="A26" s="375" t="s">
-        <v>429</v>
-      </c>
-      <c r="B26">
-        <v>15</v>
-      </c>
-    </row>
     <row r="27" spans="1:16">
-      <c r="A27">
-        <v>0</v>
+      <c r="A27" s="373" t="s">
+        <v>428</v>
       </c>
       <c r="B27">
-        <v>1</v>
-      </c>
-      <c r="C27">
-        <v>2</v>
-      </c>
-      <c r="D27">
-        <v>3</v>
-      </c>
-      <c r="E27">
-        <v>4</v>
-      </c>
-      <c r="F27">
-        <v>5</v>
-      </c>
-      <c r="G27">
-        <v>6</v>
-      </c>
-      <c r="H27">
-        <v>7</v>
-      </c>
-      <c r="I27">
-        <v>8</v>
-      </c>
-      <c r="J27">
-        <v>9</v>
-      </c>
-      <c r="K27">
-        <v>10</v>
-      </c>
-      <c r="L27">
-        <v>11</v>
-      </c>
-      <c r="M27">
-        <v>12</v>
-      </c>
-      <c r="N27">
-        <v>13</v>
-      </c>
-      <c r="O27">
-        <v>14</v>
-      </c>
-      <c r="P27">
         <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:16">
       <c r="A28">
-        <f>A27/$B$26*0.95+0.05</f>
+        <v>0</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28">
+        <v>3</v>
+      </c>
+      <c r="E28">
+        <v>4</v>
+      </c>
+      <c r="F28">
+        <v>5</v>
+      </c>
+      <c r="G28">
+        <v>6</v>
+      </c>
+      <c r="H28">
+        <v>7</v>
+      </c>
+      <c r="I28">
+        <v>8</v>
+      </c>
+      <c r="J28">
+        <v>9</v>
+      </c>
+      <c r="K28">
+        <v>10</v>
+      </c>
+      <c r="L28">
+        <v>11</v>
+      </c>
+      <c r="M28">
+        <v>12</v>
+      </c>
+      <c r="N28">
+        <v>13</v>
+      </c>
+      <c r="O28">
+        <v>14</v>
+      </c>
+      <c r="P28">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29">
+        <f>A28/$B$27*0.95+0.05</f>
         <v>0.05</v>
       </c>
-      <c r="B28">
-        <f t="shared" ref="B28:Q28" si="0">B27/$B$26*0.95+0.05</f>
+      <c r="B29">
+        <f t="shared" ref="B29:P29" si="0">B28/$B$27*0.95+0.05</f>
         <v>0.11333333333333333</v>
       </c>
-      <c r="C28">
+      <c r="C29">
         <f t="shared" si="0"/>
         <v>0.17666666666666664</v>
       </c>
-      <c r="D28">
+      <c r="D29">
         <f t="shared" si="0"/>
         <v>0.24</v>
       </c>
-      <c r="E28">
+      <c r="E29">
         <f t="shared" si="0"/>
         <v>0.30333333333333329</v>
       </c>
-      <c r="F28">
+      <c r="F29">
         <f t="shared" si="0"/>
         <v>0.36666666666666664</v>
       </c>
-      <c r="G28">
+      <c r="G29">
         <f t="shared" si="0"/>
         <v>0.43</v>
       </c>
-      <c r="H28">
+      <c r="H29">
         <f t="shared" si="0"/>
         <v>0.49333333333333329</v>
       </c>
-      <c r="I28">
+      <c r="I29">
         <f t="shared" si="0"/>
         <v>0.55666666666666664</v>
       </c>
-      <c r="J28">
+      <c r="J29">
         <f t="shared" si="0"/>
         <v>0.62</v>
       </c>
-      <c r="K28">
+      <c r="K29">
         <f t="shared" si="0"/>
         <v>0.68333333333333335</v>
       </c>
-      <c r="L28">
+      <c r="L29">
         <f t="shared" si="0"/>
         <v>0.74666666666666659</v>
       </c>
-      <c r="M28">
+      <c r="M29">
         <f t="shared" si="0"/>
         <v>0.81</v>
       </c>
-      <c r="N28">
+      <c r="N29">
         <f t="shared" si="0"/>
         <v>0.87333333333333341</v>
       </c>
-      <c r="O28">
+      <c r="O29">
         <f t="shared" si="0"/>
         <v>0.93666666666666665</v>
       </c>
-      <c r="P28">
+      <c r="P29">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:16">
-      <c r="A31">
-        <f>A28*$A$1/2</f>
+    <row r="32" spans="1:16">
+      <c r="A32">
+        <f>A29*$A$1/2</f>
         <v>2.4750000000000001</v>
       </c>
-      <c r="B31">
-        <f t="shared" ref="B31:P31" si="1">B28*$A$1/2</f>
+      <c r="B32">
+        <f t="shared" ref="B32:P32" si="1">B29*$A$1/2</f>
         <v>5.6099999999999994</v>
       </c>
-      <c r="C31">
+      <c r="C32">
         <f t="shared" si="1"/>
         <v>8.7449999999999992</v>
       </c>
-      <c r="D31">
+      <c r="D32">
         <f t="shared" si="1"/>
         <v>11.879999999999999</v>
       </c>
-      <c r="E31">
+      <c r="E32">
         <f t="shared" si="1"/>
         <v>15.014999999999997</v>
       </c>
-      <c r="F31">
+      <c r="F32">
         <f t="shared" si="1"/>
         <v>18.149999999999999</v>
       </c>
-      <c r="G31">
+      <c r="G32">
         <f t="shared" si="1"/>
         <v>21.285</v>
       </c>
-      <c r="H31">
+      <c r="H32">
         <f t="shared" si="1"/>
         <v>24.419999999999998</v>
       </c>
-      <c r="I31">
+      <c r="I32">
         <f t="shared" si="1"/>
         <v>27.555</v>
       </c>
-      <c r="J31">
+      <c r="J32">
         <f t="shared" si="1"/>
         <v>30.69</v>
       </c>
-      <c r="K31">
+      <c r="K32">
         <f t="shared" si="1"/>
         <v>33.825000000000003</v>
       </c>
-      <c r="L31">
+      <c r="L32">
         <f t="shared" si="1"/>
         <v>36.959999999999994</v>
       </c>
-      <c r="M31">
+      <c r="M32">
         <f t="shared" si="1"/>
         <v>40.095000000000006</v>
       </c>
-      <c r="N31">
+      <c r="N32">
         <f t="shared" si="1"/>
         <v>43.230000000000004</v>
       </c>
-      <c r="O31">
+      <c r="O32">
         <f t="shared" si="1"/>
         <v>46.365000000000002</v>
       </c>
-      <c r="P31">
+      <c r="P32">
         <f t="shared" si="1"/>
         <v>49.5</v>
       </c>
     </row>
-    <row r="32" spans="1:16">
-      <c r="B32">
-        <f>(B31-A31)/2+A31</f>
+    <row r="33" spans="2:16">
+      <c r="B33">
+        <f>(B32-A32)/2+A32</f>
         <v>4.0424999999999995</v>
       </c>
-      <c r="C32">
-        <f t="shared" ref="C32:P32" si="2">(C31-B31)/2+B31</f>
+      <c r="C33">
+        <f t="shared" ref="C33:P33" si="2">(C32-B32)/2+B32</f>
         <v>7.1774999999999993</v>
       </c>
-      <c r="D32">
+      <c r="D33">
         <f t="shared" si="2"/>
         <v>10.3125</v>
       </c>
-      <c r="E32">
+      <c r="E33">
         <f t="shared" si="2"/>
         <v>13.447499999999998</v>
       </c>
-      <c r="F32">
+      <c r="F33">
         <f t="shared" si="2"/>
         <v>16.582499999999996</v>
       </c>
-      <c r="G32">
+      <c r="G33">
         <f t="shared" si="2"/>
         <v>19.717500000000001</v>
       </c>
-      <c r="H32">
+      <c r="H33">
         <f t="shared" si="2"/>
         <v>22.852499999999999</v>
       </c>
-      <c r="I32">
+      <c r="I33">
         <f t="shared" si="2"/>
         <v>25.987499999999997</v>
       </c>
-      <c r="J32">
+      <c r="J33">
         <f t="shared" si="2"/>
         <v>29.122500000000002</v>
       </c>
-      <c r="K32">
+      <c r="K33">
         <f t="shared" si="2"/>
         <v>32.2575</v>
       </c>
-      <c r="L32">
+      <c r="L33">
         <f t="shared" si="2"/>
         <v>35.392499999999998</v>
       </c>
-      <c r="M32">
+      <c r="M33">
         <f t="shared" si="2"/>
         <v>38.527500000000003</v>
       </c>
-      <c r="N32">
+      <c r="N33">
         <f t="shared" si="2"/>
         <v>41.662500000000009</v>
       </c>
-      <c r="O32">
+      <c r="O33">
         <f t="shared" si="2"/>
         <v>44.797499999999999</v>
       </c>
-      <c r="P32">
+      <c r="P33">
         <f t="shared" si="2"/>
         <v>47.932500000000005</v>
       </c>
     </row>
-    <row r="33" spans="2:16">
-      <c r="B33">
-        <f>B31-A31</f>
+    <row r="34" spans="2:16">
+      <c r="B34">
+        <f>B32-A32</f>
         <v>3.1349999999999993</v>
       </c>
-      <c r="C33">
-        <f t="shared" ref="C33:P33" si="3">C31-B31</f>
+      <c r="C34">
+        <f t="shared" ref="C34:P34" si="3">C32-B32</f>
         <v>3.1349999999999998</v>
       </c>
-      <c r="D33">
+      <c r="D34">
         <f t="shared" si="3"/>
         <v>3.1349999999999998</v>
       </c>
-      <c r="E33">
+      <c r="E34">
         <f t="shared" si="3"/>
         <v>3.134999999999998</v>
       </c>
-      <c r="F33">
+      <c r="F34">
         <f t="shared" si="3"/>
         <v>3.1350000000000016</v>
       </c>
-      <c r="G33">
+      <c r="G34">
         <f t="shared" si="3"/>
         <v>3.1350000000000016</v>
       </c>
-      <c r="H33">
+      <c r="H34">
         <f t="shared" si="3"/>
         <v>3.134999999999998</v>
       </c>
-      <c r="I33">
+      <c r="I34">
         <f t="shared" si="3"/>
         <v>3.1350000000000016</v>
       </c>
-      <c r="J33">
+      <c r="J34">
         <f t="shared" si="3"/>
         <v>3.1350000000000016</v>
       </c>
-      <c r="K33">
+      <c r="K34">
         <f t="shared" si="3"/>
         <v>3.1350000000000016</v>
       </c>
-      <c r="L33">
+      <c r="L34">
         <f t="shared" si="3"/>
         <v>3.1349999999999909</v>
       </c>
-      <c r="M33">
+      <c r="M34">
         <f t="shared" si="3"/>
         <v>3.1350000000000122</v>
       </c>
-      <c r="N33">
+      <c r="N34">
         <f t="shared" si="3"/>
         <v>3.134999999999998</v>
       </c>
-      <c r="O33">
+      <c r="O34">
         <f t="shared" si="3"/>
         <v>3.134999999999998</v>
       </c>
-      <c r="P33">
+      <c r="P34">
         <f t="shared" si="3"/>
         <v>3.134999999999998</v>
       </c>
     </row>
-    <row r="39" spans="2:16">
-      <c r="P39">
-        <f>SUM(B33:P33)</f>
-        <v>47.025000000000006</v>
-      </c>
-    </row>
     <row r="40" spans="2:16">
       <c r="P40">
+        <f>SUM(B34:P34)</f>
+        <v>47.025000000000006</v>
+      </c>
+    </row>
+    <row r="41" spans="2:16">
+      <c r="P41">
         <f>4.95/2</f>
         <v>2.4750000000000001</v>
       </c>
@@ -8489,7 +8534,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C20"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -8499,11 +8544,11 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <f>'Main Page'!B82</f>
+        <f>'Main Page'!B83</f>
         <v>75</v>
       </c>
       <c r="E1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -8512,16 +8557,16 @@
         <v>119</v>
       </c>
       <c r="E2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="102">
-        <f>'Main Page'!B57</f>
+        <f>'Main Page'!B58</f>
         <v>-4.6500000000000004</v>
       </c>
       <c r="E3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -8538,7 +8583,7 @@
         <v>-0.52645086193788293</v>
       </c>
       <c r="E4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -8555,7 +8600,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -8572,7 +8617,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -8581,7 +8626,7 @@
         <v>-5</v>
       </c>
       <c r="E7" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -8589,8 +8634,8 @@
         <f>'Main Page'!E5</f>
         <v>102786.44161128539</v>
       </c>
-      <c r="E8" s="375" t="s">
-        <v>437</v>
+      <c r="E8" s="373" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -8598,8 +8643,8 @@
         <f>'Main Page'!E6</f>
         <v>4053.8296409472882</v>
       </c>
-      <c r="E9" s="375" t="s">
-        <v>438</v>
+      <c r="E9" s="373" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -8607,17 +8652,17 @@
         <f>'Main Page'!E7</f>
         <v>25757.476347075215</v>
       </c>
-      <c r="E10" s="375" t="s">
-        <v>439</v>
+      <c r="E10" s="373" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="103">
-        <f>-'Main Page'!B17</f>
+        <f>-'Main Page'!B18</f>
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -8626,16 +8671,16 @@
         <v>61670.62692812828</v>
       </c>
       <c r="E12" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="336">
+      <c r="A13" s="335">
         <f>SUM('Main Page'!H5:H7)</f>
         <v>211744.31626438437</v>
       </c>
       <c r="E13" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -8644,16 +8689,16 @@
         <v>197987.08806417006</v>
       </c>
       <c r="E14" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="103">
-        <f>'Main Page'!B83</f>
+        <f>'Main Page'!B84</f>
         <v>1800</v>
       </c>
       <c r="E15" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -8662,43 +8707,43 @@
         <v>1039402035.9271445</v>
       </c>
       <c r="E16" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="103">
-        <f>'Main Page'!B18</f>
+        <f>'Main Page'!B19</f>
         <v>0.95</v>
       </c>
       <c r="E17" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="335">
+        <f>'Main Page'!B89*1000</f>
+        <v>3000000</v>
+      </c>
+      <c r="E18" s="373" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="103">
-        <f>'Main Page'!B15</f>
-        <v>56</v>
-      </c>
-      <c r="E18" s="375" t="s">
+    <row r="19" spans="1:5">
+      <c r="A19" s="103">
+        <f>SUM(GECdrivetrain!M11:'GECdrivetrain'!M12)</f>
+        <v>2753143.8909173664</v>
+      </c>
+      <c r="E19" s="373" t="s">
         <v>447</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="336">
-        <f>'Main Page'!B88*1000</f>
-        <v>3000000</v>
-      </c>
-      <c r="E19" s="375" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="103">
-        <f>SUM(GECdrivetrain!M11:'GECdrivetrain'!M12)</f>
-        <v>2753143.8909173664</v>
-      </c>
-      <c r="E20" s="375" t="s">
-        <v>449</v>
+        <f>'Main Page'!B15/100</f>
+        <v>0.05</v>
+      </c>
+      <c r="E20" s="373" t="s">
+        <v>462</v>
       </c>
     </row>
   </sheetData>
@@ -8720,57 +8765,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="379">
-        <f>'Main Page'!B42</f>
+      <c r="A1" s="377">
+        <f>'Main Page'!B43</f>
         <v>2.2690000000000001</v>
       </c>
-      <c r="L1" s="375" t="s">
+      <c r="L1" s="373" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="377">
+        <f>'Main Page'!B44</f>
+        <v>3.7</v>
+      </c>
+      <c r="L2" s="373" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="377">
+        <f>'Main Page'!B45/1000</f>
+        <v>1.1900000000000001E-2</v>
+      </c>
+      <c r="L3" s="373" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="379">
-        <f>'Main Page'!B43</f>
-        <v>3.7</v>
-      </c>
-      <c r="L2" s="375" t="s">
+    <row r="4" spans="1:12">
+      <c r="A4" s="377">
+        <f>'Main Page'!B46</f>
+        <v>8.0020000000000007</v>
+      </c>
+      <c r="L4" s="373" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="379">
-        <f>'Main Page'!B44/1000</f>
-        <v>1.1900000000000001E-2</v>
-      </c>
-      <c r="L3" s="375" t="s">
+    <row r="5" spans="1:12">
+      <c r="A5" s="377">
+        <f>'Main Page'!B47/1000</f>
+        <v>2.6100000000000002E-2</v>
+      </c>
+      <c r="L5" s="373" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="379">
-        <f>'Main Page'!B45</f>
-        <v>8.0020000000000007</v>
-      </c>
-      <c r="L4" s="375" t="s">
+    <row r="6" spans="1:12">
+      <c r="A6" s="377">
+        <f>'Main Page'!B48/100</f>
+        <v>0.05</v>
+      </c>
+      <c r="L6" s="373" t="s">
         <v>453</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="379">
-        <f>'Main Page'!B46/1000</f>
-        <v>2.6100000000000002E-2</v>
-      </c>
-      <c r="L5" s="375" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="379">
-        <f>'Main Page'!B47/100</f>
-        <v>0.05</v>
-      </c>
-      <c r="L6" s="375" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -8778,8 +8823,8 @@
         <f>GECtwrdata!F5</f>
         <v>7850</v>
       </c>
-      <c r="L7" s="375" t="s">
-        <v>456</v>
+      <c r="L7" s="373" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -8787,8 +8832,8 @@
         <f>GECtwrdata!F6</f>
         <v>200000000000</v>
       </c>
-      <c r="L8" s="375" t="s">
-        <v>457</v>
+      <c r="L8" s="373" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -8796,74 +8841,74 @@
         <f>GECtwrdata!F7</f>
         <v>76923076923.07692</v>
       </c>
-      <c r="L9" s="375" t="s">
-        <v>458</v>
+      <c r="L9" s="373" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="376">
+      <c r="A10" s="374">
         <f>0/9</f>
         <v>0</v>
       </c>
-      <c r="B10" s="376">
+      <c r="B10" s="374">
         <f>1/9</f>
         <v>0.1111111111111111</v>
       </c>
-      <c r="C10" s="376">
+      <c r="C10" s="374">
         <f>2/9</f>
         <v>0.22222222222222221</v>
       </c>
-      <c r="D10" s="376">
+      <c r="D10" s="374">
         <f>3/9</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="E10" s="376">
+      <c r="E10" s="374">
         <f>4/9</f>
         <v>0.44444444444444442</v>
       </c>
-      <c r="F10" s="376">
+      <c r="F10" s="374">
         <f>5/9</f>
         <v>0.55555555555555558</v>
       </c>
-      <c r="G10" s="376">
+      <c r="G10" s="374">
         <f>6/9</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="H10" s="376">
+      <c r="H10" s="374">
         <f>7/9</f>
         <v>0.77777777777777779</v>
       </c>
-      <c r="I10" s="376">
+      <c r="I10" s="374">
         <f>8/9</f>
         <v>0.88888888888888884</v>
       </c>
-      <c r="J10" s="376">
+      <c r="J10" s="374">
         <f>9/9</f>
         <v>1</v>
       </c>
-      <c r="L10" s="375" t="s">
-        <v>459</v>
+      <c r="L10" s="373" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="103">
-        <f>'Main Page'!B150*100</f>
-        <v>3.4350000000000001</v>
-      </c>
-      <c r="B11" s="103">
         <f>'Main Page'!B151*100</f>
         <v>3.4350000000000001</v>
       </c>
-      <c r="C11" s="103">
+      <c r="B11" s="103">
         <f>'Main Page'!B152*100</f>
         <v>3.4350000000000001</v>
       </c>
-      <c r="D11" s="103">
+      <c r="C11" s="103">
         <f>'Main Page'!B153*100</f>
         <v>3.4350000000000001</v>
       </c>
-      <c r="L11" s="375" t="s">
-        <v>460</v>
+      <c r="D11" s="103">
+        <f>'Main Page'!B154*100</f>
+        <v>3.4350000000000001</v>
+      </c>
+      <c r="L11" s="373" t="s">
+        <v>458</v>
       </c>
     </row>
   </sheetData>
@@ -8902,12 +8947,12 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="12" thickBot="1">
-      <c r="A2" s="394" t="s">
+      <c r="A2" s="395" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="395"/>
-      <c r="C2" s="395"/>
-      <c r="D2" s="396"/>
+      <c r="B2" s="396"/>
+      <c r="C2" s="396"/>
+      <c r="D2" s="397"/>
       <c r="F2" s="79" t="s">
         <v>54</v>
       </c>
@@ -9707,11 +9752,11 @@
         <f>GECbladedata!D12-B3</f>
         <v>47.024999999999999</v>
       </c>
-      <c r="D2" s="380" t="s">
+      <c r="D2" s="381" t="s">
         <v>84</v>
       </c>
-      <c r="E2" s="382"/>
-      <c r="F2" s="383"/>
+      <c r="E2" s="383"/>
+      <c r="F2" s="384"/>
     </row>
     <row r="3" spans="1:20" ht="23.25" thickBot="1">
       <c r="A3" s="98" t="s">
@@ -9937,7 +9982,7 @@
         <f>GECbladedata!R28</f>
         <v>1</v>
       </c>
-      <c r="R10" s="336">
+      <c r="R10" s="335">
         <f>C10*(B11-B10)/2*B$2</f>
         <v>1244.5650753003119</v>
       </c>
@@ -10012,7 +10057,7 @@
         <f>GECbladedata!R29</f>
         <v>1</v>
       </c>
-      <c r="R11" s="336">
+      <c r="R11" s="335">
         <f>C11*(B12-B10)/2*B$2</f>
         <v>468.35014590520262</v>
       </c>
@@ -10087,7 +10132,7 @@
         <f>GECbladedata!R30</f>
         <v>1</v>
       </c>
-      <c r="R12" s="336">
+      <c r="R12" s="335">
         <f t="shared" ref="R12:R29" si="0">C12*(B13-B11)/2*B$2</f>
         <v>758.27025646821608</v>
       </c>
@@ -10162,7 +10207,7 @@
         <f>GECbladedata!R31</f>
         <v>2</v>
       </c>
-      <c r="R13" s="336">
+      <c r="R13" s="335">
         <f t="shared" si="0"/>
         <v>966.40036854337848</v>
       </c>
@@ -10237,7 +10282,7 @@
         <f>GECbladedata!R32</f>
         <v>2</v>
       </c>
-      <c r="R14" s="336">
+      <c r="R14" s="335">
         <f t="shared" si="0"/>
         <v>984.96291650148669</v>
       </c>
@@ -10312,7 +10357,7 @@
         <f>GECbladedata!R33</f>
         <v>2</v>
       </c>
-      <c r="R15" s="336">
+      <c r="R15" s="335">
         <f t="shared" si="0"/>
         <v>1003.5254644595949</v>
       </c>
@@ -10387,7 +10432,7 @@
         <f>GECbladedata!R34</f>
         <v>2</v>
       </c>
-      <c r="R16" s="336">
+      <c r="R16" s="335">
         <f t="shared" si="0"/>
         <v>961.03087312094942</v>
       </c>
@@ -10462,7 +10507,7 @@
         <f>GECbladedata!R35</f>
         <v>2</v>
       </c>
-      <c r="R17" s="336">
+      <c r="R17" s="335">
         <f t="shared" si="0"/>
         <v>918.53628178230406</v>
       </c>
@@ -10537,7 +10582,7 @@
         <f>GECbladedata!R36</f>
         <v>2</v>
       </c>
-      <c r="R18" s="336">
+      <c r="R18" s="335">
         <f t="shared" si="0"/>
         <v>876.04169044365858</v>
       </c>
@@ -10612,7 +10657,7 @@
         <f>GECbladedata!R37</f>
         <v>2</v>
       </c>
-      <c r="R19" s="336">
+      <c r="R19" s="335">
         <f t="shared" si="0"/>
         <v>833.54709910501299</v>
       </c>
@@ -10687,7 +10732,7 @@
         <f>GECbladedata!R38</f>
         <v>2</v>
       </c>
-      <c r="R20" s="336">
+      <c r="R20" s="335">
         <f t="shared" si="0"/>
         <v>791.05250776636751</v>
       </c>
@@ -10762,7 +10807,7 @@
         <f>GECbladedata!R39</f>
         <v>3</v>
       </c>
-      <c r="R21" s="336">
+      <c r="R21" s="335">
         <f t="shared" si="0"/>
         <v>701.82476884766356</v>
       </c>
@@ -10837,7 +10882,7 @@
         <f>GECbladedata!R40</f>
         <v>3</v>
       </c>
-      <c r="R22" s="336">
+      <c r="R22" s="335">
         <f t="shared" si="0"/>
         <v>612.59702992896041</v>
       </c>
@@ -10912,7 +10957,7 @@
         <f>GECbladedata!R41</f>
         <v>3</v>
       </c>
-      <c r="R23" s="336">
+      <c r="R23" s="335">
         <f t="shared" si="0"/>
         <v>523.36929101025669</v>
       </c>
@@ -10987,7 +11032,7 @@
         <f>GECbladedata!R42</f>
         <v>3</v>
       </c>
-      <c r="R24" s="336">
+      <c r="R24" s="335">
         <f t="shared" si="0"/>
         <v>434.14155209155331</v>
       </c>
@@ -11062,7 +11107,7 @@
         <f>GECbladedata!R43</f>
         <v>3</v>
       </c>
-      <c r="R25" s="336">
+      <c r="R25" s="335">
         <f t="shared" si="0"/>
         <v>344.91381317284964</v>
       </c>
@@ -11137,7 +11182,7 @@
         <f>GECbladedata!R44</f>
         <v>3</v>
       </c>
-      <c r="R26" s="336">
+      <c r="R26" s="335">
         <f t="shared" si="0"/>
         <v>284.18843920705763</v>
       </c>
@@ -11212,7 +11257,7 @@
         <f>GECbladedata!R45</f>
         <v>3</v>
       </c>
-      <c r="R27" s="336">
+      <c r="R27" s="335">
         <f t="shared" si="0"/>
         <v>223.46306524126635</v>
       </c>
@@ -11287,7 +11332,7 @@
         <f>GECbladedata!R46</f>
         <v>4</v>
       </c>
-      <c r="R28" s="336">
+      <c r="R28" s="335">
         <f t="shared" si="0"/>
         <v>162.73769127547467</v>
       </c>
@@ -11362,7 +11407,7 @@
         <f>GECbladedata!R47</f>
         <v>4</v>
       </c>
-      <c r="R29" s="336">
+      <c r="R29" s="335">
         <f t="shared" si="0"/>
         <v>102.01231730968307</v>
       </c>
@@ -11437,7 +11482,7 @@
         <f>GECbladedata!R48</f>
         <v>4</v>
       </c>
-      <c r="R30" s="336">
+      <c r="R30" s="335">
         <f>C30*(B30-B29)/2*B$2</f>
         <v>20.643471671945704</v>
       </c>
@@ -11997,325 +12042,325 @@
     </row>
     <row r="5" spans="2:21">
       <c r="B5" s="200">
-        <f>'Main Page'!A120</f>
+        <f>'Main Page'!A121</f>
         <v>0.05</v>
       </c>
       <c r="C5" s="201">
-        <f>'Main Page'!B120</f>
+        <f>'Main Page'!B121</f>
         <v>2.6729794259588524</v>
       </c>
       <c r="D5" s="202">
-        <f>'Main Page'!C120</f>
+        <f>'Main Page'!C121</f>
         <v>1</v>
       </c>
       <c r="E5" s="202" t="str">
-        <f>'Main Page'!D120</f>
+        <f>'Main Page'!D121</f>
         <v>NA</v>
       </c>
       <c r="F5" s="203">
-        <f>'Main Page'!E120</f>
+        <f>'Main Page'!E121</f>
         <v>0.25</v>
       </c>
       <c r="G5" s="201">
-        <f>'Main Page'!F120</f>
+        <f>'Main Page'!F121</f>
         <v>0.5</v>
       </c>
       <c r="H5" s="201">
-        <f>'Main Page'!G120</f>
+        <f>'Main Page'!G121</f>
         <v>0.5</v>
       </c>
       <c r="I5" s="204">
-        <f>'Main Page'!H120</f>
+        <f>'Main Page'!H121</f>
         <v>2514.2728793945694</v>
       </c>
       <c r="J5" s="205">
-        <f>'Main Page'!I120</f>
+        <f>'Main Page'!I121</f>
         <v>25915847780.81815</v>
       </c>
       <c r="K5" s="205">
-        <f>'Main Page'!J120</f>
+        <f>'Main Page'!J121</f>
         <v>25915847780.81815</v>
       </c>
       <c r="L5" s="205">
-        <f>'Main Page'!K120</f>
+        <f>'Main Page'!K121</f>
         <v>28944438488.483387</v>
       </c>
       <c r="M5" s="205">
-        <f>'Main Page'!L120</f>
+        <f>'Main Page'!L121</f>
         <v>8966505090.0080204</v>
       </c>
       <c r="N5" s="206">
-        <f>'Main Page'!M120</f>
+        <f>'Main Page'!M121</f>
         <v>4490.9882032550131</v>
       </c>
     </row>
     <row r="6" spans="2:21">
       <c r="B6" s="207">
-        <f>'Main Page'!A121</f>
+        <f>'Main Page'!A122</f>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="C6" s="208">
-        <f>'Main Page'!B121</f>
+        <f>'Main Page'!B122</f>
         <v>2.6729794259588524</v>
       </c>
       <c r="D6" s="209">
-        <f>'Main Page'!C121</f>
+        <f>'Main Page'!C122</f>
         <v>1</v>
       </c>
       <c r="E6" s="209" t="str">
-        <f>'Main Page'!D121</f>
+        <f>'Main Page'!D122</f>
         <v>NA</v>
       </c>
       <c r="F6" s="203">
-        <f>'Main Page'!E121</f>
+        <f>'Main Page'!E122</f>
         <v>0.25</v>
       </c>
       <c r="G6" s="208">
-        <f>'Main Page'!F121</f>
+        <f>'Main Page'!F122</f>
         <v>0.5</v>
       </c>
       <c r="H6" s="208">
-        <f>'Main Page'!G121</f>
+        <f>'Main Page'!G122</f>
         <v>0.5</v>
       </c>
       <c r="I6" s="210">
-        <f>'Main Page'!H121</f>
+        <f>'Main Page'!H122</f>
         <v>378.46476436784059</v>
       </c>
       <c r="J6" s="211">
-        <f>'Main Page'!I121</f>
+        <f>'Main Page'!I122</f>
         <v>4995749732.6391211</v>
       </c>
       <c r="K6" s="211">
-        <f>'Main Page'!J121</f>
+        <f>'Main Page'!J122</f>
         <v>4995749732.6391211</v>
       </c>
       <c r="L6" s="211">
-        <f>'Main Page'!K121</f>
+        <f>'Main Page'!K122</f>
         <v>5635228554.6241884</v>
       </c>
       <c r="M6" s="211">
-        <f>'Main Page'!L121</f>
+        <f>'Main Page'!L122</f>
         <v>1745703465.4624267</v>
       </c>
       <c r="N6" s="212">
-        <f>'Main Page'!M121</f>
+        <f>'Main Page'!M122</f>
         <v>676.01285685941104</v>
       </c>
     </row>
     <row r="7" spans="2:21">
       <c r="B7" s="197">
-        <f>'Main Page'!A122</f>
+        <f>'Main Page'!A123</f>
         <v>0.25</v>
       </c>
       <c r="C7" s="208">
-        <f>'Main Page'!B122</f>
+        <f>'Main Page'!B123</f>
         <v>3.9601219202438407</v>
       </c>
       <c r="D7" s="209">
-        <f>'Main Page'!C122</f>
+        <f>'Main Page'!C123</f>
         <v>0.33</v>
       </c>
       <c r="E7" s="209">
-        <f>'Main Page'!D122</f>
+        <f>'Main Page'!D123</f>
         <v>4.2105075887228658</v>
       </c>
       <c r="F7" s="203">
-        <f>'Main Page'!E122</f>
+        <f>'Main Page'!E123</f>
         <v>0.34</v>
       </c>
       <c r="G7" s="208">
-        <f>'Main Page'!F122</f>
+        <f>'Main Page'!F123</f>
         <v>0.40616627838474717</v>
       </c>
       <c r="H7" s="208">
-        <f>'Main Page'!G122</f>
+        <f>'Main Page'!G123</f>
         <v>0.32779911806110856</v>
       </c>
       <c r="I7" s="210">
-        <f>'Main Page'!H122</f>
+        <f>'Main Page'!H123</f>
         <v>405.46483412508888</v>
       </c>
       <c r="J7" s="211">
-        <f>'Main Page'!I122</f>
+        <f>'Main Page'!I123</f>
         <v>1456208344.9209256</v>
       </c>
       <c r="K7" s="211">
-        <f>'Main Page'!J122</f>
+        <f>'Main Page'!J123</f>
         <v>3906180885.0486031</v>
       </c>
       <c r="L7" s="198">
-        <f>'Main Page'!K122</f>
+        <f>'Main Page'!K123</f>
         <v>5337777876.7804203</v>
       </c>
       <c r="M7" s="198">
-        <f>'Main Page'!L122</f>
+        <f>'Main Page'!L123</f>
         <v>63313292.734555714</v>
       </c>
       <c r="N7" s="213">
-        <f>'Main Page'!M122</f>
+        <f>'Main Page'!M123</f>
         <v>354.86371029702843</v>
       </c>
     </row>
     <row r="8" spans="2:21">
       <c r="B8" s="197">
-        <f>'Main Page'!A123</f>
+        <f>'Main Page'!A124</f>
         <v>0.5</v>
       </c>
       <c r="C8" s="208">
-        <f>'Main Page'!B123</f>
+        <f>'Main Page'!B124</f>
         <v>3.0363220726441456</v>
       </c>
       <c r="D8" s="214">
-        <f>'Main Page'!C123</f>
+        <f>'Main Page'!C124</f>
         <v>0.24</v>
       </c>
       <c r="E8" s="209">
-        <f>'Main Page'!D123</f>
+        <f>'Main Page'!D124</f>
         <v>8.8087131153173708</v>
       </c>
       <c r="F8" s="203">
-        <f>'Main Page'!E123</f>
+        <f>'Main Page'!E124</f>
         <v>0.31</v>
       </c>
       <c r="G8" s="208">
-        <f>'Main Page'!F123</f>
+        <f>'Main Page'!F124</f>
         <v>0.37631882650896054</v>
       </c>
       <c r="H8" s="208">
-        <f>'Main Page'!G123</f>
+        <f>'Main Page'!G124</f>
         <v>0.32332040963124214</v>
       </c>
       <c r="I8" s="210">
-        <f>'Main Page'!H123</f>
+        <f>'Main Page'!H124</f>
         <v>319.61717485509803</v>
       </c>
       <c r="J8" s="211">
-        <f>'Main Page'!I123</f>
+        <f>'Main Page'!I124</f>
         <v>362359217.52206236</v>
       </c>
       <c r="K8" s="211">
-        <f>'Main Page'!J123</f>
+        <f>'Main Page'!J124</f>
         <v>988006806.05798388</v>
       </c>
       <c r="L8" s="198">
-        <f>'Main Page'!K123</f>
+        <f>'Main Page'!K124</f>
         <v>4226064069.1209292</v>
       </c>
       <c r="M8" s="198">
-        <f>'Main Page'!L123</f>
+        <f>'Main Page'!L124</f>
         <v>25481782.397363089</v>
       </c>
       <c r="N8" s="213">
-        <f>'Main Page'!M123</f>
+        <f>'Main Page'!M124</f>
         <v>117.08485674451724</v>
       </c>
     </row>
     <row r="9" spans="2:21">
       <c r="B9" s="197">
-        <f>'Main Page'!A124</f>
+        <f>'Main Page'!A125</f>
         <v>0.75</v>
       </c>
       <c r="C9" s="208">
-        <f>'Main Page'!B124</f>
+        <f>'Main Page'!B125</f>
         <v>2.1125222250444504</v>
       </c>
       <c r="D9" s="214">
-        <f>'Main Page'!C124</f>
+        <f>'Main Page'!C125</f>
         <v>0.21</v>
       </c>
       <c r="E9" s="209">
-        <f>'Main Page'!D124</f>
+        <f>'Main Page'!D125</f>
         <v>8.3824243344618559</v>
       </c>
       <c r="F9" s="203">
-        <f>'Main Page'!E124</f>
+        <f>'Main Page'!E125</f>
         <v>0.28000000000000003</v>
       </c>
       <c r="G9" s="208">
-        <f>'Main Page'!F124</f>
+        <f>'Main Page'!F125</f>
         <v>0.38906004871333283</v>
       </c>
       <c r="H9" s="208">
-        <f>'Main Page'!G124</f>
+        <f>'Main Page'!G125</f>
         <v>0.32617688943581796</v>
       </c>
       <c r="I9" s="210">
-        <f>'Main Page'!H124</f>
+        <f>'Main Page'!H125</f>
         <v>139.35911643347461</v>
       </c>
       <c r="J9" s="211">
-        <f>'Main Page'!I124</f>
+        <f>'Main Page'!I125</f>
         <v>55876712.03553623</v>
       </c>
       <c r="K9" s="211">
-        <f>'Main Page'!J124</f>
+        <f>'Main Page'!J125</f>
         <v>242833001.70445472</v>
       </c>
       <c r="L9" s="198">
-        <f>'Main Page'!K124</f>
+        <f>'Main Page'!K125</f>
         <v>1782574562.629951</v>
       </c>
       <c r="M9" s="198">
-        <f>'Main Page'!L124</f>
+        <f>'Main Page'!L125</f>
         <v>5108455.3661101973</v>
       </c>
       <c r="N9" s="213">
-        <f>'Main Page'!M124</f>
+        <f>'Main Page'!M125</f>
         <v>25.985344618591107</v>
       </c>
     </row>
     <row r="10" spans="2:21">
       <c r="B10" s="215">
-        <f>'Main Page'!A125</f>
+        <f>'Main Page'!A126</f>
         <v>1</v>
       </c>
       <c r="C10" s="216">
-        <f>'Main Page'!B125</f>
+        <f>'Main Page'!B126</f>
         <v>1.2811785623571248</v>
       </c>
       <c r="D10" s="217">
-        <f>'Main Page'!C125</f>
+        <f>'Main Page'!C126</f>
         <v>0.16</v>
       </c>
       <c r="E10" s="217">
-        <f>'Main Page'!D125</f>
+        <f>'Main Page'!D126</f>
         <v>0</v>
       </c>
       <c r="F10" s="216">
-        <f>'Main Page'!E125</f>
+        <f>'Main Page'!E126</f>
         <v>0.25</v>
       </c>
       <c r="G10" s="216">
-        <f>'Main Page'!F125</f>
+        <f>'Main Page'!F126</f>
         <v>0.49249999999999999</v>
       </c>
       <c r="H10" s="216">
-        <f>'Main Page'!G125</f>
+        <f>'Main Page'!G126</f>
         <v>0.35780000000000001</v>
       </c>
       <c r="I10" s="218">
-        <f>'Main Page'!H125</f>
+        <f>'Main Page'!H126</f>
         <v>16.681593270259139</v>
       </c>
       <c r="J10" s="219">
-        <f>'Main Page'!I125</f>
+        <f>'Main Page'!I126</f>
         <v>691951.30059363274</v>
       </c>
       <c r="K10" s="219">
-        <f>'Main Page'!J125</f>
+        <f>'Main Page'!J126</f>
         <v>23689722.908686247</v>
       </c>
       <c r="L10" s="220">
-        <f>'Main Page'!K125</f>
+        <f>'Main Page'!K126</f>
         <v>175855044.44087556</v>
       </c>
       <c r="M10" s="220">
-        <f>'Main Page'!L125</f>
+        <f>'Main Page'!L126</f>
         <v>543766.85724921024</v>
       </c>
       <c r="N10" s="221">
-        <f>'Main Page'!M125</f>
+        <f>'Main Page'!M126</f>
         <v>2.3638269206409808</v>
       </c>
     </row>
@@ -12358,7 +12403,7 @@
         <v>354</v>
       </c>
       <c r="D13" s="228">
-        <f>'Main Page'!B52/2</f>
+        <f>'Main Page'!B53/2</f>
         <v>2.4750000000000001</v>
       </c>
       <c r="E13" s="226" t="s">
@@ -12525,7 +12570,7 @@
         <v>2514.2728793945694</v>
       </c>
       <c r="E18" s="238">
-        <f>N5*'Main Page'!C$127/('Main Page'!C$127+1)</f>
+        <f>N5*'Main Page'!C$128/('Main Page'!C$128+1)</f>
         <v>0</v>
       </c>
       <c r="F18" s="238">
@@ -12547,7 +12592,7 @@
         <v>0.6682448564897131</v>
       </c>
       <c r="K18" s="238">
-        <f>'Main Page'!B132-'Main Page'!B$137</f>
+        <f>'Main Page'!B133-'Main Page'!B$138</f>
         <v>11.1</v>
       </c>
       <c r="L18" s="240">
@@ -12574,7 +12619,7 @@
         <v>0</v>
       </c>
       <c r="R18" s="264">
-        <f>'Main Page'!D132</f>
+        <f>'Main Page'!D133</f>
         <v>1</v>
       </c>
       <c r="S18" s="108"/>
@@ -12595,7 +12640,7 @@
         <v>378.46476436784059</v>
       </c>
       <c r="E19" s="243">
-        <f>N6*'Main Page'!C$127/('Main Page'!C$127+1)</f>
+        <f>N6*'Main Page'!C$128/('Main Page'!C$128+1)</f>
         <v>0</v>
       </c>
       <c r="F19" s="243">
@@ -12617,7 +12662,7 @@
         <v>0.6682448564897131</v>
       </c>
       <c r="K19" s="243">
-        <f>'Main Page'!B133-'Main Page'!B$137</f>
+        <f>'Main Page'!B134-'Main Page'!B$138</f>
         <v>11.1</v>
       </c>
       <c r="L19" s="246">
@@ -12644,7 +12689,7 @@
         <v>0</v>
       </c>
       <c r="R19" s="262">
-        <f>'Main Page'!D133</f>
+        <f>'Main Page'!D134</f>
         <v>1</v>
       </c>
       <c r="S19" s="108"/>
@@ -12665,7 +12710,7 @@
         <v>405.46483412508888</v>
       </c>
       <c r="E20" s="243">
-        <f>N7*'Main Page'!C$127/('Main Page'!C$127+1)</f>
+        <f>N7*'Main Page'!C$128/('Main Page'!C$128+1)</f>
         <v>0</v>
       </c>
       <c r="F20" s="243">
@@ -12687,7 +12732,7 @@
         <v>-4.8316980012511251E-2</v>
       </c>
       <c r="K20" s="243">
-        <f>'Main Page'!B134-'Main Page'!B$137</f>
+        <f>'Main Page'!B135-'Main Page'!B$138</f>
         <v>11.1</v>
       </c>
       <c r="L20" s="246">
@@ -12715,7 +12760,7 @@
         <v>-0.35641097282194578</v>
       </c>
       <c r="R20" s="262">
-        <f>'Main Page'!D134</f>
+        <f>'Main Page'!D135</f>
         <v>2</v>
       </c>
       <c r="S20" s="108"/>
@@ -12736,7 +12781,7 @@
         <v>319.61717485509803</v>
       </c>
       <c r="E21" s="243">
-        <f>N8*'Main Page'!C$127/('Main Page'!C$127+1)</f>
+        <f>N8*'Main Page'!C$128/('Main Page'!C$128+1)</f>
         <v>0</v>
       </c>
       <c r="F21" s="243">
@@ -12758,7 +12803,7 @@
         <v>4.0445053780002196E-2</v>
       </c>
       <c r="K21" s="243">
-        <f>'Main Page'!B135-'Main Page'!B$137</f>
+        <f>'Main Page'!B136-'Main Page'!B$138</f>
         <v>3.1</v>
       </c>
       <c r="L21" s="246">
@@ -12804,7 +12849,7 @@
         <v>139.35911643347461</v>
       </c>
       <c r="E22" s="243">
-        <f>N9*'Main Page'!C$127/('Main Page'!C$127+1)</f>
+        <f>N9*'Main Page'!C$128/('Main Page'!C$128+1)</f>
         <v>0</v>
       </c>
       <c r="F22" s="243">
@@ -12826,7 +12871,7 @@
         <v>9.754970521658568E-2</v>
       </c>
       <c r="K22" s="243">
-        <f>'Main Page'!B136-'Main Page'!B$137</f>
+        <f>'Main Page'!B137-'Main Page'!B$138</f>
         <v>0.6</v>
       </c>
       <c r="L22" s="246">
@@ -12854,7 +12899,7 @@
         <v>-6.3375666751333562E-2</v>
       </c>
       <c r="R22" s="262">
-        <f>'Main Page'!D136</f>
+        <f>'Main Page'!D137</f>
         <v>3</v>
       </c>
       <c r="S22" s="108"/>
@@ -12875,7 +12920,7 @@
         <v>16.681593270259139</v>
       </c>
       <c r="E23" s="249">
-        <f>N10*'Main Page'!C$127/('Main Page'!C$127+1)</f>
+        <f>N10*'Main Page'!C$128/('Main Page'!C$128+1)</f>
         <v>0</v>
       </c>
       <c r="F23" s="249">
@@ -12897,7 +12942,7 @@
         <v>0.13811104902209806</v>
       </c>
       <c r="K23" s="249">
-        <f>'Main Page'!B137-'Main Page'!B$137</f>
+        <f>'Main Page'!B138-'Main Page'!B$138</f>
         <v>0</v>
       </c>
       <c r="L23" s="251">
@@ -12925,7 +12970,7 @@
         <v>0</v>
       </c>
       <c r="R23" s="263">
-        <f>'Main Page'!D137</f>
+        <f>'Main Page'!D138</f>
         <v>4</v>
       </c>
       <c r="S23" s="108"/>
@@ -14655,7 +14700,7 @@
         <v>95</v>
       </c>
       <c r="C6" s="153">
-        <f>C5-'Main Page'!B42</f>
+        <f>C5-'Main Page'!B43</f>
         <v>116.73099999999999</v>
       </c>
       <c r="D6" t="s">
@@ -14676,7 +14721,7 @@
         <v>96</v>
       </c>
       <c r="C7" s="154">
-        <f>'Main Page'!B45</f>
+        <f>'Main Page'!B46</f>
         <v>8.0020000000000007</v>
       </c>
       <c r="D7" t="s">
@@ -14698,7 +14743,7 @@
         <v>98</v>
       </c>
       <c r="C8" s="154">
-        <f>'Main Page'!B43</f>
+        <f>'Main Page'!B44</f>
         <v>3.7</v>
       </c>
       <c r="D8" t="s">
@@ -14710,33 +14755,33 @@
         <v>99</v>
       </c>
       <c r="C9" s="154">
-        <f>'Main Page'!B46</f>
+        <f>'Main Page'!B47</f>
         <v>26.1</v>
       </c>
       <c r="D9" t="s">
         <v>97</v>
       </c>
-      <c r="F9" s="332"/>
+      <c r="F9" s="331"/>
     </row>
     <row r="10" spans="2:15">
       <c r="B10" t="s">
         <v>100</v>
       </c>
       <c r="C10" s="154">
-        <f>'Main Page'!B44</f>
+        <f>'Main Page'!B45</f>
         <v>11.9</v>
       </c>
       <c r="D10" t="s">
         <v>97</v>
       </c>
-      <c r="F10" s="332"/>
+      <c r="F10" s="331"/>
     </row>
     <row r="11" spans="2:15">
       <c r="B11" t="s">
         <v>387</v>
       </c>
-      <c r="C11" s="332">
-        <f>'Main Page'!B47</f>
+      <c r="C11" s="331">
+        <f>'Main Page'!B48</f>
         <v>5</v>
       </c>
       <c r="D11" t="s">
@@ -14880,7 +14925,7 @@
         <f t="shared" ref="N15:N24" si="4">L15*F$6</f>
         <v>1050330627972.325</v>
       </c>
-      <c r="O15" s="335">
+      <c r="O15" s="334">
         <f>G15*(C16-C15)/2</f>
         <v>33568.995548732055</v>
       </c>
@@ -14938,7 +14983,7 @@
         <f t="shared" si="4"/>
         <v>820344112793.62048</v>
       </c>
-      <c r="O16" s="335">
+      <c r="O16" s="334">
         <f>G16*(C17-C15)/2</f>
         <v>59311.362173995934</v>
       </c>
@@ -14996,7 +15041,7 @@
         <f t="shared" si="4"/>
         <v>630369721363.07703</v>
       </c>
-      <c r="O17" s="335">
+      <c r="O17" s="334">
         <f t="shared" ref="O17:O23" si="13">G17*(C18-C16)/2</f>
         <v>51969.611848218854</v>
       </c>
@@ -15054,7 +15099,7 @@
         <f t="shared" si="4"/>
         <v>475473249816.18439</v>
       </c>
-      <c r="O18" s="335">
+      <c r="O18" s="334">
         <f t="shared" si="13"/>
         <v>45112.740120132876</v>
       </c>
@@ -15112,7 +15157,7 @@
         <f t="shared" si="4"/>
         <v>351045305228.06683</v>
       </c>
-      <c r="O19" s="335">
+      <c r="O19" s="334">
         <f t="shared" si="13"/>
         <v>38740.746989737985</v>
       </c>
@@ -15170,7 +15215,7 @@
         <f t="shared" si="4"/>
         <v>252801305613.48541</v>
       </c>
-      <c r="O20" s="335">
+      <c r="O20" s="334">
         <f t="shared" si="13"/>
         <v>32853.632457034182</v>
       </c>
@@ -15228,7 +15273,7 @@
         <f t="shared" si="4"/>
         <v>176781479926.83633</v>
       </c>
-      <c r="O21" s="335">
+      <c r="O21" s="334">
         <f t="shared" si="13"/>
         <v>27451.39652202146</v>
       </c>
@@ -15286,7 +15331,7 @@
         <f t="shared" si="4"/>
         <v>119350868062.15134</v>
       </c>
-      <c r="O22" s="335">
+      <c r="O22" s="334">
         <f t="shared" si="13"/>
         <v>22534.039184699846</v>
       </c>
@@ -15344,7 +15389,7 @@
         <f t="shared" si="4"/>
         <v>77199320853.097961</v>
       </c>
-      <c r="O23" s="335">
+      <c r="O23" s="334">
         <f t="shared" si="13"/>
         <v>18101.560445069317</v>
       </c>
@@ -15402,16 +15447,16 @@
         <f t="shared" si="4"/>
         <v>47341500072.979439</v>
       </c>
-      <c r="O24" s="335">
+      <c r="O24" s="334">
         <f>G24*(C24-C23)/2</f>
         <v>7076.9801515649433</v>
       </c>
     </row>
     <row r="25" spans="2:15">
-      <c r="O25" s="335"/>
+      <c r="O25" s="334"/>
     </row>
     <row r="26" spans="2:15">
-      <c r="O26" s="335">
+      <c r="O26" s="334">
         <f>SUM(O15:O25)</f>
         <v>336721.06544120744</v>
       </c>
@@ -15492,7 +15537,7 @@
         <v>172</v>
       </c>
       <c r="C2" s="127">
-        <f>'Main Page'!B84*'Main Page'!B85</f>
+        <f>'Main Page'!B85*'Main Page'!B86</f>
         <v>1800</v>
       </c>
       <c r="D2" s="114"/>
@@ -15612,16 +15657,16 @@
       <c r="C5" s="131"/>
       <c r="D5" s="131"/>
       <c r="E5" s="132">
-        <f>'Main Page'!B52</f>
+        <f>'Main Page'!B53</f>
         <v>4.95</v>
       </c>
       <c r="F5" s="132">
-        <f>'Main Page'!B55</f>
+        <f>'Main Page'!B56</f>
         <v>8.295000000000001E-2</v>
       </c>
       <c r="G5" s="131"/>
       <c r="H5" s="135">
-        <f>'Main Page'!B56</f>
+        <f>'Main Page'!B57</f>
         <v>7850</v>
       </c>
       <c r="I5" s="136">
@@ -15629,15 +15674,15 @@
         <v>50124.068828128278</v>
       </c>
       <c r="J5" s="132">
-        <f>'Main Page'!B57</f>
+        <f>'Main Page'!B58</f>
         <v>-4.6500000000000004</v>
       </c>
       <c r="K5" s="132">
-        <f>'Main Page'!B58</f>
+        <f>'Main Page'!B59</f>
         <v>0</v>
       </c>
       <c r="L5" s="132">
-        <f>'Main Page'!B59</f>
+        <f>'Main Page'!B60</f>
         <v>0</v>
       </c>
       <c r="M5" s="160">
@@ -15690,15 +15735,15 @@
         <v>11546.5581</v>
       </c>
       <c r="J6" s="132">
-        <f>'Main Page'!B57</f>
+        <f>'Main Page'!B58</f>
         <v>-4.6500000000000004</v>
       </c>
       <c r="K6" s="132">
-        <f>'Main Page'!B58</f>
+        <f>'Main Page'!B59</f>
         <v>0</v>
       </c>
       <c r="L6" s="132">
-        <f>'Main Page'!B59</f>
+        <f>'Main Page'!B60</f>
         <v>0</v>
       </c>
       <c r="M6" s="160">
@@ -15741,21 +15786,21 @@
         <v>138</v>
       </c>
       <c r="C7" s="132">
-        <f>'Main Page'!B62</f>
+        <f>'Main Page'!B63</f>
         <v>2.79</v>
       </c>
       <c r="D7" s="132">
+        <f>'Main Page'!B65</f>
+        <v>0.4</v>
+      </c>
+      <c r="E7" s="132">
         <f>'Main Page'!B64</f>
-        <v>0.4</v>
-      </c>
-      <c r="E7" s="132">
-        <f>'Main Page'!B63</f>
         <v>0.8</v>
       </c>
       <c r="F7" s="131"/>
       <c r="G7" s="136"/>
       <c r="H7" s="135">
-        <f>'Main Page'!B65</f>
+        <f>'Main Page'!B66</f>
         <v>7850</v>
       </c>
       <c r="I7" s="136">
@@ -15763,15 +15808,15 @@
         <v>8256.6709803116246</v>
       </c>
       <c r="J7" s="132">
-        <f>0.5*('Main Page'!B70+'Main Page'!B73)</f>
+        <f>0.5*('Main Page'!B71+'Main Page'!B74)</f>
         <v>-2.0924999999999998</v>
       </c>
       <c r="K7" s="132">
-        <f>'Main Page'!B66</f>
+        <f>'Main Page'!B67</f>
         <v>0</v>
       </c>
       <c r="L7" s="132">
-        <f>'Main Page'!B67</f>
+        <f>'Main Page'!B68</f>
         <v>0</v>
       </c>
       <c r="M7" s="160">
@@ -15826,15 +15871,15 @@
         <v>2875.4026833817952</v>
       </c>
       <c r="J8" s="132">
-        <f>'Main Page'!B70</f>
+        <f>'Main Page'!B71</f>
         <v>-3.2549999999999999</v>
       </c>
       <c r="K8" s="132">
-        <f>'Main Page'!B71</f>
+        <f>'Main Page'!B72</f>
         <v>0</v>
       </c>
       <c r="L8" s="132">
-        <f>'Main Page'!B72</f>
+        <f>'Main Page'!B73</f>
         <v>0</v>
       </c>
       <c r="M8" s="160">
@@ -15889,15 +15934,15 @@
         <v>2875.4026833817952</v>
       </c>
       <c r="J9" s="132">
-        <f>'Main Page'!B73</f>
+        <f>'Main Page'!B74</f>
         <v>-0.93</v>
       </c>
       <c r="K9" s="132">
-        <f>'Main Page'!B74</f>
+        <f>'Main Page'!B75</f>
         <v>0</v>
       </c>
       <c r="L9" s="132">
-        <f>'Main Page'!B75</f>
+        <f>'Main Page'!B76</f>
         <v>0</v>
       </c>
       <c r="M9" s="160">
@@ -15952,19 +15997,19 @@
       <c r="G10" s="128"/>
       <c r="H10" s="137"/>
       <c r="I10" s="136">
-        <f>'Main Page'!B78/2</f>
+        <f>'Main Page'!B79/2</f>
         <v>11750</v>
       </c>
       <c r="J10" s="132">
-        <f>'Main Page'!B79</f>
+        <f>'Main Page'!B80</f>
         <v>0</v>
       </c>
       <c r="K10" s="132">
-        <f>'Main Page'!B80</f>
+        <f>'Main Page'!B81</f>
         <v>0</v>
       </c>
       <c r="L10" s="132">
-        <f>'Main Page'!B81</f>
+        <f>'Main Page'!B82</f>
         <v>0</v>
       </c>
       <c r="M10" s="160">
@@ -16016,19 +16061,19 @@
       <c r="G11" s="128"/>
       <c r="H11" s="137"/>
       <c r="I11" s="139">
-        <f>(3.3*'Main Page'!B88+471)/3</f>
+        <f>(3.3*'Main Page'!B89+471)/3</f>
         <v>3457</v>
       </c>
       <c r="J11" s="132">
-        <f>'Main Page'!B89</f>
+        <f>'Main Page'!B90</f>
         <v>1.163</v>
       </c>
       <c r="K11" s="132">
-        <f>'Main Page'!B90</f>
+        <f>'Main Page'!B91</f>
         <v>0</v>
       </c>
       <c r="L11" s="132">
-        <f>'Main Page'!B91</f>
+        <f>'Main Page'!B92</f>
         <v>0</v>
       </c>
       <c r="M11" s="160">
@@ -16036,7 +16081,7 @@
         <v>2134807.7072140705</v>
       </c>
       <c r="N11" s="160">
-        <f>M11/2/('Main Page'!B84^2)+I11*C11^2/12</f>
+        <f>M11/2/('Main Page'!B85^2)+I11*C11^2/12</f>
         <v>1695.3053094822067</v>
       </c>
       <c r="O11" s="160">
@@ -16083,7 +16128,7 @@
         <v>7850</v>
       </c>
       <c r="I12" s="139">
-        <f>1.5*0.025*1000*'Main Page'!B88/0.10472/C2</f>
+        <f>1.5*0.025*1000*'Main Page'!B89/0.10472/C2</f>
         <v>596.82964094728811</v>
       </c>
       <c r="J12" s="132">
@@ -16099,7 +16144,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="160">
-        <f>0.25*C12*PI()*H12*E12^2*'Main Page'!B84^2*E12^2/8</f>
+        <f>0.25*C12*PI()*H12*E12^2*'Main Page'!B85^2*E12^2/8</f>
         <v>618336.183703296</v>
       </c>
       <c r="N12" s="160">
@@ -16383,12 +16428,12 @@
       <c r="A19" s="112"/>
       <c r="B19" s="165"/>
       <c r="C19" s="112"/>
-      <c r="D19" s="397" t="s">
+      <c r="D19" s="398" t="s">
         <v>240</v>
       </c>
-      <c r="E19" s="397"/>
-      <c r="F19" s="397"/>
-      <c r="G19" s="397"/>
+      <c r="E19" s="398"/>
+      <c r="F19" s="398"/>
+      <c r="G19" s="398"/>
       <c r="H19" s="112"/>
       <c r="I19" s="112"/>
       <c r="J19" s="121"/>
@@ -16453,27 +16498,27 @@
         <v>163</v>
       </c>
       <c r="C21" s="132">
-        <f>'Main Page'!B94</f>
+        <f>'Main Page'!B95</f>
         <v>3.2549999999999999</v>
       </c>
       <c r="D21" s="132">
-        <f>'Main Page'!B95</f>
+        <f>'Main Page'!B96</f>
         <v>3.1392000000000002</v>
       </c>
       <c r="E21" s="132">
-        <f>'Main Page'!B96</f>
+        <f>'Main Page'!B97</f>
         <v>1.732</v>
       </c>
       <c r="F21" s="132">
-        <f>'Main Page'!B97</f>
+        <f>'Main Page'!B98</f>
         <v>0.3024</v>
       </c>
       <c r="G21" s="132">
-        <f>'Main Page'!B98</f>
+        <f>'Main Page'!B99</f>
         <v>0.27400000000000002</v>
       </c>
       <c r="H21" s="136">
-        <f>'Main Page'!B99</f>
+        <f>'Main Page'!B100</f>
         <v>7850</v>
       </c>
       <c r="I21" s="139">
@@ -16481,15 +16526,15 @@
         <v>47675.780424483768</v>
       </c>
       <c r="J21" s="132">
-        <f>'Main Page'!B100</f>
+        <f>'Main Page'!B101</f>
         <v>0</v>
       </c>
       <c r="K21" s="132">
-        <f>'Main Page'!B101</f>
+        <f>'Main Page'!B102</f>
         <v>0</v>
       </c>
       <c r="L21" s="132">
-        <f>'Main Page'!B102</f>
+        <f>'Main Page'!B103</f>
         <v>-1.135</v>
       </c>
       <c r="M21" s="160">
@@ -16665,7 +16710,7 @@
       <c r="G24" s="130"/>
       <c r="H24" s="129"/>
       <c r="I24" s="140">
-        <f>'Main Page'!B78/2</f>
+        <f>'Main Page'!B79/2</f>
         <v>11750</v>
       </c>
       <c r="J24" s="132">
@@ -16733,7 +16778,7 @@
       <c r="G25" s="130"/>
       <c r="H25" s="129"/>
       <c r="I25" s="139">
-        <f>2*(3.3*'Main Page'!B88+471)/3</f>
+        <f>2*(3.3*'Main Page'!B89+471)/3</f>
         <v>6914</v>
       </c>
       <c r="J25" s="132">
@@ -16858,7 +16903,7 @@
       <c r="G27" s="129"/>
       <c r="H27" s="129"/>
       <c r="I27" s="139">
-        <f>2.6*'Main Page'!B88+0.002168*C1^3.4</f>
+        <f>2.6*'Main Page'!B89+0.002168*C1^3.4</f>
         <v>21019.619026865395</v>
       </c>
       <c r="J27" s="132">

--- a/FAST_models/WindPACT/excel_proc/turbines/3.0A02V02_proc.xlsx
+++ b/FAST_models/WindPACT/excel_proc/turbines/3.0A02V02_proc.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="105" yWindow="0" windowWidth="7620" windowHeight="7575" activeTab="1"/>
+    <workbookView xWindow="105" yWindow="0" windowWidth="7620" windowHeight="7575"/>
   </bookViews>
   <sheets>
     <sheet name="Main Page" sheetId="5" r:id="rId1"/>
@@ -4275,11 +4275,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="111397888"/>
-        <c:axId val="111436928"/>
+        <c:axId val="102410880"/>
+        <c:axId val="102417152"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="111397888"/>
+        <c:axId val="102410880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -4364,12 +4364,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="111436928"/>
+        <c:crossAx val="102417152"/>
         <c:crossesAt val="-10"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="111436928"/>
+        <c:axId val="102417152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4453,7 +4453,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="111397888"/>
+        <c:crossAx val="102410880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5464,7 +5464,7 @@
   </sheetPr>
   <dimension ref="A1:U154"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -7563,7 +7563,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>

--- a/FAST_models/WindPACT/excel_proc/turbines/3.0A02V02_proc.xlsx
+++ b/FAST_models/WindPACT/excel_proc/turbines/3.0A02V02_proc.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jrinker\Documents\GitHub\dissertation\FAST_models\WindPACT\excel_proc\turbines\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="110" yWindow="0" windowWidth="7620" windowHeight="7580"/>
+    <workbookView xWindow="105" yWindow="0" windowWidth="7620" windowHeight="7575" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Main Page" sheetId="5" r:id="rId1"/>
@@ -27,7 +22,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="7">'Blade Data'!$A$6:$Q$32</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -37,7 +32,7 @@
     <author>Jeff Minnema</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -64,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="513">
   <si>
     <t>number</t>
   </si>
@@ -2028,6 +2023,18 @@
   </si>
   <si>
     <t>gain scheduling exponent</t>
+  </si>
+  <si>
+    <t>P2P_Num</t>
+  </si>
+  <si>
+    <t>numerator blade pitch actuator TF</t>
+  </si>
+  <si>
+    <t>P2P_Den</t>
+  </si>
+  <si>
+    <t>denominator blade pitch actuator TF</t>
   </si>
 </sst>
 </file>
@@ -4440,11 +4447,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="316754808"/>
-        <c:axId val="316755200"/>
+        <c:axId val="108191104"/>
+        <c:axId val="108197376"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="316754808"/>
+        <c:axId val="108191104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -4529,12 +4536,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="316755200"/>
+        <c:crossAx val="108197376"/>
         <c:crossesAt val="-10"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="316755200"/>
+        <c:axId val="108197376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4618,7 +4625,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="316754808"/>
+        <c:crossAx val="108191104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5629,23 +5636,23 @@
   </sheetPr>
   <dimension ref="A1:U157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A40" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10"/>
+  <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="1" width="34.77734375" customWidth="1"/>
+    <col min="1" max="1" width="34.83203125" customWidth="1"/>
     <col min="2" max="2" width="12.33203125" customWidth="1"/>
-    <col min="4" max="4" width="10.77734375" customWidth="1"/>
-    <col min="5" max="5" width="14.109375" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" customWidth="1"/>
+    <col min="5" max="5" width="14.1640625" customWidth="1"/>
     <col min="6" max="6" width="11.33203125" customWidth="1"/>
-    <col min="7" max="8" width="12.109375" customWidth="1"/>
-    <col min="9" max="9" width="10.109375" customWidth="1"/>
-    <col min="10" max="10" width="9.77734375" customWidth="1"/>
+    <col min="7" max="8" width="12.1640625" customWidth="1"/>
+    <col min="9" max="9" width="10.1640625" customWidth="1"/>
+    <col min="10" max="10" width="9.83203125" customWidth="1"/>
     <col min="11" max="11" width="10" customWidth="1"/>
-    <col min="12" max="12" width="10.109375" customWidth="1"/>
-    <col min="13" max="13" width="12.44140625" customWidth="1"/>
+    <col min="12" max="12" width="10.1640625" customWidth="1"/>
+    <col min="13" max="13" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="41.25" customHeight="1" thickBot="1">
@@ -5690,7 +5697,7 @@
       <c r="G3" s="396"/>
       <c r="H3" s="397"/>
     </row>
-    <row r="4" spans="1:8" ht="11" thickBot="1">
+    <row r="4" spans="1:8" ht="12" thickBot="1">
       <c r="A4" s="20" t="s">
         <v>5</v>
       </c>
@@ -5815,7 +5822,7 @@
         <v>44271.918683397555</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="10.5" thickBot="1">
+    <row r="8" spans="1:8" ht="12" thickBot="1">
       <c r="A8" s="23" t="s">
         <v>12</v>
       </c>
@@ -5848,7 +5855,7 @@
         <v>268716.97302548256</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="10.5" thickBot="1">
+    <row r="9" spans="1:8" ht="12" thickBot="1">
       <c r="A9" s="106" t="s">
         <v>120</v>
       </c>
@@ -5891,7 +5898,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="20">
+    <row r="14" spans="1:8" ht="22.5">
       <c r="A14" s="61" t="s">
         <v>43</v>
       </c>
@@ -5929,7 +5936,7 @@
       <c r="E16" s="348"/>
       <c r="H16" s="103"/>
     </row>
-    <row r="17" spans="1:21" ht="23.5" customHeight="1">
+    <row r="17" spans="1:21" ht="23.45" customHeight="1">
       <c r="A17" s="61" t="s">
         <v>42</v>
       </c>
@@ -6006,7 +6013,7 @@
       <c r="O20" s="170"/>
       <c r="P20" s="171"/>
     </row>
-    <row r="21" spans="1:21" ht="11.5" customHeight="1">
+    <row r="21" spans="1:21" ht="11.45" customHeight="1">
       <c r="A21" s="61" t="s">
         <v>31</v>
       </c>
@@ -6052,7 +6059,7 @@
       <c r="O23" s="8"/>
       <c r="P23" s="173"/>
     </row>
-    <row r="24" spans="1:21" ht="12.65" customHeight="1">
+    <row r="24" spans="1:21" ht="12.6" customHeight="1">
       <c r="A24" s="100" t="s">
         <v>74</v>
       </c>
@@ -6073,7 +6080,7 @@
       <c r="O24" s="8"/>
       <c r="P24" s="173"/>
     </row>
-    <row r="25" spans="1:21" ht="10.5" thickBot="1">
+    <row r="25" spans="1:21" ht="12" thickBot="1">
       <c r="A25" s="100" t="s">
         <v>75</v>
       </c>
@@ -6104,7 +6111,7 @@
       <c r="G26" s="89"/>
       <c r="H26" s="12"/>
     </row>
-    <row r="28" spans="1:21" ht="12.65" customHeight="1">
+    <row r="28" spans="1:21" ht="12.6" customHeight="1">
       <c r="A28" s="109" t="s">
         <v>78</v>
       </c>
@@ -6144,7 +6151,7 @@
     <row r="32" spans="1:21">
       <c r="B32" s="53"/>
     </row>
-    <row r="33" spans="1:5" ht="10.5">
+    <row r="33" spans="1:5">
       <c r="A33" s="109" t="s">
         <v>80</v>
       </c>
@@ -6319,7 +6326,7 @@
         <v>6.2246280302696988</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="10.5">
+    <row r="55" spans="1:4">
       <c r="A55" s="2" t="s">
         <v>12</v>
       </c>
@@ -6432,7 +6439,7 @@
       <c r="A64" s="18"/>
       <c r="B64" s="124"/>
     </row>
-    <row r="65" spans="1:4" ht="10.5">
+    <row r="65" spans="1:4">
       <c r="A65" s="111" t="s">
         <v>138</v>
       </c>
@@ -6517,7 +6524,7 @@
       <c r="A72" s="18"/>
       <c r="B72" s="124"/>
     </row>
-    <row r="73" spans="1:4" ht="10.5">
+    <row r="73" spans="1:4">
       <c r="A73" s="111" t="s">
         <v>144</v>
       </c>
@@ -6599,7 +6606,7 @@
       <c r="A80" s="18"/>
       <c r="B80" s="125"/>
     </row>
-    <row r="81" spans="1:4" ht="10.5">
+    <row r="81" spans="1:4">
       <c r="A81" s="111" t="s">
         <v>153</v>
       </c>
@@ -6756,7 +6763,7 @@
       <c r="A96" s="18"/>
       <c r="B96" s="126"/>
     </row>
-    <row r="97" spans="1:4" ht="10.5">
+    <row r="97" spans="1:4">
       <c r="A97" s="111" t="s">
         <v>163</v>
       </c>
@@ -6870,7 +6877,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="10.5">
+    <row r="108" spans="1:4">
       <c r="A108" s="111" t="s">
         <v>393</v>
       </c>
@@ -6933,7 +6940,7 @@
       <c r="I113" s="183"/>
       <c r="J113" s="183"/>
     </row>
-    <row r="114" spans="1:13" ht="15">
+    <row r="114" spans="1:13" ht="14.25">
       <c r="A114" s="184"/>
       <c r="B114" s="185"/>
       <c r="C114" s="186" t="s">
@@ -6991,7 +6998,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="116" spans="1:13" ht="11.5">
+    <row r="116" spans="1:13" ht="12">
       <c r="A116" s="283">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -7026,7 +7033,7 @@
         <v>2.7007721300201633E-4</v>
       </c>
     </row>
-    <row r="117" spans="1:13" ht="11.5">
+    <row r="117" spans="1:13" ht="12">
       <c r="A117" s="292">
         <v>0.25</v>
       </c>
@@ -7061,7 +7068,7 @@
         <v>6.5336563899760921E-4</v>
       </c>
     </row>
-    <row r="118" spans="1:13" ht="11.5">
+    <row r="118" spans="1:13" ht="12">
       <c r="A118" s="292">
         <v>0.5</v>
       </c>
@@ -7096,7 +7103,7 @@
         <v>2.0216089974261484E-3</v>
       </c>
     </row>
-    <row r="119" spans="1:13" ht="11.5">
+    <row r="119" spans="1:13" ht="12">
       <c r="A119" s="295">
         <v>0.75</v>
       </c>
@@ -7462,7 +7469,7 @@
         <v>2.3638269206409808</v>
       </c>
     </row>
-    <row r="131" spans="1:13" ht="13">
+    <row r="131" spans="1:13">
       <c r="B131" s="18" t="s">
         <v>350</v>
       </c>
@@ -7479,7 +7486,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="134" spans="1:13" ht="10.5">
+    <row r="134" spans="1:13">
       <c r="A134" s="184"/>
       <c r="B134" s="230" t="s">
         <v>364</v>
@@ -7489,7 +7496,7 @@
       </c>
       <c r="D134" s="189"/>
     </row>
-    <row r="135" spans="1:13" ht="11.5">
+    <row r="135" spans="1:13" ht="12">
       <c r="A135" s="192" t="s">
         <v>87</v>
       </c>
@@ -7577,7 +7584,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="143" spans="1:13" ht="11.5">
+    <row r="143" spans="1:13" ht="12">
       <c r="A143" s="337" t="s">
         <v>400</v>
       </c>
@@ -7638,8 +7645,8 @@
       <c r="F147" s="348"/>
       <c r="G147" s="348"/>
     </row>
-    <row r="148" spans="1:7" ht="10.5" thickBot="1"/>
-    <row r="149" spans="1:7" ht="10.5" thickBot="1">
+    <row r="148" spans="1:7" ht="12" thickBot="1"/>
+    <row r="149" spans="1:7" ht="12" thickBot="1">
       <c r="A149" s="388" t="s">
         <v>402</v>
       </c>
@@ -7650,7 +7657,7 @@
       </c>
       <c r="F149" s="348"/>
     </row>
-    <row r="150" spans="1:7" ht="10.5" thickBot="1">
+    <row r="150" spans="1:7" ht="12" thickBot="1">
       <c r="A150" s="357" t="s">
         <v>35</v>
       </c>
@@ -7665,7 +7672,7 @@
       </c>
       <c r="F150" s="348"/>
     </row>
-    <row r="151" spans="1:7" ht="11" thickBot="1">
+    <row r="151" spans="1:7" ht="12" thickBot="1">
       <c r="A151" s="359">
         <v>3.882E-2</v>
       </c>
@@ -7680,8 +7687,8 @@
       </c>
       <c r="F151" s="348"/>
     </row>
-    <row r="152" spans="1:7" ht="10.5" thickBot="1"/>
-    <row r="153" spans="1:7" ht="10.5" thickBot="1">
+    <row r="152" spans="1:7" ht="12" thickBot="1"/>
+    <row r="153" spans="1:7" ht="12" thickBot="1">
       <c r="A153" s="388" t="s">
         <v>413</v>
       </c>
@@ -7692,7 +7699,7 @@
       </c>
       <c r="F153" s="348"/>
     </row>
-    <row r="154" spans="1:7" ht="10.5">
+    <row r="154" spans="1:7">
       <c r="A154" s="363" t="s">
         <v>50</v>
       </c>
@@ -7705,7 +7712,7 @@
       </c>
       <c r="F154" s="348"/>
     </row>
-    <row r="155" spans="1:7" ht="10.5">
+    <row r="155" spans="1:7">
       <c r="A155" s="366" t="s">
         <v>51</v>
       </c>
@@ -7718,7 +7725,7 @@
       </c>
       <c r="F155" s="348"/>
     </row>
-    <row r="156" spans="1:7" ht="10.5">
+    <row r="156" spans="1:7">
       <c r="A156" s="369" t="s">
         <v>52</v>
       </c>
@@ -7730,7 +7737,7 @@
       </c>
       <c r="F156" s="348"/>
     </row>
-    <row r="157" spans="1:7" ht="11" thickBot="1">
+    <row r="157" spans="1:7" ht="12" thickBot="1">
       <c r="A157" s="370" t="s">
         <v>53</v>
       </c>
@@ -7769,10 +7776,10 @@
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10"/>
+  <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
-    <col min="2" max="2" width="12.109375" customWidth="1"/>
-    <col min="5" max="5" width="12.77734375" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" customWidth="1"/>
+    <col min="5" max="5" width="12.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:15">
@@ -8604,23 +8611,23 @@
       <selection pane="bottomRight" activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10"/>
+  <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="1" width="16.44140625" customWidth="1"/>
-    <col min="2" max="2" width="33.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5" customWidth="1"/>
+    <col min="2" max="2" width="33.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.33203125" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
     <col min="6" max="6" width="14.33203125" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
     <col min="8" max="8" width="10" customWidth="1"/>
     <col min="10" max="11" width="9.6640625" customWidth="1"/>
-    <col min="12" max="12" width="9.44140625" customWidth="1"/>
+    <col min="12" max="12" width="9.5" customWidth="1"/>
     <col min="13" max="14" width="11.33203125" customWidth="1"/>
-    <col min="15" max="15" width="11.44140625" customWidth="1"/>
+    <col min="15" max="15" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="12.5">
+    <row r="1" spans="1:25" ht="12.75">
       <c r="A1" s="112"/>
       <c r="B1" s="112" t="s">
         <v>171</v>
@@ -8652,7 +8659,7 @@
       <c r="X1" s="112"/>
       <c r="Y1" s="112"/>
     </row>
-    <row r="2" spans="1:25" ht="12.5">
+    <row r="2" spans="1:25" ht="12.75">
       <c r="A2" s="112"/>
       <c r="B2" s="113" t="s">
         <v>172</v>
@@ -8684,7 +8691,7 @@
       <c r="X2" s="112"/>
       <c r="Y2" s="112"/>
     </row>
-    <row r="3" spans="1:25" ht="12.5">
+    <row r="3" spans="1:25" ht="12.75">
       <c r="A3" s="112"/>
       <c r="B3" s="112"/>
       <c r="C3" s="112"/>
@@ -8711,7 +8718,7 @@
       <c r="X3" s="112"/>
       <c r="Y3" s="112"/>
     </row>
-    <row r="4" spans="1:25" ht="37.5">
+    <row r="4" spans="1:25" ht="38.25">
       <c r="A4" s="115"/>
       <c r="B4" s="163" t="s">
         <v>173</v>
@@ -8770,7 +8777,7 @@
       <c r="X4" s="115"/>
       <c r="Y4" s="116"/>
     </row>
-    <row r="5" spans="1:25" ht="12.5">
+    <row r="5" spans="1:25" ht="12.75">
       <c r="A5" s="112"/>
       <c r="B5" s="164" t="s">
         <v>12</v>
@@ -8840,7 +8847,7 @@
       <c r="X5" s="112"/>
       <c r="Y5" s="112"/>
     </row>
-    <row r="6" spans="1:25" ht="12.5">
+    <row r="6" spans="1:25" ht="12.75">
       <c r="A6" s="112"/>
       <c r="B6" s="164" t="s">
         <v>185</v>
@@ -8901,7 +8908,7 @@
       <c r="X6" s="112"/>
       <c r="Y6" s="112"/>
     </row>
-    <row r="7" spans="1:25" ht="12.5">
+    <row r="7" spans="1:25" ht="12.75">
       <c r="A7" s="112"/>
       <c r="B7" s="164" t="s">
         <v>138</v>
@@ -8974,7 +8981,7 @@
       <c r="X7" s="112"/>
       <c r="Y7" s="112"/>
     </row>
-    <row r="8" spans="1:25" ht="12.5">
+    <row r="8" spans="1:25" ht="12.75">
       <c r="A8" s="112"/>
       <c r="B8" s="164" t="s">
         <v>186</v>
@@ -9037,7 +9044,7 @@
       <c r="X8" s="112"/>
       <c r="Y8" s="118"/>
     </row>
-    <row r="9" spans="1:25" ht="12.5">
+    <row r="9" spans="1:25" ht="12.75">
       <c r="A9" s="112"/>
       <c r="B9" s="164" t="s">
         <v>187</v>
@@ -9100,7 +9107,7 @@
       <c r="X9" s="112"/>
       <c r="Y9" s="112"/>
     </row>
-    <row r="10" spans="1:25" ht="12.5">
+    <row r="10" spans="1:25" ht="12.75">
       <c r="A10" s="112"/>
       <c r="B10" s="164" t="s">
         <v>188</v>
@@ -9230,7 +9237,7 @@
       <c r="X11" s="112"/>
       <c r="Y11" s="118"/>
     </row>
-    <row r="12" spans="1:25" ht="12.5">
+    <row r="12" spans="1:25" ht="12.75">
       <c r="A12" s="112"/>
       <c r="B12" s="164" t="s">
         <v>256</v>
@@ -9297,7 +9304,7 @@
       <c r="X12" s="112"/>
       <c r="Y12" s="118"/>
     </row>
-    <row r="13" spans="1:25" ht="12.5">
+    <row r="13" spans="1:25" ht="12.75">
       <c r="A13" s="112"/>
       <c r="B13" s="164"/>
       <c r="C13" s="131"/>
@@ -9329,7 +9336,7 @@
       <c r="X13" s="112"/>
       <c r="Y13" s="118"/>
     </row>
-    <row r="14" spans="1:25" ht="12.5">
+    <row r="14" spans="1:25" ht="12.75">
       <c r="A14" s="112"/>
       <c r="B14" s="164"/>
       <c r="C14" s="131"/>
@@ -9378,7 +9385,7 @@
       <c r="X14" s="112"/>
       <c r="Y14" s="118"/>
     </row>
-    <row r="15" spans="1:25" ht="12.5">
+    <row r="15" spans="1:25" ht="12.75">
       <c r="A15" s="112"/>
       <c r="B15" s="164"/>
       <c r="C15" s="131"/>
@@ -9427,7 +9434,7 @@
       <c r="X15" s="112"/>
       <c r="Y15" s="118"/>
     </row>
-    <row r="16" spans="1:25" ht="12.5">
+    <row r="16" spans="1:25" ht="12.75">
       <c r="A16" s="112"/>
       <c r="B16" s="165"/>
       <c r="C16" s="112"/>
@@ -9477,7 +9484,7 @@
       <c r="X16" s="112"/>
       <c r="Y16" s="112"/>
     </row>
-    <row r="17" spans="1:25" ht="12.5">
+    <row r="17" spans="1:25" ht="12.75">
       <c r="A17" s="112"/>
       <c r="B17" s="165"/>
       <c r="C17" s="112"/>
@@ -9518,7 +9525,7 @@
       <c r="X17" s="112"/>
       <c r="Y17" s="112"/>
     </row>
-    <row r="18" spans="1:25" ht="12.5">
+    <row r="18" spans="1:25" ht="12.75">
       <c r="A18" s="112"/>
       <c r="B18" s="165"/>
       <c r="C18" s="112"/>
@@ -9545,7 +9552,7 @@
       <c r="X18" s="112"/>
       <c r="Y18" s="112"/>
     </row>
-    <row r="19" spans="1:25" ht="12.5">
+    <row r="19" spans="1:25" ht="12.75">
       <c r="A19" s="112"/>
       <c r="B19" s="165"/>
       <c r="C19" s="112"/>
@@ -9574,7 +9581,7 @@
       <c r="X19" s="112"/>
       <c r="Y19" s="112"/>
     </row>
-    <row r="20" spans="1:25" ht="37.5">
+    <row r="20" spans="1:25" ht="38.25">
       <c r="A20" s="115"/>
       <c r="B20" s="163" t="s">
         <v>190</v>
@@ -9613,7 +9620,7 @@
       <c r="X20" s="115"/>
       <c r="Y20" s="115"/>
     </row>
-    <row r="21" spans="1:25" ht="12.5">
+    <row r="21" spans="1:25" ht="12.75">
       <c r="A21" s="112"/>
       <c r="B21" s="164" t="s">
         <v>163</v>
@@ -9689,7 +9696,7 @@
       <c r="X21" s="112"/>
       <c r="Y21" s="112"/>
     </row>
-    <row r="22" spans="1:25" ht="12.5">
+    <row r="22" spans="1:25" ht="12.75">
       <c r="A22" s="112"/>
       <c r="B22" s="164" t="s">
         <v>195</v>
@@ -9749,7 +9756,7 @@
       <c r="X22" s="112"/>
       <c r="Y22" s="118"/>
     </row>
-    <row r="23" spans="1:25" ht="12.5">
+    <row r="23" spans="1:25" ht="12.75">
       <c r="A23" s="112"/>
       <c r="B23" s="164" t="s">
         <v>196</v>
@@ -9810,7 +9817,7 @@
       <c r="X23" s="112"/>
       <c r="Y23" s="112"/>
     </row>
-    <row r="24" spans="1:25" ht="12.5">
+    <row r="24" spans="1:25" ht="12.75">
       <c r="A24" s="112"/>
       <c r="B24" s="164" t="s">
         <v>197</v>
@@ -9878,7 +9885,7 @@
       <c r="X24" s="112"/>
       <c r="Y24" s="112"/>
     </row>
-    <row r="25" spans="1:25" ht="12.5">
+    <row r="25" spans="1:25" ht="12.75">
       <c r="A25" s="112"/>
       <c r="B25" s="164" t="s">
         <v>198</v>
@@ -9946,7 +9953,7 @@
       <c r="X25" s="112"/>
       <c r="Y25" s="112"/>
     </row>
-    <row r="26" spans="1:25" ht="12.5">
+    <row r="26" spans="1:25" ht="12.75">
       <c r="A26" s="112"/>
       <c r="B26" s="164" t="s">
         <v>199</v>
@@ -10012,7 +10019,7 @@
       <c r="X26" s="112"/>
       <c r="Y26" s="112"/>
     </row>
-    <row r="27" spans="1:25" ht="12.5">
+    <row r="27" spans="1:25" ht="12.75">
       <c r="A27" s="112"/>
       <c r="B27" s="164" t="s">
         <v>200</v>
@@ -10064,7 +10071,7 @@
       <c r="X27" s="112"/>
       <c r="Y27" s="112"/>
     </row>
-    <row r="28" spans="1:25" ht="12.5">
+    <row r="28" spans="1:25" ht="12.75">
       <c r="A28" s="112"/>
       <c r="B28" s="164" t="s">
         <v>201</v>
@@ -10116,7 +10123,7 @@
       <c r="X28" s="112"/>
       <c r="Y28" s="112"/>
     </row>
-    <row r="29" spans="1:25" ht="12.5">
+    <row r="29" spans="1:25" ht="12.75">
       <c r="A29" s="112"/>
       <c r="B29" s="165"/>
       <c r="C29" s="112"/>
@@ -10149,7 +10156,7 @@
       <c r="X29" s="112"/>
       <c r="Y29" s="112"/>
     </row>
-    <row r="30" spans="1:25" ht="12.5">
+    <row r="30" spans="1:25" ht="12.75">
       <c r="A30" s="112"/>
       <c r="B30" s="164"/>
       <c r="C30" s="112"/>
@@ -10199,7 +10206,7 @@
       <c r="X30" s="112"/>
       <c r="Y30" s="112"/>
     </row>
-    <row r="31" spans="1:25" ht="12.5">
+    <row r="31" spans="1:25" ht="12.75">
       <c r="A31" s="112"/>
       <c r="B31" s="164"/>
       <c r="C31" s="112"/>
@@ -10240,7 +10247,7 @@
       <c r="X31" s="112"/>
       <c r="Y31" s="112"/>
     </row>
-    <row r="32" spans="1:25" ht="12.5">
+    <row r="32" spans="1:25" ht="12.75">
       <c r="A32" s="112"/>
       <c r="B32" s="164"/>
       <c r="C32" s="112"/>
@@ -10267,7 +10274,7 @@
       <c r="X32" s="112"/>
       <c r="Y32" s="112"/>
     </row>
-    <row r="33" spans="1:25" ht="12.5">
+    <row r="33" spans="1:25" ht="12.75">
       <c r="A33" s="112"/>
       <c r="B33" s="164"/>
       <c r="C33" s="112"/>
@@ -10294,15 +10301,15 @@
       <c r="X33" s="112"/>
       <c r="Y33" s="112"/>
     </row>
-    <row r="34" spans="1:25" s="112" customFormat="1" ht="12.5">
+    <row r="34" spans="1:25" s="112" customFormat="1" ht="12.75">
       <c r="B34" s="165"/>
     </row>
-    <row r="35" spans="1:25" s="112" customFormat="1" ht="12.5">
+    <row r="35" spans="1:25" s="112" customFormat="1" ht="12.75">
       <c r="B35" s="164" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="36" spans="1:25" s="112" customFormat="1" ht="12.5">
+    <row r="36" spans="1:25" s="112" customFormat="1" ht="12.75">
       <c r="B36" s="164" t="s">
         <v>218</v>
       </c>
@@ -10310,7 +10317,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="37" spans="1:25" s="112" customFormat="1" ht="12.5">
+    <row r="37" spans="1:25" s="112" customFormat="1" ht="12.75">
       <c r="B37" s="164" t="s">
         <v>220</v>
       </c>
@@ -10318,10 +10325,10 @@
         <v>221</v>
       </c>
     </row>
-    <row r="38" spans="1:25" s="112" customFormat="1" ht="12.5">
+    <row r="38" spans="1:25" s="112" customFormat="1" ht="12.75">
       <c r="B38" s="165"/>
     </row>
-    <row r="39" spans="1:25" s="112" customFormat="1" ht="12.5">
+    <row r="39" spans="1:25" s="112" customFormat="1" ht="12.75">
       <c r="B39" s="164" t="s">
         <v>227</v>
       </c>
@@ -10329,7 +10336,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="40" spans="1:25" s="112" customFormat="1" ht="12.5">
+    <row r="40" spans="1:25" s="112" customFormat="1" ht="12.75">
       <c r="B40" s="164" t="s">
         <v>224</v>
       </c>
@@ -10337,7 +10344,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="41" spans="1:25" s="112" customFormat="1" ht="12.5">
+    <row r="41" spans="1:25" s="112" customFormat="1" ht="12.75">
       <c r="B41" s="164" t="s">
         <v>226</v>
       </c>
@@ -10345,10 +10352,10 @@
         <v>229</v>
       </c>
     </row>
-    <row r="42" spans="1:25" s="112" customFormat="1" ht="12.5">
+    <row r="42" spans="1:25" s="112" customFormat="1" ht="12.75">
       <c r="B42" s="166"/>
     </row>
-    <row r="43" spans="1:25" s="112" customFormat="1" ht="12.5">
+    <row r="43" spans="1:25" s="112" customFormat="1" ht="12.75">
       <c r="B43" s="164" t="s">
         <v>230</v>
       </c>
@@ -10356,7 +10363,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="44" spans="1:25" s="112" customFormat="1" ht="12.5">
+    <row r="44" spans="1:25" s="112" customFormat="1" ht="12.75">
       <c r="B44" s="164" t="s">
         <v>232</v>
       </c>
@@ -10364,7 +10371,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="45" spans="1:25" s="112" customFormat="1" ht="12.5">
+    <row r="45" spans="1:25" s="112" customFormat="1" ht="12.75">
       <c r="B45" s="164" t="s">
         <v>276</v>
       </c>
@@ -10372,10 +10379,10 @@
         <v>277</v>
       </c>
     </row>
-    <row r="46" spans="1:25" s="112" customFormat="1" ht="12.5">
+    <row r="46" spans="1:25" s="112" customFormat="1" ht="12.75">
       <c r="B46" s="166"/>
     </row>
-    <row r="47" spans="1:25" s="112" customFormat="1" ht="12.5">
+    <row r="47" spans="1:25" s="112" customFormat="1" ht="12.75">
       <c r="B47" s="164" t="s">
         <v>235</v>
       </c>
@@ -10383,7 +10390,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="48" spans="1:25" s="112" customFormat="1" ht="12.5">
+    <row r="48" spans="1:25" s="112" customFormat="1" ht="12.75">
       <c r="B48" s="164" t="s">
         <v>234</v>
       </c>
@@ -10391,7 +10398,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="49" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="49" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B49" s="164" t="s">
         <v>278</v>
       </c>
@@ -10399,13 +10406,13 @@
         <v>279</v>
       </c>
     </row>
-    <row r="50" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="50" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B50" s="164"/>
     </row>
-    <row r="51" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="51" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B51" s="164"/>
     </row>
-    <row r="52" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="52" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B52" s="164" t="s">
         <v>238</v>
       </c>
@@ -10413,7 +10420,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="53" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="53" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B53" s="164" t="s">
         <v>239</v>
       </c>
@@ -10421,7 +10428,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="54" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="54" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B54" s="164" t="s">
         <v>244</v>
       </c>
@@ -10429,7 +10436,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="55" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="55" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B55" s="164" t="s">
         <v>246</v>
       </c>
@@ -10437,10 +10444,10 @@
         <v>247</v>
       </c>
     </row>
-    <row r="56" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="56" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B56" s="164"/>
     </row>
-    <row r="57" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="57" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B57" s="164" t="s">
         <v>253</v>
       </c>
@@ -10448,7 +10455,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="58" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="58" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B58" s="164" t="s">
         <v>248</v>
       </c>
@@ -10456,7 +10463,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="59" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="59" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B59" s="164" t="s">
         <v>250</v>
       </c>
@@ -10464,7 +10471,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="60" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="60" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B60" s="164" t="s">
         <v>251</v>
       </c>
@@ -10472,10 +10479,10 @@
         <v>255</v>
       </c>
     </row>
-    <row r="61" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="61" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B61" s="164"/>
     </row>
-    <row r="62" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="62" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B62" s="164" t="s">
         <v>257</v>
       </c>
@@ -10483,7 +10490,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="63" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="63" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B63" s="164" t="s">
         <v>258</v>
       </c>
@@ -10491,7 +10498,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="64" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="64" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B64" s="164" t="s">
         <v>259</v>
       </c>
@@ -10499,7 +10506,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="65" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="65" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B65" s="164" t="s">
         <v>260</v>
       </c>
@@ -10507,7 +10514,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="66" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="66" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B66" s="164" t="s">
         <v>261</v>
       </c>
@@ -10515,10 +10522,10 @@
         <v>266</v>
       </c>
     </row>
-    <row r="67" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="67" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B67" s="164"/>
     </row>
-    <row r="68" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="68" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B68" s="164" t="s">
         <v>267</v>
       </c>
@@ -10526,7 +10533,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="69" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="69" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B69" s="164" t="s">
         <v>269</v>
       </c>
@@ -10534,10 +10541,10 @@
         <v>270</v>
       </c>
     </row>
-    <row r="70" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="70" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B70" s="164"/>
     </row>
-    <row r="71" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="71" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B71" s="164" t="s">
         <v>273</v>
       </c>
@@ -10545,7 +10552,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="72" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="72" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B72" s="164" t="s">
         <v>271</v>
       </c>
@@ -10553,7 +10560,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="73" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="73" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B73" s="164" t="s">
         <v>275</v>
       </c>
@@ -10561,10 +10568,10 @@
         <v>280</v>
       </c>
     </row>
-    <row r="74" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="74" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B74" s="164"/>
     </row>
-    <row r="75" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="75" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B75" s="164" t="s">
         <v>282</v>
       </c>
@@ -10572,7 +10579,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="76" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="76" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B76" s="164" t="s">
         <v>281</v>
       </c>
@@ -10580,7 +10587,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="77" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="77" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B77" s="164" t="s">
         <v>283</v>
       </c>
@@ -10588,7 +10595,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="78" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="78" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B78" s="164" t="s">
         <v>285</v>
       </c>
@@ -10596,7 +10603,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="79" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="79" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B79" s="164" t="s">
         <v>286</v>
       </c>
@@ -10604,10 +10611,10 @@
         <v>287</v>
       </c>
     </row>
-    <row r="80" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="80" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B80" s="164"/>
     </row>
-    <row r="81" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="81" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B81" s="164" t="s">
         <v>288</v>
       </c>
@@ -10615,7 +10622,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="82" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="82" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B82" s="164" t="s">
         <v>289</v>
       </c>
@@ -10623,7 +10630,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="83" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="83" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B83" s="164" t="s">
         <v>290</v>
       </c>
@@ -10631,7 +10638,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="84" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="84" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B84" s="164" t="s">
         <v>291</v>
       </c>
@@ -10639,7 +10646,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="85" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="85" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B85" s="164" t="s">
         <v>292</v>
       </c>
@@ -10647,10 +10654,10 @@
         <v>287</v>
       </c>
     </row>
-    <row r="86" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="86" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B86" s="164"/>
     </row>
-    <row r="87" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="87" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B87" s="164" t="s">
         <v>295</v>
       </c>
@@ -10658,7 +10665,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="88" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="88" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B88" s="164" t="s">
         <v>297</v>
       </c>
@@ -10666,7 +10673,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="89" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="89" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B89" s="164" t="s">
         <v>298</v>
       </c>
@@ -10674,7 +10681,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="90" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="90" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B90" s="164" t="s">
         <v>301</v>
       </c>
@@ -10682,7 +10689,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="91" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="91" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B91" s="164" t="s">
         <v>303</v>
       </c>
@@ -10690,8 +10697,8 @@
         <v>287</v>
       </c>
     </row>
-    <row r="92" spans="2:3" s="112" customFormat="1" ht="12.5"/>
-    <row r="93" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="92" spans="2:3" s="112" customFormat="1" ht="12.75"/>
+    <row r="93" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B93" s="164" t="s">
         <v>200</v>
       </c>
@@ -10699,7 +10706,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="94" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="94" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B94" s="164" t="s">
         <v>201</v>
       </c>
@@ -10707,10 +10714,10 @@
         <v>304</v>
       </c>
     </row>
-    <row r="95" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="95" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B95" s="165"/>
     </row>
-    <row r="96" spans="2:3" ht="12.5">
+    <row r="96" spans="2:3" ht="12.75">
       <c r="B96" s="164" t="s">
         <v>222</v>
       </c>
@@ -10842,9 +10849,9 @@
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10"/>
+  <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
-    <col min="2" max="7" width="15.77734375" customWidth="1"/>
+    <col min="2" max="7" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -11527,19 +11534,19 @@
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10"/>
+  <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="1" width="6.44140625" customWidth="1"/>
-    <col min="2" max="2" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.5" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="11" max="18" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="18" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="19" max="23" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -12529,13 +12536,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10"/>
+  <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
-    <col min="2" max="2" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
@@ -12622,7 +12629,7 @@
         <f>'Main Page'!$B$29</f>
         <v>14.468631190172303</v>
       </c>
-      <c r="E8" t="s">
+      <c r="G8" t="s">
         <v>493</v>
       </c>
       <c r="K8" s="381"/>
@@ -12638,7 +12645,7 @@
         <f>'Main Page'!$B$34</f>
         <v>2.6</v>
       </c>
-      <c r="E9" t="s">
+      <c r="G9" t="s">
         <v>495</v>
       </c>
       <c r="K9" s="381"/>
@@ -12654,7 +12661,7 @@
         <f>'Main Page'!$B$35</f>
         <v>90</v>
       </c>
-      <c r="E10" t="s">
+      <c r="G10" t="s">
         <v>497</v>
       </c>
       <c r="K10" s="381"/>
@@ -12670,7 +12677,7 @@
         <f>'Main Page'!$B$40</f>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="E11" t="s">
+      <c r="G11" t="s">
         <v>499</v>
       </c>
       <c r="K11" s="381"/>
@@ -12686,7 +12693,7 @@
         <f>'Main Page'!$B$37*PI()/180</f>
         <v>4.5378560551852569E-2</v>
       </c>
-      <c r="E12" t="s">
+      <c r="G12" t="s">
         <v>502</v>
       </c>
       <c r="K12" s="381"/>
@@ -12702,7 +12709,7 @@
         <f>'Main Page'!$B$38*PI()/180</f>
         <v>0.52359877559829882</v>
       </c>
-      <c r="E13" t="s">
+      <c r="G13" t="s">
         <v>504</v>
       </c>
       <c r="K13" s="381"/>
@@ -12718,7 +12725,7 @@
         <f>1/C12^C15</f>
         <v>0.21302244142778143</v>
       </c>
-      <c r="E14" t="s">
+      <c r="G14" t="s">
         <v>506</v>
       </c>
       <c r="K14" s="381"/>
@@ -12734,27 +12741,60 @@
         <f>'Main Page'!$B$39</f>
         <v>-0.5</v>
       </c>
-      <c r="E15" t="s">
+      <c r="G15" t="s">
         <v>508</v>
       </c>
       <c r="K15" s="381"/>
     </row>
     <row r="16" spans="1:14">
+      <c r="B16" t="s">
+        <v>509</v>
+      </c>
+      <c r="C16" s="101">
+        <f>(4*'Main Page'!$B$29/30*PI())^2</f>
+        <v>36.730945821854903</v>
+      </c>
+      <c r="D16" s="101">
+        <v>0</v>
+      </c>
+      <c r="E16" s="101">
+        <v>0</v>
+      </c>
+      <c r="G16" t="s">
+        <v>510</v>
+      </c>
       <c r="K16" s="381"/>
     </row>
-    <row r="17" spans="11:11">
+    <row r="17" spans="2:11">
+      <c r="B17" t="s">
+        <v>511</v>
+      </c>
+      <c r="C17" s="101">
+        <f>(4*'Main Page'!$B$29/30*PI())^2</f>
+        <v>36.730945821854903</v>
+      </c>
+      <c r="D17" s="101">
+        <f>2*0.8*(4*'Main Page'!$B$29/30*PI())</f>
+        <v>9.6969696969696955</v>
+      </c>
+      <c r="E17" s="101">
+        <v>1</v>
+      </c>
+      <c r="G17" t="s">
+        <v>512</v>
+      </c>
       <c r="K17" s="102"/>
     </row>
-    <row r="19" spans="11:11">
+    <row r="19" spans="2:11">
       <c r="K19" s="382"/>
     </row>
-    <row r="20" spans="11:11">
+    <row r="20" spans="2:11">
       <c r="K20" s="102"/>
     </row>
-    <row r="21" spans="11:11">
+    <row r="21" spans="2:11">
       <c r="K21" s="102"/>
     </row>
-    <row r="22" spans="11:11">
+    <row r="22" spans="2:11">
       <c r="K22" s="102"/>
     </row>
   </sheetData>
@@ -12770,12 +12810,12 @@
       <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10"/>
+  <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.109375" customWidth="1"/>
-    <col min="3" max="3" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -13048,10 +13088,10 @@
       <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10"/>
+  <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
     <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="8" width="15.77734375" customWidth="1"/>
+    <col min="3" max="8" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -13405,18 +13445,18 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10"/>
+  <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="1" width="15.109375" style="17" customWidth="1"/>
-    <col min="2" max="2" width="13.109375" customWidth="1"/>
+    <col min="1" max="1" width="15.1640625" style="17" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
     <col min="4" max="4" width="16" style="18" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
     <col min="6" max="6" width="12.33203125" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" customWidth="1"/>
+    <col min="7" max="7" width="12.1640625" customWidth="1"/>
     <col min="8" max="8" width="11.6640625" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
-    <col min="10" max="11" width="12.44140625" customWidth="1"/>
+    <col min="10" max="11" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="13.5" thickBot="1">
@@ -13424,7 +13464,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="11" thickBot="1">
+    <row r="2" spans="1:11" ht="12" thickBot="1">
       <c r="A2" s="402" t="s">
         <v>84</v>
       </c>
@@ -13456,7 +13496,7 @@
       <c r="G3" s="77"/>
       <c r="H3" s="78"/>
     </row>
-    <row r="4" spans="1:11" ht="11" thickBot="1">
+    <row r="4" spans="1:11" ht="12" thickBot="1">
       <c r="A4" s="265">
         <v>0.01</v>
       </c>
@@ -13484,7 +13524,7 @@
       <c r="D6" s="59"/>
       <c r="E6" s="57"/>
     </row>
-    <row r="7" spans="1:11" s="19" customFormat="1" ht="32.5" customHeight="1" thickBot="1">
+    <row r="7" spans="1:11" s="19" customFormat="1" ht="32.450000000000003" customHeight="1" thickBot="1">
       <c r="A7" s="45" t="s">
         <v>1</v>
       </c>
@@ -13519,7 +13559,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="10.5" thickBot="1">
+    <row r="8" spans="1:11" ht="12" thickBot="1">
       <c r="A8" s="47">
         <v>1</v>
       </c>
@@ -13562,7 +13602,7 @@
         <v>1050330627972.325</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="10.5" thickBot="1">
+    <row r="9" spans="1:11" ht="12" thickBot="1">
       <c r="A9" s="48">
         <v>2</v>
       </c>
@@ -13605,7 +13645,7 @@
         <v>820344112793.62048</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="10.5" thickBot="1">
+    <row r="10" spans="1:11" ht="12" thickBot="1">
       <c r="A10" s="48">
         <v>3</v>
       </c>
@@ -13648,7 +13688,7 @@
         <v>630369721363.07703</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="10.5" thickBot="1">
+    <row r="11" spans="1:11" ht="12" thickBot="1">
       <c r="A11" s="48">
         <v>4</v>
       </c>
@@ -13691,7 +13731,7 @@
         <v>475473249816.18439</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="10.5" thickBot="1">
+    <row r="12" spans="1:11" ht="12" thickBot="1">
       <c r="A12" s="48">
         <v>5</v>
       </c>
@@ -13734,7 +13774,7 @@
         <v>351045305228.06683</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="10.5" thickBot="1">
+    <row r="13" spans="1:11" ht="12" thickBot="1">
       <c r="A13" s="48">
         <v>6</v>
       </c>
@@ -13777,7 +13817,7 @@
         <v>252801305613.48541</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="10.5" thickBot="1">
+    <row r="14" spans="1:11" ht="12" thickBot="1">
       <c r="A14" s="48">
         <v>7</v>
       </c>
@@ -13820,7 +13860,7 @@
         <v>176781479926.83633</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="10.5" thickBot="1">
+    <row r="15" spans="1:11" ht="12" thickBot="1">
       <c r="A15" s="48">
         <v>8</v>
       </c>
@@ -13863,7 +13903,7 @@
         <v>119350868062.15134</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="10.5" thickBot="1">
+    <row r="16" spans="1:11" ht="12" thickBot="1">
       <c r="A16" s="48">
         <v>9</v>
       </c>
@@ -14159,7 +14199,7 @@
       <c r="J31" s="29"/>
       <c r="K31" s="30"/>
     </row>
-    <row r="32" spans="1:11" ht="10.5" thickBot="1">
+    <row r="32" spans="1:11" ht="12" thickBot="1">
       <c r="A32" s="49">
         <v>25</v>
       </c>
@@ -14196,33 +14236,33 @@
       <selection activeCell="I56" sqref="I56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10"/>
+  <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="1" width="9.77734375" customWidth="1"/>
-    <col min="2" max="2" width="10.44140625" customWidth="1"/>
+    <col min="1" max="1" width="9.83203125" customWidth="1"/>
+    <col min="2" max="2" width="10.5" customWidth="1"/>
     <col min="3" max="3" width="11.33203125" customWidth="1"/>
     <col min="4" max="4" width="8" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" customWidth="1"/>
-    <col min="6" max="6" width="10.44140625" customWidth="1"/>
-    <col min="7" max="7" width="10.109375" customWidth="1"/>
+    <col min="5" max="5" width="7.5" customWidth="1"/>
+    <col min="6" max="6" width="10.5" customWidth="1"/>
+    <col min="7" max="7" width="10.1640625" customWidth="1"/>
     <col min="8" max="8" width="10.33203125" customWidth="1"/>
-    <col min="9" max="9" width="10.109375" customWidth="1"/>
+    <col min="9" max="9" width="10.1640625" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
-    <col min="12" max="12" width="11.44140625" customWidth="1"/>
+    <col min="12" max="12" width="11.5" customWidth="1"/>
     <col min="13" max="13" width="12.33203125" customWidth="1"/>
     <col min="14" max="14" width="11.6640625" customWidth="1"/>
     <col min="15" max="15" width="7.33203125" customWidth="1"/>
-    <col min="16" max="16" width="10.44140625" customWidth="1"/>
-    <col min="17" max="17" width="15.44140625" customWidth="1"/>
+    <col min="16" max="16" width="10.5" customWidth="1"/>
+    <col min="17" max="17" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15.65" customHeight="1" thickBot="1">
+    <row r="1" spans="1:20" ht="15.6" customHeight="1" thickBot="1">
       <c r="A1" s="55" t="s">
         <v>64</v>
       </c>
       <c r="B1" s="57"/>
     </row>
-    <row r="2" spans="1:20" ht="20.5" thickBot="1">
+    <row r="2" spans="1:20" ht="23.25" thickBot="1">
       <c r="A2" s="96" t="s">
         <v>56</v>
       </c>
@@ -14236,7 +14276,7 @@
       <c r="E2" s="390"/>
       <c r="F2" s="391"/>
     </row>
-    <row r="3" spans="1:20" ht="20.5" thickBot="1">
+    <row r="3" spans="1:20" ht="23.25" thickBot="1">
       <c r="A3" s="98" t="s">
         <v>57</v>
       </c>
@@ -14259,7 +14299,7 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:20" ht="11" thickBot="1">
+    <row r="4" spans="1:20" ht="12" thickBot="1">
       <c r="A4" s="2"/>
       <c r="B4" s="3"/>
       <c r="D4" s="265">
@@ -14277,7 +14317,7 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:20" ht="10.5">
+    <row r="5" spans="1:20">
       <c r="A5" s="2"/>
       <c r="B5" s="3"/>
       <c r="F5" s="4"/>
@@ -14287,7 +14327,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:20" ht="13">
+    <row r="6" spans="1:20" ht="12.75">
       <c r="A6" s="55" t="s">
         <v>32</v>
       </c>
@@ -14301,7 +14341,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:20" ht="10.5">
+    <row r="7" spans="1:20">
       <c r="A7" s="52" t="s">
         <v>34</v>
       </c>
@@ -14313,7 +14353,7 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:20" s="5" customFormat="1" ht="10.5">
+    <row r="8" spans="1:20" s="5" customFormat="1">
       <c r="A8" s="13" t="s">
         <v>27</v>
       </c>
@@ -14334,7 +14374,7 @@
       <c r="P8" s="6"/>
       <c r="Q8" s="6"/>
     </row>
-    <row r="9" spans="1:20" s="19" customFormat="1" ht="30">
+    <row r="9" spans="1:20" s="19" customFormat="1" ht="33.75">
       <c r="A9" s="87" t="s">
         <v>0</v>
       </c>
@@ -15991,7 +16031,7 @@
       <c r="S31" s="9"/>
       <c r="T31" s="9"/>
     </row>
-    <row r="32" spans="1:20" ht="10.5">
+    <row r="32" spans="1:20">
       <c r="A32" s="7">
         <v>23</v>
       </c>
@@ -16410,27 +16450,27 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10"/>
+  <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
     <col min="3" max="3" width="10.6640625" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" customWidth="1"/>
     <col min="6" max="6" width="14.33203125" customWidth="1"/>
-    <col min="7" max="7" width="11.109375" customWidth="1"/>
+    <col min="7" max="7" width="11.1640625" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
     <col min="9" max="9" width="12.6640625" customWidth="1"/>
-    <col min="10" max="10" width="11.44140625" customWidth="1"/>
+    <col min="10" max="10" width="11.5" customWidth="1"/>
     <col min="11" max="11" width="11.6640625" customWidth="1"/>
-    <col min="12" max="12" width="10.77734375" customWidth="1"/>
+    <col min="12" max="12" width="10.83203125" customWidth="1"/>
     <col min="13" max="13" width="10.33203125" customWidth="1"/>
     <col min="14" max="14" width="12.33203125" customWidth="1"/>
-    <col min="15" max="16" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.44140625" customWidth="1"/>
+    <col min="15" max="16" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5" customWidth="1"/>
     <col min="19" max="19" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="27" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="27" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:21">

--- a/FAST_models/WindPACT/excel_proc/turbines/3.0A02V02_proc.xlsx
+++ b/FAST_models/WindPACT/excel_proc/turbines/3.0A02V02_proc.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="105" yWindow="0" windowWidth="7620" windowHeight="7575" activeTab="3"/>
+    <workbookView xWindow="105" yWindow="0" windowWidth="7620" windowHeight="7575" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Main Page" sheetId="5" r:id="rId1"/>
@@ -4447,11 +4447,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="108191104"/>
-        <c:axId val="108197376"/>
+        <c:axId val="119601792"/>
+        <c:axId val="119210752"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="108191104"/>
+        <c:axId val="119601792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -4536,12 +4536,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="108197376"/>
+        <c:crossAx val="119210752"/>
         <c:crossesAt val="-10"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="108197376"/>
+        <c:axId val="119210752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4625,7 +4625,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="108191104"/>
+        <c:crossAx val="119601792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11530,8 +11530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y29"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -12536,8 +12536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>

--- a/FAST_models/WindPACT/excel_proc/turbines/3.0A02V02_proc.xlsx
+++ b/FAST_models/WindPACT/excel_proc/turbines/3.0A02V02_proc.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="105" yWindow="0" windowWidth="7620" windowHeight="7575" activeTab="2"/>
+    <workbookView xWindow="105" yWindow="0" windowWidth="7620" windowHeight="7575"/>
   </bookViews>
   <sheets>
     <sheet name="Main Page" sheetId="5" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="516">
   <si>
     <t>number</t>
   </si>
@@ -1604,9 +1604,6 @@
     <t>NA</t>
   </si>
   <si>
-    <t>cylinder</t>
-  </si>
-  <si>
     <t>Initial value = 0.03*D (shorter than for 750 kW?)</t>
   </si>
   <si>
@@ -2035,6 +2032,18 @@
   </si>
   <si>
     <t>denominator blade pitch actuator TF</t>
+  </si>
+  <si>
+    <t>PrnElm</t>
+  </si>
+  <si>
+    <t>NOPRINT</t>
+  </si>
+  <si>
+    <t>cylinder.dat</t>
+  </si>
+  <si>
+    <t>&lt;-- added ".dat" (JR)</t>
   </si>
 </sst>
 </file>
@@ -2941,7 +2950,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="406">
+  <cellXfs count="405">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3737,7 +3746,6 @@
     <xf numFmtId="0" fontId="19" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4447,11 +4455,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="119601792"/>
-        <c:axId val="119210752"/>
+        <c:axId val="115922816"/>
+        <c:axId val="115941376"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="119601792"/>
+        <c:axId val="115922816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -4536,12 +4544,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="119210752"/>
+        <c:crossAx val="115941376"/>
         <c:crossesAt val="-10"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="119210752"/>
+        <c:axId val="115941376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4625,7 +4633,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="119601792"/>
+        <c:crossAx val="115922816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5636,8 +5644,8 @@
   </sheetPr>
   <dimension ref="A1:U157"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView tabSelected="1" topLeftCell="A118" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C144" sqref="C144:F144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -5660,16 +5668,16 @@
         <v>40</v>
       </c>
       <c r="B1" s="336" t="s">
-        <v>399</v>
-      </c>
-      <c r="C1" s="398" t="s">
-        <v>385</v>
-      </c>
-      <c r="D1" s="399"/>
-      <c r="E1" s="399"/>
-      <c r="F1" s="399"/>
-      <c r="G1" s="399"/>
-      <c r="H1" s="400"/>
+        <v>398</v>
+      </c>
+      <c r="C1" s="397" t="s">
+        <v>384</v>
+      </c>
+      <c r="D1" s="398"/>
+      <c r="E1" s="398"/>
+      <c r="F1" s="398"/>
+      <c r="G1" s="398"/>
+      <c r="H1" s="399"/>
     </row>
     <row r="2" spans="1:8" ht="16.899999999999999" customHeight="1" thickBot="1">
       <c r="A2" s="60" t="s">
@@ -5685,17 +5693,17 @@
       <c r="A3" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="392" t="s">
+      <c r="B3" s="391" t="s">
         <v>119</v>
       </c>
-      <c r="C3" s="393"/>
-      <c r="D3" s="394"/>
+      <c r="C3" s="392"/>
+      <c r="D3" s="393"/>
       <c r="E3" s="35"/>
-      <c r="F3" s="395" t="s">
+      <c r="F3" s="394" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="396"/>
-      <c r="H3" s="397"/>
+      <c r="G3" s="395"/>
+      <c r="H3" s="396"/>
     </row>
     <row r="4" spans="1:8" ht="12" thickBot="1">
       <c r="A4" s="20" t="s">
@@ -5902,36 +5910,36 @@
       <c r="A14" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="374">
+      <c r="B14" s="373">
         <f>PI()*(B67^4-B68^4)/32/(GECdrivetrain!C7)*GECtwrdata!F7</f>
         <v>1039402035.9271445</v>
       </c>
       <c r="D14" s="347" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E14" s="348"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="61" t="s">
-        <v>420</v>
-      </c>
-      <c r="B15" s="375">
+        <v>419</v>
+      </c>
+      <c r="B15" s="374">
         <v>5</v>
       </c>
       <c r="D15" s="347" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E15" s="348"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="61" t="s">
-        <v>419</v>
-      </c>
-      <c r="B16" s="375">
+        <v>418</v>
+      </c>
+      <c r="B16" s="374">
         <v>18562372</v>
       </c>
       <c r="D16" s="347" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E16" s="348"/>
       <c r="H16" s="103"/>
@@ -5981,11 +5989,11 @@
       <c r="C19" s="329">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D19" s="401" t="s">
+      <c r="D19" s="400" t="s">
         <v>374</v>
       </c>
-      <c r="E19" s="400"/>
-      <c r="F19" s="400"/>
+      <c r="E19" s="399"/>
+      <c r="F19" s="399"/>
     </row>
     <row r="20" spans="1:21" ht="25.5" customHeight="1">
       <c r="A20" s="268" t="s">
@@ -5997,11 +6005,11 @@
       <c r="C20" s="329">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="D20" s="401" t="s">
+      <c r="D20" s="400" t="s">
         <v>373</v>
       </c>
-      <c r="E20" s="400"/>
-      <c r="F20" s="400"/>
+      <c r="E20" s="399"/>
+      <c r="F20" s="399"/>
       <c r="I20" s="35" t="s">
         <v>68</v>
       </c>
@@ -6137,14 +6145,14 @@
     </row>
     <row r="31" spans="1:21" ht="9.75" customHeight="1">
       <c r="A31" s="350" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B31" s="269">
         <f>B92*1000/(B87*PI()/30)/(B19)</f>
         <v>16753.151904410039</v>
       </c>
       <c r="D31" s="347" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E31" s="348"/>
     </row>
@@ -6182,50 +6190,50 @@
       </c>
     </row>
     <row r="37" spans="1:5" ht="12" customHeight="1">
-      <c r="A37" s="376" t="s">
-        <v>421</v>
+      <c r="A37" s="375" t="s">
+        <v>420</v>
       </c>
       <c r="B37" s="275">
         <v>2.6</v>
       </c>
       <c r="D37" s="347" t="s">
+        <v>421</v>
+      </c>
+      <c r="E37" s="348"/>
+    </row>
+    <row r="38" spans="1:5" ht="12" customHeight="1">
+      <c r="A38" s="375" t="s">
         <v>422</v>
-      </c>
-      <c r="E37" s="348"/>
-    </row>
-    <row r="38" spans="1:5" ht="12" customHeight="1">
-      <c r="A38" s="376" t="s">
-        <v>423</v>
       </c>
       <c r="B38" s="275">
         <v>30</v>
       </c>
       <c r="D38" s="347" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E38" s="348"/>
     </row>
     <row r="39" spans="1:5" ht="12" customHeight="1">
-      <c r="A39" s="376" t="s">
-        <v>424</v>
+      <c r="A39" s="375" t="s">
+        <v>423</v>
       </c>
       <c r="B39" s="275">
         <v>-0.5</v>
       </c>
       <c r="D39" s="347" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E39" s="348"/>
     </row>
     <row r="40" spans="1:5" ht="12" customHeight="1">
-      <c r="A40" s="376" t="s">
-        <v>425</v>
+      <c r="A40" s="375" t="s">
+        <v>424</v>
       </c>
       <c r="B40" s="275">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="D40" s="347" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E40" s="348"/>
     </row>
@@ -6235,24 +6243,24 @@
     </row>
     <row r="42" spans="1:5" ht="12" customHeight="1">
       <c r="A42" s="109" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B42" s="29"/>
       <c r="D42" s="347" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E42" s="348"/>
     </row>
     <row r="43" spans="1:5" ht="12" customHeight="1">
-      <c r="A43" s="376" t="s">
-        <v>426</v>
+      <c r="A43" s="375" t="s">
+        <v>425</v>
       </c>
       <c r="B43" s="275">
         <f>B31/B87^2</f>
         <v>5.170725896422851E-3</v>
       </c>
       <c r="D43" s="347" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E43" s="348"/>
     </row>
@@ -6305,7 +6313,7 @@
     </row>
     <row r="51" spans="1:4" ht="12" customHeight="1">
       <c r="A51" s="330" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B51" s="329">
         <v>5</v>
@@ -6313,13 +6321,13 @@
     </row>
     <row r="52" spans="1:4" ht="18" customHeight="1">
       <c r="A52" s="109" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B52" s="63"/>
     </row>
     <row r="53" spans="1:4" ht="13.5" customHeight="1">
       <c r="A53" s="100" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B53" s="105">
         <f>ABS(B8)+B13/2*(B11+B18)/57.3-0.5*(B47+B13/2/B9*(B49-B47))</f>
@@ -6357,7 +6365,7 @@
         <v>85</v>
       </c>
       <c r="D57" s="272" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="10.9" customHeight="1">
@@ -6456,7 +6464,7 @@
         <v>85</v>
       </c>
       <c r="D66" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -6664,24 +6672,24 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="18" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B86" s="278">
         <v>75</v>
       </c>
       <c r="C86" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="18" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B87" s="278">
         <v>1800</v>
       </c>
       <c r="C87" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -6879,12 +6887,12 @@
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="111" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="333" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B109" s="334">
         <f>'Blade Data'!R32*B10+E8</f>
@@ -6896,7 +6904,7 @@
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="333" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B110" s="334">
         <f>E5+E6+E7</f>
@@ -6908,7 +6916,7 @@
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="333" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B111" s="334">
         <f>B109+B110</f>
@@ -6920,7 +6928,7 @@
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="18" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B112" s="334">
         <f>GECtwrdata!O26</f>
@@ -7478,7 +7486,7 @@
         <v>351</v>
       </c>
       <c r="H131" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="133" spans="1:13">
@@ -7492,7 +7500,7 @@
         <v>364</v>
       </c>
       <c r="C134" s="352" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D134" s="189"/>
     </row>
@@ -7586,10 +7594,10 @@
     </row>
     <row r="143" spans="1:13" ht="12">
       <c r="A143" s="337" t="s">
+        <v>399</v>
+      </c>
+      <c r="B143" s="338" t="s">
         <v>400</v>
-      </c>
-      <c r="B143" s="338" t="s">
-        <v>401</v>
       </c>
       <c r="C143" s="339"/>
     </row>
@@ -7599,9 +7607,12 @@
       </c>
       <c r="B144" s="341"/>
       <c r="C144" s="342" t="s">
-        <v>379</v>
-      </c>
-      <c r="E144" s="355"/>
+        <v>514</v>
+      </c>
+      <c r="E144" s="347" t="s">
+        <v>515</v>
+      </c>
+      <c r="F144" s="348"/>
     </row>
     <row r="145" spans="1:7">
       <c r="A145" s="340">
@@ -7609,10 +7620,10 @@
       </c>
       <c r="B145" s="343"/>
       <c r="C145" s="344" t="s">
+        <v>408</v>
+      </c>
+      <c r="E145" s="347" t="s">
         <v>409</v>
-      </c>
-      <c r="E145" s="347" t="s">
-        <v>410</v>
       </c>
       <c r="F145" s="348"/>
       <c r="G145" s="348"/>
@@ -7623,10 +7634,10 @@
       </c>
       <c r="B146" s="343"/>
       <c r="C146" s="344" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E146" s="347" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F146" s="348"/>
       <c r="G146" s="348"/>
@@ -7635,117 +7646,117 @@
       <c r="A147" s="345">
         <v>4</v>
       </c>
-      <c r="B147" s="356"/>
+      <c r="B147" s="355"/>
       <c r="C147" s="354" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E147" s="347" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F147" s="348"/>
       <c r="G147" s="348"/>
     </row>
     <row r="148" spans="1:7" ht="12" thickBot="1"/>
     <row r="149" spans="1:7" ht="12" thickBot="1">
-      <c r="A149" s="388" t="s">
+      <c r="A149" s="387" t="s">
+        <v>401</v>
+      </c>
+      <c r="B149" s="389"/>
+      <c r="C149" s="390"/>
+      <c r="E149" s="347" t="s">
         <v>402</v>
       </c>
-      <c r="B149" s="390"/>
-      <c r="C149" s="391"/>
-      <c r="E149" s="347" t="s">
-        <v>403</v>
-      </c>
       <c r="F149" s="348"/>
     </row>
     <row r="150" spans="1:7" ht="12" thickBot="1">
-      <c r="A150" s="357" t="s">
+      <c r="A150" s="356" t="s">
         <v>35</v>
       </c>
-      <c r="B150" s="358" t="s">
+      <c r="B150" s="357" t="s">
         <v>36</v>
       </c>
-      <c r="C150" s="358" t="s">
+      <c r="C150" s="357" t="s">
         <v>37</v>
       </c>
       <c r="E150" s="347" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F150" s="348"/>
     </row>
     <row r="151" spans="1:7" ht="12" thickBot="1">
-      <c r="A151" s="359">
+      <c r="A151" s="358">
         <v>3.882E-2</v>
       </c>
-      <c r="B151" s="360">
+      <c r="B151" s="359">
         <v>3.882E-2</v>
       </c>
-      <c r="C151" s="361">
+      <c r="C151" s="360">
         <v>5.8999999999999997E-2</v>
       </c>
       <c r="E151" s="347" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F151" s="348"/>
     </row>
     <row r="152" spans="1:7" ht="12" thickBot="1"/>
     <row r="153" spans="1:7" ht="12" thickBot="1">
-      <c r="A153" s="388" t="s">
-        <v>413</v>
-      </c>
-      <c r="B153" s="389"/>
-      <c r="C153" s="362"/>
+      <c r="A153" s="387" t="s">
+        <v>412</v>
+      </c>
+      <c r="B153" s="388"/>
+      <c r="C153" s="361"/>
       <c r="E153" s="347" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F153" s="348"/>
     </row>
     <row r="154" spans="1:7">
-      <c r="A154" s="363" t="s">
+      <c r="A154" s="362" t="s">
         <v>50</v>
       </c>
-      <c r="B154" s="364">
+      <c r="B154" s="363">
         <v>3.4349999999999999E-2</v>
       </c>
-      <c r="C154" s="365"/>
+      <c r="C154" s="364"/>
       <c r="E154" s="347" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F154" s="348"/>
     </row>
     <row r="155" spans="1:7">
-      <c r="A155" s="366" t="s">
+      <c r="A155" s="365" t="s">
         <v>51</v>
       </c>
-      <c r="B155" s="367">
+      <c r="B155" s="366">
         <v>3.4349999999999999E-2</v>
       </c>
-      <c r="C155" s="368"/>
+      <c r="C155" s="367"/>
       <c r="E155" s="347" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F155" s="348"/>
     </row>
     <row r="156" spans="1:7">
-      <c r="A156" s="369" t="s">
+      <c r="A156" s="368" t="s">
         <v>52</v>
       </c>
-      <c r="B156" s="367">
+      <c r="B156" s="366">
         <v>3.4349999999999999E-2</v>
       </c>
       <c r="E156" s="347" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F156" s="348"/>
     </row>
     <row r="157" spans="1:7" ht="12" thickBot="1">
-      <c r="A157" s="370" t="s">
+      <c r="A157" s="369" t="s">
         <v>53</v>
       </c>
-      <c r="B157" s="371">
+      <c r="B157" s="370">
         <v>3.4349999999999999E-2</v>
       </c>
       <c r="E157" s="347" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F157" s="348"/>
     </row>
@@ -7906,14 +7917,14 @@
     </row>
     <row r="11" spans="2:15">
       <c r="B11" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C11" s="331">
         <f>'Main Page'!B51</f>
         <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="13" spans="2:15">
@@ -7957,7 +7968,7 @@
         <v>310</v>
       </c>
       <c r="O13" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="14" spans="2:15">
@@ -9556,12 +9567,12 @@
       <c r="A19" s="112"/>
       <c r="B19" s="165"/>
       <c r="C19" s="112"/>
-      <c r="D19" s="405" t="s">
+      <c r="D19" s="404" t="s">
         <v>240</v>
       </c>
-      <c r="E19" s="405"/>
-      <c r="F19" s="405"/>
-      <c r="G19" s="405"/>
+      <c r="E19" s="404"/>
+      <c r="F19" s="404"/>
+      <c r="G19" s="404"/>
       <c r="H19" s="112"/>
       <c r="I19" s="112"/>
       <c r="J19" s="121"/>
@@ -10843,10 +10854,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -10854,50 +10865,50 @@
     <col min="2" max="7" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
+        <v>439</v>
+      </c>
+      <c r="B1" t="s">
         <v>440</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>441</v>
       </c>
-      <c r="C1" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>102</v>
       </c>
       <c r="B3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C3" s="18">
         <f>'Main Page'!B17</f>
         <v>1.2250000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
+        <v>443</v>
+      </c>
+      <c r="B4" t="s">
         <v>444</v>
-      </c>
-      <c r="B4" t="s">
-        <v>445</v>
       </c>
       <c r="C4">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
+        <v>445</v>
+      </c>
+      <c r="B5" t="s">
         <v>446</v>
-      </c>
-      <c r="B5" t="s">
-        <v>447</v>
       </c>
       <c r="C5" s="18" t="str">
         <f>'Main Page'!C144</f>
-        <v>cylinder</v>
+        <v>cylinder.dat</v>
       </c>
       <c r="D5" s="18" t="str">
         <f>'Main Page'!C145</f>
@@ -10912,12 +10923,12 @@
         <v>s826_1603.dat</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B6" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C6" s="18">
         <v>15</v>
@@ -10926,32 +10937,35 @@
       <c r="E6" s="18"/>
       <c r="F6" s="18"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="B7" t="s">
+        <v>448</v>
+      </c>
+      <c r="C7" t="s">
         <v>449</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>450</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>451</v>
-      </c>
-      <c r="E7" t="s">
-        <v>452</v>
       </c>
       <c r="F7" t="s">
         <v>88</v>
       </c>
       <c r="G7" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="C8" s="380">
+        <v>452</v>
+      </c>
+      <c r="H7" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="C8" s="379">
         <f>C37*('Main Page'!B$13/2-'Main Page'!B$56/2) + 'Main Page'!B$56/2</f>
         <v>4.0425000000000004</v>
       </c>
-      <c r="D8" s="381">
+      <c r="D8" s="380">
         <f>(F39-F38)/($D39-$D38)*($C8-$D39)+F38</f>
         <v>11.1</v>
       </c>
@@ -10959,7 +10973,7 @@
         <f>(1/$C$6)*('Main Page'!B$13/2-'Main Page'!B$56/2)</f>
         <v>3.1349999999999998</v>
       </c>
-      <c r="F8" s="381">
+      <c r="F8" s="380">
         <f>(E$39-E$38)/(D$39-D$38)*(C8-D$38)+E$38</f>
         <v>2.7564053283662129</v>
       </c>
@@ -10967,13 +10981,16 @@
         <f>ROUND((G$39-G$38)/(D$39-D$38)*(C8-D$38)+G$38,0)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="C9" s="380">
+      <c r="H8" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="C9" s="379">
         <f>C38*('Main Page'!B$13/2-'Main Page'!B$56/2) + 'Main Page'!B$56/2</f>
         <v>7.1775000000000002</v>
       </c>
-      <c r="D9" s="381">
+      <c r="D9" s="380">
         <f>(F39-F38)/($D39-$D38)*($C9-$D39)+F38</f>
         <v>11.1</v>
       </c>
@@ -10981,7 +10998,7 @@
         <f>(1/$C$6)*('Main Page'!B$13/2-'Main Page'!B$56/2)</f>
         <v>3.1349999999999998</v>
       </c>
-      <c r="F9" s="381">
+      <c r="F9" s="380">
         <f t="shared" ref="F9" si="0">(E$39-E$38)/(D$39-D$38)*(C9-D$38)+E$38</f>
         <v>3.2092887985775977</v>
       </c>
@@ -10989,13 +11006,16 @@
         <f>ROUNDUP((G$39-G$38)/(D$39-D$38)*(C9-D$38)+G$38,0)</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="C10" s="380">
+      <c r="H9" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="C10" s="379">
         <f>C39*('Main Page'!B$13/2-'Main Page'!B$56/2) + 'Main Page'!B$56/2</f>
         <v>10.3125</v>
       </c>
-      <c r="D10" s="381">
+      <c r="D10" s="380">
         <f>(F39-F38)/($D39-$D38)*($C10-$D39)+F38</f>
         <v>11.1</v>
       </c>
@@ -11003,7 +11023,7 @@
         <f>(1/$C$6)*('Main Page'!B$13/2-'Main Page'!B$56/2)</f>
         <v>3.1349999999999998</v>
       </c>
-      <c r="F10" s="381">
+      <c r="F10" s="380">
         <f>(E$39-E$38)/(D$39-D$38)*(C10-D$38)+E$38</f>
         <v>3.6621722687889822</v>
       </c>
@@ -11011,13 +11031,16 @@
         <f>ROUND((G$39-G$38)/(D$39-D$38)*(C10-D$38)+G$38,0)</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="C11" s="380">
+      <c r="H10" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="C11" s="379">
         <f>C40*('Main Page'!B$13/2-'Main Page'!B$56/2) + 'Main Page'!B$56/2</f>
         <v>13.4475</v>
       </c>
-      <c r="D11" s="381">
+      <c r="D11" s="380">
         <f>(F40-F39)/($D40-$D39)*($C11-$D39)+F39</f>
         <v>10.406666666666666</v>
       </c>
@@ -11025,7 +11048,7 @@
         <f>(1/$C$6)*('Main Page'!B$13/2-'Main Page'!B$56/2)</f>
         <v>3.1349999999999998</v>
       </c>
-      <c r="F11" s="381">
+      <c r="F11" s="380">
         <f>(E$40-E$39)/(D$40-D$39)*(C11-D$39)+E$39</f>
         <v>3.8800592667852003</v>
       </c>
@@ -11033,13 +11056,16 @@
         <f>ROUND((G$40-G$39)/(D$40-D$39)*(C11-D$39)+G$39,0)</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="C12" s="380">
+      <c r="H11" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="C12" s="379">
         <f>C41*('Main Page'!B$13/2-'Main Page'!B$56/2) + 'Main Page'!B$56/2</f>
         <v>16.5825</v>
       </c>
-      <c r="D12" s="381">
+      <c r="D12" s="380">
         <f>(F40-F39)/($D40-$D39)*($C12-$D39)+F39</f>
         <v>8.379999999999999</v>
       </c>
@@ -11047,7 +11073,7 @@
         <f>(1/$C$6)*('Main Page'!B$13/2-'Main Page'!B$56/2)</f>
         <v>3.1349999999999998</v>
       </c>
-      <c r="F12" s="381">
+      <c r="F12" s="380">
         <f t="shared" ref="F12:F13" si="1">(E$40-E$39)/(D$40-D$39)*(C12-D$39)+E$39</f>
         <v>3.6460299720599445</v>
       </c>
@@ -11055,13 +11081,16 @@
         <f t="shared" ref="G12:G14" si="2">ROUND((G$40-G$39)/(D$40-D$39)*(C12-D$39)+G$39,0)</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="C13" s="380">
+      <c r="H12" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="C13" s="379">
         <f>C42*('Main Page'!B$13/2-'Main Page'!B$56/2) + 'Main Page'!B$56/2</f>
         <v>19.717500000000001</v>
       </c>
-      <c r="D13" s="381">
+      <c r="D13" s="380">
         <f>(F40-F39)/($D40-$D39)*($C13-$D39)+F39</f>
         <v>6.3533333333333317</v>
       </c>
@@ -11069,7 +11098,7 @@
         <f>(1/$C$6)*('Main Page'!B$13/2-'Main Page'!B$56/2)</f>
         <v>3.1349999999999998</v>
       </c>
-      <c r="F13" s="381">
+      <c r="F13" s="380">
         <f t="shared" si="1"/>
         <v>3.4120006773346883</v>
       </c>
@@ -11077,13 +11106,16 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="C14" s="380">
+      <c r="H13" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="C14" s="379">
         <f>C43*('Main Page'!B$13/2-'Main Page'!B$56/2) + 'Main Page'!B$56/2</f>
         <v>22.852500000000003</v>
       </c>
-      <c r="D14" s="381">
+      <c r="D14" s="380">
         <f>(F40-F39)/($D40-$D39)*($C14-$D39)+F39</f>
         <v>4.3266666666666636</v>
       </c>
@@ -11091,7 +11123,7 @@
         <f>(1/$C$6)*('Main Page'!B$13/2-'Main Page'!B$56/2)</f>
         <v>3.1349999999999998</v>
       </c>
-      <c r="F14" s="381">
+      <c r="F14" s="380">
         <f>(E$40-E$39)/(D$40-D$39)*(C14-D$39)+E$39</f>
         <v>3.177971382609432</v>
       </c>
@@ -11099,13 +11131,16 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="C15" s="380">
+      <c r="H14" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="C15" s="379">
         <f>C44*('Main Page'!B$13/2-'Main Page'!B$56/2) + 'Main Page'!B$56/2</f>
         <v>25.987500000000001</v>
       </c>
-      <c r="D15" s="381">
+      <c r="D15" s="380">
         <f>(F41-F40)/($D41-$D40)*($C15-$D40)+F40</f>
         <v>2.85</v>
       </c>
@@ -11113,7 +11148,7 @@
         <f>(1/$C$6)*('Main Page'!B$13/2-'Main Page'!B$56/2)</f>
         <v>3.1349999999999998</v>
       </c>
-      <c r="F15" s="381">
+      <c r="F15" s="380">
         <f>(E$41-E$40)/(D$41-D$40)*(C15-D$40)+E$40</f>
         <v>2.9439420878841762</v>
       </c>
@@ -11121,13 +11156,16 @@
         <f>ROUND((G$41-G$40)/(D$41-D$40)*(C15-D$40)+G$40,0)</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="C16" s="380">
+      <c r="H15" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="C16" s="379">
         <f>C45*('Main Page'!B$13/2-'Main Page'!B$56/2) + 'Main Page'!B$56/2</f>
         <v>29.122499999999999</v>
       </c>
-      <c r="D16" s="381">
+      <c r="D16" s="380">
         <f>(F41-F40)/($D41-$D40)*($C16-$D40)+F40</f>
         <v>2.2166666666666668</v>
       </c>
@@ -11135,7 +11173,7 @@
         <f>(1/$C$6)*('Main Page'!B$13/2-'Main Page'!B$56/2)</f>
         <v>3.1349999999999998</v>
       </c>
-      <c r="F16" s="381">
+      <c r="F16" s="380">
         <f t="shared" ref="F16:F18" si="3">(E$41-E$40)/(D$41-D$40)*(C16-D$40)+E$40</f>
         <v>2.70991279315892</v>
       </c>
@@ -11143,13 +11181,16 @@
         <f t="shared" ref="G16:G18" si="4">ROUND((G$41-G$40)/(D$41-D$40)*(C16-D$40)+G$40,0)</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="3:7">
-      <c r="C17" s="380">
+      <c r="H16" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8">
+      <c r="C17" s="379">
         <f>C46*('Main Page'!B$13/2-'Main Page'!B$56/2) + 'Main Page'!B$56/2</f>
         <v>32.2575</v>
       </c>
-      <c r="D17" s="381">
+      <c r="D17" s="380">
         <f>(F41-F40)/($D41-$D40)*($C17-$D40)+F40</f>
         <v>1.5833333333333335</v>
       </c>
@@ -11157,7 +11198,7 @@
         <f>(1/$C$6)*('Main Page'!B$13/2-'Main Page'!B$56/2)</f>
         <v>3.1349999999999998</v>
       </c>
-      <c r="F17" s="381">
+      <c r="F17" s="380">
         <f t="shared" si="3"/>
         <v>2.4758834984336637</v>
       </c>
@@ -11165,13 +11206,16 @@
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:7">
-      <c r="C18" s="380">
+      <c r="H17" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="18" spans="3:8">
+      <c r="C18" s="379">
         <f>C47*('Main Page'!B$13/2-'Main Page'!B$56/2) + 'Main Page'!B$56/2</f>
         <v>35.392499999999998</v>
       </c>
-      <c r="D18" s="381">
+      <c r="D18" s="380">
         <f>(F41-F40)/($D41-$D40)*($C18-$D40)+F40</f>
         <v>0.95000000000000062</v>
       </c>
@@ -11179,7 +11223,7 @@
         <f>(1/$C$6)*('Main Page'!B$13/2-'Main Page'!B$56/2)</f>
         <v>3.1349999999999998</v>
       </c>
-      <c r="F18" s="381">
+      <c r="F18" s="380">
         <f t="shared" si="3"/>
         <v>2.2418542037084079</v>
       </c>
@@ -11187,13 +11231,16 @@
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:7">
-      <c r="C19" s="380">
+      <c r="H18" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="19" spans="3:8">
+      <c r="C19" s="379">
         <f>C48*('Main Page'!B$13/2-'Main Page'!B$56/2) + 'Main Page'!B$56/2</f>
         <v>38.527500000000003</v>
       </c>
-      <c r="D19" s="381">
+      <c r="D19" s="380">
         <f>(F42-F41)/($D42-$D41)*($C19-$D41)+F41</f>
         <v>0.53199999999999981</v>
       </c>
@@ -11201,7 +11248,7 @@
         <f>(1/$C$6)*('Main Page'!B$13/2-'Main Page'!B$56/2)</f>
         <v>3.1349999999999998</v>
       </c>
-      <c r="F19" s="381">
+      <c r="F19" s="380">
         <f>(E$42-E$41)/(D$42-D$41)*(C19-D$41)+E$41</f>
         <v>2.0183032766065532</v>
       </c>
@@ -11209,13 +11256,16 @@
         <f>ROUND((G$42-G$41)/(D$42-D$41)*(C19-D$41)+G$41,0)</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="3:7">
-      <c r="C20" s="380">
+      <c r="H19" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="20" spans="3:8">
+      <c r="C20" s="379">
         <f>C49*('Main Page'!B$13/2-'Main Page'!B$56/2) + 'Main Page'!B$56/2</f>
         <v>41.662500000000001</v>
       </c>
-      <c r="D20" s="381">
+      <c r="D20" s="380">
         <f>(F42-F41)/($D42-$D41)*($C20-$D41)+F41</f>
         <v>0.37999999999999989</v>
       </c>
@@ -11223,7 +11273,7 @@
         <f>(1/$C$6)*('Main Page'!B$13/2-'Main Page'!B$56/2)</f>
         <v>3.1349999999999998</v>
       </c>
-      <c r="F20" s="381">
+      <c r="F20" s="380">
         <f t="shared" ref="F20:F22" si="5">(E$42-E$41)/(D$42-D$41)*(C20-D$41)+E$41</f>
         <v>1.807696215392431</v>
       </c>
@@ -11231,13 +11281,16 @@
         <f t="shared" ref="G20:G22" si="6">ROUND((G$42-G$41)/(D$42-D$41)*(C20-D$41)+G$41,0)</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:7">
-      <c r="C21" s="380">
+      <c r="H20" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="21" spans="3:8">
+      <c r="C21" s="379">
         <f>C50*('Main Page'!B$13/2-'Main Page'!B$56/2) + 'Main Page'!B$56/2</f>
         <v>44.797499999999999</v>
       </c>
-      <c r="D21" s="381">
+      <c r="D21" s="380">
         <f>(F42-F41)/($D42-$D41)*($C21-$D41)+F41</f>
         <v>0.22799999999999998</v>
       </c>
@@ -11245,7 +11298,7 @@
         <f>(1/$C$6)*('Main Page'!B$13/2-'Main Page'!B$56/2)</f>
         <v>3.1349999999999998</v>
       </c>
-      <c r="F21" s="381">
+      <c r="F21" s="380">
         <f t="shared" si="5"/>
         <v>1.5970891541783085</v>
       </c>
@@ -11253,13 +11306,16 @@
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:7">
-      <c r="C22" s="380">
+      <c r="H21" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="22" spans="3:8">
+      <c r="C22" s="379">
         <f>C51*('Main Page'!B$13/2-'Main Page'!B$56/2) + 'Main Page'!B$56/2</f>
         <v>47.932499999999997</v>
       </c>
-      <c r="D22" s="381">
+      <c r="D22" s="380">
         <f>(F42-F41)/($D42-$D41)*($C22-$D41)+F41</f>
         <v>7.6000000000000068E-2</v>
       </c>
@@ -11267,7 +11323,7 @@
         <f>(1/$C$6)*('Main Page'!B$13/2-'Main Page'!B$56/2)</f>
         <v>3.1349999999999998</v>
       </c>
-      <c r="F22" s="381">
+      <c r="F22" s="380">
         <f t="shared" si="5"/>
         <v>1.3864820929641861</v>
       </c>
@@ -11275,10 +11331,13 @@
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
+      <c r="H22" t="s">
+        <v>513</v>
+      </c>
     </row>
     <row r="36" spans="2:7">
       <c r="B36" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E36" t="s">
         <v>88</v>
@@ -11294,7 +11353,7 @@
       <c r="B37">
         <v>0.5</v>
       </c>
-      <c r="C37" s="382">
+      <c r="C37" s="381">
         <f>B37/C$6</f>
         <v>3.3333333333333333E-2</v>
       </c>
@@ -11319,7 +11378,7 @@
       <c r="B38">
         <v>1.5</v>
       </c>
-      <c r="C38" s="382">
+      <c r="C38" s="381">
         <f t="shared" ref="C38:C51" si="7">B38/C$6</f>
         <v>0.1</v>
       </c>
@@ -11344,7 +11403,7 @@
       <c r="B39">
         <v>2.5</v>
       </c>
-      <c r="C39" s="382">
+      <c r="C39" s="381">
         <f t="shared" si="7"/>
         <v>0.16666666666666666</v>
       </c>
@@ -11369,7 +11428,7 @@
       <c r="B40">
         <v>3.5</v>
       </c>
-      <c r="C40" s="382">
+      <c r="C40" s="381">
         <f t="shared" si="7"/>
         <v>0.23333333333333334</v>
       </c>
@@ -11394,7 +11453,7 @@
       <c r="B41">
         <v>4.5</v>
       </c>
-      <c r="C41" s="382">
+      <c r="C41" s="381">
         <f t="shared" si="7"/>
         <v>0.3</v>
       </c>
@@ -11419,7 +11478,7 @@
       <c r="B42">
         <v>5.5</v>
       </c>
-      <c r="C42" s="382">
+      <c r="C42" s="381">
         <f t="shared" si="7"/>
         <v>0.36666666666666664</v>
       </c>
@@ -11444,7 +11503,7 @@
       <c r="B43">
         <v>6.5</v>
       </c>
-      <c r="C43" s="382">
+      <c r="C43" s="381">
         <f t="shared" si="7"/>
         <v>0.43333333333333335</v>
       </c>
@@ -11453,7 +11512,7 @@
       <c r="B44">
         <v>7.5</v>
       </c>
-      <c r="C44" s="382">
+      <c r="C44" s="381">
         <f t="shared" si="7"/>
         <v>0.5</v>
       </c>
@@ -11462,7 +11521,7 @@
       <c r="B45">
         <v>8.5</v>
       </c>
-      <c r="C45" s="382">
+      <c r="C45" s="381">
         <f t="shared" si="7"/>
         <v>0.56666666666666665</v>
       </c>
@@ -11471,7 +11530,7 @@
       <c r="B46">
         <v>9.5</v>
       </c>
-      <c r="C46" s="382">
+      <c r="C46" s="381">
         <f t="shared" si="7"/>
         <v>0.6333333333333333</v>
       </c>
@@ -11480,7 +11539,7 @@
       <c r="B47">
         <v>10.5</v>
       </c>
-      <c r="C47" s="382">
+      <c r="C47" s="381">
         <f t="shared" si="7"/>
         <v>0.7</v>
       </c>
@@ -11489,7 +11548,7 @@
       <c r="B48">
         <v>11.5</v>
       </c>
-      <c r="C48" s="382">
+      <c r="C48" s="381">
         <f t="shared" si="7"/>
         <v>0.76666666666666672</v>
       </c>
@@ -11498,7 +11557,7 @@
       <c r="B49">
         <v>12.5</v>
       </c>
-      <c r="C49" s="382">
+      <c r="C49" s="381">
         <f t="shared" si="7"/>
         <v>0.83333333333333337</v>
       </c>
@@ -11507,7 +11566,7 @@
       <c r="B50">
         <v>13.5</v>
       </c>
-      <c r="C50" s="382">
+      <c r="C50" s="381">
         <f t="shared" si="7"/>
         <v>0.9</v>
       </c>
@@ -11516,7 +11575,7 @@
       <c r="B51">
         <v>14.5</v>
       </c>
-      <c r="C51" s="382">
+      <c r="C51" s="381">
         <f t="shared" si="7"/>
         <v>0.96666666666666667</v>
       </c>
@@ -11530,7 +11589,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
@@ -11552,13 +11611,13 @@
   <sheetData>
     <row r="1" spans="1:25">
       <c r="A1" t="s">
+        <v>439</v>
+      </c>
+      <c r="B1" t="s">
         <v>440</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>441</v>
-      </c>
-      <c r="C1" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="3" spans="1:25">
@@ -11566,7 +11625,7 @@
         <v>85</v>
       </c>
       <c r="B3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C3" s="18">
         <f>'Main Page'!B13/2</f>
@@ -11593,7 +11652,7 @@
       <c r="V3" s="18"/>
       <c r="W3" s="18"/>
       <c r="Y3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="4" spans="1:25">
@@ -11601,7 +11660,7 @@
         <v>85</v>
       </c>
       <c r="B4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C4" s="18">
         <f>'Main Page'!B56/2</f>
@@ -11628,15 +11687,15 @@
       <c r="V4" s="18"/>
       <c r="W4" s="18"/>
       <c r="Y4" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="5" spans="1:25">
       <c r="A5" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B5" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C5" s="18">
         <f>'Main Page'!A151*100</f>
@@ -11646,7 +11705,7 @@
         <f>'Main Page'!B151*100</f>
         <v>3.8820000000000001</v>
       </c>
-      <c r="E5" s="377">
+      <c r="E5" s="376">
         <f>'Main Page'!C151*100</f>
         <v>5.8999999999999995</v>
       </c>
@@ -11668,40 +11727,40 @@
       <c r="U5" s="18"/>
       <c r="V5" s="18"/>
       <c r="W5" s="18"/>
-      <c r="Y5" s="372" t="s">
-        <v>416</v>
+      <c r="Y5" s="371" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="6" spans="1:25">
       <c r="B6" t="s">
+        <v>430</v>
+      </c>
+      <c r="C6" s="377" t="s">
         <v>431</v>
       </c>
-      <c r="C6" s="378" t="s">
+      <c r="D6" s="377" t="s">
         <v>432</v>
       </c>
-      <c r="D6" s="378" t="s">
+      <c r="E6" s="377" t="s">
         <v>433</v>
       </c>
-      <c r="E6" s="378" t="s">
+      <c r="F6" s="377" t="s">
         <v>434</v>
       </c>
-      <c r="F6" s="378" t="s">
+      <c r="G6" s="377" t="s">
         <v>435</v>
       </c>
-      <c r="G6" s="378" t="s">
+      <c r="H6" s="377" t="s">
         <v>436</v>
       </c>
-      <c r="H6" s="378" t="s">
+      <c r="I6" s="377" t="s">
         <v>437</v>
       </c>
-      <c r="I6" s="378" t="s">
+      <c r="J6" s="377" t="s">
         <v>438</v>
       </c>
-      <c r="J6" s="378" t="s">
-        <v>439</v>
-      </c>
-      <c r="K6" s="378"/>
-      <c r="L6" s="378"/>
+      <c r="K6" s="377"/>
+      <c r="L6" s="377"/>
       <c r="M6" s="18"/>
       <c r="N6" s="18"/>
       <c r="O6" s="18"/>
@@ -11713,45 +11772,45 @@
       <c r="U6" s="18"/>
       <c r="V6" s="18"/>
       <c r="W6" s="18"/>
-      <c r="Y6" s="372" t="s">
-        <v>417</v>
+      <c r="Y6" s="371" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="7" spans="1:25">
-      <c r="C7" s="385">
+      <c r="C7" s="384">
         <f>GECbladedata!$C28</f>
         <v>0</v>
       </c>
-      <c r="D7" s="385">
+      <c r="D7" s="384">
         <f>0.25+GECbladedata!$Q28/GECbladedata!$P28</f>
         <v>0.25</v>
       </c>
-      <c r="E7" s="385">
+      <c r="E7" s="384">
         <f>GECbladedata!$K28</f>
         <v>11.1</v>
       </c>
-      <c r="F7" s="386">
+      <c r="F7" s="385">
         <f>GECbladedata!$D28</f>
         <v>2514.2728793945694</v>
       </c>
-      <c r="G7" s="387">
+      <c r="G7" s="386">
         <f>GECbladedata!$O28</f>
         <v>25915847780.81815</v>
       </c>
-      <c r="H7" s="386">
+      <c r="H7" s="385">
         <f>GECbladedata!$N28</f>
         <v>25915847780.81815</v>
       </c>
-      <c r="I7" s="386">
+      <c r="I7" s="385">
         <f>GECbladedata!$L28</f>
         <v>8966505090.0080204</v>
       </c>
-      <c r="J7" s="386">
+      <c r="J7" s="385">
         <f>GECbladedata!$M28</f>
         <v>28944438488.483387</v>
       </c>
-      <c r="K7" s="378"/>
-      <c r="L7" s="378"/>
+      <c r="K7" s="377"/>
+      <c r="L7" s="377"/>
       <c r="M7" s="18"/>
       <c r="N7" s="18"/>
       <c r="O7" s="18"/>
@@ -11765,40 +11824,40 @@
       <c r="W7" s="18"/>
     </row>
     <row r="8" spans="1:25">
-      <c r="C8" s="385">
+      <c r="C8" s="384">
         <f>GECbladedata!$C29</f>
         <v>2.1052631578947371E-2</v>
       </c>
-      <c r="D8" s="385">
+      <c r="D8" s="384">
         <f>0.25+GECbladedata!$Q29/GECbladedata!$P29</f>
         <v>0.25</v>
       </c>
-      <c r="E8" s="385">
+      <c r="E8" s="384">
         <f>GECbladedata!$K29</f>
         <v>11.1</v>
       </c>
-      <c r="F8" s="386">
+      <c r="F8" s="385">
         <f>GECbladedata!$D29</f>
         <v>378.46476436784059</v>
       </c>
-      <c r="G8" s="387">
+      <c r="G8" s="386">
         <f>GECbladedata!$O29</f>
         <v>4995749732.6391211</v>
       </c>
-      <c r="H8" s="386">
+      <c r="H8" s="385">
         <f>GECbladedata!$N29</f>
         <v>4995749732.6391211</v>
       </c>
-      <c r="I8" s="386">
+      <c r="I8" s="385">
         <f>GECbladedata!$L29</f>
         <v>1745703465.4624267</v>
       </c>
-      <c r="J8" s="386">
+      <c r="J8" s="385">
         <f>GECbladedata!$M29</f>
         <v>5635228554.6241884</v>
       </c>
-      <c r="K8" s="378"/>
-      <c r="L8" s="378"/>
+      <c r="K8" s="377"/>
+      <c r="L8" s="377"/>
       <c r="M8" s="18"/>
       <c r="N8" s="18"/>
       <c r="O8" s="18"/>
@@ -11812,40 +11871,40 @@
       <c r="W8" s="18"/>
     </row>
     <row r="9" spans="1:25">
-      <c r="C9" s="385">
+      <c r="C9" s="384">
         <f>GECbladedata!$C30</f>
         <v>5.2631578947368411E-2</v>
       </c>
-      <c r="D9" s="385">
+      <c r="D9" s="384">
         <f>0.25+GECbladedata!$Q30/GECbladedata!$P30</f>
         <v>0.22942796069703819</v>
       </c>
-      <c r="E9" s="385">
+      <c r="E9" s="384">
         <f>GECbladedata!$K30</f>
         <v>11.1</v>
       </c>
-      <c r="F9" s="386">
+      <c r="F9" s="385">
         <f>GECbladedata!$D30</f>
         <v>382.96477599404864</v>
       </c>
-      <c r="G9" s="387">
+      <c r="G9" s="386">
         <f>GECbladedata!$O30</f>
         <v>4405826168.0194216</v>
       </c>
-      <c r="H9" s="386">
+      <c r="H9" s="385">
         <f>GECbladedata!$N30</f>
         <v>4814154924.7073679</v>
       </c>
-      <c r="I9" s="386">
+      <c r="I9" s="385">
         <f>GECbladedata!$L30</f>
         <v>1465305103.3411148</v>
       </c>
-      <c r="J9" s="386">
+      <c r="J9" s="385">
         <f>GECbladedata!$M30</f>
         <v>5585653441.6502266</v>
       </c>
-      <c r="K9" s="378"/>
-      <c r="L9" s="378"/>
+      <c r="K9" s="377"/>
+      <c r="L9" s="377"/>
       <c r="M9" s="18"/>
       <c r="N9" s="18"/>
       <c r="O9" s="18"/>
@@ -11859,40 +11918,40 @@
       <c r="W9" s="18"/>
     </row>
     <row r="10" spans="1:25">
-      <c r="C10" s="385">
+      <c r="C10" s="384">
         <f>GECbladedata!$C31</f>
         <v>0.10526315789473684</v>
       </c>
-      <c r="D10" s="385">
+      <c r="D10" s="384">
         <f>0.25+GECbladedata!$Q31/GECbladedata!$P31</f>
         <v>0.20118558099730738</v>
       </c>
-      <c r="E10" s="385">
+      <c r="E10" s="384">
         <f>GECbladedata!$K31</f>
         <v>11.1</v>
       </c>
-      <c r="F10" s="386">
+      <c r="F10" s="385">
         <f>GECbladedata!$D31</f>
         <v>390.46479537106205</v>
       </c>
-      <c r="G10" s="387">
+      <c r="G10" s="386">
         <f>GECbladedata!$O31</f>
         <v>3422620226.9865899</v>
       </c>
-      <c r="H10" s="386">
+      <c r="H10" s="385">
         <f>GECbladedata!$N31</f>
         <v>4511496911.4877796</v>
       </c>
-      <c r="I10" s="386">
+      <c r="I10" s="385">
         <f>GECbladedata!$L31</f>
         <v>997974499.80559528</v>
       </c>
-      <c r="J10" s="386">
+      <c r="J10" s="385">
         <f>GECbladedata!$M31</f>
         <v>5503028253.3602915</v>
       </c>
-      <c r="K10" s="378"/>
-      <c r="L10" s="378"/>
+      <c r="K10" s="377"/>
+      <c r="L10" s="377"/>
       <c r="M10" s="18"/>
       <c r="N10" s="18"/>
       <c r="O10" s="18"/>
@@ -11906,40 +11965,40 @@
       <c r="W10" s="18"/>
     </row>
     <row r="11" spans="1:25">
-      <c r="C11" s="385">
+      <c r="C11" s="384">
         <f>GECbladedata!$C32</f>
         <v>0.15789473684210525</v>
       </c>
-      <c r="D11" s="385">
+      <c r="D11" s="384">
         <f>0.25+GECbladedata!$Q32/GECbladedata!$P32</f>
         <v>0.17854905158859785</v>
       </c>
-      <c r="E11" s="385">
+      <c r="E11" s="384">
         <f>GECbladedata!$K32</f>
         <v>11.1</v>
       </c>
-      <c r="F11" s="386">
+      <c r="F11" s="385">
         <f>GECbladedata!$D32</f>
         <v>397.96481474807547</v>
       </c>
-      <c r="G11" s="387">
+      <c r="G11" s="386">
         <f>GECbladedata!$O32</f>
         <v>2439414285.9537573</v>
       </c>
-      <c r="H11" s="386">
+      <c r="H11" s="385">
         <f>GECbladedata!$N32</f>
         <v>4208838898.2681913</v>
       </c>
-      <c r="I11" s="386">
+      <c r="I11" s="385">
         <f>GECbladedata!$L32</f>
         <v>530643896.27007532</v>
       </c>
-      <c r="J11" s="386">
+      <c r="J11" s="385">
         <f>GECbladedata!$M32</f>
         <v>5420403065.0703554</v>
       </c>
-      <c r="K11" s="378"/>
-      <c r="L11" s="378"/>
+      <c r="K11" s="377"/>
+      <c r="L11" s="377"/>
       <c r="M11" s="18"/>
       <c r="N11" s="18"/>
       <c r="O11" s="18"/>
@@ -11953,40 +12012,40 @@
       <c r="W11" s="18"/>
     </row>
     <row r="12" spans="1:25">
-      <c r="C12" s="385">
+      <c r="C12" s="384">
         <f>GECbladedata!$C33</f>
         <v>0.21052631578947367</v>
       </c>
-      <c r="D12" s="385">
+      <c r="D12" s="384">
         <f>0.25+GECbladedata!$Q33/GECbladedata!$P33</f>
         <v>0.15999999999999998</v>
       </c>
-      <c r="E12" s="385">
+      <c r="E12" s="384">
         <f>GECbladedata!$K33</f>
         <v>11.1</v>
       </c>
-      <c r="F12" s="386">
+      <c r="F12" s="385">
         <f>GECbladedata!$D33</f>
         <v>405.46483412508888</v>
       </c>
-      <c r="G12" s="387">
+      <c r="G12" s="386">
         <f>GECbladedata!$O33</f>
         <v>1456208344.9209256</v>
       </c>
-      <c r="H12" s="386">
+      <c r="H12" s="385">
         <f>GECbladedata!$N33</f>
         <v>3906180885.0486031</v>
       </c>
-      <c r="I12" s="386">
+      <c r="I12" s="385">
         <f>GECbladedata!$L33</f>
         <v>63313292.734555714</v>
       </c>
-      <c r="J12" s="386">
+      <c r="J12" s="385">
         <f>GECbladedata!$M33</f>
         <v>5337777876.7804203</v>
       </c>
-      <c r="K12" s="378"/>
-      <c r="L12" s="378"/>
+      <c r="K12" s="377"/>
+      <c r="L12" s="377"/>
       <c r="M12" s="18"/>
       <c r="N12" s="18"/>
       <c r="O12" s="18"/>
@@ -12000,343 +12059,343 @@
       <c r="W12" s="18"/>
     </row>
     <row r="13" spans="1:25">
-      <c r="C13" s="385">
+      <c r="C13" s="384">
         <f>GECbladedata!$C34</f>
         <v>0.26315789473684209</v>
       </c>
-      <c r="D13" s="385">
+      <c r="D13" s="384">
         <f>0.25+GECbladedata!$Q34/GECbladedata!$P34</f>
         <v>0.16482547969536315</v>
       </c>
-      <c r="E13" s="385">
+      <c r="E13" s="384">
         <f>GECbladedata!$K34</f>
         <v>9.5</v>
       </c>
-      <c r="F13" s="386">
+      <c r="F13" s="385">
         <f>GECbladedata!$D34</f>
         <v>388.29530227109069</v>
       </c>
-      <c r="G13" s="387">
+      <c r="G13" s="386">
         <f>GECbladedata!$O34</f>
         <v>1237438519.441153</v>
       </c>
-      <c r="H13" s="386">
+      <c r="H13" s="385">
         <f>GECbladedata!$N34</f>
         <v>3322546069.2504792</v>
       </c>
-      <c r="I13" s="386">
+      <c r="I13" s="385">
         <f>GECbladedata!$L34</f>
         <v>55746990.667117193</v>
       </c>
-      <c r="J13" s="386">
+      <c r="J13" s="385">
         <f>GECbladedata!$M34</f>
         <v>5115435115.2485218</v>
       </c>
     </row>
     <row r="14" spans="1:25">
-      <c r="C14" s="385">
+      <c r="C14" s="384">
         <f>GECbladedata!$C35</f>
         <v>0.31578947368421051</v>
       </c>
-      <c r="D14" s="385">
+      <c r="D14" s="384">
         <f>0.25+GECbladedata!$Q35/GECbladedata!$P35</f>
         <v>0.17014756440910567</v>
       </c>
-      <c r="E14" s="385">
+      <c r="E14" s="384">
         <f>GECbladedata!$K35</f>
         <v>7.9</v>
       </c>
-      <c r="F14" s="386">
+      <c r="F14" s="385">
         <f>GECbladedata!$D35</f>
         <v>371.12577041709255</v>
       </c>
-      <c r="G14" s="387">
+      <c r="G14" s="386">
         <f>GECbladedata!$O35</f>
         <v>1018668693.9613804</v>
       </c>
-      <c r="H14" s="386">
+      <c r="H14" s="385">
         <f>GECbladedata!$N35</f>
         <v>2738911253.4523554</v>
       </c>
-      <c r="I14" s="386">
+      <c r="I14" s="385">
         <f>GECbladedata!$L35</f>
         <v>48180688.599678665</v>
       </c>
-      <c r="J14" s="386">
+      <c r="J14" s="385">
         <f>GECbladedata!$M35</f>
         <v>4893092353.7166243</v>
       </c>
     </row>
     <row r="15" spans="1:25">
-      <c r="C15" s="385">
+      <c r="C15" s="384">
         <f>GECbladedata!$C36</f>
         <v>0.36842105263157893</v>
       </c>
-      <c r="D15" s="385">
+      <c r="D15" s="384">
         <f>0.25+GECbladedata!$Q36/GECbladedata!$P36</f>
         <v>0.17604707356362986</v>
       </c>
-      <c r="E15" s="385">
+      <c r="E15" s="384">
         <f>GECbladedata!$K36</f>
         <v>6.2999999999999989</v>
       </c>
-      <c r="F15" s="386">
+      <c r="F15" s="385">
         <f>GECbladedata!$D36</f>
         <v>353.95623856309436</v>
       </c>
-      <c r="G15" s="387">
+      <c r="G15" s="386">
         <f>GECbladedata!$O36</f>
         <v>799898868.48160756</v>
       </c>
-      <c r="H15" s="386">
+      <c r="H15" s="385">
         <f>GECbladedata!$N36</f>
         <v>2155276437.6542311</v>
       </c>
-      <c r="I15" s="386">
+      <c r="I15" s="385">
         <f>GECbladedata!$L36</f>
         <v>40614386.532240137</v>
       </c>
-      <c r="J15" s="386">
+      <c r="J15" s="385">
         <f>GECbladedata!$M36</f>
         <v>4670749592.1847258</v>
       </c>
     </row>
     <row r="16" spans="1:25">
-      <c r="C16" s="385">
+      <c r="C16" s="384">
         <f>GECbladedata!$C37</f>
         <v>0.42105263157894735</v>
       </c>
-      <c r="D16" s="385">
+      <c r="D16" s="384">
         <f>0.25+GECbladedata!$Q37/GECbladedata!$P37</f>
         <v>0.18262336965950132</v>
       </c>
-      <c r="E16" s="385">
+      <c r="E16" s="384">
         <f>GECbladedata!$K37</f>
         <v>4.6999999999999993</v>
       </c>
-      <c r="F16" s="386">
+      <c r="F16" s="385">
         <f>GECbladedata!$D37</f>
         <v>336.78670670909617</v>
       </c>
-      <c r="G16" s="387">
+      <c r="G16" s="386">
         <f>GECbladedata!$O37</f>
         <v>581129043.00183487</v>
       </c>
-      <c r="H16" s="386">
+      <c r="H16" s="385">
         <f>GECbladedata!$N37</f>
         <v>1571641621.8561077</v>
       </c>
-      <c r="I16" s="386">
+      <c r="I16" s="385">
         <f>GECbladedata!$L37</f>
         <v>33048084.464801613</v>
       </c>
-      <c r="J16" s="386">
+      <c r="J16" s="385">
         <f>GECbladedata!$M37</f>
         <v>4448406830.6528273</v>
       </c>
     </row>
     <row r="17" spans="2:23">
-      <c r="C17" s="385">
+      <c r="C17" s="384">
         <f>GECbladedata!$C38</f>
         <v>0.47368421052631576</v>
       </c>
-      <c r="D17" s="385">
+      <c r="D17" s="384">
         <f>0.25+GECbladedata!$Q38/GECbladedata!$P38</f>
         <v>0.19</v>
       </c>
-      <c r="E17" s="385">
+      <c r="E17" s="384">
         <f>GECbladedata!$K38</f>
         <v>3.1</v>
       </c>
-      <c r="F17" s="386">
+      <c r="F17" s="385">
         <f>GECbladedata!$D38</f>
         <v>319.61717485509803</v>
       </c>
-      <c r="G17" s="387">
+      <c r="G17" s="386">
         <f>GECbladedata!$O38</f>
         <v>362359217.52206236</v>
       </c>
-      <c r="H17" s="386">
+      <c r="H17" s="385">
         <f>GECbladedata!$N38</f>
         <v>988006806.05798388</v>
       </c>
-      <c r="I17" s="386">
+      <c r="I17" s="385">
         <f>GECbladedata!$L38</f>
         <v>25481782.397363089</v>
       </c>
-      <c r="J17" s="386">
+      <c r="J17" s="385">
         <f>GECbladedata!$M38</f>
         <v>4226064069.1209292</v>
       </c>
     </row>
     <row r="18" spans="2:23">
-      <c r="C18" s="385">
+      <c r="C18" s="384">
         <f>GECbladedata!$C39</f>
         <v>0.52631578947368418</v>
       </c>
-      <c r="D18" s="385">
+      <c r="D18" s="384">
         <f>0.25+GECbladedata!$Q39/GECbladedata!$P39</f>
         <v>0.19444497888942333</v>
       </c>
-      <c r="E18" s="385">
+      <c r="E18" s="384">
         <f>GECbladedata!$K39</f>
         <v>2.5999999999999996</v>
       </c>
-      <c r="F18" s="386">
+      <c r="F18" s="385">
         <f>GECbladedata!$D39</f>
         <v>283.56556317077332</v>
       </c>
-      <c r="G18" s="387">
+      <c r="G18" s="386">
         <f>GECbladedata!$O39</f>
         <v>301062716.42475706</v>
       </c>
-      <c r="H18" s="386">
+      <c r="H18" s="385">
         <f>GECbladedata!$N39</f>
         <v>838972045.18727791</v>
       </c>
-      <c r="I18" s="386">
+      <c r="I18" s="385">
         <f>GECbladedata!$L39</f>
         <v>21407116.991112508</v>
       </c>
-      <c r="J18" s="386">
+      <c r="J18" s="385">
         <f>GECbladedata!$M39</f>
         <v>3737366167.8227329</v>
       </c>
     </row>
     <row r="19" spans="2:23">
-      <c r="C19" s="385">
+      <c r="C19" s="384">
         <f>GECbladedata!$C40</f>
         <v>0.57894736842105254</v>
       </c>
-      <c r="D19" s="385">
+      <c r="D19" s="384">
         <f>0.25+GECbladedata!$Q40/GECbladedata!$P40</f>
         <v>0.19950586711368484</v>
       </c>
-      <c r="E19" s="385">
+      <c r="E19" s="384">
         <f>GECbladedata!$K40</f>
         <v>2.1000000000000005</v>
       </c>
-      <c r="F19" s="386">
+      <c r="F19" s="385">
         <f>GECbladedata!$D40</f>
         <v>247.51395148644866</v>
       </c>
-      <c r="G19" s="387">
+      <c r="G19" s="386">
         <f>GECbladedata!$O40</f>
         <v>239766215.32745194</v>
       </c>
-      <c r="H19" s="386">
+      <c r="H19" s="385">
         <f>GECbladedata!$N40</f>
         <v>689937284.31657219</v>
       </c>
-      <c r="I19" s="386">
+      <c r="I19" s="385">
         <f>GECbladedata!$L40</f>
         <v>17332451.584861934</v>
       </c>
-      <c r="J19" s="386">
+      <c r="J19" s="385">
         <f>GECbladedata!$M40</f>
         <v>3248668266.524538</v>
       </c>
     </row>
     <row r="20" spans="2:23">
-      <c r="B20" s="372"/>
-      <c r="C20" s="385">
+      <c r="B20" s="371"/>
+      <c r="C20" s="384">
         <f>GECbladedata!$C41</f>
         <v>0.63157894736842102</v>
       </c>
-      <c r="D20" s="385">
+      <c r="D20" s="384">
         <f>0.25+GECbladedata!$Q41/GECbladedata!$P41</f>
         <v>0.20532020712662968</v>
       </c>
-      <c r="E20" s="385">
+      <c r="E20" s="384">
         <f>GECbladedata!$K41</f>
         <v>1.5999999999999999</v>
       </c>
-      <c r="F20" s="386">
+      <c r="F20" s="385">
         <f>GECbladedata!$D41</f>
         <v>211.46233980212395</v>
       </c>
-      <c r="G20" s="387">
+      <c r="G20" s="386">
         <f>GECbladedata!$O41</f>
         <v>178469714.23014665</v>
       </c>
-      <c r="H20" s="386">
+      <c r="H20" s="385">
         <f>GECbladedata!$N41</f>
         <v>540902523.44586635</v>
       </c>
-      <c r="I20" s="386">
+      <c r="I20" s="385">
         <f>GECbladedata!$L41</f>
         <v>13257786.178611353</v>
       </c>
-      <c r="J20" s="386">
+      <c r="J20" s="385">
         <f>GECbladedata!$M41</f>
         <v>2759970365.2263422</v>
       </c>
     </row>
     <row r="21" spans="2:23">
-      <c r="B21" s="372"/>
-      <c r="C21" s="385">
+      <c r="B21" s="371"/>
+      <c r="C21" s="384">
         <f>GECbladedata!$C42</f>
         <v>0.68421052631578938</v>
       </c>
-      <c r="D21" s="385">
+      <c r="D21" s="384">
         <f>0.25+GECbladedata!$Q42/GECbladedata!$P42</f>
         <v>0.21206978904073237</v>
       </c>
-      <c r="E21" s="385">
+      <c r="E21" s="384">
         <f>GECbladedata!$K42</f>
         <v>1.1000000000000005</v>
       </c>
-      <c r="F21" s="386">
+      <c r="F21" s="385">
         <f>GECbladedata!$D42</f>
         <v>175.41072811779932</v>
       </c>
-      <c r="G21" s="387">
+      <c r="G21" s="386">
         <f>GECbladedata!$O42</f>
         <v>117173213.1328415</v>
       </c>
-      <c r="H21" s="386">
+      <c r="H21" s="385">
         <f>GECbladedata!$N42</f>
         <v>391867762.57516062</v>
       </c>
-      <c r="I21" s="386">
+      <c r="I21" s="385">
         <f>GECbladedata!$L42</f>
         <v>9183120.7723607793</v>
       </c>
-      <c r="J21" s="386">
+      <c r="J21" s="385">
         <f>GECbladedata!$M42</f>
         <v>2271272463.9281473</v>
       </c>
     </row>
     <row r="22" spans="2:23">
-      <c r="C22" s="385">
+      <c r="C22" s="384">
         <f>GECbladedata!$C43</f>
         <v>0.73684210526315785</v>
       </c>
-      <c r="D22" s="385">
+      <c r="D22" s="384">
         <f>0.25+GECbladedata!$Q43/GECbladedata!$P43</f>
         <v>0.21999999999999997</v>
       </c>
-      <c r="E22" s="385">
+      <c r="E22" s="384">
         <f>GECbladedata!$K43</f>
         <v>0.6</v>
       </c>
-      <c r="F22" s="386">
+      <c r="F22" s="385">
         <f>GECbladedata!$D43</f>
         <v>139.35911643347461</v>
       </c>
-      <c r="G22" s="387">
+      <c r="G22" s="386">
         <f>GECbladedata!$O43</f>
         <v>55876712.03553623</v>
       </c>
-      <c r="H22" s="386">
+      <c r="H22" s="385">
         <f>GECbladedata!$N43</f>
         <v>242833001.70445472</v>
       </c>
-      <c r="I22" s="386">
+      <c r="I22" s="385">
         <f>GECbladedata!$L43</f>
         <v>5108455.3661101973</v>
       </c>
-      <c r="J22" s="386">
+      <c r="J22" s="385">
         <f>GECbladedata!$M43</f>
         <v>1782574562.629951</v>
       </c>
@@ -12355,177 +12414,177 @@
       <c r="W22" s="102"/>
     </row>
     <row r="23" spans="2:23">
-      <c r="C23" s="385">
+      <c r="C23" s="384">
         <f>GECbladedata!$C44</f>
         <v>0.78947368421052622</v>
       </c>
-      <c r="D23" s="385">
+      <c r="D23" s="384">
         <f>0.25+GECbladedata!$Q44/GECbladedata!$P44</f>
         <v>0.22394967634161619</v>
       </c>
-      <c r="E23" s="385">
+      <c r="E23" s="384">
         <f>GECbladedata!$K44</f>
         <v>0.47999999999999987</v>
       </c>
-      <c r="F23" s="386">
+      <c r="F23" s="385">
         <f>GECbladedata!$D44</f>
         <v>114.8236118008315</v>
       </c>
-      <c r="G23" s="387">
+      <c r="G23" s="386">
         <f>GECbladedata!$O44</f>
         <v>44839759.888547704</v>
       </c>
-      <c r="H23" s="386">
+      <c r="H23" s="385">
         <f>GECbladedata!$N44</f>
         <v>199004345.945301</v>
       </c>
-      <c r="I23" s="386">
+      <c r="I23" s="385">
         <f>GECbladedata!$L44</f>
         <v>4195517.6643379992</v>
       </c>
-      <c r="J23" s="386">
+      <c r="J23" s="385">
         <f>GECbladedata!$M44</f>
         <v>1461230658.9921355</v>
       </c>
     </row>
     <row r="24" spans="2:23">
-      <c r="C24" s="385">
+      <c r="C24" s="384">
         <f>GECbladedata!$C45</f>
         <v>0.84210526315789458</v>
       </c>
-      <c r="D24" s="385">
+      <c r="D24" s="384">
         <f>0.25+GECbladedata!$Q45/GECbladedata!$P45</f>
         <v>0.22863723279773965</v>
       </c>
-      <c r="E24" s="385">
+      <c r="E24" s="384">
         <f>GECbladedata!$K45</f>
         <v>0.36000000000000004</v>
       </c>
-      <c r="F24" s="386">
+      <c r="F24" s="385">
         <f>GECbladedata!$D45</f>
         <v>90.288107168188432</v>
       </c>
-      <c r="G24" s="387">
+      <c r="G24" s="386">
         <f>GECbladedata!$O45</f>
         <v>33802807.741559193</v>
       </c>
-      <c r="H24" s="386">
+      <c r="H24" s="385">
         <f>GECbladedata!$N45</f>
         <v>155175690.18614733</v>
       </c>
-      <c r="I24" s="386">
+      <c r="I24" s="385">
         <f>GECbladedata!$L45</f>
         <v>3282579.962565803</v>
       </c>
-      <c r="J24" s="386">
+      <c r="J24" s="385">
         <f>GECbladedata!$M45</f>
         <v>1139886755.354321</v>
       </c>
     </row>
     <row r="25" spans="2:23">
-      <c r="C25" s="385">
+      <c r="C25" s="384">
         <f>GECbladedata!$C46</f>
         <v>0.89473684210526305</v>
       </c>
-      <c r="D25" s="385">
+      <c r="D25" s="384">
         <f>0.25+GECbladedata!$Q46/GECbladedata!$P46</f>
         <v>0.23429075111754705</v>
       </c>
-      <c r="E25" s="385">
+      <c r="E25" s="384">
         <f>GECbladedata!$K46</f>
         <v>0.23999999999999994</v>
       </c>
-      <c r="F25" s="386">
+      <c r="F25" s="385">
         <f>GECbladedata!$D46</f>
         <v>65.752602535545321</v>
       </c>
-      <c r="G25" s="387">
+      <c r="G25" s="386">
         <f>GECbladedata!$O46</f>
         <v>22765855.594570663</v>
       </c>
-      <c r="H25" s="386">
+      <c r="H25" s="385">
         <f>GECbladedata!$N46</f>
         <v>111347034.42699362</v>
       </c>
-      <c r="I25" s="386">
+      <c r="I25" s="385">
         <f>GECbladedata!$L46</f>
         <v>2369642.2607936049</v>
       </c>
-      <c r="J25" s="386">
+      <c r="J25" s="385">
         <f>GECbladedata!$M46</f>
         <v>818542851.71650553</v>
       </c>
     </row>
     <row r="26" spans="2:23">
-      <c r="C26" s="385">
+      <c r="C26" s="384">
         <f>GECbladedata!$C47</f>
         <v>0.94736842105263142</v>
       </c>
-      <c r="D26" s="385">
+      <c r="D26" s="384">
         <f>0.25+GECbladedata!$Q47/GECbladedata!$P47</f>
         <v>0.24124311234338258</v>
       </c>
-      <c r="E26" s="385">
+      <c r="E26" s="384">
         <f>GECbladedata!$K47</f>
         <v>0.12000000000000011</v>
       </c>
-      <c r="F26" s="386">
+      <c r="F26" s="385">
         <f>GECbladedata!$D47</f>
         <v>41.217097902902253</v>
       </c>
-      <c r="G26" s="387">
+      <c r="G26" s="386">
         <f>GECbladedata!$O47</f>
         <v>11728903.447582163</v>
       </c>
-      <c r="H26" s="386">
+      <c r="H26" s="385">
         <f>GECbladedata!$N47</f>
         <v>67518378.667839974</v>
       </c>
-      <c r="I26" s="386">
+      <c r="I26" s="385">
         <f>GECbladedata!$L47</f>
         <v>1456704.5590214087</v>
       </c>
-      <c r="J26" s="386">
+      <c r="J26" s="385">
         <f>GECbladedata!$M47</f>
         <v>497198948.07869101</v>
       </c>
     </row>
     <row r="27" spans="2:23">
-      <c r="C27" s="385">
+      <c r="C27" s="384">
         <f>GECbladedata!$C48</f>
         <v>0.99999999999999989</v>
       </c>
-      <c r="D27" s="385">
+      <c r="D27" s="384">
         <f>0.25+GECbladedata!$Q48/GECbladedata!$P48</f>
         <v>0.25</v>
       </c>
-      <c r="E27" s="385">
+      <c r="E27" s="384">
         <f>GECbladedata!$K48</f>
         <v>0</v>
       </c>
-      <c r="F27" s="386">
+      <c r="F27" s="385">
         <f>GECbladedata!$D48</f>
         <v>16.681593270259139</v>
       </c>
-      <c r="G27" s="387">
+      <c r="G27" s="386">
         <f>GECbladedata!$O48</f>
         <v>691951.30059363274</v>
       </c>
-      <c r="H27" s="386">
+      <c r="H27" s="385">
         <f>GECbladedata!$N48</f>
         <v>23689722.908686247</v>
       </c>
-      <c r="I27" s="386">
+      <c r="I27" s="385">
         <f>GECbladedata!$L48</f>
         <v>543766.85724921024</v>
       </c>
-      <c r="J27" s="386">
+      <c r="J27" s="385">
         <f>GECbladedata!$M48</f>
         <v>175855044.44087556</v>
       </c>
     </row>
     <row r="29" spans="2:23">
-      <c r="D29" s="379"/>
+      <c r="D29" s="378"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12549,206 +12608,206 @@
   <sheetData>
     <row r="2" spans="1:14">
       <c r="A2" t="s">
+        <v>439</v>
+      </c>
+      <c r="B2" t="s">
         <v>440</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>441</v>
       </c>
-      <c r="C2" t="s">
-        <v>442</v>
-      </c>
     </row>
     <row r="3" spans="1:14">
-      <c r="K3" s="381"/>
-      <c r="L3" s="373"/>
-      <c r="M3" s="373"/>
-      <c r="N3" s="372"/>
+      <c r="K3" s="380"/>
+      <c r="L3" s="372"/>
+      <c r="M3" s="372"/>
+      <c r="N3" s="371"/>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C4" s="101">
         <f>'Main Page'!B87</f>
         <v>1800</v>
       </c>
-      <c r="K4" s="381"/>
-      <c r="L4" s="373"/>
-      <c r="M4" s="373"/>
-      <c r="N4" s="372"/>
+      <c r="K4" s="380"/>
+      <c r="L4" s="372"/>
+      <c r="M4" s="372"/>
+      <c r="N4" s="371"/>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" t="s">
+        <v>486</v>
+      </c>
+      <c r="B5" t="s">
         <v>487</v>
       </c>
-      <c r="B5" t="s">
-        <v>488</v>
-      </c>
-      <c r="C5" s="382">
+      <c r="C5" s="381">
         <f>'Main Page'!$B$31</f>
         <v>16753.151904410039</v>
       </c>
-      <c r="K5" s="381"/>
+      <c r="K5" s="380"/>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" t="s">
+        <v>488</v>
+      </c>
+      <c r="B6" t="s">
         <v>489</v>
       </c>
-      <c r="B6" t="s">
-        <v>490</v>
-      </c>
-      <c r="C6" s="380">
+      <c r="C6" s="379">
         <f>'Main Page'!B43</f>
         <v>5.170725896422851E-3</v>
       </c>
-      <c r="K6" s="381"/>
+      <c r="K6" s="380"/>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B7" t="s">
-        <v>491</v>
-      </c>
-      <c r="C7" s="380">
+        <v>490</v>
+      </c>
+      <c r="C7" s="379">
         <v>2.6</v>
       </c>
-      <c r="K7" s="381"/>
+      <c r="K7" s="380"/>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B8" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C8">
         <f>'Main Page'!$B$29</f>
         <v>14.468631190172303</v>
       </c>
       <c r="G8" t="s">
-        <v>493</v>
-      </c>
-      <c r="K8" s="381"/>
+        <v>492</v>
+      </c>
+      <c r="K8" s="380"/>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B9" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C9" s="102">
         <f>'Main Page'!$B$34</f>
         <v>2.6</v>
       </c>
       <c r="G9" t="s">
-        <v>495</v>
-      </c>
-      <c r="K9" s="381"/>
+        <v>494</v>
+      </c>
+      <c r="K9" s="380"/>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B10" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C10" s="102">
         <f>'Main Page'!$B$35</f>
         <v>90</v>
       </c>
       <c r="G10" t="s">
-        <v>497</v>
-      </c>
-      <c r="K10" s="381"/>
+        <v>496</v>
+      </c>
+      <c r="K10" s="380"/>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B11" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C11">
         <f>'Main Page'!$B$40</f>
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="G11" t="s">
-        <v>499</v>
-      </c>
-      <c r="K11" s="381"/>
+        <v>498</v>
+      </c>
+      <c r="K11" s="380"/>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" t="s">
+        <v>499</v>
+      </c>
+      <c r="B12" t="s">
         <v>500</v>
-      </c>
-      <c r="B12" t="s">
-        <v>501</v>
       </c>
       <c r="C12">
         <f>'Main Page'!$B$37*PI()/180</f>
         <v>4.5378560551852569E-2</v>
       </c>
       <c r="G12" t="s">
-        <v>502</v>
-      </c>
-      <c r="K12" s="381"/>
+        <v>501</v>
+      </c>
+      <c r="K12" s="380"/>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B13" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C13">
         <f>'Main Page'!$B$38*PI()/180</f>
         <v>0.52359877559829882</v>
       </c>
       <c r="G13" t="s">
-        <v>504</v>
-      </c>
-      <c r="K13" s="381"/>
+        <v>503</v>
+      </c>
+      <c r="K13" s="380"/>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B14" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C14">
         <f>1/C12^C15</f>
         <v>0.21302244142778143</v>
       </c>
       <c r="G14" t="s">
-        <v>506</v>
-      </c>
-      <c r="K14" s="381"/>
+        <v>505</v>
+      </c>
+      <c r="K14" s="380"/>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B15" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C15">
         <f>'Main Page'!$B$39</f>
         <v>-0.5</v>
       </c>
       <c r="G15" t="s">
-        <v>508</v>
-      </c>
-      <c r="K15" s="381"/>
+        <v>507</v>
+      </c>
+      <c r="K15" s="380"/>
     </row>
     <row r="16" spans="1:14">
       <c r="B16" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C16" s="101">
         <f>(4*'Main Page'!$B$29/30*PI())^2</f>
@@ -12761,13 +12820,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>510</v>
-      </c>
-      <c r="K16" s="381"/>
+        <v>509</v>
+      </c>
+      <c r="K16" s="380"/>
     </row>
     <row r="17" spans="2:11">
       <c r="B17" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C17" s="101">
         <f>(4*'Main Page'!$B$29/30*PI())^2</f>
@@ -12781,12 +12840,12 @@
         <v>1</v>
       </c>
       <c r="G17" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="K17" s="102"/>
     </row>
     <row r="19" spans="2:11">
-      <c r="K19" s="382"/>
+      <c r="K19" s="381"/>
     </row>
     <row r="20" spans="2:11">
       <c r="K20" s="102"/>
@@ -12820,13 +12879,13 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" t="s">
+        <v>439</v>
+      </c>
+      <c r="B1" t="s">
         <v>440</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>441</v>
-      </c>
-      <c r="C1" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -12834,9 +12893,9 @@
         <v>85</v>
       </c>
       <c r="B3" t="s">
-        <v>455</v>
-      </c>
-      <c r="C3" s="382">
+        <v>454</v>
+      </c>
+      <c r="C3" s="381">
         <f>'Main Page'!B61</f>
         <v>-4.6500000000000004</v>
       </c>
@@ -12846,9 +12905,9 @@
         <v>85</v>
       </c>
       <c r="B4" t="s">
-        <v>456</v>
-      </c>
-      <c r="C4" s="382">
+        <v>455</v>
+      </c>
+      <c r="C4" s="381">
         <f>('Main Page'!B5*'Main Page'!E5+'Main Page'!B6*'Main Page'!E6+'Main Page'!B7*'Main Page'!E7)/C11</f>
         <v>-0.22569690025426056</v>
       </c>
@@ -12859,9 +12918,9 @@
         <v>85</v>
       </c>
       <c r="B5" t="s">
-        <v>457</v>
-      </c>
-      <c r="C5" s="382">
+        <v>456</v>
+      </c>
+      <c r="C5" s="381">
         <f>('Main Page'!C5*'Main Page'!E5+'Main Page'!C6*'Main Page'!E6+'Main Page'!C7*'Main Page'!E7)/C11</f>
         <v>0</v>
       </c>
@@ -12871,9 +12930,9 @@
         <v>85</v>
       </c>
       <c r="B6" t="s">
-        <v>458</v>
-      </c>
-      <c r="C6" s="382">
+        <v>457</v>
+      </c>
+      <c r="C6" s="381">
         <f>('Main Page'!D5*'Main Page'!E5+'Main Page'!D6*'Main Page'!E6+'Main Page'!D7*'Main Page'!E7)/C11+'Main Page'!B46</f>
         <v>1.86090852211677</v>
       </c>
@@ -12886,9 +12945,9 @@
         <v>85</v>
       </c>
       <c r="B7" t="s">
-        <v>459</v>
-      </c>
-      <c r="C7" s="382">
+        <v>458</v>
+      </c>
+      <c r="C7" s="381">
         <f>'Main Page'!B9-'Main Page'!B46</f>
         <v>116.73099999999999</v>
       </c>
@@ -12901,9 +12960,9 @@
         <v>85</v>
       </c>
       <c r="B8" t="s">
-        <v>460</v>
-      </c>
-      <c r="C8" s="382">
+        <v>459</v>
+      </c>
+      <c r="C8" s="381">
         <f>'Main Page'!B46</f>
         <v>2.2690000000000001</v>
       </c>
@@ -12913,12 +12972,12 @@
     </row>
     <row r="9" spans="1:13">
       <c r="A9" t="s">
+        <v>460</v>
+      </c>
+      <c r="B9" t="s">
         <v>461</v>
       </c>
-      <c r="B9" t="s">
-        <v>462</v>
-      </c>
-      <c r="C9" s="382">
+      <c r="C9" s="381">
         <f>-'Main Page'!B11</f>
         <v>-5</v>
       </c>
@@ -12926,54 +12985,54 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B10" t="s">
-        <v>463</v>
-      </c>
-      <c r="C10" s="382">
+        <v>462</v>
+      </c>
+      <c r="C10" s="381">
         <f>-'Main Page'!B18</f>
         <v>0</v>
       </c>
       <c r="I10" s="103"/>
-      <c r="M10" s="372"/>
+      <c r="M10" s="371"/>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" t="s">
         <v>117</v>
       </c>
       <c r="B11" t="s">
-        <v>464</v>
-      </c>
-      <c r="C11" s="382">
+        <v>463</v>
+      </c>
+      <c r="C11" s="381">
         <f>SUM('Main Page'!E5+'Main Page'!E6+'Main Page'!E7)</f>
         <v>132597.74759930788</v>
       </c>
       <c r="I11" s="103"/>
-      <c r="M11" s="372"/>
+      <c r="M11" s="371"/>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" t="s">
         <v>117</v>
       </c>
       <c r="B12" t="s">
-        <v>465</v>
-      </c>
-      <c r="C12" s="382">
+        <v>464</v>
+      </c>
+      <c r="C12" s="381">
         <f>'Main Page'!E8</f>
         <v>61670.62692812828</v>
       </c>
       <c r="I12" s="103"/>
-      <c r="M12" s="372"/>
+      <c r="M12" s="371"/>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" t="s">
+        <v>465</v>
+      </c>
+      <c r="B13" t="s">
         <v>466</v>
       </c>
-      <c r="B13" t="s">
-        <v>467</v>
-      </c>
-      <c r="C13" s="382">
+      <c r="C13" s="381">
         <f>SUM('Main Page'!H5:H7)</f>
         <v>211744.31626438437</v>
       </c>
@@ -12981,12 +13040,12 @@
     </row>
     <row r="14" spans="1:13">
       <c r="A14" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B14" t="s">
-        <v>468</v>
-      </c>
-      <c r="C14" s="382">
+        <v>467</v>
+      </c>
+      <c r="C14" s="381">
         <f>SUM(GECdrivetrain!M11:'GECdrivetrain'!M12)/('Main Page'!$B$88)^2</f>
         <v>177.88478074011505</v>
       </c>
@@ -12994,22 +13053,22 @@
     </row>
     <row r="15" spans="1:13">
       <c r="A15" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B15" t="s">
-        <v>469</v>
-      </c>
-      <c r="C15" s="382">
+        <v>468</v>
+      </c>
+      <c r="C15" s="381">
         <f>GECdrivetrain!M5</f>
         <v>197987.08806417006</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B16" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C16" s="102">
         <f>'Main Page'!B19*100</f>
@@ -13018,10 +13077,10 @@
     </row>
     <row r="17" spans="1:13">
       <c r="A17" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B17" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C17">
         <f>'Main Page'!$B$88</f>
@@ -13030,12 +13089,12 @@
     </row>
     <row r="18" spans="1:13">
       <c r="A18" t="s">
+        <v>471</v>
+      </c>
+      <c r="B18" t="s">
         <v>472</v>
       </c>
-      <c r="B18" t="s">
-        <v>473</v>
-      </c>
-      <c r="C18" s="383">
+      <c r="C18" s="382">
         <f>'Main Page'!B14</f>
         <v>1039402035.9271445</v>
       </c>
@@ -13043,12 +13102,12 @@
     </row>
     <row r="19" spans="1:13">
       <c r="A19" t="s">
+        <v>473</v>
+      </c>
+      <c r="B19" t="s">
         <v>474</v>
       </c>
-      <c r="B19" t="s">
-        <v>475</v>
-      </c>
-      <c r="C19" s="383">
+      <c r="C19" s="382">
         <f>2*'Main Page'!B15/100*SQRT(C18*'Main Page'!B16*C14*C17^2/('Main Page'!B16+C14*C17^2))</f>
         <v>4992005.4231970394</v>
       </c>
@@ -13056,24 +13115,24 @@
     </row>
     <row r="20" spans="1:13">
       <c r="A20" t="s">
+        <v>475</v>
+      </c>
+      <c r="B20" t="s">
         <v>476</v>
-      </c>
-      <c r="B20" t="s">
-        <v>477</v>
       </c>
       <c r="C20" s="335">
         <f>'Main Page'!B92*1000</f>
         <v>3000000</v>
       </c>
-      <c r="M20" s="372"/>
+      <c r="M20" s="371"/>
     </row>
     <row r="21" spans="1:13">
       <c r="I21" s="103"/>
-      <c r="M21" s="372"/>
+      <c r="M21" s="371"/>
     </row>
     <row r="22" spans="1:13">
       <c r="I22" s="103"/>
-      <c r="M22" s="372"/>
+      <c r="M22" s="371"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13096,21 +13155,21 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" t="s">
+        <v>439</v>
+      </c>
+      <c r="B1" t="s">
         <v>440</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>441</v>
-      </c>
-      <c r="C1" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C3" s="103">
         <f>'Main Page'!B154*100</f>
@@ -13131,29 +13190,29 @@
     </row>
     <row r="4" spans="1:14">
       <c r="B4" t="s">
+        <v>478</v>
+      </c>
+      <c r="C4" t="s">
         <v>479</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>480</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>481</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>482</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>483</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>484</v>
       </c>
-      <c r="H4" t="s">
-        <v>485</v>
-      </c>
     </row>
     <row r="5" spans="1:14">
-      <c r="C5" s="381">
+      <c r="C5" s="380">
         <f>GECtwrdata!$B15/9</f>
         <v>0</v>
       </c>
@@ -13161,26 +13220,26 @@
         <f>GECtwrdata!$G15</f>
         <v>5176.3620621529581</v>
       </c>
-      <c r="E5" s="384">
+      <c r="E5" s="383">
         <f>GECtwrdata!$N15</f>
         <v>1050330627972.325</v>
       </c>
-      <c r="F5" s="384">
+      <c r="F5" s="383">
         <f>GECtwrdata!$N15</f>
         <v>1050330627972.325</v>
       </c>
-      <c r="G5" s="384">
+      <c r="G5" s="383">
         <f>GECtwrdata!$K15</f>
         <v>807946636901.78833</v>
       </c>
-      <c r="H5" s="384">
+      <c r="H5" s="383">
         <f>GECtwrdata!$H15</f>
         <v>131225707441.21327</v>
       </c>
-      <c r="N5" s="372"/>
+      <c r="N5" s="371"/>
     </row>
     <row r="6" spans="1:14">
-      <c r="C6" s="381">
+      <c r="C6" s="380">
         <f>GECtwrdata!$B16/9</f>
         <v>0.1111111111111111</v>
       </c>
@@ -13188,26 +13247,26 @@
         <f>GECtwrdata!$G16</f>
         <v>4572.9262969216697</v>
       </c>
-      <c r="E6" s="384">
+      <c r="E6" s="383">
         <f>GECtwrdata!$N16</f>
         <v>820344112793.62048</v>
       </c>
-      <c r="F6" s="384">
+      <c r="F6" s="383">
         <f>GECtwrdata!$N16</f>
         <v>820344112793.62048</v>
       </c>
-      <c r="G6" s="384">
+      <c r="G6" s="383">
         <f>GECtwrdata!$K16</f>
         <v>631033932918.16956</v>
       </c>
-      <c r="H6" s="384">
+      <c r="H6" s="383">
         <f>GECtwrdata!$H16</f>
         <v>115928036173.82312</v>
       </c>
-      <c r="N6" s="372"/>
+      <c r="N6" s="371"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="C7" s="381">
+      <c r="C7" s="380">
         <f>GECtwrdata!$B17/9</f>
         <v>0.22222222222222221</v>
       </c>
@@ -13215,26 +13274,26 @@
         <f>GECtwrdata!$G17</f>
         <v>4006.8748373094522</v>
       </c>
-      <c r="E7" s="384">
+      <c r="E7" s="383">
         <f>GECtwrdata!$N17</f>
         <v>630369721363.07703</v>
       </c>
-      <c r="F7" s="384">
+      <c r="F7" s="383">
         <f>GECtwrdata!$N17</f>
         <v>630369721363.07703</v>
       </c>
-      <c r="G7" s="384">
+      <c r="G7" s="383">
         <f>GECtwrdata!$K17</f>
         <v>484899785663.9054</v>
       </c>
-      <c r="H7" s="384">
+      <c r="H7" s="383">
         <f>GECtwrdata!$H17</f>
         <v>101578092652.8999</v>
       </c>
-      <c r="N7" s="372"/>
+      <c r="N7" s="371"/>
     </row>
     <row r="8" spans="1:14">
-      <c r="C8" s="381">
+      <c r="C8" s="380">
         <f>GECtwrdata!$B18/9</f>
         <v>0.33333333333333331</v>
       </c>
@@ -13242,26 +13301,26 @@
         <f>GECtwrdata!$G18</f>
         <v>3478.2076833163073</v>
       </c>
-      <c r="E8" s="384">
+      <c r="E8" s="383">
         <f>GECtwrdata!$N18</f>
         <v>475473249816.18439</v>
       </c>
-      <c r="F8" s="384">
+      <c r="F8" s="383">
         <f>GECtwrdata!$N18</f>
         <v>475473249816.18439</v>
       </c>
-      <c r="G8" s="384">
+      <c r="G8" s="383">
         <f>GECtwrdata!$K18</f>
         <v>365748653704.7572</v>
       </c>
-      <c r="H8" s="384">
+      <c r="H8" s="383">
         <f>GECtwrdata!$H18</f>
         <v>88175876878.443649</v>
       </c>
-      <c r="N8" s="372"/>
+      <c r="N8" s="371"/>
     </row>
     <row r="9" spans="1:14">
-      <c r="C9" s="381">
+      <c r="C9" s="380">
         <f>GECtwrdata!$B19/9</f>
         <v>0.44444444444444442</v>
       </c>
@@ -13269,26 +13328,26 @@
         <f>GECtwrdata!$G19</f>
         <v>2986.9248349422332</v>
       </c>
-      <c r="E9" s="384">
+      <c r="E9" s="383">
         <f>GECtwrdata!$N19</f>
         <v>351045305228.06683</v>
       </c>
-      <c r="F9" s="384">
+      <c r="F9" s="383">
         <f>GECtwrdata!$N19</f>
         <v>351045305228.06683</v>
       </c>
-      <c r="G9" s="384">
+      <c r="G9" s="383">
         <f>GECtwrdata!$K19</f>
         <v>270034850175.436</v>
       </c>
-      <c r="H9" s="384">
+      <c r="H9" s="383">
         <f>GECtwrdata!$H19</f>
         <v>75721388850.454315</v>
       </c>
-      <c r="N9" s="372"/>
+      <c r="N9" s="371"/>
     </row>
     <row r="10" spans="1:14">
-      <c r="C10" s="381">
+      <c r="C10" s="380">
         <f>GECtwrdata!$B20/9</f>
         <v>0.55555555555555558</v>
       </c>
@@ -13296,26 +13355,26 @@
         <f>GECtwrdata!$G20</f>
         <v>2533.0262921872304</v>
       </c>
-      <c r="E10" s="384">
+      <c r="E10" s="383">
         <f>GECtwrdata!$N20</f>
         <v>252801305613.48541</v>
       </c>
-      <c r="F10" s="384">
+      <c r="F10" s="383">
         <f>GECtwrdata!$N20</f>
         <v>252801305613.48541</v>
       </c>
-      <c r="G10" s="384">
+      <c r="G10" s="383">
         <f>GECtwrdata!$K20</f>
         <v>194462542779.60416</v>
       </c>
-      <c r="H10" s="384">
+      <c r="H10" s="383">
         <f>GECtwrdata!$H20</f>
         <v>64214628568.931923</v>
       </c>
-      <c r="N10" s="372"/>
+      <c r="N10" s="371"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="C11" s="381">
+      <c r="C11" s="380">
         <f>GECtwrdata!$B21/9</f>
         <v>0.66666666666666663</v>
       </c>
@@ -13323,26 +13382,26 @@
         <f>GECtwrdata!$G21</f>
         <v>2116.5120550512988</v>
       </c>
-      <c r="E11" s="384">
+      <c r="E11" s="383">
         <f>GECtwrdata!$N21</f>
         <v>176781479926.83633</v>
       </c>
-      <c r="F11" s="384">
+      <c r="F11" s="383">
         <f>GECtwrdata!$N21</f>
         <v>176781479926.83633</v>
       </c>
-      <c r="G11" s="384">
+      <c r="G11" s="383">
         <f>GECtwrdata!$K21</f>
         <v>135985753789.87408</v>
       </c>
-      <c r="H11" s="384">
+      <c r="H11" s="383">
         <f>GECtwrdata!$H21</f>
         <v>53655596033.876465</v>
       </c>
-      <c r="N11" s="372"/>
+      <c r="N11" s="371"/>
     </row>
     <row r="12" spans="1:14">
-      <c r="C12" s="381">
+      <c r="C12" s="380">
         <f>GECtwrdata!$B22/9</f>
         <v>0.77777777777777779</v>
       </c>
@@ -13350,26 +13409,26 @@
         <f>GECtwrdata!$G22</f>
         <v>1737.3821235344394</v>
       </c>
-      <c r="E12" s="384">
+      <c r="E12" s="383">
         <f>GECtwrdata!$N22</f>
         <v>119350868062.15134</v>
       </c>
-      <c r="F12" s="384">
+      <c r="F12" s="383">
         <f>GECtwrdata!$N22</f>
         <v>119350868062.15134</v>
       </c>
-      <c r="G12" s="384">
+      <c r="G12" s="383">
         <f>GECtwrdata!$K22</f>
         <v>91808360047.808716</v>
       </c>
-      <c r="H12" s="384">
+      <c r="H12" s="383">
         <f>GECtwrdata!$H22</f>
         <v>44044291245.287949</v>
       </c>
-      <c r="N12" s="372"/>
+      <c r="N12" s="371"/>
     </row>
     <row r="13" spans="1:14">
-      <c r="C13" s="381">
+      <c r="C13" s="380">
         <f>GECtwrdata!$B23/9</f>
         <v>0.88888888888888884</v>
       </c>
@@ -13377,26 +13436,26 @@
         <f>GECtwrdata!$G23</f>
         <v>1395.6364976366508</v>
       </c>
-      <c r="E13" s="384">
+      <c r="E13" s="383">
         <f>GECtwrdata!$N23</f>
         <v>77199320853.097961</v>
       </c>
-      <c r="F13" s="384">
+      <c r="F13" s="383">
         <f>GECtwrdata!$N23</f>
         <v>77199320853.097961</v>
       </c>
-      <c r="G13" s="384">
+      <c r="G13" s="383">
         <f>GECtwrdata!$K23</f>
         <v>59384092963.921509</v>
       </c>
-      <c r="H13" s="384">
+      <c r="H13" s="383">
         <f>GECtwrdata!$H23</f>
         <v>35380714203.166359</v>
       </c>
-      <c r="N13" s="372"/>
+      <c r="N13" s="371"/>
     </row>
     <row r="14" spans="1:14">
-      <c r="C14" s="381">
+      <c r="C14" s="380">
         <f>GECtwrdata!$B24/9</f>
         <v>1</v>
       </c>
@@ -13404,30 +13463,30 @@
         <f>GECtwrdata!$G24</f>
         <v>1091.2751773579341</v>
       </c>
-      <c r="E14" s="384">
+      <c r="E14" s="383">
         <f>GECtwrdata!$N24</f>
         <v>47341500072.979439</v>
       </c>
-      <c r="F14" s="384">
+      <c r="F14" s="383">
         <f>GECtwrdata!$N24</f>
         <v>47341500072.979439</v>
       </c>
-      <c r="G14" s="384">
+      <c r="G14" s="383">
         <f>GECtwrdata!$K24</f>
         <v>36416538517.676491</v>
       </c>
-      <c r="H14" s="384">
+      <c r="H14" s="383">
         <f>GECtwrdata!$H24</f>
         <v>27664864907.511723</v>
       </c>
-      <c r="I14" s="373"/>
-      <c r="J14" s="373"/>
-      <c r="K14" s="373"/>
-      <c r="L14" s="373"/>
-      <c r="N14" s="372"/>
+      <c r="I14" s="372"/>
+      <c r="J14" s="372"/>
+      <c r="K14" s="372"/>
+      <c r="L14" s="372"/>
+      <c r="N14" s="371"/>
     </row>
     <row r="15" spans="1:14">
-      <c r="N15" s="372"/>
+      <c r="N15" s="371"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13465,12 +13524,12 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="12" thickBot="1">
-      <c r="A2" s="402" t="s">
+      <c r="A2" s="401" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="403"/>
-      <c r="C2" s="403"/>
-      <c r="D2" s="404"/>
+      <c r="B2" s="402"/>
+      <c r="C2" s="402"/>
+      <c r="D2" s="403"/>
       <c r="F2" s="79" t="s">
         <v>54</v>
       </c>
@@ -14270,11 +14329,11 @@
         <f>GECbladedata!D12-B3</f>
         <v>47.024999999999999</v>
       </c>
-      <c r="D2" s="388" t="s">
+      <c r="D2" s="387" t="s">
         <v>84</v>
       </c>
-      <c r="E2" s="390"/>
-      <c r="F2" s="391"/>
+      <c r="E2" s="389"/>
+      <c r="F2" s="390"/>
     </row>
     <row r="3" spans="1:20" ht="23.25" thickBot="1">
       <c r="A3" s="98" t="s">
@@ -14427,7 +14486,7 @@
         <v>41</v>
       </c>
       <c r="R9" s="19" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="S9" s="89"/>
       <c r="T9" s="89"/>
@@ -17553,7 +17612,7 @@
         <v>370</v>
       </c>
       <c r="T26" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="27" spans="2:21" ht="13.5">

--- a/FAST_models/WindPACT/excel_proc/turbines/3.0A02V02_proc.xlsx
+++ b/FAST_models/WindPACT/excel_proc/turbines/3.0A02V02_proc.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="105" yWindow="0" windowWidth="7620" windowHeight="7575"/>
+    <workbookView xWindow="105" yWindow="0" windowWidth="7620" windowHeight="7575" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Main Page" sheetId="5" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="525">
   <si>
     <t>number</t>
   </si>
@@ -1785,9 +1785,6 @@
     <t>HubRad</t>
   </si>
   <si>
-    <t>BldDmp</t>
-  </si>
-  <si>
     <t>DistBldProps</t>
   </si>
   <si>
@@ -1884,9 +1881,6 @@
     <t>ShftTilt</t>
   </si>
   <si>
-    <t>PreCone</t>
-  </si>
-  <si>
     <t>NacMass</t>
   </si>
   <si>
@@ -1929,9 +1923,6 @@
     <t>RatedPwr</t>
   </si>
   <si>
-    <t>TwrDmp</t>
-  </si>
-  <si>
     <t>TwrSchedFields</t>
   </si>
   <si>
@@ -1968,9 +1959,6 @@
     <t>VS_Rgn2K</t>
   </si>
   <si>
-    <t>BlPitchF</t>
-  </si>
-  <si>
     <t>CNST(2)</t>
   </si>
   <si>
@@ -2044,6 +2032,45 @@
   </si>
   <si>
     <t>&lt;-- added ".dat" (JR)</t>
+  </si>
+  <si>
+    <t>BldFlDmp(1)</t>
+  </si>
+  <si>
+    <t>BldFlDmp(2)</t>
+  </si>
+  <si>
+    <t>BldEdDmp(1)</t>
+  </si>
+  <si>
+    <t>BlPitchF(1)</t>
+  </si>
+  <si>
+    <t>BlPitchF(2)</t>
+  </si>
+  <si>
+    <t>BlPitchF(3)</t>
+  </si>
+  <si>
+    <t>TwrFADmp(1)</t>
+  </si>
+  <si>
+    <t>TwrFADmp(2)</t>
+  </si>
+  <si>
+    <t>TwrSSDmp(1)</t>
+  </si>
+  <si>
+    <t>TwrSSDmp(2)</t>
+  </si>
+  <si>
+    <t>PreCone(1)</t>
+  </si>
+  <si>
+    <t>PreCone(2)</t>
+  </si>
+  <si>
+    <t>PreCone(3)</t>
   </si>
 </sst>
 </file>
@@ -2060,7 +2087,7 @@
     <numFmt numFmtId="170" formatCode="0.0000000000"/>
     <numFmt numFmtId="171" formatCode="0.000000"/>
     <numFmt numFmtId="172" formatCode="0.00000000E+00"/>
-    <numFmt numFmtId="173" formatCode="0.0000000E+00"/>
+    <numFmt numFmtId="173" formatCode="0.00000E+00"/>
   </numFmts>
   <fonts count="35">
     <font>
@@ -2950,7 +2977,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="405">
+  <cellXfs count="407">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3814,10 +3841,14 @@
     <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4455,11 +4486,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="115922816"/>
-        <c:axId val="115941376"/>
+        <c:axId val="160436992"/>
+        <c:axId val="160438912"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="115922816"/>
+        <c:axId val="160436992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -4544,12 +4575,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="115941376"/>
+        <c:crossAx val="160438912"/>
         <c:crossesAt val="-10"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="115941376"/>
+        <c:axId val="160438912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4633,7 +4664,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="115922816"/>
+        <c:crossAx val="160436992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5644,7 +5675,7 @@
   </sheetPr>
   <dimension ref="A1:U157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A118" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C144" sqref="C144:F144"/>
     </sheetView>
   </sheetViews>
@@ -5670,14 +5701,14 @@
       <c r="B1" s="336" t="s">
         <v>398</v>
       </c>
-      <c r="C1" s="397" t="s">
+      <c r="C1" s="399" t="s">
         <v>384</v>
       </c>
-      <c r="D1" s="398"/>
-      <c r="E1" s="398"/>
-      <c r="F1" s="398"/>
-      <c r="G1" s="398"/>
-      <c r="H1" s="399"/>
+      <c r="D1" s="400"/>
+      <c r="E1" s="400"/>
+      <c r="F1" s="400"/>
+      <c r="G1" s="400"/>
+      <c r="H1" s="401"/>
     </row>
     <row r="2" spans="1:8" ht="16.899999999999999" customHeight="1" thickBot="1">
       <c r="A2" s="60" t="s">
@@ -5693,17 +5724,17 @@
       <c r="A3" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="391" t="s">
+      <c r="B3" s="393" t="s">
         <v>119</v>
       </c>
-      <c r="C3" s="392"/>
-      <c r="D3" s="393"/>
+      <c r="C3" s="394"/>
+      <c r="D3" s="395"/>
       <c r="E3" s="35"/>
-      <c r="F3" s="394" t="s">
+      <c r="F3" s="396" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="395"/>
-      <c r="H3" s="396"/>
+      <c r="G3" s="397"/>
+      <c r="H3" s="398"/>
     </row>
     <row r="4" spans="1:8" ht="12" thickBot="1">
       <c r="A4" s="20" t="s">
@@ -5989,11 +6020,11 @@
       <c r="C19" s="329">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D19" s="400" t="s">
+      <c r="D19" s="402" t="s">
         <v>374</v>
       </c>
-      <c r="E19" s="399"/>
-      <c r="F19" s="399"/>
+      <c r="E19" s="401"/>
+      <c r="F19" s="401"/>
     </row>
     <row r="20" spans="1:21" ht="25.5" customHeight="1">
       <c r="A20" s="268" t="s">
@@ -6005,11 +6036,11 @@
       <c r="C20" s="329">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="D20" s="400" t="s">
+      <c r="D20" s="402" t="s">
         <v>373</v>
       </c>
-      <c r="E20" s="399"/>
-      <c r="F20" s="399"/>
+      <c r="E20" s="401"/>
+      <c r="F20" s="401"/>
       <c r="I20" s="35" t="s">
         <v>68</v>
       </c>
@@ -7607,10 +7638,10 @@
       </c>
       <c r="B144" s="341"/>
       <c r="C144" s="342" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="E144" s="347" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="F144" s="348"/>
     </row>
@@ -7658,11 +7689,11 @@
     </row>
     <row r="148" spans="1:7" ht="12" thickBot="1"/>
     <row r="149" spans="1:7" ht="12" thickBot="1">
-      <c r="A149" s="387" t="s">
+      <c r="A149" s="389" t="s">
         <v>401</v>
       </c>
-      <c r="B149" s="389"/>
-      <c r="C149" s="390"/>
+      <c r="B149" s="391"/>
+      <c r="C149" s="392"/>
       <c r="E149" s="347" t="s">
         <v>402</v>
       </c>
@@ -7700,10 +7731,10 @@
     </row>
     <row r="152" spans="1:7" ht="12" thickBot="1"/>
     <row r="153" spans="1:7" ht="12" thickBot="1">
-      <c r="A153" s="387" t="s">
+      <c r="A153" s="389" t="s">
         <v>412</v>
       </c>
-      <c r="B153" s="388"/>
+      <c r="B153" s="390"/>
       <c r="C153" s="361"/>
       <c r="E153" s="347" t="s">
         <v>402</v>
@@ -9567,12 +9598,12 @@
       <c r="A19" s="112"/>
       <c r="B19" s="165"/>
       <c r="C19" s="112"/>
-      <c r="D19" s="404" t="s">
+      <c r="D19" s="406" t="s">
         <v>240</v>
       </c>
-      <c r="E19" s="404"/>
-      <c r="F19" s="404"/>
-      <c r="G19" s="404"/>
+      <c r="E19" s="406"/>
+      <c r="F19" s="406"/>
+      <c r="G19" s="406"/>
       <c r="H19" s="112"/>
       <c r="I19" s="112"/>
       <c r="J19" s="121"/>
@@ -10867,13 +10898,13 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
+        <v>438</v>
+      </c>
+      <c r="B1" t="s">
         <v>439</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>440</v>
-      </c>
-      <c r="C1" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -10881,7 +10912,7 @@
         <v>102</v>
       </c>
       <c r="B3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C3" s="18">
         <f>'Main Page'!B17</f>
@@ -10890,10 +10921,10 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
+        <v>442</v>
+      </c>
+      <c r="B4" t="s">
         <v>443</v>
-      </c>
-      <c r="B4" t="s">
-        <v>444</v>
       </c>
       <c r="C4">
         <v>5.0000000000000001E-3</v>
@@ -10901,10 +10932,10 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
+        <v>444</v>
+      </c>
+      <c r="B5" t="s">
         <v>445</v>
-      </c>
-      <c r="B5" t="s">
-        <v>446</v>
       </c>
       <c r="C5" s="18" t="str">
         <f>'Main Page'!C144</f>
@@ -10925,10 +10956,10 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B6" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C6" s="18">
         <v>15</v>
@@ -10939,25 +10970,25 @@
     </row>
     <row r="7" spans="1:8">
       <c r="B7" t="s">
+        <v>447</v>
+      </c>
+      <c r="C7" t="s">
         <v>448</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>449</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>450</v>
-      </c>
-      <c r="E7" t="s">
-        <v>451</v>
       </c>
       <c r="F7" t="s">
         <v>88</v>
       </c>
       <c r="G7" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H7" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -10982,7 +11013,7 @@
         <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -11007,7 +11038,7 @@
         <v>2</v>
       </c>
       <c r="H9" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -11032,7 +11063,7 @@
         <v>2</v>
       </c>
       <c r="H10" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -11057,7 +11088,7 @@
         <v>2</v>
       </c>
       <c r="H11" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -11082,7 +11113,7 @@
         <v>2</v>
       </c>
       <c r="H12" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -11107,7 +11138,7 @@
         <v>2</v>
       </c>
       <c r="H13" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -11132,7 +11163,7 @@
         <v>2</v>
       </c>
       <c r="H14" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -11157,7 +11188,7 @@
         <v>3</v>
       </c>
       <c r="H15" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -11182,7 +11213,7 @@
         <v>3</v>
       </c>
       <c r="H16" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
     </row>
     <row r="17" spans="3:8">
@@ -11207,7 +11238,7 @@
         <v>3</v>
       </c>
       <c r="H17" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
     </row>
     <row r="18" spans="3:8">
@@ -11232,7 +11263,7 @@
         <v>3</v>
       </c>
       <c r="H18" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
     </row>
     <row r="19" spans="3:8">
@@ -11257,7 +11288,7 @@
         <v>3</v>
       </c>
       <c r="H19" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
     </row>
     <row r="20" spans="3:8">
@@ -11282,7 +11313,7 @@
         <v>3</v>
       </c>
       <c r="H20" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
     </row>
     <row r="21" spans="3:8">
@@ -11307,7 +11338,7 @@
         <v>4</v>
       </c>
       <c r="H21" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
     </row>
     <row r="22" spans="3:8">
@@ -11332,12 +11363,12 @@
         <v>4</v>
       </c>
       <c r="H22" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
     </row>
     <row r="36" spans="2:7">
       <c r="B36" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E36" t="s">
         <v>88</v>
@@ -11590,7 +11621,7 @@
   <dimension ref="A1:Y29"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -11611,13 +11642,13 @@
   <sheetData>
     <row r="1" spans="1:25">
       <c r="A1" t="s">
+        <v>438</v>
+      </c>
+      <c r="B1" t="s">
         <v>439</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>440</v>
-      </c>
-      <c r="C1" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="3" spans="1:25">
@@ -11625,14 +11656,12 @@
         <v>85</v>
       </c>
       <c r="B3" t="s">
-        <v>427</v>
+        <v>512</v>
       </c>
       <c r="C3" s="18">
-        <f>'Main Page'!B13/2</f>
-        <v>49.5</v>
-      </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
+        <f>'Main Page'!A151*100</f>
+        <v>3.8820000000000001</v>
+      </c>
       <c r="F3" s="18"/>
       <c r="G3" s="18"/>
       <c r="H3" s="18"/>
@@ -11660,14 +11689,14 @@
         <v>85</v>
       </c>
       <c r="B4" t="s">
-        <v>428</v>
+        <v>513</v>
       </c>
       <c r="C4" s="18">
-        <f>'Main Page'!B56/2</f>
-        <v>2.4750000000000001</v>
+        <f>'Main Page'!B151*100</f>
+        <v>3.8820000000000001</v>
       </c>
       <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
+      <c r="E4" s="376"/>
       <c r="F4" s="18"/>
       <c r="G4" s="18"/>
       <c r="H4" s="18"/>
@@ -11695,20 +11724,14 @@
         <v>387</v>
       </c>
       <c r="B5" t="s">
-        <v>429</v>
-      </c>
-      <c r="C5" s="18">
-        <f>'Main Page'!A151*100</f>
-        <v>3.8820000000000001</v>
-      </c>
-      <c r="D5" s="18">
-        <f>'Main Page'!B151*100</f>
-        <v>3.8820000000000001</v>
-      </c>
-      <c r="E5" s="376">
+        <v>514</v>
+      </c>
+      <c r="C5" s="376">
         <f>'Main Page'!C151*100</f>
         <v>5.8999999999999995</v>
       </c>
+      <c r="D5" s="18"/>
+      <c r="E5" s="376"/>
       <c r="F5" s="18"/>
       <c r="G5" s="18"/>
       <c r="H5" s="18"/>
@@ -11733,31 +11756,31 @@
     </row>
     <row r="6" spans="1:25">
       <c r="B6" t="s">
+        <v>429</v>
+      </c>
+      <c r="C6" s="377" t="s">
         <v>430</v>
       </c>
-      <c r="C6" s="377" t="s">
+      <c r="D6" s="377" t="s">
         <v>431</v>
       </c>
-      <c r="D6" s="377" t="s">
+      <c r="E6" s="377" t="s">
         <v>432</v>
       </c>
-      <c r="E6" s="377" t="s">
+      <c r="F6" s="377" t="s">
         <v>433</v>
       </c>
-      <c r="F6" s="377" t="s">
+      <c r="G6" s="377" t="s">
         <v>434</v>
       </c>
-      <c r="G6" s="377" t="s">
+      <c r="H6" s="377" t="s">
         <v>435</v>
       </c>
-      <c r="H6" s="377" t="s">
+      <c r="I6" s="377" t="s">
         <v>436</v>
       </c>
-      <c r="I6" s="377" t="s">
+      <c r="J6" s="377" t="s">
         <v>437</v>
-      </c>
-      <c r="J6" s="377" t="s">
-        <v>438</v>
       </c>
       <c r="K6" s="377"/>
       <c r="L6" s="377"/>
@@ -11781,11 +11804,11 @@
         <f>GECbladedata!$C28</f>
         <v>0</v>
       </c>
-      <c r="D7" s="384">
+      <c r="D7" s="385">
         <f>0.25+GECbladedata!$Q28/GECbladedata!$P28</f>
         <v>0.25</v>
       </c>
-      <c r="E7" s="384">
+      <c r="E7" s="385">
         <f>GECbladedata!$K28</f>
         <v>11.1</v>
       </c>
@@ -11797,15 +11820,15 @@
         <f>GECbladedata!$O28</f>
         <v>25915847780.81815</v>
       </c>
-      <c r="H7" s="385">
+      <c r="H7" s="387">
         <f>GECbladedata!$N28</f>
         <v>25915847780.81815</v>
       </c>
-      <c r="I7" s="385">
+      <c r="I7" s="387">
         <f>GECbladedata!$L28</f>
         <v>8966505090.0080204</v>
       </c>
-      <c r="J7" s="385">
+      <c r="J7" s="387">
         <f>GECbladedata!$M28</f>
         <v>28944438488.483387</v>
       </c>
@@ -11828,11 +11851,11 @@
         <f>GECbladedata!$C29</f>
         <v>2.1052631578947371E-2</v>
       </c>
-      <c r="D8" s="384">
+      <c r="D8" s="385">
         <f>0.25+GECbladedata!$Q29/GECbladedata!$P29</f>
         <v>0.25</v>
       </c>
-      <c r="E8" s="384">
+      <c r="E8" s="385">
         <f>GECbladedata!$K29</f>
         <v>11.1</v>
       </c>
@@ -11844,15 +11867,15 @@
         <f>GECbladedata!$O29</f>
         <v>4995749732.6391211</v>
       </c>
-      <c r="H8" s="385">
+      <c r="H8" s="387">
         <f>GECbladedata!$N29</f>
         <v>4995749732.6391211</v>
       </c>
-      <c r="I8" s="385">
+      <c r="I8" s="387">
         <f>GECbladedata!$L29</f>
         <v>1745703465.4624267</v>
       </c>
-      <c r="J8" s="385">
+      <c r="J8" s="387">
         <f>GECbladedata!$M29</f>
         <v>5635228554.6241884</v>
       </c>
@@ -11875,11 +11898,11 @@
         <f>GECbladedata!$C30</f>
         <v>5.2631578947368411E-2</v>
       </c>
-      <c r="D9" s="384">
+      <c r="D9" s="385">
         <f>0.25+GECbladedata!$Q30/GECbladedata!$P30</f>
         <v>0.22942796069703819</v>
       </c>
-      <c r="E9" s="384">
+      <c r="E9" s="385">
         <f>GECbladedata!$K30</f>
         <v>11.1</v>
       </c>
@@ -11891,15 +11914,15 @@
         <f>GECbladedata!$O30</f>
         <v>4405826168.0194216</v>
       </c>
-      <c r="H9" s="385">
+      <c r="H9" s="387">
         <f>GECbladedata!$N30</f>
         <v>4814154924.7073679</v>
       </c>
-      <c r="I9" s="385">
+      <c r="I9" s="387">
         <f>GECbladedata!$L30</f>
         <v>1465305103.3411148</v>
       </c>
-      <c r="J9" s="385">
+      <c r="J9" s="387">
         <f>GECbladedata!$M30</f>
         <v>5585653441.6502266</v>
       </c>
@@ -11922,11 +11945,11 @@
         <f>GECbladedata!$C31</f>
         <v>0.10526315789473684</v>
       </c>
-      <c r="D10" s="384">
+      <c r="D10" s="385">
         <f>0.25+GECbladedata!$Q31/GECbladedata!$P31</f>
         <v>0.20118558099730738</v>
       </c>
-      <c r="E10" s="384">
+      <c r="E10" s="385">
         <f>GECbladedata!$K31</f>
         <v>11.1</v>
       </c>
@@ -11938,15 +11961,15 @@
         <f>GECbladedata!$O31</f>
         <v>3422620226.9865899</v>
       </c>
-      <c r="H10" s="385">
+      <c r="H10" s="387">
         <f>GECbladedata!$N31</f>
         <v>4511496911.4877796</v>
       </c>
-      <c r="I10" s="385">
+      <c r="I10" s="387">
         <f>GECbladedata!$L31</f>
         <v>997974499.80559528</v>
       </c>
-      <c r="J10" s="385">
+      <c r="J10" s="387">
         <f>GECbladedata!$M31</f>
         <v>5503028253.3602915</v>
       </c>
@@ -11969,11 +11992,11 @@
         <f>GECbladedata!$C32</f>
         <v>0.15789473684210525</v>
       </c>
-      <c r="D11" s="384">
+      <c r="D11" s="385">
         <f>0.25+GECbladedata!$Q32/GECbladedata!$P32</f>
         <v>0.17854905158859785</v>
       </c>
-      <c r="E11" s="384">
+      <c r="E11" s="385">
         <f>GECbladedata!$K32</f>
         <v>11.1</v>
       </c>
@@ -11985,15 +12008,15 @@
         <f>GECbladedata!$O32</f>
         <v>2439414285.9537573</v>
       </c>
-      <c r="H11" s="385">
+      <c r="H11" s="387">
         <f>GECbladedata!$N32</f>
         <v>4208838898.2681913</v>
       </c>
-      <c r="I11" s="385">
+      <c r="I11" s="387">
         <f>GECbladedata!$L32</f>
         <v>530643896.27007532</v>
       </c>
-      <c r="J11" s="385">
+      <c r="J11" s="387">
         <f>GECbladedata!$M32</f>
         <v>5420403065.0703554</v>
       </c>
@@ -12016,11 +12039,11 @@
         <f>GECbladedata!$C33</f>
         <v>0.21052631578947367</v>
       </c>
-      <c r="D12" s="384">
+      <c r="D12" s="385">
         <f>0.25+GECbladedata!$Q33/GECbladedata!$P33</f>
         <v>0.15999999999999998</v>
       </c>
-      <c r="E12" s="384">
+      <c r="E12" s="385">
         <f>GECbladedata!$K33</f>
         <v>11.1</v>
       </c>
@@ -12032,15 +12055,15 @@
         <f>GECbladedata!$O33</f>
         <v>1456208344.9209256</v>
       </c>
-      <c r="H12" s="385">
+      <c r="H12" s="387">
         <f>GECbladedata!$N33</f>
         <v>3906180885.0486031</v>
       </c>
-      <c r="I12" s="385">
+      <c r="I12" s="387">
         <f>GECbladedata!$L33</f>
         <v>63313292.734555714</v>
       </c>
-      <c r="J12" s="385">
+      <c r="J12" s="387">
         <f>GECbladedata!$M33</f>
         <v>5337777876.7804203</v>
       </c>
@@ -12063,11 +12086,11 @@
         <f>GECbladedata!$C34</f>
         <v>0.26315789473684209</v>
       </c>
-      <c r="D13" s="384">
+      <c r="D13" s="385">
         <f>0.25+GECbladedata!$Q34/GECbladedata!$P34</f>
         <v>0.16482547969536315</v>
       </c>
-      <c r="E13" s="384">
+      <c r="E13" s="385">
         <f>GECbladedata!$K34</f>
         <v>9.5</v>
       </c>
@@ -12079,15 +12102,15 @@
         <f>GECbladedata!$O34</f>
         <v>1237438519.441153</v>
       </c>
-      <c r="H13" s="385">
+      <c r="H13" s="387">
         <f>GECbladedata!$N34</f>
         <v>3322546069.2504792</v>
       </c>
-      <c r="I13" s="385">
+      <c r="I13" s="387">
         <f>GECbladedata!$L34</f>
         <v>55746990.667117193</v>
       </c>
-      <c r="J13" s="385">
+      <c r="J13" s="387">
         <f>GECbladedata!$M34</f>
         <v>5115435115.2485218</v>
       </c>
@@ -12097,11 +12120,11 @@
         <f>GECbladedata!$C35</f>
         <v>0.31578947368421051</v>
       </c>
-      <c r="D14" s="384">
+      <c r="D14" s="385">
         <f>0.25+GECbladedata!$Q35/GECbladedata!$P35</f>
         <v>0.17014756440910567</v>
       </c>
-      <c r="E14" s="384">
+      <c r="E14" s="385">
         <f>GECbladedata!$K35</f>
         <v>7.9</v>
       </c>
@@ -12113,15 +12136,15 @@
         <f>GECbladedata!$O35</f>
         <v>1018668693.9613804</v>
       </c>
-      <c r="H14" s="385">
+      <c r="H14" s="387">
         <f>GECbladedata!$N35</f>
         <v>2738911253.4523554</v>
       </c>
-      <c r="I14" s="385">
+      <c r="I14" s="387">
         <f>GECbladedata!$L35</f>
         <v>48180688.599678665</v>
       </c>
-      <c r="J14" s="385">
+      <c r="J14" s="387">
         <f>GECbladedata!$M35</f>
         <v>4893092353.7166243</v>
       </c>
@@ -12131,11 +12154,11 @@
         <f>GECbladedata!$C36</f>
         <v>0.36842105263157893</v>
       </c>
-      <c r="D15" s="384">
+      <c r="D15" s="385">
         <f>0.25+GECbladedata!$Q36/GECbladedata!$P36</f>
         <v>0.17604707356362986</v>
       </c>
-      <c r="E15" s="384">
+      <c r="E15" s="385">
         <f>GECbladedata!$K36</f>
         <v>6.2999999999999989</v>
       </c>
@@ -12147,15 +12170,15 @@
         <f>GECbladedata!$O36</f>
         <v>799898868.48160756</v>
       </c>
-      <c r="H15" s="385">
+      <c r="H15" s="387">
         <f>GECbladedata!$N36</f>
         <v>2155276437.6542311</v>
       </c>
-      <c r="I15" s="385">
+      <c r="I15" s="387">
         <f>GECbladedata!$L36</f>
         <v>40614386.532240137</v>
       </c>
-      <c r="J15" s="385">
+      <c r="J15" s="387">
         <f>GECbladedata!$M36</f>
         <v>4670749592.1847258</v>
       </c>
@@ -12165,11 +12188,11 @@
         <f>GECbladedata!$C37</f>
         <v>0.42105263157894735</v>
       </c>
-      <c r="D16" s="384">
+      <c r="D16" s="385">
         <f>0.25+GECbladedata!$Q37/GECbladedata!$P37</f>
         <v>0.18262336965950132</v>
       </c>
-      <c r="E16" s="384">
+      <c r="E16" s="385">
         <f>GECbladedata!$K37</f>
         <v>4.6999999999999993</v>
       </c>
@@ -12181,15 +12204,15 @@
         <f>GECbladedata!$O37</f>
         <v>581129043.00183487</v>
       </c>
-      <c r="H16" s="385">
+      <c r="H16" s="387">
         <f>GECbladedata!$N37</f>
         <v>1571641621.8561077</v>
       </c>
-      <c r="I16" s="385">
+      <c r="I16" s="387">
         <f>GECbladedata!$L37</f>
         <v>33048084.464801613</v>
       </c>
-      <c r="J16" s="385">
+      <c r="J16" s="387">
         <f>GECbladedata!$M37</f>
         <v>4448406830.6528273</v>
       </c>
@@ -12199,11 +12222,11 @@
         <f>GECbladedata!$C38</f>
         <v>0.47368421052631576</v>
       </c>
-      <c r="D17" s="384">
+      <c r="D17" s="385">
         <f>0.25+GECbladedata!$Q38/GECbladedata!$P38</f>
         <v>0.19</v>
       </c>
-      <c r="E17" s="384">
+      <c r="E17" s="385">
         <f>GECbladedata!$K38</f>
         <v>3.1</v>
       </c>
@@ -12215,15 +12238,15 @@
         <f>GECbladedata!$O38</f>
         <v>362359217.52206236</v>
       </c>
-      <c r="H17" s="385">
+      <c r="H17" s="387">
         <f>GECbladedata!$N38</f>
         <v>988006806.05798388</v>
       </c>
-      <c r="I17" s="385">
+      <c r="I17" s="387">
         <f>GECbladedata!$L38</f>
         <v>25481782.397363089</v>
       </c>
-      <c r="J17" s="385">
+      <c r="J17" s="387">
         <f>GECbladedata!$M38</f>
         <v>4226064069.1209292</v>
       </c>
@@ -12233,11 +12256,11 @@
         <f>GECbladedata!$C39</f>
         <v>0.52631578947368418</v>
       </c>
-      <c r="D18" s="384">
+      <c r="D18" s="385">
         <f>0.25+GECbladedata!$Q39/GECbladedata!$P39</f>
         <v>0.19444497888942333</v>
       </c>
-      <c r="E18" s="384">
+      <c r="E18" s="385">
         <f>GECbladedata!$K39</f>
         <v>2.5999999999999996</v>
       </c>
@@ -12249,15 +12272,15 @@
         <f>GECbladedata!$O39</f>
         <v>301062716.42475706</v>
       </c>
-      <c r="H18" s="385">
+      <c r="H18" s="387">
         <f>GECbladedata!$N39</f>
         <v>838972045.18727791</v>
       </c>
-      <c r="I18" s="385">
+      <c r="I18" s="387">
         <f>GECbladedata!$L39</f>
         <v>21407116.991112508</v>
       </c>
-      <c r="J18" s="385">
+      <c r="J18" s="387">
         <f>GECbladedata!$M39</f>
         <v>3737366167.8227329</v>
       </c>
@@ -12267,11 +12290,11 @@
         <f>GECbladedata!$C40</f>
         <v>0.57894736842105254</v>
       </c>
-      <c r="D19" s="384">
+      <c r="D19" s="385">
         <f>0.25+GECbladedata!$Q40/GECbladedata!$P40</f>
         <v>0.19950586711368484</v>
       </c>
-      <c r="E19" s="384">
+      <c r="E19" s="385">
         <f>GECbladedata!$K40</f>
         <v>2.1000000000000005</v>
       </c>
@@ -12283,15 +12306,15 @@
         <f>GECbladedata!$O40</f>
         <v>239766215.32745194</v>
       </c>
-      <c r="H19" s="385">
+      <c r="H19" s="387">
         <f>GECbladedata!$N40</f>
         <v>689937284.31657219</v>
       </c>
-      <c r="I19" s="385">
+      <c r="I19" s="387">
         <f>GECbladedata!$L40</f>
         <v>17332451.584861934</v>
       </c>
-      <c r="J19" s="385">
+      <c r="J19" s="387">
         <f>GECbladedata!$M40</f>
         <v>3248668266.524538</v>
       </c>
@@ -12302,11 +12325,11 @@
         <f>GECbladedata!$C41</f>
         <v>0.63157894736842102</v>
       </c>
-      <c r="D20" s="384">
+      <c r="D20" s="385">
         <f>0.25+GECbladedata!$Q41/GECbladedata!$P41</f>
         <v>0.20532020712662968</v>
       </c>
-      <c r="E20" s="384">
+      <c r="E20" s="385">
         <f>GECbladedata!$K41</f>
         <v>1.5999999999999999</v>
       </c>
@@ -12318,15 +12341,15 @@
         <f>GECbladedata!$O41</f>
         <v>178469714.23014665</v>
       </c>
-      <c r="H20" s="385">
+      <c r="H20" s="387">
         <f>GECbladedata!$N41</f>
         <v>540902523.44586635</v>
       </c>
-      <c r="I20" s="385">
+      <c r="I20" s="387">
         <f>GECbladedata!$L41</f>
         <v>13257786.178611353</v>
       </c>
-      <c r="J20" s="385">
+      <c r="J20" s="387">
         <f>GECbladedata!$M41</f>
         <v>2759970365.2263422</v>
       </c>
@@ -12337,11 +12360,11 @@
         <f>GECbladedata!$C42</f>
         <v>0.68421052631578938</v>
       </c>
-      <c r="D21" s="384">
+      <c r="D21" s="385">
         <f>0.25+GECbladedata!$Q42/GECbladedata!$P42</f>
         <v>0.21206978904073237</v>
       </c>
-      <c r="E21" s="384">
+      <c r="E21" s="385">
         <f>GECbladedata!$K42</f>
         <v>1.1000000000000005</v>
       </c>
@@ -12353,15 +12376,15 @@
         <f>GECbladedata!$O42</f>
         <v>117173213.1328415</v>
       </c>
-      <c r="H21" s="385">
+      <c r="H21" s="387">
         <f>GECbladedata!$N42</f>
         <v>391867762.57516062</v>
       </c>
-      <c r="I21" s="385">
+      <c r="I21" s="387">
         <f>GECbladedata!$L42</f>
         <v>9183120.7723607793</v>
       </c>
-      <c r="J21" s="385">
+      <c r="J21" s="387">
         <f>GECbladedata!$M42</f>
         <v>2271272463.9281473</v>
       </c>
@@ -12371,11 +12394,11 @@
         <f>GECbladedata!$C43</f>
         <v>0.73684210526315785</v>
       </c>
-      <c r="D22" s="384">
+      <c r="D22" s="385">
         <f>0.25+GECbladedata!$Q43/GECbladedata!$P43</f>
         <v>0.21999999999999997</v>
       </c>
-      <c r="E22" s="384">
+      <c r="E22" s="385">
         <f>GECbladedata!$K43</f>
         <v>0.6</v>
       </c>
@@ -12387,15 +12410,15 @@
         <f>GECbladedata!$O43</f>
         <v>55876712.03553623</v>
       </c>
-      <c r="H22" s="385">
+      <c r="H22" s="387">
         <f>GECbladedata!$N43</f>
         <v>242833001.70445472</v>
       </c>
-      <c r="I22" s="385">
+      <c r="I22" s="387">
         <f>GECbladedata!$L43</f>
         <v>5108455.3661101973</v>
       </c>
-      <c r="J22" s="385">
+      <c r="J22" s="387">
         <f>GECbladedata!$M43</f>
         <v>1782574562.629951</v>
       </c>
@@ -12418,11 +12441,11 @@
         <f>GECbladedata!$C44</f>
         <v>0.78947368421052622</v>
       </c>
-      <c r="D23" s="384">
+      <c r="D23" s="385">
         <f>0.25+GECbladedata!$Q44/GECbladedata!$P44</f>
         <v>0.22394967634161619</v>
       </c>
-      <c r="E23" s="384">
+      <c r="E23" s="385">
         <f>GECbladedata!$K44</f>
         <v>0.47999999999999987</v>
       </c>
@@ -12434,15 +12457,15 @@
         <f>GECbladedata!$O44</f>
         <v>44839759.888547704</v>
       </c>
-      <c r="H23" s="385">
+      <c r="H23" s="387">
         <f>GECbladedata!$N44</f>
         <v>199004345.945301</v>
       </c>
-      <c r="I23" s="385">
+      <c r="I23" s="387">
         <f>GECbladedata!$L44</f>
         <v>4195517.6643379992</v>
       </c>
-      <c r="J23" s="385">
+      <c r="J23" s="387">
         <f>GECbladedata!$M44</f>
         <v>1461230658.9921355</v>
       </c>
@@ -12452,11 +12475,11 @@
         <f>GECbladedata!$C45</f>
         <v>0.84210526315789458</v>
       </c>
-      <c r="D24" s="384">
+      <c r="D24" s="385">
         <f>0.25+GECbladedata!$Q45/GECbladedata!$P45</f>
         <v>0.22863723279773965</v>
       </c>
-      <c r="E24" s="384">
+      <c r="E24" s="385">
         <f>GECbladedata!$K45</f>
         <v>0.36000000000000004</v>
       </c>
@@ -12468,15 +12491,15 @@
         <f>GECbladedata!$O45</f>
         <v>33802807.741559193</v>
       </c>
-      <c r="H24" s="385">
+      <c r="H24" s="387">
         <f>GECbladedata!$N45</f>
         <v>155175690.18614733</v>
       </c>
-      <c r="I24" s="385">
+      <c r="I24" s="387">
         <f>GECbladedata!$L45</f>
         <v>3282579.962565803</v>
       </c>
-      <c r="J24" s="385">
+      <c r="J24" s="387">
         <f>GECbladedata!$M45</f>
         <v>1139886755.354321</v>
       </c>
@@ -12486,11 +12509,11 @@
         <f>GECbladedata!$C46</f>
         <v>0.89473684210526305</v>
       </c>
-      <c r="D25" s="384">
+      <c r="D25" s="385">
         <f>0.25+GECbladedata!$Q46/GECbladedata!$P46</f>
         <v>0.23429075111754705</v>
       </c>
-      <c r="E25" s="384">
+      <c r="E25" s="385">
         <f>GECbladedata!$K46</f>
         <v>0.23999999999999994</v>
       </c>
@@ -12502,15 +12525,15 @@
         <f>GECbladedata!$O46</f>
         <v>22765855.594570663</v>
       </c>
-      <c r="H25" s="385">
+      <c r="H25" s="387">
         <f>GECbladedata!$N46</f>
         <v>111347034.42699362</v>
       </c>
-      <c r="I25" s="385">
+      <c r="I25" s="387">
         <f>GECbladedata!$L46</f>
         <v>2369642.2607936049</v>
       </c>
-      <c r="J25" s="385">
+      <c r="J25" s="387">
         <f>GECbladedata!$M46</f>
         <v>818542851.71650553</v>
       </c>
@@ -12520,11 +12543,11 @@
         <f>GECbladedata!$C47</f>
         <v>0.94736842105263142</v>
       </c>
-      <c r="D26" s="384">
+      <c r="D26" s="385">
         <f>0.25+GECbladedata!$Q47/GECbladedata!$P47</f>
         <v>0.24124311234338258</v>
       </c>
-      <c r="E26" s="384">
+      <c r="E26" s="385">
         <f>GECbladedata!$K47</f>
         <v>0.12000000000000011</v>
       </c>
@@ -12536,15 +12559,15 @@
         <f>GECbladedata!$O47</f>
         <v>11728903.447582163</v>
       </c>
-      <c r="H26" s="385">
+      <c r="H26" s="387">
         <f>GECbladedata!$N47</f>
         <v>67518378.667839974</v>
       </c>
-      <c r="I26" s="385">
+      <c r="I26" s="387">
         <f>GECbladedata!$L47</f>
         <v>1456704.5590214087</v>
       </c>
-      <c r="J26" s="385">
+      <c r="J26" s="387">
         <f>GECbladedata!$M47</f>
         <v>497198948.07869101</v>
       </c>
@@ -12554,11 +12577,11 @@
         <f>GECbladedata!$C48</f>
         <v>0.99999999999999989</v>
       </c>
-      <c r="D27" s="384">
+      <c r="D27" s="385">
         <f>0.25+GECbladedata!$Q48/GECbladedata!$P48</f>
         <v>0.25</v>
       </c>
-      <c r="E27" s="384">
+      <c r="E27" s="385">
         <f>GECbladedata!$K48</f>
         <v>0</v>
       </c>
@@ -12570,15 +12593,15 @@
         <f>GECbladedata!$O48</f>
         <v>691951.30059363274</v>
       </c>
-      <c r="H27" s="385">
+      <c r="H27" s="387">
         <f>GECbladedata!$N48</f>
         <v>23689722.908686247</v>
       </c>
-      <c r="I27" s="385">
+      <c r="I27" s="387">
         <f>GECbladedata!$L48</f>
         <v>543766.85724921024</v>
       </c>
-      <c r="J27" s="385">
+      <c r="J27" s="387">
         <f>GECbladedata!$M48</f>
         <v>175855044.44087556</v>
       </c>
@@ -12593,10 +12616,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:N22"/>
+  <dimension ref="A2:N24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -12608,13 +12631,13 @@
   <sheetData>
     <row r="2" spans="1:14">
       <c r="A2" t="s">
+        <v>438</v>
+      </c>
+      <c r="B2" t="s">
         <v>439</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>440</v>
-      </c>
-      <c r="C2" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -12628,7 +12651,7 @@
         <v>391</v>
       </c>
       <c r="B4" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C4" s="101">
         <f>'Main Page'!B87</f>
@@ -12641,10 +12664,10 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="B5" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="C5" s="381">
         <f>'Main Page'!$B$31</f>
@@ -12654,10 +12677,10 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="B6" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="C6" s="379">
         <f>'Main Page'!B43</f>
@@ -12667,10 +12690,10 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B7" t="s">
-        <v>490</v>
+        <v>515</v>
       </c>
       <c r="C7" s="379">
         <v>2.6</v>
@@ -12679,182 +12702,206 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" t="s">
+        <v>459</v>
+      </c>
+      <c r="B8" t="s">
+        <v>516</v>
+      </c>
+      <c r="C8" s="379">
+        <v>2.6</v>
+      </c>
+      <c r="K8" s="380"/>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" t="s">
+        <v>459</v>
+      </c>
+      <c r="B9" t="s">
+        <v>517</v>
+      </c>
+      <c r="C9" s="379">
+        <v>2.6</v>
+      </c>
+      <c r="K9" s="380"/>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" t="s">
         <v>391</v>
       </c>
-      <c r="B8" t="s">
-        <v>491</v>
-      </c>
-      <c r="C8">
+      <c r="B10" t="s">
+        <v>487</v>
+      </c>
+      <c r="C10">
         <f>'Main Page'!$B$29</f>
         <v>14.468631190172303</v>
       </c>
-      <c r="G8" t="s">
-        <v>492</v>
-      </c>
-      <c r="K8" s="380"/>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9" t="s">
-        <v>460</v>
-      </c>
-      <c r="B9" t="s">
-        <v>493</v>
-      </c>
-      <c r="C9" s="102">
+      <c r="G10" t="s">
+        <v>488</v>
+      </c>
+      <c r="K10" s="380"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" t="s">
+        <v>459</v>
+      </c>
+      <c r="B11" t="s">
+        <v>489</v>
+      </c>
+      <c r="C11" s="102">
         <f>'Main Page'!$B$34</f>
         <v>2.6</v>
       </c>
-      <c r="G9" t="s">
-        <v>494</v>
-      </c>
-      <c r="K9" s="380"/>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10" t="s">
-        <v>460</v>
-      </c>
-      <c r="B10" t="s">
-        <v>495</v>
-      </c>
-      <c r="C10" s="102">
+      <c r="G11" t="s">
+        <v>490</v>
+      </c>
+      <c r="K11" s="380"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" t="s">
+        <v>459</v>
+      </c>
+      <c r="B12" t="s">
+        <v>491</v>
+      </c>
+      <c r="C12" s="102">
         <f>'Main Page'!$B$35</f>
         <v>90</v>
       </c>
-      <c r="G10" t="s">
-        <v>496</v>
-      </c>
-      <c r="K10" s="380"/>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="A11" t="s">
-        <v>443</v>
-      </c>
-      <c r="B11" t="s">
-        <v>497</v>
-      </c>
-      <c r="C11">
+      <c r="G12" t="s">
+        <v>492</v>
+      </c>
+      <c r="K12" s="380"/>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" t="s">
+        <v>442</v>
+      </c>
+      <c r="B13" t="s">
+        <v>493</v>
+      </c>
+      <c r="C13">
         <f>'Main Page'!$B$40</f>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="G11" t="s">
-        <v>498</v>
-      </c>
-      <c r="K11" s="380"/>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="A12" t="s">
-        <v>499</v>
-      </c>
-      <c r="B12" t="s">
-        <v>500</v>
-      </c>
-      <c r="C12">
+      <c r="G13" t="s">
+        <v>494</v>
+      </c>
+      <c r="K13" s="380"/>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" t="s">
+        <v>495</v>
+      </c>
+      <c r="B14" t="s">
+        <v>496</v>
+      </c>
+      <c r="C14">
         <f>'Main Page'!$B$37*PI()/180</f>
         <v>4.5378560551852569E-2</v>
       </c>
-      <c r="G12" t="s">
-        <v>501</v>
-      </c>
-      <c r="K12" s="380"/>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="A13" t="s">
-        <v>499</v>
-      </c>
-      <c r="B13" t="s">
-        <v>502</v>
-      </c>
-      <c r="C13">
+      <c r="G14" t="s">
+        <v>497</v>
+      </c>
+      <c r="K14" s="380"/>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" t="s">
+        <v>495</v>
+      </c>
+      <c r="B15" t="s">
+        <v>498</v>
+      </c>
+      <c r="C15">
         <f>'Main Page'!$B$38*PI()/180</f>
         <v>0.52359877559829882</v>
       </c>
-      <c r="G13" t="s">
-        <v>503</v>
-      </c>
-      <c r="K13" s="380"/>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="A14" t="s">
-        <v>445</v>
-      </c>
-      <c r="B14" t="s">
-        <v>504</v>
-      </c>
-      <c r="C14">
-        <f>1/C12^C15</f>
+      <c r="G15" t="s">
+        <v>499</v>
+      </c>
+      <c r="K15" s="380"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" t="s">
+        <v>444</v>
+      </c>
+      <c r="B16" t="s">
+        <v>500</v>
+      </c>
+      <c r="C16">
+        <f>1/C14^C17</f>
         <v>0.21302244142778143</v>
       </c>
-      <c r="G14" t="s">
-        <v>505</v>
-      </c>
-      <c r="K14" s="380"/>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="A15" t="s">
-        <v>445</v>
-      </c>
-      <c r="B15" t="s">
-        <v>506</v>
-      </c>
-      <c r="C15">
+      <c r="G16" t="s">
+        <v>501</v>
+      </c>
+      <c r="K16" s="380"/>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" t="s">
+        <v>444</v>
+      </c>
+      <c r="B17" t="s">
+        <v>502</v>
+      </c>
+      <c r="C17">
         <f>'Main Page'!$B$39</f>
         <v>-0.5</v>
       </c>
-      <c r="G15" t="s">
-        <v>507</v>
-      </c>
-      <c r="K15" s="380"/>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="B16" t="s">
-        <v>508</v>
-      </c>
-      <c r="C16" s="101">
+      <c r="G17" t="s">
+        <v>503</v>
+      </c>
+      <c r="K17" s="380"/>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="B18" t="s">
+        <v>504</v>
+      </c>
+      <c r="C18" s="101">
         <f>(4*'Main Page'!$B$29/30*PI())^2</f>
         <v>36.730945821854903</v>
       </c>
-      <c r="D16" s="101">
-        <v>0</v>
-      </c>
-      <c r="E16" s="101">
-        <v>0</v>
-      </c>
-      <c r="G16" t="s">
-        <v>509</v>
-      </c>
-      <c r="K16" s="380"/>
-    </row>
-    <row r="17" spans="2:11">
-      <c r="B17" t="s">
-        <v>510</v>
-      </c>
-      <c r="C17" s="101">
+      <c r="D18" s="101">
+        <v>0</v>
+      </c>
+      <c r="E18" s="101">
+        <v>0</v>
+      </c>
+      <c r="G18" t="s">
+        <v>505</v>
+      </c>
+      <c r="K18" s="380"/>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="B19" t="s">
+        <v>506</v>
+      </c>
+      <c r="C19" s="101">
         <f>(4*'Main Page'!$B$29/30*PI())^2</f>
         <v>36.730945821854903</v>
       </c>
-      <c r="D17" s="101">
+      <c r="D19" s="101">
         <f>2*0.8*(4*'Main Page'!$B$29/30*PI())</f>
         <v>9.6969696969696955</v>
       </c>
-      <c r="E17" s="101">
+      <c r="E19" s="101">
         <v>1</v>
       </c>
-      <c r="G17" t="s">
-        <v>511</v>
-      </c>
-      <c r="K17" s="102"/>
-    </row>
-    <row r="19" spans="2:11">
-      <c r="K19" s="381"/>
-    </row>
-    <row r="20" spans="2:11">
-      <c r="K20" s="102"/>
-    </row>
-    <row r="21" spans="2:11">
-      <c r="K21" s="102"/>
-    </row>
-    <row r="22" spans="2:11">
+      <c r="G19" t="s">
+        <v>507</v>
+      </c>
+      <c r="K19" s="102"/>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="K21" s="381"/>
+    </row>
+    <row r="22" spans="1:11">
       <c r="K22" s="102"/>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="K23" s="102"/>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="K24" s="102"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12863,10 +12910,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -12879,13 +12926,13 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" t="s">
+        <v>438</v>
+      </c>
+      <c r="B1" t="s">
         <v>439</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>440</v>
-      </c>
-      <c r="C1" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -12893,7 +12940,7 @@
         <v>85</v>
       </c>
       <c r="B3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C3" s="381">
         <f>'Main Page'!B61</f>
@@ -12905,10 +12952,10 @@
         <v>85</v>
       </c>
       <c r="B4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C4" s="381">
-        <f>('Main Page'!B5*'Main Page'!E5+'Main Page'!B6*'Main Page'!E6+'Main Page'!B7*'Main Page'!E7)/C11</f>
+        <f>('Main Page'!B5*'Main Page'!E5+'Main Page'!B6*'Main Page'!E6+'Main Page'!B7*'Main Page'!E7)/C13</f>
         <v>-0.22569690025426056</v>
       </c>
       <c r="I4" s="102"/>
@@ -12918,10 +12965,10 @@
         <v>85</v>
       </c>
       <c r="B5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C5" s="381">
-        <f>('Main Page'!C5*'Main Page'!E5+'Main Page'!C6*'Main Page'!E6+'Main Page'!C7*'Main Page'!E7)/C11</f>
+        <f>('Main Page'!C5*'Main Page'!E5+'Main Page'!C6*'Main Page'!E6+'Main Page'!C7*'Main Page'!E7)/C13</f>
         <v>0</v>
       </c>
     </row>
@@ -12930,10 +12977,10 @@
         <v>85</v>
       </c>
       <c r="B6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C6" s="381">
-        <f>('Main Page'!D5*'Main Page'!E5+'Main Page'!D6*'Main Page'!E6+'Main Page'!D7*'Main Page'!E7)/C11+'Main Page'!B46</f>
+        <f>('Main Page'!D5*'Main Page'!E5+'Main Page'!D6*'Main Page'!E6+'Main Page'!D7*'Main Page'!E7)/C13+'Main Page'!B46</f>
         <v>1.86090852211677</v>
       </c>
       <c r="I6" s="103"/>
@@ -12945,7 +12992,7 @@
         <v>85</v>
       </c>
       <c r="B7" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C7" s="381">
         <f>'Main Page'!B9-'Main Page'!B46</f>
@@ -12960,7 +13007,7 @@
         <v>85</v>
       </c>
       <c r="B8" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C8" s="381">
         <f>'Main Page'!B46</f>
@@ -12972,10 +13019,10 @@
     </row>
     <row r="9" spans="1:13">
       <c r="A9" t="s">
+        <v>459</v>
+      </c>
+      <c r="B9" t="s">
         <v>460</v>
-      </c>
-      <c r="B9" t="s">
-        <v>461</v>
       </c>
       <c r="C9" s="381">
         <f>-'Main Page'!B11</f>
@@ -12985,154 +13032,200 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B10" t="s">
-        <v>462</v>
+        <v>522</v>
       </c>
       <c r="C10" s="381">
         <f>-'Main Page'!B18</f>
         <v>0</v>
       </c>
       <c r="I10" s="103"/>
-      <c r="M10" s="371"/>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" t="s">
+        <v>459</v>
+      </c>
+      <c r="B11" t="s">
+        <v>523</v>
+      </c>
+      <c r="C11" s="381">
+        <f>-'Main Page'!B18</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="103"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" t="s">
+        <v>459</v>
+      </c>
+      <c r="B12" t="s">
+        <v>524</v>
+      </c>
+      <c r="C12" s="381">
+        <f>-'Main Page'!B18</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="103"/>
+      <c r="M12" s="371"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" t="s">
         <v>117</v>
       </c>
-      <c r="B11" t="s">
-        <v>463</v>
-      </c>
-      <c r="C11" s="381">
+      <c r="B13" t="s">
+        <v>461</v>
+      </c>
+      <c r="C13" s="381">
         <f>SUM('Main Page'!E5+'Main Page'!E6+'Main Page'!E7)</f>
         <v>132597.74759930788</v>
       </c>
-      <c r="I11" s="103"/>
-      <c r="M11" s="371"/>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" t="s">
+      <c r="I13" s="103"/>
+      <c r="M13" s="371"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" t="s">
         <v>117</v>
       </c>
-      <c r="B12" t="s">
-        <v>464</v>
-      </c>
-      <c r="C12" s="381">
+      <c r="B14" t="s">
+        <v>462</v>
+      </c>
+      <c r="C14" s="381">
         <f>'Main Page'!E8</f>
         <v>61670.62692812828</v>
       </c>
-      <c r="I12" s="103"/>
-      <c r="M12" s="371"/>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" t="s">
-        <v>465</v>
-      </c>
-      <c r="B13" t="s">
-        <v>466</v>
-      </c>
-      <c r="C13" s="381">
+      <c r="I14" s="103"/>
+      <c r="M14" s="371"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" t="s">
+        <v>463</v>
+      </c>
+      <c r="B15" t="s">
+        <v>464</v>
+      </c>
+      <c r="C15" s="381">
         <f>SUM('Main Page'!H5:H7)</f>
         <v>211744.31626438437</v>
       </c>
-      <c r="I13" s="103"/>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" t="s">
+      <c r="I15" s="103"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" t="s">
+        <v>463</v>
+      </c>
+      <c r="B16" t="s">
         <v>465</v>
       </c>
-      <c r="B14" t="s">
-        <v>467</v>
-      </c>
-      <c r="C14" s="381">
+      <c r="C16" s="381">
         <f>SUM(GECdrivetrain!M11:'GECdrivetrain'!M12)/('Main Page'!$B$88)^2</f>
         <v>177.88478074011505</v>
       </c>
-      <c r="I14" s="103"/>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" t="s">
-        <v>465</v>
-      </c>
-      <c r="B15" t="s">
-        <v>468</v>
-      </c>
-      <c r="C15" s="381">
+      <c r="I16" s="103"/>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" t="s">
+        <v>463</v>
+      </c>
+      <c r="B17" t="s">
+        <v>466</v>
+      </c>
+      <c r="C17" s="381">
         <f>GECdrivetrain!M5</f>
         <v>197987.08806417006</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
-      <c r="A16" t="s">
-        <v>445</v>
-      </c>
-      <c r="B16" t="s">
-        <v>469</v>
-      </c>
-      <c r="C16" s="102">
+    <row r="18" spans="1:13">
+      <c r="A18" t="s">
+        <v>444</v>
+      </c>
+      <c r="B18" t="s">
+        <v>467</v>
+      </c>
+      <c r="C18" s="388">
         <f>'Main Page'!B19*100</f>
         <v>95</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
-      <c r="A17" t="s">
-        <v>445</v>
-      </c>
-      <c r="B17" t="s">
-        <v>470</v>
-      </c>
-      <c r="C17">
+    <row r="19" spans="1:13">
+      <c r="A19" t="s">
+        <v>444</v>
+      </c>
+      <c r="B19" t="s">
+        <v>468</v>
+      </c>
+      <c r="C19">
         <f>'Main Page'!$B$88</f>
         <v>124.40706908215581</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
-      <c r="A18" t="s">
-        <v>471</v>
-      </c>
-      <c r="B18" t="s">
-        <v>472</v>
-      </c>
-      <c r="C18" s="382">
+    <row r="20" spans="1:13">
+      <c r="A20" t="s">
+        <v>469</v>
+      </c>
+      <c r="B20" t="s">
+        <v>470</v>
+      </c>
+      <c r="C20" s="382">
         <f>'Main Page'!B14</f>
         <v>1039402035.9271445</v>
       </c>
-      <c r="I18" s="103"/>
-    </row>
-    <row r="19" spans="1:13">
-      <c r="A19" t="s">
+      <c r="I20" s="103"/>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" t="s">
+        <v>471</v>
+      </c>
+      <c r="B21" t="s">
+        <v>472</v>
+      </c>
+      <c r="C21" s="382">
+        <f>2*'Main Page'!B15/100*SQRT(C20*'Main Page'!B16*C16*C19^2/('Main Page'!B16+C16*C19^2))</f>
+        <v>4992005.4231970394</v>
+      </c>
+      <c r="I21" s="103"/>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" t="s">
         <v>473</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B22" t="s">
         <v>474</v>
       </c>
-      <c r="C19" s="382">
-        <f>2*'Main Page'!B15/100*SQRT(C18*'Main Page'!B16*C14*C17^2/('Main Page'!B16+C14*C17^2))</f>
-        <v>4992005.4231970394</v>
-      </c>
-      <c r="I19" s="103"/>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="A20" t="s">
-        <v>475</v>
-      </c>
-      <c r="B20" t="s">
-        <v>476</v>
-      </c>
-      <c r="C20" s="335">
+      <c r="C22" s="335">
         <f>'Main Page'!B92*1000</f>
         <v>3000000</v>
       </c>
-      <c r="M20" s="371"/>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="I21" s="103"/>
-      <c r="M21" s="371"/>
-    </row>
-    <row r="22" spans="1:13">
-      <c r="I22" s="103"/>
       <c r="M22" s="371"/>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" t="s">
+        <v>85</v>
+      </c>
+      <c r="B23" t="s">
+        <v>427</v>
+      </c>
+      <c r="C23" s="18">
+        <f>'Main Page'!B13/2</f>
+        <v>49.5</v>
+      </c>
+      <c r="I23" s="103"/>
+      <c r="M23" s="371"/>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" t="s">
+        <v>85</v>
+      </c>
+      <c r="B24" t="s">
+        <v>428</v>
+      </c>
+      <c r="C24" s="18">
+        <f>'Main Page'!B56/2</f>
+        <v>2.4750000000000001</v>
+      </c>
+      <c r="I24" s="103"/>
+      <c r="M24" s="371"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13141,10 +13234,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -13155,13 +13248,13 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" t="s">
+        <v>438</v>
+      </c>
+      <c r="B1" t="s">
         <v>439</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>440</v>
-      </c>
-      <c r="C1" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -13169,324 +13262,348 @@
         <v>387</v>
       </c>
       <c r="B3" t="s">
-        <v>477</v>
+        <v>518</v>
       </c>
       <c r="C3" s="103">
         <f>'Main Page'!B154*100</f>
         <v>3.4350000000000001</v>
       </c>
-      <c r="D3" s="103">
+    </row>
+    <row r="4" spans="1:14">
+      <c r="B4" t="s">
+        <v>519</v>
+      </c>
+      <c r="C4" s="103">
         <f>'Main Page'!B155*100</f>
         <v>3.4350000000000001</v>
       </c>
-      <c r="E3" s="103">
+      <c r="D4" s="103"/>
+      <c r="E4" s="103"/>
+      <c r="F4" s="103"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="B5" t="s">
+        <v>520</v>
+      </c>
+      <c r="C5" s="103">
         <f>'Main Page'!B156*100</f>
         <v>3.4350000000000001</v>
       </c>
-      <c r="F3" s="103">
+      <c r="D5" s="103"/>
+      <c r="E5" s="103"/>
+      <c r="F5" s="103"/>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="B6" t="s">
+        <v>521</v>
+      </c>
+      <c r="C6" s="103">
         <f>'Main Page'!B157*100</f>
         <v>3.4350000000000001</v>
       </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="B4" t="s">
+      <c r="D6" s="103"/>
+      <c r="E6" s="103"/>
+      <c r="F6" s="103"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="B7" t="s">
+        <v>475</v>
+      </c>
+      <c r="C7" t="s">
+        <v>476</v>
+      </c>
+      <c r="D7" t="s">
+        <v>477</v>
+      </c>
+      <c r="E7" t="s">
         <v>478</v>
       </c>
-      <c r="C4" t="s">
+      <c r="F7" t="s">
         <v>479</v>
       </c>
-      <c r="D4" t="s">
+      <c r="G7" t="s">
         <v>480</v>
       </c>
-      <c r="E4" t="s">
+      <c r="H7" t="s">
         <v>481</v>
       </c>
-      <c r="F4" t="s">
-        <v>482</v>
-      </c>
-      <c r="G4" t="s">
-        <v>483</v>
-      </c>
-      <c r="H4" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="C5" s="380">
+    </row>
+    <row r="8" spans="1:14">
+      <c r="C8" s="380">
         <f>GECtwrdata!$B15/9</f>
         <v>0</v>
       </c>
-      <c r="D5">
+      <c r="D8">
         <f>GECtwrdata!$G15</f>
         <v>5176.3620621529581</v>
       </c>
-      <c r="E5" s="383">
+      <c r="E8" s="383">
         <f>GECtwrdata!$N15</f>
         <v>1050330627972.325</v>
       </c>
-      <c r="F5" s="383">
+      <c r="F8" s="383">
         <f>GECtwrdata!$N15</f>
         <v>1050330627972.325</v>
       </c>
-      <c r="G5" s="383">
+      <c r="G8" s="383">
         <f>GECtwrdata!$K15</f>
         <v>807946636901.78833</v>
       </c>
-      <c r="H5" s="383">
+      <c r="H8" s="383">
         <f>GECtwrdata!$H15</f>
         <v>131225707441.21327</v>
       </c>
-      <c r="N5" s="371"/>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="C6" s="380">
+      <c r="N8" s="371"/>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="C9" s="380">
         <f>GECtwrdata!$B16/9</f>
         <v>0.1111111111111111</v>
       </c>
-      <c r="D6">
+      <c r="D9">
         <f>GECtwrdata!$G16</f>
         <v>4572.9262969216697</v>
       </c>
-      <c r="E6" s="383">
+      <c r="E9" s="383">
         <f>GECtwrdata!$N16</f>
         <v>820344112793.62048</v>
       </c>
-      <c r="F6" s="383">
+      <c r="F9" s="383">
         <f>GECtwrdata!$N16</f>
         <v>820344112793.62048</v>
       </c>
-      <c r="G6" s="383">
+      <c r="G9" s="383">
         <f>GECtwrdata!$K16</f>
         <v>631033932918.16956</v>
       </c>
-      <c r="H6" s="383">
+      <c r="H9" s="383">
         <f>GECtwrdata!$H16</f>
         <v>115928036173.82312</v>
       </c>
-      <c r="N6" s="371"/>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="C7" s="380">
+      <c r="N9" s="371"/>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="C10" s="380">
         <f>GECtwrdata!$B17/9</f>
         <v>0.22222222222222221</v>
       </c>
-      <c r="D7">
+      <c r="D10">
         <f>GECtwrdata!$G17</f>
         <v>4006.8748373094522</v>
       </c>
-      <c r="E7" s="383">
+      <c r="E10" s="383">
         <f>GECtwrdata!$N17</f>
         <v>630369721363.07703</v>
       </c>
-      <c r="F7" s="383">
+      <c r="F10" s="383">
         <f>GECtwrdata!$N17</f>
         <v>630369721363.07703</v>
       </c>
-      <c r="G7" s="383">
+      <c r="G10" s="383">
         <f>GECtwrdata!$K17</f>
         <v>484899785663.9054</v>
       </c>
-      <c r="H7" s="383">
+      <c r="H10" s="383">
         <f>GECtwrdata!$H17</f>
         <v>101578092652.8999</v>
       </c>
-      <c r="N7" s="371"/>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="C8" s="380">
+      <c r="N10" s="371"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="C11" s="380">
         <f>GECtwrdata!$B18/9</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="D8">
+      <c r="D11">
         <f>GECtwrdata!$G18</f>
         <v>3478.2076833163073</v>
       </c>
-      <c r="E8" s="383">
+      <c r="E11" s="383">
         <f>GECtwrdata!$N18</f>
         <v>475473249816.18439</v>
       </c>
-      <c r="F8" s="383">
+      <c r="F11" s="383">
         <f>GECtwrdata!$N18</f>
         <v>475473249816.18439</v>
       </c>
-      <c r="G8" s="383">
+      <c r="G11" s="383">
         <f>GECtwrdata!$K18</f>
         <v>365748653704.7572</v>
       </c>
-      <c r="H8" s="383">
+      <c r="H11" s="383">
         <f>GECtwrdata!$H18</f>
         <v>88175876878.443649</v>
       </c>
-      <c r="N8" s="371"/>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="C9" s="380">
+      <c r="N11" s="371"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="C12" s="380">
         <f>GECtwrdata!$B19/9</f>
         <v>0.44444444444444442</v>
       </c>
-      <c r="D9">
+      <c r="D12">
         <f>GECtwrdata!$G19</f>
         <v>2986.9248349422332</v>
       </c>
-      <c r="E9" s="383">
+      <c r="E12" s="383">
         <f>GECtwrdata!$N19</f>
         <v>351045305228.06683</v>
       </c>
-      <c r="F9" s="383">
+      <c r="F12" s="383">
         <f>GECtwrdata!$N19</f>
         <v>351045305228.06683</v>
       </c>
-      <c r="G9" s="383">
+      <c r="G12" s="383">
         <f>GECtwrdata!$K19</f>
         <v>270034850175.436</v>
       </c>
-      <c r="H9" s="383">
+      <c r="H12" s="383">
         <f>GECtwrdata!$H19</f>
         <v>75721388850.454315</v>
       </c>
-      <c r="N9" s="371"/>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="C10" s="380">
+      <c r="N12" s="371"/>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="C13" s="380">
         <f>GECtwrdata!$B20/9</f>
         <v>0.55555555555555558</v>
       </c>
-      <c r="D10">
+      <c r="D13">
         <f>GECtwrdata!$G20</f>
         <v>2533.0262921872304</v>
       </c>
-      <c r="E10" s="383">
+      <c r="E13" s="383">
         <f>GECtwrdata!$N20</f>
         <v>252801305613.48541</v>
       </c>
-      <c r="F10" s="383">
+      <c r="F13" s="383">
         <f>GECtwrdata!$N20</f>
         <v>252801305613.48541</v>
       </c>
-      <c r="G10" s="383">
+      <c r="G13" s="383">
         <f>GECtwrdata!$K20</f>
         <v>194462542779.60416</v>
       </c>
-      <c r="H10" s="383">
+      <c r="H13" s="383">
         <f>GECtwrdata!$H20</f>
         <v>64214628568.931923</v>
       </c>
-      <c r="N10" s="371"/>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="C11" s="380">
+      <c r="N13" s="371"/>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="C14" s="380">
         <f>GECtwrdata!$B21/9</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="D11">
+      <c r="D14">
         <f>GECtwrdata!$G21</f>
         <v>2116.5120550512988</v>
       </c>
-      <c r="E11" s="383">
+      <c r="E14" s="383">
         <f>GECtwrdata!$N21</f>
         <v>176781479926.83633</v>
       </c>
-      <c r="F11" s="383">
+      <c r="F14" s="383">
         <f>GECtwrdata!$N21</f>
         <v>176781479926.83633</v>
       </c>
-      <c r="G11" s="383">
+      <c r="G14" s="383">
         <f>GECtwrdata!$K21</f>
         <v>135985753789.87408</v>
       </c>
-      <c r="H11" s="383">
+      <c r="H14" s="383">
         <f>GECtwrdata!$H21</f>
         <v>53655596033.876465</v>
       </c>
-      <c r="N11" s="371"/>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="C12" s="380">
+      <c r="N14" s="371"/>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="C15" s="380">
         <f>GECtwrdata!$B22/9</f>
         <v>0.77777777777777779</v>
       </c>
-      <c r="D12">
+      <c r="D15">
         <f>GECtwrdata!$G22</f>
         <v>1737.3821235344394</v>
       </c>
-      <c r="E12" s="383">
+      <c r="E15" s="383">
         <f>GECtwrdata!$N22</f>
         <v>119350868062.15134</v>
       </c>
-      <c r="F12" s="383">
+      <c r="F15" s="383">
         <f>GECtwrdata!$N22</f>
         <v>119350868062.15134</v>
       </c>
-      <c r="G12" s="383">
+      <c r="G15" s="383">
         <f>GECtwrdata!$K22</f>
         <v>91808360047.808716</v>
       </c>
-      <c r="H12" s="383">
+      <c r="H15" s="383">
         <f>GECtwrdata!$H22</f>
         <v>44044291245.287949</v>
       </c>
-      <c r="N12" s="371"/>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="C13" s="380">
+      <c r="N15" s="371"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="C16" s="380">
         <f>GECtwrdata!$B23/9</f>
         <v>0.88888888888888884</v>
       </c>
-      <c r="D13">
+      <c r="D16">
         <f>GECtwrdata!$G23</f>
         <v>1395.6364976366508</v>
       </c>
-      <c r="E13" s="383">
+      <c r="E16" s="383">
         <f>GECtwrdata!$N23</f>
         <v>77199320853.097961</v>
       </c>
-      <c r="F13" s="383">
+      <c r="F16" s="383">
         <f>GECtwrdata!$N23</f>
         <v>77199320853.097961</v>
       </c>
-      <c r="G13" s="383">
+      <c r="G16" s="383">
         <f>GECtwrdata!$K23</f>
         <v>59384092963.921509</v>
       </c>
-      <c r="H13" s="383">
+      <c r="H16" s="383">
         <f>GECtwrdata!$H23</f>
         <v>35380714203.166359</v>
       </c>
-      <c r="N13" s="371"/>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="C14" s="380">
+      <c r="N16" s="371"/>
+    </row>
+    <row r="17" spans="3:14">
+      <c r="C17" s="380">
         <f>GECtwrdata!$B24/9</f>
         <v>1</v>
       </c>
-      <c r="D14">
+      <c r="D17">
         <f>GECtwrdata!$G24</f>
         <v>1091.2751773579341</v>
       </c>
-      <c r="E14" s="383">
+      <c r="E17" s="383">
         <f>GECtwrdata!$N24</f>
         <v>47341500072.979439</v>
       </c>
-      <c r="F14" s="383">
+      <c r="F17" s="383">
         <f>GECtwrdata!$N24</f>
         <v>47341500072.979439</v>
       </c>
-      <c r="G14" s="383">
+      <c r="G17" s="383">
         <f>GECtwrdata!$K24</f>
         <v>36416538517.676491</v>
       </c>
-      <c r="H14" s="383">
+      <c r="H17" s="383">
         <f>GECtwrdata!$H24</f>
         <v>27664864907.511723</v>
       </c>
-      <c r="I14" s="372"/>
-      <c r="J14" s="372"/>
-      <c r="K14" s="372"/>
-      <c r="L14" s="372"/>
-      <c r="N14" s="371"/>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="N15" s="371"/>
+      <c r="I17" s="372"/>
+      <c r="J17" s="372"/>
+      <c r="K17" s="372"/>
+      <c r="L17" s="372"/>
+      <c r="N17" s="371"/>
+    </row>
+    <row r="18" spans="3:14">
+      <c r="N18" s="371"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13524,12 +13641,12 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="12" thickBot="1">
-      <c r="A2" s="401" t="s">
+      <c r="A2" s="403" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="402"/>
-      <c r="C2" s="402"/>
-      <c r="D2" s="403"/>
+      <c r="B2" s="404"/>
+      <c r="C2" s="404"/>
+      <c r="D2" s="405"/>
       <c r="F2" s="79" t="s">
         <v>54</v>
       </c>
@@ -14329,11 +14446,11 @@
         <f>GECbladedata!D12-B3</f>
         <v>47.024999999999999</v>
       </c>
-      <c r="D2" s="387" t="s">
+      <c r="D2" s="389" t="s">
         <v>84</v>
       </c>
-      <c r="E2" s="389"/>
-      <c r="F2" s="390"/>
+      <c r="E2" s="391"/>
+      <c r="F2" s="392"/>
     </row>
     <row r="3" spans="1:20" ht="23.25" thickBot="1">
       <c r="A3" s="98" t="s">

--- a/FAST_models/WindPACT/excel_proc/turbines/3.0A02V02_proc.xlsx
+++ b/FAST_models/WindPACT/excel_proc/turbines/3.0A02V02_proc.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jrinker\Documents\GitHub\dissertation\FAST_models\WindPACT\excel_proc\turbines\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="105" yWindow="0" windowWidth="7620" windowHeight="7575" activeTab="4"/>
+    <workbookView xWindow="110" yWindow="0" windowWidth="7620" windowHeight="7580"/>
   </bookViews>
   <sheets>
     <sheet name="Main Page" sheetId="5" r:id="rId1"/>
@@ -22,7 +27,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="7">'Blade Data'!$A$6:$Q$32</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -32,7 +37,7 @@
     <author>Jeff Minnema</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0">
+    <comment ref="B1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -4486,11 +4491,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="160436992"/>
-        <c:axId val="160438912"/>
+        <c:axId val="367546512"/>
+        <c:axId val="432012864"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="160436992"/>
+        <c:axId val="367546512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -4575,12 +4580,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="160438912"/>
+        <c:crossAx val="432012864"/>
         <c:crossesAt val="-10"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="160438912"/>
+        <c:axId val="432012864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4664,7 +4669,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="160436992"/>
+        <c:crossAx val="367546512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5675,23 +5680,23 @@
   </sheetPr>
   <dimension ref="A1:U157"/>
   <sheetViews>
-    <sheetView topLeftCell="A118" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C144" sqref="C144:F144"/>
+    <sheetView tabSelected="1" topLeftCell="A121" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F134" sqref="F134:F139"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="10"/>
   <cols>
-    <col min="1" max="1" width="34.83203125" customWidth="1"/>
+    <col min="1" max="1" width="34.77734375" customWidth="1"/>
     <col min="2" max="2" width="12.33203125" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" customWidth="1"/>
-    <col min="5" max="5" width="14.1640625" customWidth="1"/>
+    <col min="4" max="4" width="10.77734375" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" customWidth="1"/>
     <col min="6" max="6" width="11.33203125" customWidth="1"/>
-    <col min="7" max="8" width="12.1640625" customWidth="1"/>
-    <col min="9" max="9" width="10.1640625" customWidth="1"/>
-    <col min="10" max="10" width="9.83203125" customWidth="1"/>
+    <col min="7" max="8" width="12.109375" customWidth="1"/>
+    <col min="9" max="9" width="10.109375" customWidth="1"/>
+    <col min="10" max="10" width="9.77734375" customWidth="1"/>
     <col min="11" max="11" width="10" customWidth="1"/>
-    <col min="12" max="12" width="10.1640625" customWidth="1"/>
-    <col min="13" max="13" width="12.5" customWidth="1"/>
+    <col min="12" max="12" width="10.109375" customWidth="1"/>
+    <col min="13" max="13" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="41.25" customHeight="1" thickBot="1">
@@ -5736,7 +5741,7 @@
       <c r="G3" s="397"/>
       <c r="H3" s="398"/>
     </row>
-    <row r="4" spans="1:8" ht="12" thickBot="1">
+    <row r="4" spans="1:8" ht="11" thickBot="1">
       <c r="A4" s="20" t="s">
         <v>5</v>
       </c>
@@ -5861,7 +5866,7 @@
         <v>44271.918683397555</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="12" thickBot="1">
+    <row r="8" spans="1:8" ht="10.5" thickBot="1">
       <c r="A8" s="23" t="s">
         <v>12</v>
       </c>
@@ -5894,7 +5899,7 @@
         <v>268716.97302548256</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="12" thickBot="1">
+    <row r="9" spans="1:8" ht="10.5" thickBot="1">
       <c r="A9" s="106" t="s">
         <v>120</v>
       </c>
@@ -5937,7 +5942,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="22.5">
+    <row r="14" spans="1:8" ht="20">
       <c r="A14" s="61" t="s">
         <v>43</v>
       </c>
@@ -5975,7 +5980,7 @@
       <c r="E16" s="348"/>
       <c r="H16" s="103"/>
     </row>
-    <row r="17" spans="1:21" ht="23.45" customHeight="1">
+    <row r="17" spans="1:21" ht="23.5" customHeight="1">
       <c r="A17" s="61" t="s">
         <v>42</v>
       </c>
@@ -6052,7 +6057,7 @@
       <c r="O20" s="170"/>
       <c r="P20" s="171"/>
     </row>
-    <row r="21" spans="1:21" ht="11.45" customHeight="1">
+    <row r="21" spans="1:21" ht="11.5" customHeight="1">
       <c r="A21" s="61" t="s">
         <v>31</v>
       </c>
@@ -6098,7 +6103,7 @@
       <c r="O23" s="8"/>
       <c r="P23" s="173"/>
     </row>
-    <row r="24" spans="1:21" ht="12.6" customHeight="1">
+    <row r="24" spans="1:21" ht="12.65" customHeight="1">
       <c r="A24" s="100" t="s">
         <v>74</v>
       </c>
@@ -6119,7 +6124,7 @@
       <c r="O24" s="8"/>
       <c r="P24" s="173"/>
     </row>
-    <row r="25" spans="1:21" ht="12" thickBot="1">
+    <row r="25" spans="1:21" ht="10.5" thickBot="1">
       <c r="A25" s="100" t="s">
         <v>75</v>
       </c>
@@ -6150,7 +6155,7 @@
       <c r="G26" s="89"/>
       <c r="H26" s="12"/>
     </row>
-    <row r="28" spans="1:21" ht="12.6" customHeight="1">
+    <row r="28" spans="1:21" ht="12.65" customHeight="1">
       <c r="A28" s="109" t="s">
         <v>78</v>
       </c>
@@ -6190,7 +6195,7 @@
     <row r="32" spans="1:21">
       <c r="B32" s="53"/>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" ht="10.5">
       <c r="A33" s="109" t="s">
         <v>80</v>
       </c>
@@ -6365,7 +6370,7 @@
         <v>6.2246280302696988</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" ht="10.5">
       <c r="A55" s="2" t="s">
         <v>12</v>
       </c>
@@ -6478,7 +6483,7 @@
       <c r="A64" s="18"/>
       <c r="B64" s="124"/>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" ht="10.5">
       <c r="A65" s="111" t="s">
         <v>138</v>
       </c>
@@ -6563,7 +6568,7 @@
       <c r="A72" s="18"/>
       <c r="B72" s="124"/>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" ht="10.5">
       <c r="A73" s="111" t="s">
         <v>144</v>
       </c>
@@ -6645,7 +6650,7 @@
       <c r="A80" s="18"/>
       <c r="B80" s="125"/>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" ht="10.5">
       <c r="A81" s="111" t="s">
         <v>153</v>
       </c>
@@ -6802,7 +6807,7 @@
       <c r="A96" s="18"/>
       <c r="B96" s="126"/>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" ht="10.5">
       <c r="A97" s="111" t="s">
         <v>163</v>
       </c>
@@ -6916,7 +6921,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
+    <row r="108" spans="1:4" ht="10.5">
       <c r="A108" s="111" t="s">
         <v>392</v>
       </c>
@@ -6979,7 +6984,7 @@
       <c r="I113" s="183"/>
       <c r="J113" s="183"/>
     </row>
-    <row r="114" spans="1:13" ht="14.25">
+    <row r="114" spans="1:13" ht="15">
       <c r="A114" s="184"/>
       <c r="B114" s="185"/>
       <c r="C114" s="186" t="s">
@@ -7037,7 +7042,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="116" spans="1:13" ht="12">
+    <row r="116" spans="1:13" ht="11.5">
       <c r="A116" s="283">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -7072,7 +7077,7 @@
         <v>2.7007721300201633E-4</v>
       </c>
     </row>
-    <row r="117" spans="1:13" ht="12">
+    <row r="117" spans="1:13" ht="11.5">
       <c r="A117" s="292">
         <v>0.25</v>
       </c>
@@ -7107,7 +7112,7 @@
         <v>6.5336563899760921E-4</v>
       </c>
     </row>
-    <row r="118" spans="1:13" ht="12">
+    <row r="118" spans="1:13" ht="11.5">
       <c r="A118" s="292">
         <v>0.5</v>
       </c>
@@ -7142,7 +7147,7 @@
         <v>2.0216089974261484E-3</v>
       </c>
     </row>
-    <row r="119" spans="1:13" ht="12">
+    <row r="119" spans="1:13" ht="11.5">
       <c r="A119" s="295">
         <v>0.75</v>
       </c>
@@ -7508,7 +7513,7 @@
         <v>2.3638269206409808</v>
       </c>
     </row>
-    <row r="131" spans="1:13">
+    <row r="131" spans="1:13" ht="13">
       <c r="B131" s="18" t="s">
         <v>350</v>
       </c>
@@ -7525,7 +7530,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="134" spans="1:13">
+    <row r="134" spans="1:13" ht="10.5">
       <c r="A134" s="184"/>
       <c r="B134" s="230" t="s">
         <v>364</v>
@@ -7534,8 +7539,9 @@
         <v>407</v>
       </c>
       <c r="D134" s="189"/>
-    </row>
-    <row r="135" spans="1:13" ht="12">
+      <c r="F134" s="102"/>
+    </row>
+    <row r="135" spans="1:13" ht="11.5">
       <c r="A135" s="192" t="s">
         <v>87</v>
       </c>
@@ -7544,6 +7550,7 @@
       </c>
       <c r="C135" s="225"/>
       <c r="D135" s="226"/>
+      <c r="F135" s="102"/>
     </row>
     <row r="136" spans="1:13">
       <c r="A136" s="236">
@@ -7557,6 +7564,7 @@
       <c r="D136" s="342">
         <v>1</v>
       </c>
+      <c r="F136" s="102"/>
     </row>
     <row r="137" spans="1:13">
       <c r="A137" s="241">
@@ -7570,6 +7578,7 @@
       <c r="D137" s="344">
         <v>1</v>
       </c>
+      <c r="F137" s="102"/>
     </row>
     <row r="138" spans="1:13">
       <c r="A138" s="241">
@@ -7583,6 +7592,7 @@
       <c r="D138" s="344">
         <v>2</v>
       </c>
+      <c r="F138" s="102"/>
     </row>
     <row r="139" spans="1:13">
       <c r="A139" s="241">
@@ -7596,6 +7606,7 @@
       <c r="D139" s="344">
         <v>2.5</v>
       </c>
+      <c r="F139" s="102"/>
     </row>
     <row r="140" spans="1:13">
       <c r="A140" s="241">
@@ -7623,7 +7634,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="143" spans="1:13" ht="12">
+    <row r="143" spans="1:13" ht="11.5">
       <c r="A143" s="337" t="s">
         <v>399</v>
       </c>
@@ -7687,8 +7698,8 @@
       <c r="F147" s="348"/>
       <c r="G147" s="348"/>
     </row>
-    <row r="148" spans="1:7" ht="12" thickBot="1"/>
-    <row r="149" spans="1:7" ht="12" thickBot="1">
+    <row r="148" spans="1:7" ht="10.5" thickBot="1"/>
+    <row r="149" spans="1:7" ht="10.5" thickBot="1">
       <c r="A149" s="389" t="s">
         <v>401</v>
       </c>
@@ -7699,7 +7710,7 @@
       </c>
       <c r="F149" s="348"/>
     </row>
-    <row r="150" spans="1:7" ht="12" thickBot="1">
+    <row r="150" spans="1:7" ht="10.5" thickBot="1">
       <c r="A150" s="356" t="s">
         <v>35</v>
       </c>
@@ -7714,7 +7725,7 @@
       </c>
       <c r="F150" s="348"/>
     </row>
-    <row r="151" spans="1:7" ht="12" thickBot="1">
+    <row r="151" spans="1:7" ht="11" thickBot="1">
       <c r="A151" s="358">
         <v>3.882E-2</v>
       </c>
@@ -7729,8 +7740,8 @@
       </c>
       <c r="F151" s="348"/>
     </row>
-    <row r="152" spans="1:7" ht="12" thickBot="1"/>
-    <row r="153" spans="1:7" ht="12" thickBot="1">
+    <row r="152" spans="1:7" ht="10.5" thickBot="1"/>
+    <row r="153" spans="1:7" ht="10.5" thickBot="1">
       <c r="A153" s="389" t="s">
         <v>412</v>
       </c>
@@ -7741,7 +7752,7 @@
       </c>
       <c r="F153" s="348"/>
     </row>
-    <row r="154" spans="1:7">
+    <row r="154" spans="1:7" ht="10.5">
       <c r="A154" s="362" t="s">
         <v>50</v>
       </c>
@@ -7754,7 +7765,7 @@
       </c>
       <c r="F154" s="348"/>
     </row>
-    <row r="155" spans="1:7">
+    <row r="155" spans="1:7" ht="10.5">
       <c r="A155" s="365" t="s">
         <v>51</v>
       </c>
@@ -7767,7 +7778,7 @@
       </c>
       <c r="F155" s="348"/>
     </row>
-    <row r="156" spans="1:7">
+    <row r="156" spans="1:7" ht="10.5">
       <c r="A156" s="368" t="s">
         <v>52</v>
       </c>
@@ -7779,7 +7790,7 @@
       </c>
       <c r="F156" s="348"/>
     </row>
-    <row r="157" spans="1:7" ht="12" thickBot="1">
+    <row r="157" spans="1:7" ht="11" thickBot="1">
       <c r="A157" s="369" t="s">
         <v>53</v>
       </c>
@@ -7818,10 +7829,10 @@
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="10"/>
   <cols>
-    <col min="2" max="2" width="12.1640625" customWidth="1"/>
-    <col min="5" max="5" width="12.83203125" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" customWidth="1"/>
+    <col min="5" max="5" width="12.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:15">
@@ -8653,23 +8664,23 @@
       <selection pane="bottomRight" activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="10"/>
   <cols>
-    <col min="1" max="1" width="16.5" customWidth="1"/>
-    <col min="2" max="2" width="33.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.44140625" customWidth="1"/>
+    <col min="2" max="2" width="33.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.33203125" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" customWidth="1"/>
     <col min="6" max="6" width="14.33203125" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
     <col min="8" max="8" width="10" customWidth="1"/>
     <col min="10" max="11" width="9.6640625" customWidth="1"/>
-    <col min="12" max="12" width="9.5" customWidth="1"/>
+    <col min="12" max="12" width="9.44140625" customWidth="1"/>
     <col min="13" max="14" width="11.33203125" customWidth="1"/>
-    <col min="15" max="15" width="11.5" customWidth="1"/>
+    <col min="15" max="15" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="12.75">
+    <row r="1" spans="1:25" ht="12.5">
       <c r="A1" s="112"/>
       <c r="B1" s="112" t="s">
         <v>171</v>
@@ -8701,7 +8712,7 @@
       <c r="X1" s="112"/>
       <c r="Y1" s="112"/>
     </row>
-    <row r="2" spans="1:25" ht="12.75">
+    <row r="2" spans="1:25" ht="12.5">
       <c r="A2" s="112"/>
       <c r="B2" s="113" t="s">
         <v>172</v>
@@ -8733,7 +8744,7 @@
       <c r="X2" s="112"/>
       <c r="Y2" s="112"/>
     </row>
-    <row r="3" spans="1:25" ht="12.75">
+    <row r="3" spans="1:25" ht="12.5">
       <c r="A3" s="112"/>
       <c r="B3" s="112"/>
       <c r="C3" s="112"/>
@@ -8760,7 +8771,7 @@
       <c r="X3" s="112"/>
       <c r="Y3" s="112"/>
     </row>
-    <row r="4" spans="1:25" ht="38.25">
+    <row r="4" spans="1:25" ht="37.5">
       <c r="A4" s="115"/>
       <c r="B4" s="163" t="s">
         <v>173</v>
@@ -8819,7 +8830,7 @@
       <c r="X4" s="115"/>
       <c r="Y4" s="116"/>
     </row>
-    <row r="5" spans="1:25" ht="12.75">
+    <row r="5" spans="1:25" ht="12.5">
       <c r="A5" s="112"/>
       <c r="B5" s="164" t="s">
         <v>12</v>
@@ -8889,7 +8900,7 @@
       <c r="X5" s="112"/>
       <c r="Y5" s="112"/>
     </row>
-    <row r="6" spans="1:25" ht="12.75">
+    <row r="6" spans="1:25" ht="12.5">
       <c r="A6" s="112"/>
       <c r="B6" s="164" t="s">
         <v>185</v>
@@ -8950,7 +8961,7 @@
       <c r="X6" s="112"/>
       <c r="Y6" s="112"/>
     </row>
-    <row r="7" spans="1:25" ht="12.75">
+    <row r="7" spans="1:25" ht="12.5">
       <c r="A7" s="112"/>
       <c r="B7" s="164" t="s">
         <v>138</v>
@@ -9023,7 +9034,7 @@
       <c r="X7" s="112"/>
       <c r="Y7" s="112"/>
     </row>
-    <row r="8" spans="1:25" ht="12.75">
+    <row r="8" spans="1:25" ht="12.5">
       <c r="A8" s="112"/>
       <c r="B8" s="164" t="s">
         <v>186</v>
@@ -9086,7 +9097,7 @@
       <c r="X8" s="112"/>
       <c r="Y8" s="118"/>
     </row>
-    <row r="9" spans="1:25" ht="12.75">
+    <row r="9" spans="1:25" ht="12.5">
       <c r="A9" s="112"/>
       <c r="B9" s="164" t="s">
         <v>187</v>
@@ -9149,7 +9160,7 @@
       <c r="X9" s="112"/>
       <c r="Y9" s="112"/>
     </row>
-    <row r="10" spans="1:25" ht="12.75">
+    <row r="10" spans="1:25" ht="12.5">
       <c r="A10" s="112"/>
       <c r="B10" s="164" t="s">
         <v>188</v>
@@ -9279,7 +9290,7 @@
       <c r="X11" s="112"/>
       <c r="Y11" s="118"/>
     </row>
-    <row r="12" spans="1:25" ht="12.75">
+    <row r="12" spans="1:25" ht="12.5">
       <c r="A12" s="112"/>
       <c r="B12" s="164" t="s">
         <v>256</v>
@@ -9346,7 +9357,7 @@
       <c r="X12" s="112"/>
       <c r="Y12" s="118"/>
     </row>
-    <row r="13" spans="1:25" ht="12.75">
+    <row r="13" spans="1:25" ht="12.5">
       <c r="A13" s="112"/>
       <c r="B13" s="164"/>
       <c r="C13" s="131"/>
@@ -9378,7 +9389,7 @@
       <c r="X13" s="112"/>
       <c r="Y13" s="118"/>
     </row>
-    <row r="14" spans="1:25" ht="12.75">
+    <row r="14" spans="1:25" ht="12.5">
       <c r="A14" s="112"/>
       <c r="B14" s="164"/>
       <c r="C14" s="131"/>
@@ -9427,7 +9438,7 @@
       <c r="X14" s="112"/>
       <c r="Y14" s="118"/>
     </row>
-    <row r="15" spans="1:25" ht="12.75">
+    <row r="15" spans="1:25" ht="12.5">
       <c r="A15" s="112"/>
       <c r="B15" s="164"/>
       <c r="C15" s="131"/>
@@ -9476,7 +9487,7 @@
       <c r="X15" s="112"/>
       <c r="Y15" s="118"/>
     </row>
-    <row r="16" spans="1:25" ht="12.75">
+    <row r="16" spans="1:25" ht="12.5">
       <c r="A16" s="112"/>
       <c r="B16" s="165"/>
       <c r="C16" s="112"/>
@@ -9526,7 +9537,7 @@
       <c r="X16" s="112"/>
       <c r="Y16" s="112"/>
     </row>
-    <row r="17" spans="1:25" ht="12.75">
+    <row r="17" spans="1:25" ht="12.5">
       <c r="A17" s="112"/>
       <c r="B17" s="165"/>
       <c r="C17" s="112"/>
@@ -9567,7 +9578,7 @@
       <c r="X17" s="112"/>
       <c r="Y17" s="112"/>
     </row>
-    <row r="18" spans="1:25" ht="12.75">
+    <row r="18" spans="1:25" ht="12.5">
       <c r="A18" s="112"/>
       <c r="B18" s="165"/>
       <c r="C18" s="112"/>
@@ -9594,7 +9605,7 @@
       <c r="X18" s="112"/>
       <c r="Y18" s="112"/>
     </row>
-    <row r="19" spans="1:25" ht="12.75">
+    <row r="19" spans="1:25" ht="12.5">
       <c r="A19" s="112"/>
       <c r="B19" s="165"/>
       <c r="C19" s="112"/>
@@ -9623,7 +9634,7 @@
       <c r="X19" s="112"/>
       <c r="Y19" s="112"/>
     </row>
-    <row r="20" spans="1:25" ht="38.25">
+    <row r="20" spans="1:25" ht="37.5">
       <c r="A20" s="115"/>
       <c r="B20" s="163" t="s">
         <v>190</v>
@@ -9662,7 +9673,7 @@
       <c r="X20" s="115"/>
       <c r="Y20" s="115"/>
     </row>
-    <row r="21" spans="1:25" ht="12.75">
+    <row r="21" spans="1:25" ht="12.5">
       <c r="A21" s="112"/>
       <c r="B21" s="164" t="s">
         <v>163</v>
@@ -9738,7 +9749,7 @@
       <c r="X21" s="112"/>
       <c r="Y21" s="112"/>
     </row>
-    <row r="22" spans="1:25" ht="12.75">
+    <row r="22" spans="1:25" ht="12.5">
       <c r="A22" s="112"/>
       <c r="B22" s="164" t="s">
         <v>195</v>
@@ -9798,7 +9809,7 @@
       <c r="X22" s="112"/>
       <c r="Y22" s="118"/>
     </row>
-    <row r="23" spans="1:25" ht="12.75">
+    <row r="23" spans="1:25" ht="12.5">
       <c r="A23" s="112"/>
       <c r="B23" s="164" t="s">
         <v>196</v>
@@ -9859,7 +9870,7 @@
       <c r="X23" s="112"/>
       <c r="Y23" s="112"/>
     </row>
-    <row r="24" spans="1:25" ht="12.75">
+    <row r="24" spans="1:25" ht="12.5">
       <c r="A24" s="112"/>
       <c r="B24" s="164" t="s">
         <v>197</v>
@@ -9927,7 +9938,7 @@
       <c r="X24" s="112"/>
       <c r="Y24" s="112"/>
     </row>
-    <row r="25" spans="1:25" ht="12.75">
+    <row r="25" spans="1:25" ht="12.5">
       <c r="A25" s="112"/>
       <c r="B25" s="164" t="s">
         <v>198</v>
@@ -9995,7 +10006,7 @@
       <c r="X25" s="112"/>
       <c r="Y25" s="112"/>
     </row>
-    <row r="26" spans="1:25" ht="12.75">
+    <row r="26" spans="1:25" ht="12.5">
       <c r="A26" s="112"/>
       <c r="B26" s="164" t="s">
         <v>199</v>
@@ -10061,7 +10072,7 @@
       <c r="X26" s="112"/>
       <c r="Y26" s="112"/>
     </row>
-    <row r="27" spans="1:25" ht="12.75">
+    <row r="27" spans="1:25" ht="12.5">
       <c r="A27" s="112"/>
       <c r="B27" s="164" t="s">
         <v>200</v>
@@ -10113,7 +10124,7 @@
       <c r="X27" s="112"/>
       <c r="Y27" s="112"/>
     </row>
-    <row r="28" spans="1:25" ht="12.75">
+    <row r="28" spans="1:25" ht="12.5">
       <c r="A28" s="112"/>
       <c r="B28" s="164" t="s">
         <v>201</v>
@@ -10165,7 +10176,7 @@
       <c r="X28" s="112"/>
       <c r="Y28" s="112"/>
     </row>
-    <row r="29" spans="1:25" ht="12.75">
+    <row r="29" spans="1:25" ht="12.5">
       <c r="A29" s="112"/>
       <c r="B29" s="165"/>
       <c r="C29" s="112"/>
@@ -10198,7 +10209,7 @@
       <c r="X29" s="112"/>
       <c r="Y29" s="112"/>
     </row>
-    <row r="30" spans="1:25" ht="12.75">
+    <row r="30" spans="1:25" ht="12.5">
       <c r="A30" s="112"/>
       <c r="B30" s="164"/>
       <c r="C30" s="112"/>
@@ -10248,7 +10259,7 @@
       <c r="X30" s="112"/>
       <c r="Y30" s="112"/>
     </row>
-    <row r="31" spans="1:25" ht="12.75">
+    <row r="31" spans="1:25" ht="12.5">
       <c r="A31" s="112"/>
       <c r="B31" s="164"/>
       <c r="C31" s="112"/>
@@ -10289,7 +10300,7 @@
       <c r="X31" s="112"/>
       <c r="Y31" s="112"/>
     </row>
-    <row r="32" spans="1:25" ht="12.75">
+    <row r="32" spans="1:25" ht="12.5">
       <c r="A32" s="112"/>
       <c r="B32" s="164"/>
       <c r="C32" s="112"/>
@@ -10316,7 +10327,7 @@
       <c r="X32" s="112"/>
       <c r="Y32" s="112"/>
     </row>
-    <row r="33" spans="1:25" ht="12.75">
+    <row r="33" spans="1:25" ht="12.5">
       <c r="A33" s="112"/>
       <c r="B33" s="164"/>
       <c r="C33" s="112"/>
@@ -10343,15 +10354,15 @@
       <c r="X33" s="112"/>
       <c r="Y33" s="112"/>
     </row>
-    <row r="34" spans="1:25" s="112" customFormat="1" ht="12.75">
+    <row r="34" spans="1:25" s="112" customFormat="1" ht="12.5">
       <c r="B34" s="165"/>
     </row>
-    <row r="35" spans="1:25" s="112" customFormat="1" ht="12.75">
+    <row r="35" spans="1:25" s="112" customFormat="1" ht="12.5">
       <c r="B35" s="164" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="36" spans="1:25" s="112" customFormat="1" ht="12.75">
+    <row r="36" spans="1:25" s="112" customFormat="1" ht="12.5">
       <c r="B36" s="164" t="s">
         <v>218</v>
       </c>
@@ -10359,7 +10370,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="37" spans="1:25" s="112" customFormat="1" ht="12.75">
+    <row r="37" spans="1:25" s="112" customFormat="1" ht="12.5">
       <c r="B37" s="164" t="s">
         <v>220</v>
       </c>
@@ -10367,10 +10378,10 @@
         <v>221</v>
       </c>
     </row>
-    <row r="38" spans="1:25" s="112" customFormat="1" ht="12.75">
+    <row r="38" spans="1:25" s="112" customFormat="1" ht="12.5">
       <c r="B38" s="165"/>
     </row>
-    <row r="39" spans="1:25" s="112" customFormat="1" ht="12.75">
+    <row r="39" spans="1:25" s="112" customFormat="1" ht="12.5">
       <c r="B39" s="164" t="s">
         <v>227</v>
       </c>
@@ -10378,7 +10389,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="40" spans="1:25" s="112" customFormat="1" ht="12.75">
+    <row r="40" spans="1:25" s="112" customFormat="1" ht="12.5">
       <c r="B40" s="164" t="s">
         <v>224</v>
       </c>
@@ -10386,7 +10397,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="41" spans="1:25" s="112" customFormat="1" ht="12.75">
+    <row r="41" spans="1:25" s="112" customFormat="1" ht="12.5">
       <c r="B41" s="164" t="s">
         <v>226</v>
       </c>
@@ -10394,10 +10405,10 @@
         <v>229</v>
       </c>
     </row>
-    <row r="42" spans="1:25" s="112" customFormat="1" ht="12.75">
+    <row r="42" spans="1:25" s="112" customFormat="1" ht="12.5">
       <c r="B42" s="166"/>
     </row>
-    <row r="43" spans="1:25" s="112" customFormat="1" ht="12.75">
+    <row r="43" spans="1:25" s="112" customFormat="1" ht="12.5">
       <c r="B43" s="164" t="s">
         <v>230</v>
       </c>
@@ -10405,7 +10416,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="44" spans="1:25" s="112" customFormat="1" ht="12.75">
+    <row r="44" spans="1:25" s="112" customFormat="1" ht="12.5">
       <c r="B44" s="164" t="s">
         <v>232</v>
       </c>
@@ -10413,7 +10424,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="45" spans="1:25" s="112" customFormat="1" ht="12.75">
+    <row r="45" spans="1:25" s="112" customFormat="1" ht="12.5">
       <c r="B45" s="164" t="s">
         <v>276</v>
       </c>
@@ -10421,10 +10432,10 @@
         <v>277</v>
       </c>
     </row>
-    <row r="46" spans="1:25" s="112" customFormat="1" ht="12.75">
+    <row r="46" spans="1:25" s="112" customFormat="1" ht="12.5">
       <c r="B46" s="166"/>
     </row>
-    <row r="47" spans="1:25" s="112" customFormat="1" ht="12.75">
+    <row r="47" spans="1:25" s="112" customFormat="1" ht="12.5">
       <c r="B47" s="164" t="s">
         <v>235</v>
       </c>
@@ -10432,7 +10443,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="48" spans="1:25" s="112" customFormat="1" ht="12.75">
+    <row r="48" spans="1:25" s="112" customFormat="1" ht="12.5">
       <c r="B48" s="164" t="s">
         <v>234</v>
       </c>
@@ -10440,7 +10451,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="49" spans="2:3" s="112" customFormat="1" ht="12.75">
+    <row r="49" spans="2:3" s="112" customFormat="1" ht="12.5">
       <c r="B49" s="164" t="s">
         <v>278</v>
       </c>
@@ -10448,13 +10459,13 @@
         <v>279</v>
       </c>
     </row>
-    <row r="50" spans="2:3" s="112" customFormat="1" ht="12.75">
+    <row r="50" spans="2:3" s="112" customFormat="1" ht="12.5">
       <c r="B50" s="164"/>
     </row>
-    <row r="51" spans="2:3" s="112" customFormat="1" ht="12.75">
+    <row r="51" spans="2:3" s="112" customFormat="1" ht="12.5">
       <c r="B51" s="164"/>
     </row>
-    <row r="52" spans="2:3" s="112" customFormat="1" ht="12.75">
+    <row r="52" spans="2:3" s="112" customFormat="1" ht="12.5">
       <c r="B52" s="164" t="s">
         <v>238</v>
       </c>
@@ -10462,7 +10473,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="53" spans="2:3" s="112" customFormat="1" ht="12.75">
+    <row r="53" spans="2:3" s="112" customFormat="1" ht="12.5">
       <c r="B53" s="164" t="s">
         <v>239</v>
       </c>
@@ -10470,7 +10481,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="54" spans="2:3" s="112" customFormat="1" ht="12.75">
+    <row r="54" spans="2:3" s="112" customFormat="1" ht="12.5">
       <c r="B54" s="164" t="s">
         <v>244</v>
       </c>
@@ -10478,7 +10489,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="55" spans="2:3" s="112" customFormat="1" ht="12.75">
+    <row r="55" spans="2:3" s="112" customFormat="1" ht="12.5">
       <c r="B55" s="164" t="s">
         <v>246</v>
       </c>
@@ -10486,10 +10497,10 @@
         <v>247</v>
       </c>
     </row>
-    <row r="56" spans="2:3" s="112" customFormat="1" ht="12.75">
+    <row r="56" spans="2:3" s="112" customFormat="1" ht="12.5">
       <c r="B56" s="164"/>
     </row>
-    <row r="57" spans="2:3" s="112" customFormat="1" ht="12.75">
+    <row r="57" spans="2:3" s="112" customFormat="1" ht="12.5">
       <c r="B57" s="164" t="s">
         <v>253</v>
       </c>
@@ -10497,7 +10508,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="58" spans="2:3" s="112" customFormat="1" ht="12.75">
+    <row r="58" spans="2:3" s="112" customFormat="1" ht="12.5">
       <c r="B58" s="164" t="s">
         <v>248</v>
       </c>
@@ -10505,7 +10516,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="59" spans="2:3" s="112" customFormat="1" ht="12.75">
+    <row r="59" spans="2:3" s="112" customFormat="1" ht="12.5">
       <c r="B59" s="164" t="s">
         <v>250</v>
       </c>
@@ -10513,7 +10524,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="60" spans="2:3" s="112" customFormat="1" ht="12.75">
+    <row r="60" spans="2:3" s="112" customFormat="1" ht="12.5">
       <c r="B60" s="164" t="s">
         <v>251</v>
       </c>
@@ -10521,10 +10532,10 @@
         <v>255</v>
       </c>
     </row>
-    <row r="61" spans="2:3" s="112" customFormat="1" ht="12.75">
+    <row r="61" spans="2:3" s="112" customFormat="1" ht="12.5">
       <c r="B61" s="164"/>
     </row>
-    <row r="62" spans="2:3" s="112" customFormat="1" ht="12.75">
+    <row r="62" spans="2:3" s="112" customFormat="1" ht="12.5">
       <c r="B62" s="164" t="s">
         <v>257</v>
       </c>
@@ -10532,7 +10543,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="63" spans="2:3" s="112" customFormat="1" ht="12.75">
+    <row r="63" spans="2:3" s="112" customFormat="1" ht="12.5">
       <c r="B63" s="164" t="s">
         <v>258</v>
       </c>
@@ -10540,7 +10551,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="64" spans="2:3" s="112" customFormat="1" ht="12.75">
+    <row r="64" spans="2:3" s="112" customFormat="1" ht="12.5">
       <c r="B64" s="164" t="s">
         <v>259</v>
       </c>
@@ -10548,7 +10559,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="65" spans="2:3" s="112" customFormat="1" ht="12.75">
+    <row r="65" spans="2:3" s="112" customFormat="1" ht="12.5">
       <c r="B65" s="164" t="s">
         <v>260</v>
       </c>
@@ -10556,7 +10567,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="66" spans="2:3" s="112" customFormat="1" ht="12.75">
+    <row r="66" spans="2:3" s="112" customFormat="1" ht="12.5">
       <c r="B66" s="164" t="s">
         <v>261</v>
       </c>
@@ -10564,10 +10575,10 @@
         <v>266</v>
       </c>
     </row>
-    <row r="67" spans="2:3" s="112" customFormat="1" ht="12.75">
+    <row r="67" spans="2:3" s="112" customFormat="1" ht="12.5">
       <c r="B67" s="164"/>
     </row>
-    <row r="68" spans="2:3" s="112" customFormat="1" ht="12.75">
+    <row r="68" spans="2:3" s="112" customFormat="1" ht="12.5">
       <c r="B68" s="164" t="s">
         <v>267</v>
       </c>
@@ -10575,7 +10586,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="69" spans="2:3" s="112" customFormat="1" ht="12.75">
+    <row r="69" spans="2:3" s="112" customFormat="1" ht="12.5">
       <c r="B69" s="164" t="s">
         <v>269</v>
       </c>
@@ -10583,10 +10594,10 @@
         <v>270</v>
       </c>
     </row>
-    <row r="70" spans="2:3" s="112" customFormat="1" ht="12.75">
+    <row r="70" spans="2:3" s="112" customFormat="1" ht="12.5">
       <c r="B70" s="164"/>
     </row>
-    <row r="71" spans="2:3" s="112" customFormat="1" ht="12.75">
+    <row r="71" spans="2:3" s="112" customFormat="1" ht="12.5">
       <c r="B71" s="164" t="s">
         <v>273</v>
       </c>
@@ -10594,7 +10605,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="72" spans="2:3" s="112" customFormat="1" ht="12.75">
+    <row r="72" spans="2:3" s="112" customFormat="1" ht="12.5">
       <c r="B72" s="164" t="s">
         <v>271</v>
       </c>
@@ -10602,7 +10613,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="73" spans="2:3" s="112" customFormat="1" ht="12.75">
+    <row r="73" spans="2:3" s="112" customFormat="1" ht="12.5">
       <c r="B73" s="164" t="s">
         <v>275</v>
       </c>
@@ -10610,10 +10621,10 @@
         <v>280</v>
       </c>
     </row>
-    <row r="74" spans="2:3" s="112" customFormat="1" ht="12.75">
+    <row r="74" spans="2:3" s="112" customFormat="1" ht="12.5">
       <c r="B74" s="164"/>
     </row>
-    <row r="75" spans="2:3" s="112" customFormat="1" ht="12.75">
+    <row r="75" spans="2:3" s="112" customFormat="1" ht="12.5">
       <c r="B75" s="164" t="s">
         <v>282</v>
       </c>
@@ -10621,7 +10632,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="76" spans="2:3" s="112" customFormat="1" ht="12.75">
+    <row r="76" spans="2:3" s="112" customFormat="1" ht="12.5">
       <c r="B76" s="164" t="s">
         <v>281</v>
       </c>
@@ -10629,7 +10640,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="77" spans="2:3" s="112" customFormat="1" ht="12.75">
+    <row r="77" spans="2:3" s="112" customFormat="1" ht="12.5">
       <c r="B77" s="164" t="s">
         <v>283</v>
       </c>
@@ -10637,7 +10648,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="78" spans="2:3" s="112" customFormat="1" ht="12.75">
+    <row r="78" spans="2:3" s="112" customFormat="1" ht="12.5">
       <c r="B78" s="164" t="s">
         <v>285</v>
       </c>
@@ -10645,7 +10656,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="79" spans="2:3" s="112" customFormat="1" ht="12.75">
+    <row r="79" spans="2:3" s="112" customFormat="1" ht="12.5">
       <c r="B79" s="164" t="s">
         <v>286</v>
       </c>
@@ -10653,10 +10664,10 @@
         <v>287</v>
       </c>
     </row>
-    <row r="80" spans="2:3" s="112" customFormat="1" ht="12.75">
+    <row r="80" spans="2:3" s="112" customFormat="1" ht="12.5">
       <c r="B80" s="164"/>
     </row>
-    <row r="81" spans="2:3" s="112" customFormat="1" ht="12.75">
+    <row r="81" spans="2:3" s="112" customFormat="1" ht="12.5">
       <c r="B81" s="164" t="s">
         <v>288</v>
       </c>
@@ -10664,7 +10675,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="82" spans="2:3" s="112" customFormat="1" ht="12.75">
+    <row r="82" spans="2:3" s="112" customFormat="1" ht="12.5">
       <c r="B82" s="164" t="s">
         <v>289</v>
       </c>
@@ -10672,7 +10683,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="83" spans="2:3" s="112" customFormat="1" ht="12.75">
+    <row r="83" spans="2:3" s="112" customFormat="1" ht="12.5">
       <c r="B83" s="164" t="s">
         <v>290</v>
       </c>
@@ -10680,7 +10691,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="84" spans="2:3" s="112" customFormat="1" ht="12.75">
+    <row r="84" spans="2:3" s="112" customFormat="1" ht="12.5">
       <c r="B84" s="164" t="s">
         <v>291</v>
       </c>
@@ -10688,7 +10699,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="85" spans="2:3" s="112" customFormat="1" ht="12.75">
+    <row r="85" spans="2:3" s="112" customFormat="1" ht="12.5">
       <c r="B85" s="164" t="s">
         <v>292</v>
       </c>
@@ -10696,10 +10707,10 @@
         <v>287</v>
       </c>
     </row>
-    <row r="86" spans="2:3" s="112" customFormat="1" ht="12.75">
+    <row r="86" spans="2:3" s="112" customFormat="1" ht="12.5">
       <c r="B86" s="164"/>
     </row>
-    <row r="87" spans="2:3" s="112" customFormat="1" ht="12.75">
+    <row r="87" spans="2:3" s="112" customFormat="1" ht="12.5">
       <c r="B87" s="164" t="s">
         <v>295</v>
       </c>
@@ -10707,7 +10718,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="88" spans="2:3" s="112" customFormat="1" ht="12.75">
+    <row r="88" spans="2:3" s="112" customFormat="1" ht="12.5">
       <c r="B88" s="164" t="s">
         <v>297</v>
       </c>
@@ -10715,7 +10726,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="89" spans="2:3" s="112" customFormat="1" ht="12.75">
+    <row r="89" spans="2:3" s="112" customFormat="1" ht="12.5">
       <c r="B89" s="164" t="s">
         <v>298</v>
       </c>
@@ -10723,7 +10734,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="90" spans="2:3" s="112" customFormat="1" ht="12.75">
+    <row r="90" spans="2:3" s="112" customFormat="1" ht="12.5">
       <c r="B90" s="164" t="s">
         <v>301</v>
       </c>
@@ -10731,7 +10742,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="91" spans="2:3" s="112" customFormat="1" ht="12.75">
+    <row r="91" spans="2:3" s="112" customFormat="1" ht="12.5">
       <c r="B91" s="164" t="s">
         <v>303</v>
       </c>
@@ -10739,8 +10750,8 @@
         <v>287</v>
       </c>
     </row>
-    <row r="92" spans="2:3" s="112" customFormat="1" ht="12.75"/>
-    <row r="93" spans="2:3" s="112" customFormat="1" ht="12.75">
+    <row r="92" spans="2:3" s="112" customFormat="1" ht="12.5"/>
+    <row r="93" spans="2:3" s="112" customFormat="1" ht="12.5">
       <c r="B93" s="164" t="s">
         <v>200</v>
       </c>
@@ -10748,7 +10759,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="94" spans="2:3" s="112" customFormat="1" ht="12.75">
+    <row r="94" spans="2:3" s="112" customFormat="1" ht="12.5">
       <c r="B94" s="164" t="s">
         <v>201</v>
       </c>
@@ -10756,10 +10767,10 @@
         <v>304</v>
       </c>
     </row>
-    <row r="95" spans="2:3" s="112" customFormat="1" ht="12.75">
+    <row r="95" spans="2:3" s="112" customFormat="1" ht="12.5">
       <c r="B95" s="165"/>
     </row>
-    <row r="96" spans="2:3" ht="12.75">
+    <row r="96" spans="2:3" ht="12.5">
       <c r="B96" s="164" t="s">
         <v>222</v>
       </c>
@@ -10891,9 +10902,9 @@
       <selection activeCell="B3" sqref="B3:H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="10"/>
   <cols>
-    <col min="2" max="7" width="15.83203125" customWidth="1"/>
+    <col min="2" max="7" width="15.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -11624,19 +11635,19 @@
       <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="10"/>
   <cols>
-    <col min="1" max="1" width="6.5" customWidth="1"/>
-    <col min="2" max="2" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.44140625" customWidth="1"/>
+    <col min="2" max="2" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.77734375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="18" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="18" width="11.77734375" bestFit="1" customWidth="1"/>
     <col min="19" max="23" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -12622,9 +12633,9 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="10"/>
   <cols>
-    <col min="2" max="2" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
@@ -12912,16 +12923,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="10"/>
   <cols>
     <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.1640625" customWidth="1"/>
-    <col min="3" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" customWidth="1"/>
+    <col min="3" max="3" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -13240,10 +13251,10 @@
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="10"/>
   <cols>
     <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="8" width="15.83203125" customWidth="1"/>
+    <col min="3" max="8" width="15.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -13621,18 +13632,18 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="10"/>
   <cols>
-    <col min="1" max="1" width="15.1640625" style="17" customWidth="1"/>
-    <col min="2" max="2" width="13.1640625" customWidth="1"/>
+    <col min="1" max="1" width="15.109375" style="17" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
     <col min="4" max="4" width="16" style="18" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
     <col min="6" max="6" width="12.33203125" customWidth="1"/>
-    <col min="7" max="7" width="12.1640625" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" customWidth="1"/>
     <col min="8" max="8" width="11.6640625" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
-    <col min="10" max="11" width="12.5" customWidth="1"/>
+    <col min="10" max="11" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="13.5" thickBot="1">
@@ -13640,7 +13651,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="12" thickBot="1">
+    <row r="2" spans="1:11" ht="11" thickBot="1">
       <c r="A2" s="403" t="s">
         <v>84</v>
       </c>
@@ -13672,7 +13683,7 @@
       <c r="G3" s="77"/>
       <c r="H3" s="78"/>
     </row>
-    <row r="4" spans="1:11" ht="12" thickBot="1">
+    <row r="4" spans="1:11" ht="11" thickBot="1">
       <c r="A4" s="265">
         <v>0.01</v>
       </c>
@@ -13700,7 +13711,7 @@
       <c r="D6" s="59"/>
       <c r="E6" s="57"/>
     </row>
-    <row r="7" spans="1:11" s="19" customFormat="1" ht="32.450000000000003" customHeight="1" thickBot="1">
+    <row r="7" spans="1:11" s="19" customFormat="1" ht="32.5" customHeight="1" thickBot="1">
       <c r="A7" s="45" t="s">
         <v>1</v>
       </c>
@@ -13735,7 +13746,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="12" thickBot="1">
+    <row r="8" spans="1:11" ht="10.5" thickBot="1">
       <c r="A8" s="47">
         <v>1</v>
       </c>
@@ -13778,7 +13789,7 @@
         <v>1050330627972.325</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="12" thickBot="1">
+    <row r="9" spans="1:11" ht="10.5" thickBot="1">
       <c r="A9" s="48">
         <v>2</v>
       </c>
@@ -13821,7 +13832,7 @@
         <v>820344112793.62048</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="12" thickBot="1">
+    <row r="10" spans="1:11" ht="10.5" thickBot="1">
       <c r="A10" s="48">
         <v>3</v>
       </c>
@@ -13864,7 +13875,7 @@
         <v>630369721363.07703</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="12" thickBot="1">
+    <row r="11" spans="1:11" ht="10.5" thickBot="1">
       <c r="A11" s="48">
         <v>4</v>
       </c>
@@ -13907,7 +13918,7 @@
         <v>475473249816.18439</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="12" thickBot="1">
+    <row r="12" spans="1:11" ht="10.5" thickBot="1">
       <c r="A12" s="48">
         <v>5</v>
       </c>
@@ -13950,7 +13961,7 @@
         <v>351045305228.06683</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="12" thickBot="1">
+    <row r="13" spans="1:11" ht="10.5" thickBot="1">
       <c r="A13" s="48">
         <v>6</v>
       </c>
@@ -13993,7 +14004,7 @@
         <v>252801305613.48541</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="12" thickBot="1">
+    <row r="14" spans="1:11" ht="10.5" thickBot="1">
       <c r="A14" s="48">
         <v>7</v>
       </c>
@@ -14036,7 +14047,7 @@
         <v>176781479926.83633</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="12" thickBot="1">
+    <row r="15" spans="1:11" ht="10.5" thickBot="1">
       <c r="A15" s="48">
         <v>8</v>
       </c>
@@ -14079,7 +14090,7 @@
         <v>119350868062.15134</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="12" thickBot="1">
+    <row r="16" spans="1:11" ht="10.5" thickBot="1">
       <c r="A16" s="48">
         <v>9</v>
       </c>
@@ -14375,7 +14386,7 @@
       <c r="J31" s="29"/>
       <c r="K31" s="30"/>
     </row>
-    <row r="32" spans="1:11" ht="12" thickBot="1">
+    <row r="32" spans="1:11" ht="10.5" thickBot="1">
       <c r="A32" s="49">
         <v>25</v>
       </c>
@@ -14412,33 +14423,33 @@
       <selection activeCell="I56" sqref="I56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="10"/>
   <cols>
-    <col min="1" max="1" width="9.83203125" customWidth="1"/>
-    <col min="2" max="2" width="10.5" customWidth="1"/>
+    <col min="1" max="1" width="9.77734375" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" customWidth="1"/>
     <col min="3" max="3" width="11.33203125" customWidth="1"/>
     <col min="4" max="4" width="8" customWidth="1"/>
-    <col min="5" max="5" width="7.5" customWidth="1"/>
-    <col min="6" max="6" width="10.5" customWidth="1"/>
-    <col min="7" max="7" width="10.1640625" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" customWidth="1"/>
     <col min="8" max="8" width="10.33203125" customWidth="1"/>
-    <col min="9" max="9" width="10.1640625" customWidth="1"/>
+    <col min="9" max="9" width="10.109375" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
-    <col min="12" max="12" width="11.5" customWidth="1"/>
+    <col min="12" max="12" width="11.44140625" customWidth="1"/>
     <col min="13" max="13" width="12.33203125" customWidth="1"/>
     <col min="14" max="14" width="11.6640625" customWidth="1"/>
     <col min="15" max="15" width="7.33203125" customWidth="1"/>
-    <col min="16" max="16" width="10.5" customWidth="1"/>
-    <col min="17" max="17" width="15.5" customWidth="1"/>
+    <col min="16" max="16" width="10.44140625" customWidth="1"/>
+    <col min="17" max="17" width="15.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15.6" customHeight="1" thickBot="1">
+    <row r="1" spans="1:20" ht="15.65" customHeight="1" thickBot="1">
       <c r="A1" s="55" t="s">
         <v>64</v>
       </c>
       <c r="B1" s="57"/>
     </row>
-    <row r="2" spans="1:20" ht="23.25" thickBot="1">
+    <row r="2" spans="1:20" ht="20.5" thickBot="1">
       <c r="A2" s="96" t="s">
         <v>56</v>
       </c>
@@ -14452,7 +14463,7 @@
       <c r="E2" s="391"/>
       <c r="F2" s="392"/>
     </row>
-    <row r="3" spans="1:20" ht="23.25" thickBot="1">
+    <row r="3" spans="1:20" ht="20.5" thickBot="1">
       <c r="A3" s="98" t="s">
         <v>57</v>
       </c>
@@ -14475,7 +14486,7 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:20" ht="12" thickBot="1">
+    <row r="4" spans="1:20" ht="11" thickBot="1">
       <c r="A4" s="2"/>
       <c r="B4" s="3"/>
       <c r="D4" s="265">
@@ -14493,7 +14504,7 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" ht="10.5">
       <c r="A5" s="2"/>
       <c r="B5" s="3"/>
       <c r="F5" s="4"/>
@@ -14503,7 +14514,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:20" ht="12.75">
+    <row r="6" spans="1:20" ht="13">
       <c r="A6" s="55" t="s">
         <v>32</v>
       </c>
@@ -14517,7 +14528,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" ht="10.5">
       <c r="A7" s="52" t="s">
         <v>34</v>
       </c>
@@ -14529,7 +14540,7 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:20" s="5" customFormat="1">
+    <row r="8" spans="1:20" s="5" customFormat="1" ht="10.5">
       <c r="A8" s="13" t="s">
         <v>27</v>
       </c>
@@ -14550,7 +14561,7 @@
       <c r="P8" s="6"/>
       <c r="Q8" s="6"/>
     </row>
-    <row r="9" spans="1:20" s="19" customFormat="1" ht="33.75">
+    <row r="9" spans="1:20" s="19" customFormat="1" ht="30">
       <c r="A9" s="87" t="s">
         <v>0</v>
       </c>
@@ -16207,7 +16218,7 @@
       <c r="S31" s="9"/>
       <c r="T31" s="9"/>
     </row>
-    <row r="32" spans="1:20">
+    <row r="32" spans="1:20" ht="10.5">
       <c r="A32" s="7">
         <v>23</v>
       </c>
@@ -16626,27 +16637,27 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="10"/>
   <cols>
     <col min="3" max="3" width="10.6640625" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" customWidth="1"/>
     <col min="6" max="6" width="14.33203125" customWidth="1"/>
-    <col min="7" max="7" width="11.1640625" customWidth="1"/>
+    <col min="7" max="7" width="11.109375" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
     <col min="9" max="9" width="12.6640625" customWidth="1"/>
-    <col min="10" max="10" width="11.5" customWidth="1"/>
+    <col min="10" max="10" width="11.44140625" customWidth="1"/>
     <col min="11" max="11" width="11.6640625" customWidth="1"/>
-    <col min="12" max="12" width="10.83203125" customWidth="1"/>
+    <col min="12" max="12" width="10.77734375" customWidth="1"/>
     <col min="13" max="13" width="10.33203125" customWidth="1"/>
     <col min="14" max="14" width="12.33203125" customWidth="1"/>
-    <col min="15" max="16" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5" customWidth="1"/>
+    <col min="15" max="16" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.44140625" customWidth="1"/>
     <col min="19" max="19" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="27" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="22" max="27" width="9.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:21">
